--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,27 @@
     <t>['4', '90']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['62', '90+2']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['51', '77']</t>
+  </si>
+  <si>
+    <t>['18', '80']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -604,9 +625,6 @@
     <t>['12', '51']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['49']</t>
   </si>
   <si>
@@ -626,9 +644,6 @@
   </si>
   <si>
     <t>['39', '82']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['59']</t>
@@ -670,9 +685,6 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['90', '90+4']</t>
   </si>
   <si>
@@ -686,6 +698,27 @@
   </si>
   <si>
     <t>['23', '67']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+1']</t>
+  </si>
+  <si>
+    <t>['65', '90+3']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['45+1', '90']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['28', '55']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1482,7 +1515,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1569,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT3">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1673,7 +1706,7 @@
         <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1760,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1864,7 +1897,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1954,7 +1987,7 @@
         <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2142,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2246,7 +2279,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2336,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2437,7 +2470,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2524,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2718,7 +2751,7 @@
         <v>2.43</v>
       </c>
       <c r="AT9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2819,7 +2852,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2909,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3010,7 +3043,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3097,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3201,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3288,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT12">
         <v>1.14</v>
@@ -3392,7 +3425,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3479,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT13">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3670,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT14">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3861,10 +3894,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4052,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4243,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4434,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT18">
         <v>1.14</v>
@@ -4628,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>1.36</v>
@@ -4729,7 +4762,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5010,7 +5043,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5111,7 +5144,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5198,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT22">
         <v>0.57</v>
@@ -5302,7 +5335,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5389,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT23">
         <v>1.71</v>
@@ -5493,7 +5526,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5580,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU24">
         <v>1.64</v>
@@ -5771,10 +5804,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>1.92</v>
@@ -5962,10 +5995,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU26">
         <v>1.57</v>
@@ -6153,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6257,7 +6290,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6344,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>1.73</v>
@@ -6535,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT29">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU29">
         <v>1.62</v>
@@ -6729,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU30">
         <v>1.33</v>
@@ -6917,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT31">
         <v>1.14</v>
@@ -7108,10 +7141,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.04</v>
@@ -7299,10 +7332,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>1.36</v>
@@ -7490,10 +7523,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU34">
         <v>1.56</v>
@@ -7684,7 +7717,7 @@
         <v>1.57</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -7872,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT36">
         <v>1.71</v>
@@ -8063,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT37">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8167,7 +8200,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8254,10 +8287,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU38">
         <v>2.23</v>
@@ -8639,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8740,7 +8773,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8827,10 +8860,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT41">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU41">
         <v>1.21</v>
@@ -9313,7 +9346,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9400,10 +9433,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU44">
         <v>1.55</v>
@@ -9594,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -9782,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU46">
         <v>1.44</v>
@@ -9886,7 +9919,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -9973,10 +10006,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT47">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU47">
         <v>1.06</v>
@@ -10167,7 +10200,7 @@
         <v>2.43</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU48">
         <v>1.2</v>
@@ -10355,10 +10388,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT49">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU49">
         <v>1.62</v>
@@ -10546,10 +10579,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU50">
         <v>1.43</v>
@@ -10650,7 +10683,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10737,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>1.14</v>
@@ -10928,10 +10961,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU52">
         <v>1.32</v>
@@ -11032,7 +11065,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11119,10 +11152,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU53">
         <v>1.75</v>
@@ -11223,7 +11256,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11310,10 +11343,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11504,7 +11537,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.28</v>
@@ -11692,10 +11725,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.69</v>
@@ -11883,7 +11916,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT57">
         <v>1.67</v>
@@ -11987,7 +12020,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12074,10 +12107,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU58">
         <v>1.86</v>
@@ -12459,7 +12492,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU60">
         <v>1.16</v>
@@ -12560,7 +12593,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12647,10 +12680,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT61">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU61">
         <v>1.19</v>
@@ -12838,10 +12871,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU62">
         <v>1.59</v>
@@ -13032,7 +13065,7 @@
         <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU63">
         <v>1.5</v>
@@ -13133,7 +13166,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13220,10 +13253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13515,7 +13548,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13602,7 +13635,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
         <v>1.14</v>
@@ -13706,7 +13739,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13796,7 +13829,7 @@
         <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>2.14</v>
@@ -13897,7 +13930,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -13984,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT68">
         <v>0.57</v>
@@ -14178,7 +14211,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14366,10 +14399,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU70">
         <v>1.68</v>
@@ -14470,7 +14503,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14557,10 +14590,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>1.6</v>
@@ -14661,7 +14694,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14748,10 +14781,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT72">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU72">
         <v>1.8</v>
@@ -14942,7 +14975,7 @@
         <v>2.43</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15130,10 +15163,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU74">
         <v>1.21</v>
@@ -15234,7 +15267,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15321,10 +15354,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT75">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU75">
         <v>1.83</v>
@@ -15425,7 +15458,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15512,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT76">
         <v>1.14</v>
@@ -15703,10 +15736,10 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -15894,10 +15927,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU78">
         <v>1.33</v>
@@ -15998,7 +16031,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16088,7 +16121,7 @@
         <v>1.71</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU79">
         <v>2.1</v>
@@ -16189,7 +16222,7 @@
         <v>143</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16276,7 +16309,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT80">
         <v>1.71</v>
@@ -16470,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.3</v>
@@ -16661,7 +16694,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -16849,10 +16882,10 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT83">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU83">
         <v>1.79</v>
@@ -16953,7 +16986,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17040,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT84">
         <v>1.14</v>
@@ -17144,7 +17177,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17234,7 +17267,7 @@
         <v>1.57</v>
       </c>
       <c r="AT85">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17335,7 +17368,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17613,10 +17646,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -17717,7 +17750,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17804,10 +17837,10 @@
         <v>1.33</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU88">
         <v>1.3</v>
@@ -17995,10 +18028,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT89">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU89">
         <v>1.57</v>
@@ -18186,10 +18219,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18377,10 +18410,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU91">
         <v>1.77</v>
@@ -18571,7 +18604,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU92">
         <v>1.1</v>
@@ -18759,7 +18792,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>0.57</v>
@@ -18953,7 +18986,7 @@
         <v>2.43</v>
       </c>
       <c r="AT94">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU94">
         <v>1.52</v>
@@ -19054,7 +19087,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19141,10 +19174,10 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19245,7 +19278,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19332,10 +19365,10 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU96">
         <v>1.59</v>
@@ -19436,7 +19469,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19523,7 +19556,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT97">
         <v>1.14</v>
@@ -19714,10 +19747,10 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT98">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19905,10 +19938,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT99">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU99">
         <v>1.63</v>
@@ -20096,10 +20129,10 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT100">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU100">
         <v>1.75</v>
@@ -20200,7 +20233,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20287,7 +20320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT101">
         <v>1.14</v>
@@ -20481,7 +20514,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20672,7 +20705,7 @@
         <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -20863,7 +20896,7 @@
         <v>1</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU104">
         <v>1.23</v>
@@ -21242,10 +21275,10 @@
         <v>2.25</v>
       </c>
       <c r="AS106">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT106">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU106">
         <v>1.74</v>
@@ -21346,7 +21379,7 @@
         <v>87</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21433,7 +21466,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT107">
         <v>1.71</v>
@@ -21627,7 +21660,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU108">
         <v>1.41</v>
@@ -21728,7 +21761,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21815,10 +21848,10 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU109">
         <v>1.37</v>
@@ -21919,7 +21952,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22006,10 +22039,10 @@
         <v>0.75</v>
       </c>
       <c r="AS110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT110">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22197,10 +22230,10 @@
         <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU111">
         <v>1.3</v>
@@ -22388,10 +22421,10 @@
         <v>0.8</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22492,7 +22525,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22582,7 +22615,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU113">
         <v>1.77</v>
@@ -22683,7 +22716,7 @@
         <v>87</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -22770,7 +22803,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT114">
         <v>1.71</v>
@@ -23152,10 +23185,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU116">
         <v>1.54</v>
@@ -23256,7 +23289,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23343,10 +23376,10 @@
         <v>0.6</v>
       </c>
       <c r="AS117">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU117">
         <v>1.52</v>
@@ -23447,7 +23480,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23534,10 +23567,10 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT118">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -23728,7 +23761,7 @@
         <v>2.43</v>
       </c>
       <c r="AT119">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU119">
         <v>1.45</v>
@@ -23919,7 +23952,7 @@
         <v>1.71</v>
       </c>
       <c r="AT120">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU120">
         <v>2.01</v>
@@ -24107,7 +24140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT121">
         <v>0.57</v>
@@ -24298,10 +24331,10 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT122">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU122">
         <v>1.51</v>
@@ -24489,10 +24522,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU123">
         <v>1.39</v>
@@ -24680,10 +24713,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT124">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU124">
         <v>1.81</v>
@@ -24871,10 +24904,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU125">
         <v>1.62</v>
@@ -25062,10 +25095,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25166,7 +25199,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25253,10 +25286,10 @@
         <v>1.2</v>
       </c>
       <c r="AS127">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU127">
         <v>1.25</v>
@@ -25357,7 +25390,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25635,10 +25668,10 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT129">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU129">
         <v>1.23</v>
@@ -25697,7 +25730,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2604554</v>
+        <v>2604567</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25712,175 +25745,175 @@
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H130" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="P130" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="Q130">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
         <v>7</v>
       </c>
-      <c r="S130">
-        <v>11</v>
-      </c>
       <c r="T130">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
+        <v>4.6</v>
+      </c>
+      <c r="W130">
+        <v>1.5</v>
+      </c>
+      <c r="X130">
+        <v>2.5</v>
+      </c>
+      <c r="Y130">
+        <v>3.25</v>
+      </c>
+      <c r="Z130">
+        <v>1.33</v>
+      </c>
+      <c r="AA130">
+        <v>8</v>
+      </c>
+      <c r="AB130">
+        <v>1.06</v>
+      </c>
+      <c r="AC130">
+        <v>1.91</v>
+      </c>
+      <c r="AD130">
+        <v>3.2</v>
+      </c>
+      <c r="AE130">
         <v>3.75</v>
       </c>
-      <c r="W130">
-        <v>1.61</v>
-      </c>
-      <c r="X130">
-        <v>2.19</v>
-      </c>
-      <c r="Y130">
-        <v>3.7</v>
-      </c>
-      <c r="Z130">
-        <v>1.24</v>
-      </c>
-      <c r="AA130">
-        <v>10.5</v>
-      </c>
-      <c r="AB130">
-        <v>1.02</v>
-      </c>
-      <c r="AC130">
-        <v>2.15</v>
-      </c>
-      <c r="AD130">
-        <v>2.9</v>
-      </c>
-      <c r="AE130">
-        <v>3.3</v>
-      </c>
       <c r="AF130">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AG130">
-        <v>5.87</v>
+        <v>7</v>
       </c>
       <c r="AH130">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AI130">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AJ130">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AK130">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AL130">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AM130">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AN130">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AO130">
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AR130">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AS130">
-        <v>1.57</v>
+        <v>2.43</v>
       </c>
       <c r="AT130">
-        <v>0.33</v>
+        <v>1.71</v>
       </c>
       <c r="AU130">
-        <v>1.36</v>
+        <v>1.84</v>
       </c>
       <c r="AV130">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="AW130">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="AX130">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AY130">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="AZ130">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="BA130">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="BB130">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="BC130">
-        <v>2.39</v>
+        <v>2.12</v>
       </c>
       <c r="BD130">
-        <v>3.28</v>
+        <v>2.81</v>
       </c>
       <c r="BE130">
-        <v>5.4</v>
+        <v>3.92</v>
       </c>
       <c r="BF130">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH130">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="BI130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ130">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="BK130">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -25888,7 +25921,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2604567</v>
+        <v>2604554</v>
       </c>
       <c r="C131" t="s">
         <v>63</v>
@@ -25903,175 +25936,175 @@
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H131" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O131" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="P131" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
         <v>7</v>
       </c>
-      <c r="R131">
-        <v>0</v>
-      </c>
       <c r="S131">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="W131">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="Y131">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="Z131">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AA131">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AB131">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AC131">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AD131">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AE131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AF131">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AG131">
-        <v>7</v>
+        <v>5.87</v>
       </c>
       <c r="AH131">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AI131">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AJ131">
+        <v>2.35</v>
+      </c>
+      <c r="AK131">
+        <v>1.52</v>
+      </c>
+      <c r="AL131">
         <v>2.2</v>
       </c>
-      <c r="AK131">
-        <v>1.6</v>
-      </c>
-      <c r="AL131">
-        <v>2.05</v>
-      </c>
       <c r="AM131">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AN131">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AO131">
         <v>1.33</v>
       </c>
       <c r="AP131">
+        <v>1.5</v>
+      </c>
+      <c r="AQ131">
+        <v>1.4</v>
+      </c>
+      <c r="AR131">
+        <v>0.4</v>
+      </c>
+      <c r="AS131">
+        <v>1.57</v>
+      </c>
+      <c r="AT131">
+        <v>0.29</v>
+      </c>
+      <c r="AU131">
+        <v>1.36</v>
+      </c>
+      <c r="AV131">
+        <v>1.06</v>
+      </c>
+      <c r="AW131">
+        <v>2.42</v>
+      </c>
+      <c r="AX131">
+        <v>1.7</v>
+      </c>
+      <c r="AY131">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.74</v>
+      </c>
+      <c r="BA131">
+        <v>1.46</v>
+      </c>
+      <c r="BB131">
         <v>1.83</v>
       </c>
-      <c r="AQ131">
-        <v>2.6</v>
-      </c>
-      <c r="AR131">
-        <v>2</v>
-      </c>
-      <c r="AS131">
-        <v>2.33</v>
-      </c>
-      <c r="AT131">
-        <v>1.83</v>
-      </c>
-      <c r="AU131">
-        <v>1.84</v>
-      </c>
-      <c r="AV131">
-        <v>1.55</v>
-      </c>
-      <c r="AW131">
-        <v>3.39</v>
-      </c>
-      <c r="AX131">
-        <v>1.53</v>
-      </c>
-      <c r="AY131">
-        <v>8.1</v>
-      </c>
-      <c r="AZ131">
-        <v>3.3</v>
-      </c>
-      <c r="BA131">
-        <v>1.33</v>
-      </c>
-      <c r="BB131">
-        <v>1.63</v>
-      </c>
       <c r="BC131">
-        <v>2.12</v>
+        <v>2.39</v>
       </c>
       <c r="BD131">
-        <v>2.81</v>
+        <v>3.28</v>
       </c>
       <c r="BE131">
-        <v>3.92</v>
+        <v>5.4</v>
       </c>
       <c r="BF131">
+        <v>7</v>
+      </c>
+      <c r="BG131">
+        <v>3</v>
+      </c>
+      <c r="BH131">
+        <v>3</v>
+      </c>
+      <c r="BI131">
         <v>4</v>
       </c>
-      <c r="BG131">
-        <v>4</v>
-      </c>
-      <c r="BH131">
-        <v>22</v>
-      </c>
-      <c r="BI131">
-        <v>1</v>
-      </c>
       <c r="BJ131">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="BK131">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:63">
@@ -26208,7 +26241,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT132">
         <v>1.67</v>
@@ -26402,7 +26435,7 @@
         <v>1</v>
       </c>
       <c r="AT133">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU133">
         <v>1.23</v>
@@ -26503,7 +26536,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26593,7 +26626,7 @@
         <v>1.71</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU134">
         <v>1.92</v>
@@ -27034,7 +27067,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2604573</v>
+        <v>2604568</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
@@ -27049,46 +27082,46 @@
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H137" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O137" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="P137" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
         <v>7</v>
       </c>
-      <c r="R137">
-        <v>1</v>
-      </c>
-      <c r="S137">
-        <v>8</v>
-      </c>
       <c r="T137">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
         <v>1.91</v>
@@ -27103,10 +27136,10 @@
         <v>2.38</v>
       </c>
       <c r="Y137">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z137">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AA137">
         <v>9</v>
@@ -27115,13 +27148,13 @@
         <v>1.05</v>
       </c>
       <c r="AC137">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD137">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AE137">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AF137">
         <v>1.12</v>
@@ -27130,7 +27163,7 @@
         <v>5.5</v>
       </c>
       <c r="AH137">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AI137">
         <v>2.4</v>
@@ -27142,82 +27175,82 @@
         <v>1.5</v>
       </c>
       <c r="AL137">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM137">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AN137">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO137">
         <v>1.36</v>
       </c>
       <c r="AP137">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AQ137">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR137">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS137">
+        <v>2.25</v>
+      </c>
+      <c r="AT137">
+        <v>0.86</v>
+      </c>
+      <c r="AU137">
         <v>1.57</v>
       </c>
-      <c r="AT137">
-        <v>1.14</v>
-      </c>
-      <c r="AU137">
-        <v>1.37</v>
-      </c>
       <c r="AV137">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AW137">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AX137">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AY137">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ137">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="BA137">
-        <v>1.49</v>
+        <v>1.27</v>
       </c>
       <c r="BB137">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="BC137">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="BD137">
+        <v>2.53</v>
+      </c>
+      <c r="BE137">
         <v>3.42</v>
       </c>
-      <c r="BE137">
-        <v>5.3</v>
-      </c>
       <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
         <v>6</v>
       </c>
-      <c r="BG137">
-        <v>2</v>
-      </c>
-      <c r="BH137">
-        <v>7</v>
-      </c>
       <c r="BI137">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ137">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK137">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27225,7 +27258,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2604568</v>
+        <v>2604573</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
@@ -27240,46 +27273,46 @@
         <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="Q138">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U138">
         <v>1.91</v>
@@ -27294,10 +27327,10 @@
         <v>2.38</v>
       </c>
       <c r="Y138">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z138">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AA138">
         <v>9</v>
@@ -27306,13 +27339,13 @@
         <v>1.05</v>
       </c>
       <c r="AC138">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD138">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="AE138">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AF138">
         <v>1.12</v>
@@ -27321,7 +27354,7 @@
         <v>5.5</v>
       </c>
       <c r="AH138">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AI138">
         <v>2.4</v>
@@ -27333,82 +27366,82 @@
         <v>1.5</v>
       </c>
       <c r="AL138">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM138">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AN138">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO138">
         <v>1.36</v>
       </c>
       <c r="AP138">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS138">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU138">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AV138">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AW138">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AX138">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AY138">
+        <v>7.5</v>
+      </c>
+      <c r="AZ138">
+        <v>2.1</v>
+      </c>
+      <c r="BA138">
+        <v>1.49</v>
+      </c>
+      <c r="BB138">
+        <v>1.9</v>
+      </c>
+      <c r="BC138">
+        <v>2.5</v>
+      </c>
+      <c r="BD138">
+        <v>3.42</v>
+      </c>
+      <c r="BE138">
+        <v>5.3</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>2</v>
+      </c>
+      <c r="BH138">
+        <v>7</v>
+      </c>
+      <c r="BI138">
+        <v>6</v>
+      </c>
+      <c r="BJ138">
+        <v>13</v>
+      </c>
+      <c r="BK138">
         <v>8</v>
-      </c>
-      <c r="AZ138">
-        <v>2.63</v>
-      </c>
-      <c r="BA138">
-        <v>1.27</v>
-      </c>
-      <c r="BB138">
-        <v>1.53</v>
-      </c>
-      <c r="BC138">
-        <v>1.98</v>
-      </c>
-      <c r="BD138">
-        <v>2.53</v>
-      </c>
-      <c r="BE138">
-        <v>3.42</v>
-      </c>
-      <c r="BF138">
-        <v>5</v>
-      </c>
-      <c r="BG138">
-        <v>2</v>
-      </c>
-      <c r="BH138">
-        <v>6</v>
-      </c>
-      <c r="BI138">
-        <v>8</v>
-      </c>
-      <c r="BJ138">
-        <v>11</v>
-      </c>
-      <c r="BK138">
-        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:63">
@@ -27600,6 +27633,3253 @@
       </c>
       <c r="BK139">
         <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2604575</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44864.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>87</v>
+      </c>
+      <c r="P140" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q140">
+        <v>6</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>8</v>
+      </c>
+      <c r="T140">
+        <v>3.1</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.44</v>
+      </c>
+      <c r="X140">
+        <v>2.63</v>
+      </c>
+      <c r="Y140">
+        <v>3.25</v>
+      </c>
+      <c r="Z140">
+        <v>1.33</v>
+      </c>
+      <c r="AA140">
+        <v>10</v>
+      </c>
+      <c r="AB140">
+        <v>1.06</v>
+      </c>
+      <c r="AC140">
+        <v>2.3</v>
+      </c>
+      <c r="AD140">
+        <v>3.2</v>
+      </c>
+      <c r="AE140">
+        <v>3.15</v>
+      </c>
+      <c r="AF140">
+        <v>1.08</v>
+      </c>
+      <c r="AG140">
+        <v>7</v>
+      </c>
+      <c r="AH140">
+        <v>1.38</v>
+      </c>
+      <c r="AI140">
+        <v>2.9</v>
+      </c>
+      <c r="AJ140">
+        <v>2.1</v>
+      </c>
+      <c r="AK140">
+        <v>1.68</v>
+      </c>
+      <c r="AL140">
+        <v>1.91</v>
+      </c>
+      <c r="AM140">
+        <v>1.8</v>
+      </c>
+      <c r="AN140">
+        <v>1.34</v>
+      </c>
+      <c r="AO140">
+        <v>1.33</v>
+      </c>
+      <c r="AP140">
+        <v>1.6</v>
+      </c>
+      <c r="AQ140">
+        <v>1.17</v>
+      </c>
+      <c r="AR140">
+        <v>0.2</v>
+      </c>
+      <c r="AS140">
+        <v>1.14</v>
+      </c>
+      <c r="AT140">
+        <v>0.33</v>
+      </c>
+      <c r="AU140">
+        <v>1.22</v>
+      </c>
+      <c r="AV140">
+        <v>1.47</v>
+      </c>
+      <c r="AW140">
+        <v>2.69</v>
+      </c>
+      <c r="AX140">
+        <v>2.57</v>
+      </c>
+      <c r="AY140">
+        <v>7.7</v>
+      </c>
+      <c r="AZ140">
+        <v>1.78</v>
+      </c>
+      <c r="BA140">
+        <v>1.26</v>
+      </c>
+      <c r="BB140">
+        <v>1.5</v>
+      </c>
+      <c r="BC140">
+        <v>1.9</v>
+      </c>
+      <c r="BD140">
+        <v>2.45</v>
+      </c>
+      <c r="BE140">
+        <v>3.34</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>11</v>
+      </c>
+      <c r="BI140">
+        <v>10</v>
+      </c>
+      <c r="BJ140">
+        <v>14</v>
+      </c>
+      <c r="BK140">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2604578</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44864.51041666666</v>
+      </c>
+      <c r="F141">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" t="s">
+        <v>66</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>87</v>
+      </c>
+      <c r="P141" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>4</v>
+      </c>
+      <c r="U141">
+        <v>1.95</v>
+      </c>
+      <c r="V141">
+        <v>3.2</v>
+      </c>
+      <c r="W141">
+        <v>1.53</v>
+      </c>
+      <c r="X141">
+        <v>2.38</v>
+      </c>
+      <c r="Y141">
+        <v>3.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.29</v>
+      </c>
+      <c r="AA141">
+        <v>11</v>
+      </c>
+      <c r="AB141">
+        <v>1.05</v>
+      </c>
+      <c r="AC141">
+        <v>2.6</v>
+      </c>
+      <c r="AD141">
+        <v>2.9</v>
+      </c>
+      <c r="AE141">
+        <v>2.8</v>
+      </c>
+      <c r="AF141">
+        <v>1.08</v>
+      </c>
+      <c r="AG141">
+        <v>6.5</v>
+      </c>
+      <c r="AH141">
+        <v>1.44</v>
+      </c>
+      <c r="AI141">
+        <v>2.6</v>
+      </c>
+      <c r="AJ141">
+        <v>2.5</v>
+      </c>
+      <c r="AK141">
+        <v>1.5</v>
+      </c>
+      <c r="AL141">
+        <v>2</v>
+      </c>
+      <c r="AM141">
+        <v>1.73</v>
+      </c>
+      <c r="AN141">
+        <v>1.58</v>
+      </c>
+      <c r="AO141">
+        <v>1.35</v>
+      </c>
+      <c r="AP141">
+        <v>1.35</v>
+      </c>
+      <c r="AQ141">
+        <v>1</v>
+      </c>
+      <c r="AR141">
+        <v>0.83</v>
+      </c>
+      <c r="AS141">
+        <v>0.83</v>
+      </c>
+      <c r="AT141">
+        <v>1.14</v>
+      </c>
+      <c r="AU141">
+        <v>1.54</v>
+      </c>
+      <c r="AV141">
+        <v>1.4</v>
+      </c>
+      <c r="AW141">
+        <v>2.94</v>
+      </c>
+      <c r="AX141">
+        <v>2.28</v>
+      </c>
+      <c r="AY141">
+        <v>7.4</v>
+      </c>
+      <c r="AZ141">
+        <v>1.95</v>
+      </c>
+      <c r="BA141">
+        <v>1.39</v>
+      </c>
+      <c r="BB141">
+        <v>1.72</v>
+      </c>
+      <c r="BC141">
+        <v>2.22</v>
+      </c>
+      <c r="BD141">
+        <v>2.93</v>
+      </c>
+      <c r="BE141">
+        <v>5.4</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>3</v>
+      </c>
+      <c r="BH141">
+        <v>11</v>
+      </c>
+      <c r="BI141">
+        <v>9</v>
+      </c>
+      <c r="BJ141">
+        <v>17</v>
+      </c>
+      <c r="BK141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2604571</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44864.60416666666</v>
+      </c>
+      <c r="F142">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>81</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>87</v>
+      </c>
+      <c r="P142" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q142">
+        <v>8</v>
+      </c>
+      <c r="R142">
+        <v>5</v>
+      </c>
+      <c r="S142">
+        <v>13</v>
+      </c>
+      <c r="T142">
+        <v>3</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>3.6</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>2.6</v>
+      </c>
+      <c r="Y142">
+        <v>3.05</v>
+      </c>
+      <c r="Z142">
+        <v>1.34</v>
+      </c>
+      <c r="AA142">
+        <v>7.9</v>
+      </c>
+      <c r="AB142">
+        <v>1.05</v>
+      </c>
+      <c r="AC142">
+        <v>2.35</v>
+      </c>
+      <c r="AD142">
+        <v>3.2</v>
+      </c>
+      <c r="AE142">
+        <v>2.79</v>
+      </c>
+      <c r="AF142">
+        <v>1.07</v>
+      </c>
+      <c r="AG142">
+        <v>7.5</v>
+      </c>
+      <c r="AH142">
+        <v>1.36</v>
+      </c>
+      <c r="AI142">
+        <v>3</v>
+      </c>
+      <c r="AJ142">
+        <v>2.06</v>
+      </c>
+      <c r="AK142">
+        <v>1.68</v>
+      </c>
+      <c r="AL142">
+        <v>1.83</v>
+      </c>
+      <c r="AM142">
+        <v>1.9</v>
+      </c>
+      <c r="AN142">
+        <v>1.33</v>
+      </c>
+      <c r="AO142">
+        <v>1.28</v>
+      </c>
+      <c r="AP142">
+        <v>1.55</v>
+      </c>
+      <c r="AQ142">
+        <v>1.67</v>
+      </c>
+      <c r="AR142">
+        <v>0.67</v>
+      </c>
+      <c r="AS142">
+        <v>1.75</v>
+      </c>
+      <c r="AT142">
+        <v>0.71</v>
+      </c>
+      <c r="AU142">
+        <v>1.85</v>
+      </c>
+      <c r="AV142">
+        <v>1.55</v>
+      </c>
+      <c r="AW142">
+        <v>3.4</v>
+      </c>
+      <c r="AX142">
+        <v>1.8</v>
+      </c>
+      <c r="AY142">
+        <v>7.5</v>
+      </c>
+      <c r="AZ142">
+        <v>2.55</v>
+      </c>
+      <c r="BA142">
+        <v>1.38</v>
+      </c>
+      <c r="BB142">
+        <v>1.7</v>
+      </c>
+      <c r="BC142">
+        <v>2.19</v>
+      </c>
+      <c r="BD142">
+        <v>2.88</v>
+      </c>
+      <c r="BE142">
+        <v>4.5</v>
+      </c>
+      <c r="BF142">
+        <v>5</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>6</v>
+      </c>
+      <c r="BI142">
+        <v>15</v>
+      </c>
+      <c r="BJ142">
+        <v>11</v>
+      </c>
+      <c r="BK142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2604577</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44864.70833333334</v>
+      </c>
+      <c r="F143">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>76</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143" t="s">
+        <v>87</v>
+      </c>
+      <c r="P143" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>2.6</v>
+      </c>
+      <c r="U143">
+        <v>2.1</v>
+      </c>
+      <c r="V143">
+        <v>4.75</v>
+      </c>
+      <c r="W143">
+        <v>1.44</v>
+      </c>
+      <c r="X143">
+        <v>2.63</v>
+      </c>
+      <c r="Y143">
+        <v>3.25</v>
+      </c>
+      <c r="Z143">
+        <v>1.33</v>
+      </c>
+      <c r="AA143">
+        <v>9</v>
+      </c>
+      <c r="AB143">
+        <v>1.07</v>
+      </c>
+      <c r="AC143">
+        <v>1.77</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>4.2</v>
+      </c>
+      <c r="AF143">
+        <v>1.07</v>
+      </c>
+      <c r="AG143">
+        <v>7.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.36</v>
+      </c>
+      <c r="AI143">
+        <v>3</v>
+      </c>
+      <c r="AJ143">
+        <v>2.19</v>
+      </c>
+      <c r="AK143">
+        <v>1.6</v>
+      </c>
+      <c r="AL143">
+        <v>1.91</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.15</v>
+      </c>
+      <c r="AO143">
+        <v>1.25</v>
+      </c>
+      <c r="AP143">
+        <v>1.95</v>
+      </c>
+      <c r="AQ143">
+        <v>1.5</v>
+      </c>
+      <c r="AR143">
+        <v>0.67</v>
+      </c>
+      <c r="AS143">
+        <v>1.43</v>
+      </c>
+      <c r="AT143">
+        <v>0.71</v>
+      </c>
+      <c r="AU143">
+        <v>1.51</v>
+      </c>
+      <c r="AV143">
+        <v>1.2</v>
+      </c>
+      <c r="AW143">
+        <v>2.71</v>
+      </c>
+      <c r="AX143">
+        <v>1.73</v>
+      </c>
+      <c r="AY143">
+        <v>7.4</v>
+      </c>
+      <c r="AZ143">
+        <v>2.72</v>
+      </c>
+      <c r="BA143">
+        <v>1.53</v>
+      </c>
+      <c r="BB143">
+        <v>1.95</v>
+      </c>
+      <c r="BC143">
+        <v>2.62</v>
+      </c>
+      <c r="BD143">
+        <v>3.56</v>
+      </c>
+      <c r="BE143">
+        <v>5.1</v>
+      </c>
+      <c r="BF143">
+        <v>6</v>
+      </c>
+      <c r="BG143">
+        <v>5</v>
+      </c>
+      <c r="BH143">
+        <v>13</v>
+      </c>
+      <c r="BI143">
+        <v>9</v>
+      </c>
+      <c r="BJ143">
+        <v>19</v>
+      </c>
+      <c r="BK143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2604574</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44865.70833333334</v>
+      </c>
+      <c r="F144">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>65</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>175</v>
+      </c>
+      <c r="P144" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q144">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>6</v>
+      </c>
+      <c r="S144">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>2.1</v>
+      </c>
+      <c r="V144">
+        <v>4.33</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>2.63</v>
+      </c>
+      <c r="Y144">
+        <v>3.25</v>
+      </c>
+      <c r="Z144">
+        <v>1.33</v>
+      </c>
+      <c r="AA144">
+        <v>9</v>
+      </c>
+      <c r="AB144">
+        <v>1.07</v>
+      </c>
+      <c r="AC144">
+        <v>2.07</v>
+      </c>
+      <c r="AD144">
+        <v>3.25</v>
+      </c>
+      <c r="AE144">
+        <v>3.05</v>
+      </c>
+      <c r="AF144">
+        <v>1.08</v>
+      </c>
+      <c r="AG144">
+        <v>7</v>
+      </c>
+      <c r="AH144">
+        <v>1.34</v>
+      </c>
+      <c r="AI144">
+        <v>3.29</v>
+      </c>
+      <c r="AJ144">
+        <v>2.16</v>
+      </c>
+      <c r="AK144">
+        <v>1.66</v>
+      </c>
+      <c r="AL144">
+        <v>1.83</v>
+      </c>
+      <c r="AM144">
+        <v>1.83</v>
+      </c>
+      <c r="AN144">
+        <v>1.3</v>
+      </c>
+      <c r="AO144">
+        <v>1.31</v>
+      </c>
+      <c r="AP144">
+        <v>1.68</v>
+      </c>
+      <c r="AQ144">
+        <v>1.67</v>
+      </c>
+      <c r="AR144">
+        <v>1</v>
+      </c>
+      <c r="AS144">
+        <v>1.86</v>
+      </c>
+      <c r="AT144">
+        <v>0.86</v>
+      </c>
+      <c r="AU144">
+        <v>1.52</v>
+      </c>
+      <c r="AV144">
+        <v>1.33</v>
+      </c>
+      <c r="AW144">
+        <v>2.85</v>
+      </c>
+      <c r="AX144">
+        <v>1.38</v>
+      </c>
+      <c r="AY144">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ144">
+        <v>4.12</v>
+      </c>
+      <c r="BA144">
+        <v>1.31</v>
+      </c>
+      <c r="BB144">
+        <v>1.59</v>
+      </c>
+      <c r="BC144">
+        <v>2.04</v>
+      </c>
+      <c r="BD144">
+        <v>2.69</v>
+      </c>
+      <c r="BE144">
+        <v>3.64</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>6</v>
+      </c>
+      <c r="BI144">
+        <v>7</v>
+      </c>
+      <c r="BJ144">
+        <v>10</v>
+      </c>
+      <c r="BK144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2604587</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44866.51041666666</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>84</v>
+      </c>
+      <c r="H145" t="s">
+        <v>82</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>176</v>
+      </c>
+      <c r="P145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>3.02</v>
+      </c>
+      <c r="U145">
+        <v>2.03</v>
+      </c>
+      <c r="V145">
+        <v>3.7</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>2.62</v>
+      </c>
+      <c r="Y145">
+        <v>3</v>
+      </c>
+      <c r="Z145">
+        <v>1.36</v>
+      </c>
+      <c r="AA145">
+        <v>7.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.07</v>
+      </c>
+      <c r="AC145">
+        <v>2.4</v>
+      </c>
+      <c r="AD145">
+        <v>3</v>
+      </c>
+      <c r="AE145">
+        <v>3.1</v>
+      </c>
+      <c r="AF145">
+        <v>1.08</v>
+      </c>
+      <c r="AG145">
+        <v>7</v>
+      </c>
+      <c r="AH145">
+        <v>1.4</v>
+      </c>
+      <c r="AI145">
+        <v>2.75</v>
+      </c>
+      <c r="AJ145">
+        <v>2.15</v>
+      </c>
+      <c r="AK145">
+        <v>1.62</v>
+      </c>
+      <c r="AL145">
+        <v>1.91</v>
+      </c>
+      <c r="AM145">
+        <v>1.8</v>
+      </c>
+      <c r="AN145">
+        <v>1.37</v>
+      </c>
+      <c r="AO145">
+        <v>1.35</v>
+      </c>
+      <c r="AP145">
+        <v>1.57</v>
+      </c>
+      <c r="AQ145">
+        <v>0.83</v>
+      </c>
+      <c r="AR145">
+        <v>1</v>
+      </c>
+      <c r="AS145">
+        <v>1.14</v>
+      </c>
+      <c r="AT145">
+        <v>0.86</v>
+      </c>
+      <c r="AU145">
+        <v>1.51</v>
+      </c>
+      <c r="AV145">
+        <v>1.17</v>
+      </c>
+      <c r="AW145">
+        <v>2.68</v>
+      </c>
+      <c r="AX145">
+        <v>1.93</v>
+      </c>
+      <c r="AY145">
+        <v>6.75</v>
+      </c>
+      <c r="AZ145">
+        <v>2.38</v>
+      </c>
+      <c r="BA145">
+        <v>1.42</v>
+      </c>
+      <c r="BB145">
+        <v>1.76</v>
+      </c>
+      <c r="BC145">
+        <v>2.2</v>
+      </c>
+      <c r="BD145">
+        <v>3.04</v>
+      </c>
+      <c r="BE145">
+        <v>3.75</v>
+      </c>
+      <c r="BF145">
+        <v>2</v>
+      </c>
+      <c r="BG145">
+        <v>4</v>
+      </c>
+      <c r="BH145">
+        <v>9</v>
+      </c>
+      <c r="BI145">
+        <v>14</v>
+      </c>
+      <c r="BJ145">
+        <v>11</v>
+      </c>
+      <c r="BK145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2604585</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44866.51041666666</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+      <c r="H146" t="s">
+        <v>86</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>87</v>
+      </c>
+      <c r="P146" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>5</v>
+      </c>
+      <c r="T146">
+        <v>3.02</v>
+      </c>
+      <c r="U146">
+        <v>1.88</v>
+      </c>
+      <c r="V146">
+        <v>4.5</v>
+      </c>
+      <c r="W146">
+        <v>1.53</v>
+      </c>
+      <c r="X146">
+        <v>2.38</v>
+      </c>
+      <c r="Y146">
+        <v>3.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.29</v>
+      </c>
+      <c r="AA146">
+        <v>9</v>
+      </c>
+      <c r="AB146">
+        <v>1.05</v>
+      </c>
+      <c r="AC146">
+        <v>2.2</v>
+      </c>
+      <c r="AD146">
+        <v>2.8</v>
+      </c>
+      <c r="AE146">
+        <v>3.8</v>
+      </c>
+      <c r="AF146">
+        <v>1.14</v>
+      </c>
+      <c r="AG146">
+        <v>5</v>
+      </c>
+      <c r="AH146">
+        <v>1.55</v>
+      </c>
+      <c r="AI146">
+        <v>2.3</v>
+      </c>
+      <c r="AJ146">
+        <v>2.5</v>
+      </c>
+      <c r="AK146">
+        <v>1.5</v>
+      </c>
+      <c r="AL146">
+        <v>2.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.6</v>
+      </c>
+      <c r="AN146">
+        <v>1.27</v>
+      </c>
+      <c r="AO146">
+        <v>1.39</v>
+      </c>
+      <c r="AP146">
+        <v>1.66</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>0.86</v>
+      </c>
+      <c r="AS146">
+        <v>1.29</v>
+      </c>
+      <c r="AT146">
+        <v>1.13</v>
+      </c>
+      <c r="AU146">
+        <v>1.61</v>
+      </c>
+      <c r="AV146">
+        <v>1.27</v>
+      </c>
+      <c r="AW146">
+        <v>2.88</v>
+      </c>
+      <c r="AX146">
+        <v>1.7</v>
+      </c>
+      <c r="AY146">
+        <v>6.95</v>
+      </c>
+      <c r="AZ146">
+        <v>2.81</v>
+      </c>
+      <c r="BA146">
+        <v>1.42</v>
+      </c>
+      <c r="BB146">
+        <v>1.78</v>
+      </c>
+      <c r="BC146">
+        <v>2.22</v>
+      </c>
+      <c r="BD146">
+        <v>3.08</v>
+      </c>
+      <c r="BE146">
+        <v>4.2</v>
+      </c>
+      <c r="BF146">
+        <v>5</v>
+      </c>
+      <c r="BG146">
+        <v>4</v>
+      </c>
+      <c r="BH146">
+        <v>9</v>
+      </c>
+      <c r="BI146">
+        <v>3</v>
+      </c>
+      <c r="BJ146">
+        <v>14</v>
+      </c>
+      <c r="BK146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2604586</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44866.60416666666</v>
+      </c>
+      <c r="F147">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>69</v>
+      </c>
+      <c r="H147" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>87</v>
+      </c>
+      <c r="P147" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q147">
+        <v>11</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>14</v>
+      </c>
+      <c r="T147">
+        <v>2.82</v>
+      </c>
+      <c r="U147">
+        <v>1.88</v>
+      </c>
+      <c r="V147">
+        <v>4.84</v>
+      </c>
+      <c r="W147">
+        <v>1.53</v>
+      </c>
+      <c r="X147">
+        <v>2.38</v>
+      </c>
+      <c r="Y147">
+        <v>3.5</v>
+      </c>
+      <c r="Z147">
+        <v>1.29</v>
+      </c>
+      <c r="AA147">
+        <v>9</v>
+      </c>
+      <c r="AB147">
+        <v>1.05</v>
+      </c>
+      <c r="AC147">
+        <v>2.05</v>
+      </c>
+      <c r="AD147">
+        <v>2.88</v>
+      </c>
+      <c r="AE147">
+        <v>4.2</v>
+      </c>
+      <c r="AF147">
+        <v>1.14</v>
+      </c>
+      <c r="AG147">
+        <v>5</v>
+      </c>
+      <c r="AH147">
+        <v>1.55</v>
+      </c>
+      <c r="AI147">
+        <v>2.3</v>
+      </c>
+      <c r="AJ147">
+        <v>2.45</v>
+      </c>
+      <c r="AK147">
+        <v>1.52</v>
+      </c>
+      <c r="AL147">
+        <v>2.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.57</v>
+      </c>
+      <c r="AN147">
+        <v>1.24</v>
+      </c>
+      <c r="AO147">
+        <v>1.37</v>
+      </c>
+      <c r="AP147">
+        <v>1.75</v>
+      </c>
+      <c r="AQ147">
+        <v>2.33</v>
+      </c>
+      <c r="AR147">
+        <v>1.17</v>
+      </c>
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>1.43</v>
+      </c>
+      <c r="AU147">
+        <v>1.64</v>
+      </c>
+      <c r="AV147">
+        <v>1.07</v>
+      </c>
+      <c r="AW147">
+        <v>2.71</v>
+      </c>
+      <c r="AX147">
+        <v>1.36</v>
+      </c>
+      <c r="AY147">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ147">
+        <v>4.2</v>
+      </c>
+      <c r="BA147">
+        <v>1.38</v>
+      </c>
+      <c r="BB147">
+        <v>1.74</v>
+      </c>
+      <c r="BC147">
+        <v>2.15</v>
+      </c>
+      <c r="BD147">
+        <v>2.84</v>
+      </c>
+      <c r="BE147">
+        <v>3.75</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>14</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>20</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2604584</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44866.60416666666</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>70</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>177</v>
+      </c>
+      <c r="P148" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q148">
+        <v>7</v>
+      </c>
+      <c r="R148">
+        <v>8</v>
+      </c>
+      <c r="S148">
+        <v>15</v>
+      </c>
+      <c r="T148">
+        <v>3.7</v>
+      </c>
+      <c r="U148">
+        <v>1.86</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.57</v>
+      </c>
+      <c r="X148">
+        <v>2.3</v>
+      </c>
+      <c r="Y148">
+        <v>3.75</v>
+      </c>
+      <c r="Z148">
+        <v>1.25</v>
+      </c>
+      <c r="AA148">
+        <v>10</v>
+      </c>
+      <c r="AB148">
+        <v>1.04</v>
+      </c>
+      <c r="AC148">
+        <v>2.9</v>
+      </c>
+      <c r="AD148">
+        <v>2.75</v>
+      </c>
+      <c r="AE148">
+        <v>2.75</v>
+      </c>
+      <c r="AF148">
+        <v>1.14</v>
+      </c>
+      <c r="AG148">
+        <v>5</v>
+      </c>
+      <c r="AH148">
+        <v>1.55</v>
+      </c>
+      <c r="AI148">
+        <v>2.35</v>
+      </c>
+      <c r="AJ148">
+        <v>2.75</v>
+      </c>
+      <c r="AK148">
+        <v>1.42</v>
+      </c>
+      <c r="AL148">
+        <v>2.2</v>
+      </c>
+      <c r="AM148">
+        <v>1.62</v>
+      </c>
+      <c r="AN148">
+        <v>1.47</v>
+      </c>
+      <c r="AO148">
+        <v>1.41</v>
+      </c>
+      <c r="AP148">
+        <v>1.39</v>
+      </c>
+      <c r="AQ148">
+        <v>1</v>
+      </c>
+      <c r="AR148">
+        <v>1.83</v>
+      </c>
+      <c r="AS148">
+        <v>1</v>
+      </c>
+      <c r="AT148">
+        <v>1.71</v>
+      </c>
+      <c r="AU148">
+        <v>1.53</v>
+      </c>
+      <c r="AV148">
+        <v>1.33</v>
+      </c>
+      <c r="AW148">
+        <v>2.86</v>
+      </c>
+      <c r="AX148">
+        <v>1.77</v>
+      </c>
+      <c r="AY148">
+        <v>9</v>
+      </c>
+      <c r="AZ148">
+        <v>2.54</v>
+      </c>
+      <c r="BA148">
+        <v>1.37</v>
+      </c>
+      <c r="BB148">
+        <v>1.65</v>
+      </c>
+      <c r="BC148">
+        <v>2.13</v>
+      </c>
+      <c r="BD148">
+        <v>2.85</v>
+      </c>
+      <c r="BE148">
+        <v>4.5</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>3</v>
+      </c>
+      <c r="BH148">
+        <v>3</v>
+      </c>
+      <c r="BI148">
+        <v>7</v>
+      </c>
+      <c r="BJ148">
+        <v>10</v>
+      </c>
+      <c r="BK148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2604582</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F149">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>68</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>87</v>
+      </c>
+      <c r="P149" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q149">
+        <v>5</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>3.12</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>3.68</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>2.62</v>
+      </c>
+      <c r="Y149">
+        <v>3</v>
+      </c>
+      <c r="Z149">
+        <v>1.36</v>
+      </c>
+      <c r="AA149">
+        <v>7.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.07</v>
+      </c>
+      <c r="AC149">
+        <v>2.4</v>
+      </c>
+      <c r="AD149">
+        <v>3</v>
+      </c>
+      <c r="AE149">
+        <v>3.1</v>
+      </c>
+      <c r="AF149">
+        <v>1.08</v>
+      </c>
+      <c r="AG149">
+        <v>7</v>
+      </c>
+      <c r="AH149">
+        <v>1.53</v>
+      </c>
+      <c r="AI149">
+        <v>2.5</v>
+      </c>
+      <c r="AJ149">
+        <v>2.2</v>
+      </c>
+      <c r="AK149">
+        <v>1.6</v>
+      </c>
+      <c r="AL149">
+        <v>1.97</v>
+      </c>
+      <c r="AM149">
+        <v>1.8</v>
+      </c>
+      <c r="AN149">
+        <v>1.37</v>
+      </c>
+      <c r="AO149">
+        <v>1.35</v>
+      </c>
+      <c r="AP149">
+        <v>1.55</v>
+      </c>
+      <c r="AQ149">
+        <v>1.17</v>
+      </c>
+      <c r="AR149">
+        <v>0.5</v>
+      </c>
+      <c r="AS149">
+        <v>1</v>
+      </c>
+      <c r="AT149">
+        <v>0.86</v>
+      </c>
+      <c r="AU149">
+        <v>1.3</v>
+      </c>
+      <c r="AV149">
+        <v>1.42</v>
+      </c>
+      <c r="AW149">
+        <v>2.72</v>
+      </c>
+      <c r="AX149">
+        <v>1.62</v>
+      </c>
+      <c r="AY149">
+        <v>7.5</v>
+      </c>
+      <c r="AZ149">
+        <v>3.04</v>
+      </c>
+      <c r="BA149">
+        <v>1.57</v>
+      </c>
+      <c r="BB149">
+        <v>1.93</v>
+      </c>
+      <c r="BC149">
+        <v>2.43</v>
+      </c>
+      <c r="BD149">
+        <v>3.48</v>
+      </c>
+      <c r="BE149">
+        <v>5.1</v>
+      </c>
+      <c r="BF149">
+        <v>3</v>
+      </c>
+      <c r="BG149">
+        <v>7</v>
+      </c>
+      <c r="BH149">
+        <v>9</v>
+      </c>
+      <c r="BI149">
+        <v>6</v>
+      </c>
+      <c r="BJ149">
+        <v>12</v>
+      </c>
+      <c r="BK149">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2604588</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44867.625</v>
+      </c>
+      <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>73</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>178</v>
+      </c>
+      <c r="P150" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>8</v>
+      </c>
+      <c r="S150">
+        <v>14</v>
+      </c>
+      <c r="T150">
+        <v>3.75</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
+        <v>3.4</v>
+      </c>
+      <c r="W150">
+        <v>1.53</v>
+      </c>
+      <c r="X150">
+        <v>2.38</v>
+      </c>
+      <c r="Y150">
+        <v>3.75</v>
+      </c>
+      <c r="Z150">
+        <v>1.25</v>
+      </c>
+      <c r="AA150">
+        <v>11</v>
+      </c>
+      <c r="AB150">
+        <v>1.05</v>
+      </c>
+      <c r="AC150">
+        <v>2.85</v>
+      </c>
+      <c r="AD150">
+        <v>2.9</v>
+      </c>
+      <c r="AE150">
+        <v>2.35</v>
+      </c>
+      <c r="AF150">
+        <v>1.1</v>
+      </c>
+      <c r="AG150">
+        <v>6.5</v>
+      </c>
+      <c r="AH150">
+        <v>1.5</v>
+      </c>
+      <c r="AI150">
+        <v>2.6</v>
+      </c>
+      <c r="AJ150">
+        <v>2.35</v>
+      </c>
+      <c r="AK150">
+        <v>1.53</v>
+      </c>
+      <c r="AL150">
+        <v>2</v>
+      </c>
+      <c r="AM150">
+        <v>1.73</v>
+      </c>
+      <c r="AN150">
+        <v>1.52</v>
+      </c>
+      <c r="AO150">
+        <v>1.36</v>
+      </c>
+      <c r="AP150">
+        <v>1.41</v>
+      </c>
+      <c r="AQ150">
+        <v>2</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>2.14</v>
+      </c>
+      <c r="AT150">
+        <v>0.86</v>
+      </c>
+      <c r="AU150">
+        <v>1.66</v>
+      </c>
+      <c r="AV150">
+        <v>1.22</v>
+      </c>
+      <c r="AW150">
+        <v>2.88</v>
+      </c>
+      <c r="AX150">
+        <v>1.87</v>
+      </c>
+      <c r="AY150">
+        <v>7.4</v>
+      </c>
+      <c r="AZ150">
+        <v>2.4</v>
+      </c>
+      <c r="BA150">
+        <v>1.37</v>
+      </c>
+      <c r="BB150">
+        <v>1.68</v>
+      </c>
+      <c r="BC150">
+        <v>2.18</v>
+      </c>
+      <c r="BD150">
+        <v>2.95</v>
+      </c>
+      <c r="BE150">
+        <v>4.2</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>4</v>
+      </c>
+      <c r="BH150">
+        <v>6</v>
+      </c>
+      <c r="BI150">
+        <v>11</v>
+      </c>
+      <c r="BJ150">
+        <v>11</v>
+      </c>
+      <c r="BK150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2604580</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44867.625</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>66</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>179</v>
+      </c>
+      <c r="P151" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q151">
+        <v>12</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>15</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>6</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>2.63</v>
+      </c>
+      <c r="Y151">
+        <v>3.25</v>
+      </c>
+      <c r="Z151">
+        <v>1.33</v>
+      </c>
+      <c r="AA151">
+        <v>9</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>1.53</v>
+      </c>
+      <c r="AD151">
+        <v>3.6</v>
+      </c>
+      <c r="AE151">
+        <v>5.5</v>
+      </c>
+      <c r="AF151">
+        <v>1.07</v>
+      </c>
+      <c r="AG151">
+        <v>10.25</v>
+      </c>
+      <c r="AH151">
+        <v>1.32</v>
+      </c>
+      <c r="AI151">
+        <v>3.2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.75</v>
+      </c>
+      <c r="AL151">
+        <v>2.1</v>
+      </c>
+      <c r="AM151">
+        <v>1.67</v>
+      </c>
+      <c r="AN151">
+        <v>1.15</v>
+      </c>
+      <c r="AO151">
+        <v>1.25</v>
+      </c>
+      <c r="AP151">
+        <v>2.2</v>
+      </c>
+      <c r="AQ151">
+        <v>2.33</v>
+      </c>
+      <c r="AR151">
+        <v>0.83</v>
+      </c>
+      <c r="AS151">
+        <v>2.43</v>
+      </c>
+      <c r="AT151">
+        <v>0.71</v>
+      </c>
+      <c r="AU151">
+        <v>1.95</v>
+      </c>
+      <c r="AV151">
+        <v>1.44</v>
+      </c>
+      <c r="AW151">
+        <v>3.39</v>
+      </c>
+      <c r="AX151">
+        <v>1.23</v>
+      </c>
+      <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>5.15</v>
+      </c>
+      <c r="BA151">
+        <v>1.31</v>
+      </c>
+      <c r="BB151">
+        <v>1.61</v>
+      </c>
+      <c r="BC151">
+        <v>2.07</v>
+      </c>
+      <c r="BD151">
+        <v>2.73</v>
+      </c>
+      <c r="BE151">
+        <v>3.74</v>
+      </c>
+      <c r="BF151">
+        <v>8</v>
+      </c>
+      <c r="BG151">
+        <v>4</v>
+      </c>
+      <c r="BH151">
+        <v>12</v>
+      </c>
+      <c r="BI151">
+        <v>7</v>
+      </c>
+      <c r="BJ151">
+        <v>20</v>
+      </c>
+      <c r="BK151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2604583</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" t="s">
+        <v>83</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>114</v>
+      </c>
+      <c r="P152" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q152">
+        <v>5</v>
+      </c>
+      <c r="R152">
+        <v>3</v>
+      </c>
+      <c r="S152">
+        <v>8</v>
+      </c>
+      <c r="T152">
+        <v>3.4</v>
+      </c>
+      <c r="U152">
+        <v>1.95</v>
+      </c>
+      <c r="V152">
+        <v>3.2</v>
+      </c>
+      <c r="W152">
+        <v>1.5</v>
+      </c>
+      <c r="X152">
+        <v>2.5</v>
+      </c>
+      <c r="Y152">
+        <v>3.25</v>
+      </c>
+      <c r="Z152">
+        <v>1.33</v>
+      </c>
+      <c r="AA152">
+        <v>8</v>
+      </c>
+      <c r="AB152">
+        <v>1.06</v>
+      </c>
+      <c r="AC152">
+        <v>2.95</v>
+      </c>
+      <c r="AD152">
+        <v>3.05</v>
+      </c>
+      <c r="AE152">
+        <v>2.2</v>
+      </c>
+      <c r="AF152">
+        <v>1.1</v>
+      </c>
+      <c r="AG152">
+        <v>6.5</v>
+      </c>
+      <c r="AH152">
+        <v>1.44</v>
+      </c>
+      <c r="AI152">
+        <v>2.62</v>
+      </c>
+      <c r="AJ152">
+        <v>2.15</v>
+      </c>
+      <c r="AK152">
+        <v>1.62</v>
+      </c>
+      <c r="AL152">
+        <v>2</v>
+      </c>
+      <c r="AM152">
+        <v>1.73</v>
+      </c>
+      <c r="AN152">
+        <v>1.5</v>
+      </c>
+      <c r="AO152">
+        <v>1.37</v>
+      </c>
+      <c r="AP152">
+        <v>1.41</v>
+      </c>
+      <c r="AQ152">
+        <v>1</v>
+      </c>
+      <c r="AR152">
+        <v>0.33</v>
+      </c>
+      <c r="AS152">
+        <v>1.25</v>
+      </c>
+      <c r="AT152">
+        <v>0.29</v>
+      </c>
+      <c r="AU152">
+        <v>1.78</v>
+      </c>
+      <c r="AV152">
+        <v>1.04</v>
+      </c>
+      <c r="AW152">
+        <v>2.82</v>
+      </c>
+      <c r="AX152">
+        <v>1.76</v>
+      </c>
+      <c r="AY152">
+        <v>7.6</v>
+      </c>
+      <c r="AZ152">
+        <v>2.63</v>
+      </c>
+      <c r="BA152">
+        <v>1.32</v>
+      </c>
+      <c r="BB152">
+        <v>1.6</v>
+      </c>
+      <c r="BC152">
+        <v>2.07</v>
+      </c>
+      <c r="BD152">
+        <v>2.73</v>
+      </c>
+      <c r="BE152">
+        <v>3.74</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>2</v>
+      </c>
+      <c r="BH152">
+        <v>4</v>
+      </c>
+      <c r="BI152">
+        <v>10</v>
+      </c>
+      <c r="BJ152">
+        <v>7</v>
+      </c>
+      <c r="BK152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2604579</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44868.625</v>
+      </c>
+      <c r="F153">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>180</v>
+      </c>
+      <c r="P153" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q153">
+        <v>7</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>9</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2.05</v>
+      </c>
+      <c r="V153">
+        <v>4.2</v>
+      </c>
+      <c r="W153">
+        <v>1.44</v>
+      </c>
+      <c r="X153">
+        <v>2.62</v>
+      </c>
+      <c r="Y153">
+        <v>3</v>
+      </c>
+      <c r="Z153">
+        <v>1.36</v>
+      </c>
+      <c r="AA153">
+        <v>7.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.07</v>
+      </c>
+      <c r="AC153">
+        <v>1.67</v>
+      </c>
+      <c r="AD153">
+        <v>3.3</v>
+      </c>
+      <c r="AE153">
+        <v>4.6</v>
+      </c>
+      <c r="AF153">
+        <v>1.07</v>
+      </c>
+      <c r="AG153">
+        <v>7.5</v>
+      </c>
+      <c r="AH153">
+        <v>1.36</v>
+      </c>
+      <c r="AI153">
+        <v>3</v>
+      </c>
+      <c r="AJ153">
+        <v>2</v>
+      </c>
+      <c r="AK153">
+        <v>1.7</v>
+      </c>
+      <c r="AL153">
+        <v>1.91</v>
+      </c>
+      <c r="AM153">
+        <v>1.8</v>
+      </c>
+      <c r="AN153">
+        <v>1.2</v>
+      </c>
+      <c r="AO153">
+        <v>1.33</v>
+      </c>
+      <c r="AP153">
+        <v>1.8</v>
+      </c>
+      <c r="AQ153">
+        <v>1.57</v>
+      </c>
+      <c r="AR153">
+        <v>0.57</v>
+      </c>
+      <c r="AS153">
+        <v>1.75</v>
+      </c>
+      <c r="AT153">
+        <v>0.5</v>
+      </c>
+      <c r="AU153">
+        <v>1.76</v>
+      </c>
+      <c r="AV153">
+        <v>1.43</v>
+      </c>
+      <c r="AW153">
+        <v>3.19</v>
+      </c>
+      <c r="AX153">
+        <v>1.33</v>
+      </c>
+      <c r="AY153">
+        <v>8.9</v>
+      </c>
+      <c r="AZ153">
+        <v>4.62</v>
+      </c>
+      <c r="BA153">
+        <v>1.47</v>
+      </c>
+      <c r="BB153">
+        <v>1.86</v>
+      </c>
+      <c r="BC153">
+        <v>2.45</v>
+      </c>
+      <c r="BD153">
+        <v>3.34</v>
+      </c>
+      <c r="BE153">
+        <v>5.1</v>
+      </c>
+      <c r="BF153">
+        <v>8</v>
+      </c>
+      <c r="BG153">
+        <v>3</v>
+      </c>
+      <c r="BH153">
+        <v>14</v>
+      </c>
+      <c r="BI153">
+        <v>3</v>
+      </c>
+      <c r="BJ153">
+        <v>22</v>
+      </c>
+      <c r="BK153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2604589</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44868.625</v>
+      </c>
+      <c r="F154">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>79</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>181</v>
+      </c>
+      <c r="P154" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q154">
+        <v>6</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>8</v>
+      </c>
+      <c r="T154">
+        <v>2.7</v>
+      </c>
+      <c r="U154">
+        <v>2.05</v>
+      </c>
+      <c r="V154">
+        <v>3.75</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>2.75</v>
+      </c>
+      <c r="Y154">
+        <v>3</v>
+      </c>
+      <c r="Z154">
+        <v>1.36</v>
+      </c>
+      <c r="AA154">
+        <v>7.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.07</v>
+      </c>
+      <c r="AC154">
+        <v>2.05</v>
+      </c>
+      <c r="AD154">
+        <v>3.15</v>
+      </c>
+      <c r="AE154">
+        <v>3.1</v>
+      </c>
+      <c r="AF154">
+        <v>1.08</v>
+      </c>
+      <c r="AG154">
+        <v>7</v>
+      </c>
+      <c r="AH154">
+        <v>1.53</v>
+      </c>
+      <c r="AI154">
+        <v>2.5</v>
+      </c>
+      <c r="AJ154">
+        <v>2.2</v>
+      </c>
+      <c r="AK154">
+        <v>1.6</v>
+      </c>
+      <c r="AL154">
+        <v>1.85</v>
+      </c>
+      <c r="AM154">
+        <v>1.85</v>
+      </c>
+      <c r="AN154">
+        <v>1.3</v>
+      </c>
+      <c r="AO154">
+        <v>1.35</v>
+      </c>
+      <c r="AP154">
+        <v>1.65</v>
+      </c>
+      <c r="AQ154">
+        <v>2.17</v>
+      </c>
+      <c r="AR154">
+        <v>1.83</v>
+      </c>
+      <c r="AS154">
+        <v>2</v>
+      </c>
+      <c r="AT154">
+        <v>1.71</v>
+      </c>
+      <c r="AU154">
+        <v>1.48</v>
+      </c>
+      <c r="AV154">
+        <v>1.41</v>
+      </c>
+      <c r="AW154">
+        <v>2.89</v>
+      </c>
+      <c r="AX154">
+        <v>1.89</v>
+      </c>
+      <c r="AY154">
+        <v>7.6</v>
+      </c>
+      <c r="AZ154">
+        <v>2.38</v>
+      </c>
+      <c r="BA154">
+        <v>1.28</v>
+      </c>
+      <c r="BB154">
+        <v>1.55</v>
+      </c>
+      <c r="BC154">
+        <v>1.98</v>
+      </c>
+      <c r="BD154">
+        <v>2.59</v>
+      </c>
+      <c r="BE154">
+        <v>3.48</v>
+      </c>
+      <c r="BF154">
+        <v>8</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>12</v>
+      </c>
+      <c r="BI154">
+        <v>6</v>
+      </c>
+      <c r="BJ154">
+        <v>20</v>
+      </c>
+      <c r="BK154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2604581</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44868.70833333334</v>
+      </c>
+      <c r="F155">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>81</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>87</v>
+      </c>
+      <c r="P155" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q155">
+        <v>8</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>9</v>
+      </c>
+      <c r="T155">
+        <v>2.8</v>
+      </c>
+      <c r="U155">
+        <v>1.85</v>
+      </c>
+      <c r="V155">
+        <v>4.33</v>
+      </c>
+      <c r="W155">
+        <v>1.57</v>
+      </c>
+      <c r="X155">
+        <v>2.3</v>
+      </c>
+      <c r="Y155">
+        <v>3.75</v>
+      </c>
+      <c r="Z155">
+        <v>1.25</v>
+      </c>
+      <c r="AA155">
+        <v>10</v>
+      </c>
+      <c r="AB155">
+        <v>1.04</v>
+      </c>
+      <c r="AC155">
+        <v>2.15</v>
+      </c>
+      <c r="AD155">
+        <v>3</v>
+      </c>
+      <c r="AE155">
+        <v>3.1</v>
+      </c>
+      <c r="AF155">
+        <v>1.12</v>
+      </c>
+      <c r="AG155">
+        <v>5.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.52</v>
+      </c>
+      <c r="AI155">
+        <v>2.35</v>
+      </c>
+      <c r="AJ155">
+        <v>2.4</v>
+      </c>
+      <c r="AK155">
+        <v>1.5</v>
+      </c>
+      <c r="AL155">
+        <v>2.2</v>
+      </c>
+      <c r="AM155">
+        <v>1.62</v>
+      </c>
+      <c r="AN155">
+        <v>1.25</v>
+      </c>
+      <c r="AO155">
+        <v>1.4</v>
+      </c>
+      <c r="AP155">
+        <v>1.65</v>
+      </c>
+      <c r="AQ155">
+        <v>2.67</v>
+      </c>
+      <c r="AR155">
+        <v>1.5</v>
+      </c>
+      <c r="AS155">
+        <v>2.43</v>
+      </c>
+      <c r="AT155">
+        <v>1.43</v>
+      </c>
+      <c r="AU155">
+        <v>1.43</v>
+      </c>
+      <c r="AV155">
+        <v>1.37</v>
+      </c>
+      <c r="AW155">
+        <v>2.8</v>
+      </c>
+      <c r="AX155">
+        <v>1.89</v>
+      </c>
+      <c r="AY155">
+        <v>7.6</v>
+      </c>
+      <c r="AZ155">
+        <v>2.38</v>
+      </c>
+      <c r="BA155">
+        <v>1.33</v>
+      </c>
+      <c r="BB155">
+        <v>1.64</v>
+      </c>
+      <c r="BC155">
+        <v>2.13</v>
+      </c>
+      <c r="BD155">
+        <v>2.81</v>
+      </c>
+      <c r="BE155">
+        <v>3.94</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>2</v>
+      </c>
+      <c r="BH155">
+        <v>13</v>
+      </c>
+      <c r="BI155">
+        <v>3</v>
+      </c>
+      <c r="BJ155">
+        <v>18</v>
+      </c>
+      <c r="BK155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2604590</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44869.70833333334</v>
+      </c>
+      <c r="F156">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>80</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>91</v>
+      </c>
+      <c r="P156" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q156">
+        <v>6</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>12</v>
+      </c>
+      <c r="T156">
+        <v>2.6</v>
+      </c>
+      <c r="U156">
+        <v>1.87</v>
+      </c>
+      <c r="V156">
+        <v>5</v>
+      </c>
+      <c r="W156">
+        <v>1.57</v>
+      </c>
+      <c r="X156">
+        <v>2.25</v>
+      </c>
+      <c r="Y156">
+        <v>3.5</v>
+      </c>
+      <c r="Z156">
+        <v>1.26</v>
+      </c>
+      <c r="AA156">
+        <v>10</v>
+      </c>
+      <c r="AB156">
+        <v>1.05</v>
+      </c>
+      <c r="AC156">
+        <v>1.91</v>
+      </c>
+      <c r="AD156">
+        <v>2.85</v>
+      </c>
+      <c r="AE156">
+        <v>4</v>
+      </c>
+      <c r="AF156">
+        <v>1.12</v>
+      </c>
+      <c r="AG156">
+        <v>5.75</v>
+      </c>
+      <c r="AH156">
+        <v>1.53</v>
+      </c>
+      <c r="AI156">
+        <v>2.55</v>
+      </c>
+      <c r="AJ156">
+        <v>2.4</v>
+      </c>
+      <c r="AK156">
+        <v>1.5</v>
+      </c>
+      <c r="AL156">
+        <v>2.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.57</v>
+      </c>
+      <c r="AN156">
+        <v>1.19</v>
+      </c>
+      <c r="AO156">
+        <v>1.37</v>
+      </c>
+      <c r="AP156">
+        <v>1.8</v>
+      </c>
+      <c r="AQ156">
+        <v>2.14</v>
+      </c>
+      <c r="AR156">
+        <v>1</v>
+      </c>
+      <c r="AS156">
+        <v>2.25</v>
+      </c>
+      <c r="AT156">
+        <v>0.88</v>
+      </c>
+      <c r="AU156">
+        <v>1.54</v>
+      </c>
+      <c r="AV156">
+        <v>1.12</v>
+      </c>
+      <c r="AW156">
+        <v>2.66</v>
+      </c>
+      <c r="AX156">
+        <v>1.82</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>2.39</v>
+      </c>
+      <c r="BA156">
+        <v>1.31</v>
+      </c>
+      <c r="BB156">
+        <v>1.59</v>
+      </c>
+      <c r="BC156">
+        <v>2.04</v>
+      </c>
+      <c r="BD156">
+        <v>2.69</v>
+      </c>
+      <c r="BE156">
+        <v>3.64</v>
+      </c>
+      <c r="BF156">
+        <v>5</v>
+      </c>
+      <c r="BG156">
+        <v>5</v>
+      </c>
+      <c r="BH156">
+        <v>6</v>
+      </c>
+      <c r="BI156">
+        <v>8</v>
+      </c>
+      <c r="BJ156">
+        <v>11</v>
+      </c>
+      <c r="BK156">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5600000000000001</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>0.89</v>
@@ -1512,7 +1512,7 @@
         <v>1.89</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5600000000000001</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT16" t="n">
         <v>1.56</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT18" t="n">
         <v>1.22</v>
@@ -4354,7 +4354,7 @@
         <v>1.44</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU19" t="n">
         <v>1.36</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.13</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.63</v>
@@ -5978,7 +5978,7 @@
         <v>1.11</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.73</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5600000000000001</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.89</v>
@@ -6993,7 +6993,7 @@
         <v>0.89</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5600000000000001</v>
@@ -7805,7 +7805,7 @@
         <v>2.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT37" t="n">
         <v>0.38</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1.22</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5600000000000001</v>
@@ -8820,7 +8820,7 @@
         <v>1.13</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10038,7 +10038,7 @@
         <v>1.11</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU47" t="n">
         <v>1.06</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10444,7 +10444,7 @@
         <v>1.89</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.62</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>0.5600000000000001</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>1.22</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.28</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5600000000000001</v>
@@ -12065,10 +12065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -12474,7 +12474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT61" t="n">
         <v>0.38</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
         <v>0.89</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT70" t="n">
         <v>0.89</v>
@@ -15519,7 +15519,7 @@
         <v>1.11</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU74" t="n">
         <v>1.21</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT75" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>1.89</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16531,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>0.89</v>
@@ -16734,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -16937,10 +16937,10 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.56</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT83" t="n">
         <v>1.63</v>
@@ -17752,7 +17752,7 @@
         <v>1.89</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -17955,7 +17955,7 @@
         <v>1.44</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>0.89</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT90" t="n">
         <v>0.5600000000000001</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU94" t="n">
         <v>1.52</v>
@@ -19782,7 +19782,7 @@
         <v>1.89</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -19982,10 +19982,10 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT97" t="n">
         <v>1.22</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT100" t="n">
         <v>0.38</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT101" t="n">
         <v>0.89</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT102" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.89</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -21609,7 +21609,7 @@
         <v>2.33</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.74</v>
@@ -21809,10 +21809,10 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU105" t="n">
         <v>2.09</v>
@@ -22015,7 +22015,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT107" t="n">
         <v>0.89</v>
@@ -22421,7 +22421,7 @@
         <v>1.11</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -23230,10 +23230,10 @@
         <v>1.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU112" t="n">
         <v>1.77</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5600000000000001</v>
@@ -23639,7 +23639,7 @@
         <v>1.13</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -24045,7 +24045,7 @@
         <v>1.44</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24245,10 +24245,10 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -24654,7 +24654,7 @@
         <v>1.13</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -24857,7 +24857,7 @@
         <v>1.89</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25057,7 +25057,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5600000000000001</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT123" t="n">
         <v>0.89</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT124" t="n">
         <v>1.33</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT128" t="n">
         <v>0.89</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.84</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU132" t="n">
         <v>1.43</v>
@@ -27496,7 +27496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.23</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT134" t="n">
         <v>0.89</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
         <v>0.89</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28308,7 +28308,7 @@
         <v>2.33</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT144" t="n">
         <v>0.89</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT145" t="n">
         <v>1.33</v>
@@ -30135,7 +30135,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -30538,10 +30538,10 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU148" t="n">
         <v>1.53</v>
@@ -30744,7 +30744,7 @@
         <v>0.89</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -30944,10 +30944,10 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31147,10 +31147,10 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT152" t="n">
         <v>0.5600000000000001</v>
@@ -31556,7 +31556,7 @@
         <v>1.89</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.76</v>
@@ -31756,10 +31756,10 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.48</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT155" t="n">
         <v>1.56</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
         <v>1.22</v>
@@ -34195,7 +34195,7 @@
         <v>1.11</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU166" t="n">
         <v>1.25</v>
@@ -34395,10 +34395,10 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -34601,7 +34601,7 @@
         <v>1.13</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,10 +34801,10 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35207,10 +35207,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -35410,10 +35410,10 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35613,10 +35613,10 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -35816,10 +35816,10 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU174" t="n">
         <v>2.01</v>
@@ -36019,7 +36019,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT175" t="n">
         <v>1.63</v>
@@ -36222,10 +36222,10 @@
         <v>1.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -36425,10 +36425,10 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -38713,6 +38713,2036 @@
       </c>
       <c r="BK188" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2604632</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44895.70833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>15</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>19</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V189" t="n">
+        <v>5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2604626</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44897.72916666666</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['23', '31', '51']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>4</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>6</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2604628</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44898.51041666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['68', '90+1']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>9</v>
+      </c>
+      <c r="R191" t="n">
+        <v>7</v>
+      </c>
+      <c r="S191" t="n">
+        <v>16</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V191" t="n">
+        <v>5</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2604633</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44898.60416666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>18</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>4</v>
+      </c>
+      <c r="L192" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>6</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['34', '37', '41', '62']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['5', '86']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>7</v>
+      </c>
+      <c r="R192" t="n">
+        <v>5</v>
+      </c>
+      <c r="S192" t="n">
+        <v>12</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2604630</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44898.60416666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>18</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2604629</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44898.70833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>9</v>
+      </c>
+      <c r="S194" t="n">
+        <v>12</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2604623</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44899.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>18</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>6</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2604631</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44899.51041666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>18</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>11</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>13</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2604624</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44899.60416666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>18</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>9</v>
+      </c>
+      <c r="R197" t="n">
+        <v>5</v>
+      </c>
+      <c r="S197" t="n">
+        <v>14</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2604625</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44899.70833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>6</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
+        <v>10</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V198" t="n">
+        <v>6</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT5" t="n">
         <v>1.44</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -3339,7 +3339,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>0.89</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>0.44</v>
@@ -5166,7 +5166,7 @@
         <v>1.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>1.89</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU25" t="n">
         <v>1.92</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.57</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>2.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8008,7 +8008,7 @@
         <v>2.11</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>0.89</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.56</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
         <v>0.44</v>
@@ -12880,7 +12880,7 @@
         <v>2.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.19</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>0.78</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
         <v>0.89</v>
@@ -14707,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU70" t="n">
         <v>1.68</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5600000000000001</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
         <v>1.33</v>
@@ -16940,7 +16940,7 @@
         <v>1.6</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17346,7 +17346,7 @@
         <v>2.11</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT85" t="n">
         <v>1.33</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
         <v>1.56</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5600000000000001</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT98" t="n">
         <v>0.5600000000000001</v>
@@ -20797,7 +20797,7 @@
         <v>2.33</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU100" t="n">
         <v>1.75</v>
@@ -21203,7 +21203,7 @@
         <v>1.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT106" t="n">
         <v>0.67</v>
@@ -22218,7 +22218,7 @@
         <v>0.78</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22421,7 +22421,7 @@
         <v>1.11</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -23636,10 +23636,10 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>1.11</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -25466,7 +25466,7 @@
         <v>2.56</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.39</v>
@@ -26684,7 +26684,7 @@
         <v>1.11</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT130" t="n">
         <v>0.5600000000000001</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT133" t="n">
         <v>0.5</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28508,7 +28508,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT138" t="n">
         <v>1.22</v>
@@ -28917,7 +28917,7 @@
         <v>1.11</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU140" t="n">
         <v>1.22</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT143" t="n">
         <v>0.5600000000000001</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT146" t="n">
         <v>0.67</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -32165,7 +32165,7 @@
         <v>2.33</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU156" t="n">
         <v>1.54</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT160" t="n">
         <v>0.89</v>
@@ -33180,7 +33180,7 @@
         <v>0.89</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU161" t="n">
         <v>1.29</v>
@@ -33380,7 +33380,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT162" t="n">
         <v>0.5600000000000001</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT165" t="n">
         <v>1.56</v>
@@ -34598,7 +34598,7 @@
         <v>0.86</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
         <v>1.11</v>
@@ -36022,7 +36022,7 @@
         <v>0.78</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36225,7 +36225,7 @@
         <v>1.89</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -37237,7 +37237,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT181" t="n">
         <v>1.22</v>
@@ -37440,10 +37440,10 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU182" t="n">
         <v>1.15</v>
@@ -37849,7 +37849,7 @@
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5600000000000001</v>
@@ -39676,7 +39676,7 @@
         <v>1.67</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40743,6 +40743,818 @@
       </c>
       <c r="BK198" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2604627</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44900.70833333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>18</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>3</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['31', '69']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="n">
+        <v>6</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2604637</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44901.625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>19</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['7', '90']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['37', '56']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>2</v>
+      </c>
+      <c r="S200" t="n">
+        <v>4</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2604644</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44901.625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>19</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>4</v>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2604640</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44901.70833333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>19</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>7</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4</v>
+      </c>
+      <c r="S202" t="n">
+        <v>11</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.78</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT12" t="n">
         <v>0.89</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT20" t="n">
         <v>1.56</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT21" t="n">
         <v>0.89</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>0.9</v>
@@ -6993,7 +6993,7 @@
         <v>0.89</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7196,7 +7196,7 @@
         <v>2.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.56</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT39" t="n">
         <v>1.22</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.44</v>
@@ -10038,7 +10038,7 @@
         <v>1.11</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU47" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT49" t="n">
         <v>1.33</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.75</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT69" t="n">
         <v>0.89</v>
@@ -14910,7 +14910,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15925,7 +15925,7 @@
         <v>1.4</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.83</v>
@@ -16125,10 +16125,10 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16531,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT79" t="n">
         <v>0.89</v>
@@ -18767,7 +18767,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.89</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.52</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT95" t="n">
         <v>0.89</v>
@@ -20594,7 +20594,7 @@
         <v>1.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.63</v>
@@ -21809,7 +21809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT105" t="n">
         <v>1.56</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU112" t="n">
         <v>1.77</v>
@@ -23436,7 +23436,7 @@
         <v>1.44</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT115" t="n">
         <v>1.22</v>
@@ -24854,7 +24854,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT120" t="n">
         <v>0.44</v>
@@ -25057,7 +25057,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5600000000000001</v>
@@ -25669,7 +25669,7 @@
         <v>2.11</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.81</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT134" t="n">
         <v>0.9</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT136" t="n">
         <v>1.7</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5600000000000001</v>
@@ -29526,7 +29526,7 @@
         <v>1.4</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -29932,7 +29932,7 @@
         <v>1.44</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.61</v>
@@ -30541,7 +30541,7 @@
         <v>0.78</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU148" t="n">
         <v>1.53</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT153" t="n">
         <v>0.5</v>
@@ -32771,10 +32771,10 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -35004,7 +35004,7 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT170" t="n">
         <v>0.67</v>
@@ -35819,7 +35819,7 @@
         <v>2.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU174" t="n">
         <v>2.01</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT178" t="n">
         <v>0.89</v>
@@ -37037,7 +37037,7 @@
         <v>2.33</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -38661,7 +38661,7 @@
         <v>0.89</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT189" t="n">
         <v>1.11</v>
@@ -39067,7 +39067,7 @@
         <v>2.56</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU190" t="n">
         <v>1.67</v>
@@ -41133,22 +41133,22 @@
         <v>3.74</v>
       </c>
       <c r="BF200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
         <v>5</v>
       </c>
-      <c r="BH200" t="n">
-        <v>11</v>
-      </c>
       <c r="BI200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK200" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ200" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK200" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -41336,7 +41336,7 @@
         <v>3.74</v>
       </c>
       <c r="BF201" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG201" t="n">
         <v>3</v>
@@ -41345,13 +41345,13 @@
         <v>5</v>
       </c>
       <c r="BI201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ201" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -41539,22 +41539,631 @@
         <v>3.94</v>
       </c>
       <c r="BF202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG202" t="n">
         <v>5</v>
       </c>
       <c r="BH202" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI202" t="n">
         <v>6</v>
       </c>
       <c r="BJ202" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK202" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2604642</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44902.625</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>5</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2604635</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44902.625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>5</v>
+      </c>
+      <c r="R204" t="n">
+        <v>3</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2604641</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44902.70833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>19</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['38', '51']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>10</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2933,7 +2933,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.56</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT23" t="n">
         <v>1.7</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>0.89</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5600000000000001</v>
@@ -6790,7 +6790,7 @@
         <v>2.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT32" t="n">
         <v>1.3</v>
@@ -7602,7 +7602,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8414,7 +8414,7 @@
         <v>1.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT41" t="n">
         <v>1.33</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT42" t="n">
         <v>1.56</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
         <v>1.3</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT48" t="n">
         <v>1.11</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5600000000000001</v>
@@ -11865,7 +11865,7 @@
         <v>2.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -12677,7 +12677,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -13083,7 +13083,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -13895,7 +13895,7 @@
         <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.11</v>
@@ -15722,7 +15722,7 @@
         <v>2.33</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16534,7 +16534,7 @@
         <v>1.8</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -17549,7 +17549,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.89</v>
@@ -18564,7 +18564,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT94" t="n">
         <v>1.3</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT99" t="n">
         <v>1.2</v>
@@ -21000,7 +21000,7 @@
         <v>2.11</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>1.7</v>
@@ -22621,10 +22621,10 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -23030,7 +23030,7 @@
         <v>2.56</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23842,7 +23842,7 @@
         <v>2.1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24245,7 +24245,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT117" t="n">
         <v>0.89</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT118" t="n">
         <v>0.44</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT119" t="n">
         <v>0.89</v>
@@ -25060,7 +25060,7 @@
         <v>1.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25263,7 +25263,7 @@
         <v>1.67</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -25872,7 +25872,7 @@
         <v>2.33</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26275,7 +26275,7 @@
         <v>1.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT127" t="n">
         <v>1.56</v>
@@ -26481,7 +26481,7 @@
         <v>0.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>1.78</v>
@@ -27902,7 +27902,7 @@
         <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28511,7 +28511,7 @@
         <v>1.8</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28711,7 +28711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT139" t="n">
         <v>0.44</v>
@@ -28914,7 +28914,7 @@
         <v>0.2</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
         <v>0.44</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29323,7 +29323,7 @@
         <v>1.7</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -30741,7 +30741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT149" t="n">
         <v>0.89</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT157" t="n">
         <v>0.5600000000000001</v>
@@ -32571,7 +32571,7 @@
         <v>1.67</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32977,7 +32977,7 @@
         <v>1.8</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33177,7 +33177,7 @@
         <v>0.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT161" t="n">
         <v>0.44</v>
@@ -33383,7 +33383,7 @@
         <v>1.4</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33583,10 +33583,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33789,7 +33789,7 @@
         <v>2</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>1.56</v>
@@ -36222,7 +36222,7 @@
         <v>1.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT176" t="n">
         <v>1.7</v>
@@ -36631,7 +36631,7 @@
         <v>2.1</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -36831,10 +36831,10 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37240,7 +37240,7 @@
         <v>1.4</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT184" t="n">
         <v>0.9</v>
@@ -38052,7 +38052,7 @@
         <v>1.8</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT186" t="n">
         <v>1.56</v>
@@ -38458,7 +38458,7 @@
         <v>1.7</v>
       </c>
       <c r="AT187" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38658,7 +38658,7 @@
         <v>1.13</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT188" t="n">
         <v>1.2</v>
@@ -40688,7 +40688,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT198" t="n">
         <v>0.5</v>
@@ -42164,6 +42164,1021 @@
       </c>
       <c r="BK205" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2604634</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44903.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>19</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['73', '87']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>2</v>
+      </c>
+      <c r="R206" t="n">
+        <v>7</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2604639</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44903.51041666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>19</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2</v>
+      </c>
+      <c r="S207" t="n">
+        <v>9</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2604636</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44903.60416666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>19</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>6</v>
+      </c>
+      <c r="S208" t="n">
+        <v>9</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2604638</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44903.60416666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>6</v>
+      </c>
+      <c r="S209" t="n">
+        <v>13</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V209" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2604643</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44903.70833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>19</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>9</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.09</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT9" t="n">
         <v>0.55</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT17" t="n">
         <v>1.6</v>
@@ -4151,7 +4151,7 @@
         <v>2.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT19" t="n">
         <v>0.9</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8</v>
@@ -4963,7 +4963,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU25" t="n">
         <v>1.92</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT27" t="n">
         <v>0.9</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
         <v>0.55</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -6790,7 +6790,7 @@
         <v>2.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>1.09</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7399,7 +7399,7 @@
         <v>1.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1.56</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7805,7 +7805,7 @@
         <v>2.1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT37" t="n">
         <v>0.7</v>
@@ -8211,7 +8211,7 @@
         <v>1.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8617,7 +8617,7 @@
         <v>1.6</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9226,7 +9226,7 @@
         <v>2.1</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT45" t="n">
         <v>1.7</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU47" t="n">
         <v>1.06</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -10850,7 +10850,7 @@
         <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU53" t="n">
         <v>1.75</v>
@@ -11459,7 +11459,7 @@
         <v>1.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11865,7 +11865,7 @@
         <v>2.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT58" t="n">
         <v>0.8</v>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -13083,7 +13083,7 @@
         <v>1.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT63" t="n">
         <v>1.6</v>
@@ -13489,7 +13489,7 @@
         <v>2.1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>0.7</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -13892,10 +13892,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT67" t="n">
         <v>0.55</v>
@@ -14301,7 +14301,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU70" t="n">
         <v>1.68</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT73" t="n">
         <v>1.7</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>2.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -15922,10 +15922,10 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU76" t="n">
         <v>1.83</v>
@@ -16125,10 +16125,10 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16531,10 +16531,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16937,10 +16937,10 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17549,7 +17549,7 @@
         <v>2.1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -18158,7 +18158,7 @@
         <v>2.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>1.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19376,7 +19376,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -19576,10 +19576,10 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU94" t="n">
         <v>1.52</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT95" t="n">
         <v>0.9</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT98" t="n">
         <v>0.6</v>
@@ -20591,10 +20591,10 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU99" t="n">
         <v>1.63</v>
@@ -20997,10 +20997,10 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT103" t="n">
         <v>0.55</v>
@@ -21809,7 +21809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
         <v>1.5</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22218,7 +22218,7 @@
         <v>0.7</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22418,10 +22418,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -22624,7 +22624,7 @@
         <v>1.09</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT110" t="n">
         <v>1.7</v>
@@ -23030,7 +23030,7 @@
         <v>2.6</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23233,7 +23233,7 @@
         <v>1.6</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU112" t="n">
         <v>1.77</v>
@@ -23639,7 +23639,7 @@
         <v>1.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -23842,7 +23842,7 @@
         <v>2.1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT117" t="n">
         <v>0.9</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT118" t="n">
         <v>0.7</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT119" t="n">
         <v>0.8</v>
@@ -24854,10 +24854,10 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25057,10 +25057,10 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25263,7 +25263,7 @@
         <v>1.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -25466,7 +25466,7 @@
         <v>2.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU123" t="n">
         <v>1.39</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU124" t="n">
         <v>1.81</v>
@@ -25872,7 +25872,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26481,7 +26481,7 @@
         <v>0.7</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT129" t="n">
         <v>1.6</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT130" t="n">
         <v>0.6</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT133" t="n">
         <v>0.55</v>
@@ -27696,10 +27696,10 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -27902,7 +27902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28105,7 +28105,7 @@
         <v>2.1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28508,10 +28508,10 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28711,10 +28711,10 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -28914,7 +28914,7 @@
         <v>0.2</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT140" t="n">
         <v>0.7</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29320,10 +29320,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT143" t="n">
         <v>0.8</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -29932,7 +29932,7 @@
         <v>1.6</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU145" t="n">
         <v>1.61</v>
@@ -30135,7 +30135,7 @@
         <v>1.2</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -30541,7 +30541,7 @@
         <v>0.7</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU148" t="n">
         <v>1.53</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT152" t="n">
         <v>0.6</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT153" t="n">
         <v>0.55</v>
@@ -32165,7 +32165,7 @@
         <v>2.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.54</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT157" t="n">
         <v>0.6</v>
@@ -32571,7 +32571,7 @@
         <v>1.6</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32974,10 +32974,10 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33380,10 +33380,10 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33583,10 +33583,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33789,7 +33789,7 @@
         <v>1.8</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT165" t="n">
         <v>1.7</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT166" t="n">
         <v>1.5</v>
@@ -35004,10 +35004,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35410,10 +35410,10 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35819,7 +35819,7 @@
         <v>2.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU174" t="n">
         <v>2.01</v>
@@ -36222,10 +36222,10 @@
         <v>1.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -36425,7 +36425,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT177" t="n">
         <v>1.5</v>
@@ -36631,7 +36631,7 @@
         <v>2.1</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -36831,10 +36831,10 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37237,10 +37237,10 @@
         <v>1.38</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37440,7 +37440,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT182" t="n">
         <v>0.7</v>
@@ -37846,10 +37846,10 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38049,10 +38049,10 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT186" t="n">
         <v>1.7</v>
@@ -38455,10 +38455,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38661,7 +38661,7 @@
         <v>1.09</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -39067,7 +39067,7 @@
         <v>2.6</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU190" t="n">
         <v>1.67</v>
@@ -39270,7 +39270,7 @@
         <v>1.6</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT192" t="n">
         <v>1.5</v>
@@ -39676,7 +39676,7 @@
         <v>1.6</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -39876,7 +39876,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT194" t="n">
         <v>0.9</v>
@@ -40488,7 +40488,7 @@
         <v>2.4</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU197" t="n">
         <v>1.9</v>
@@ -40688,7 +40688,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT198" t="n">
         <v>0.55</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT200" t="n">
         <v>0.7</v>
@@ -41297,10 +41297,10 @@
         <v>1.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU201" t="n">
         <v>1.16</v>
@@ -41500,10 +41500,10 @@
         <v>0.89</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU202" t="n">
         <v>1.52</v>
@@ -41706,7 +41706,7 @@
         <v>2.1</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU203" t="n">
         <v>1.11</v>
@@ -41906,7 +41906,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT204" t="n">
         <v>0.8</v>
@@ -42109,10 +42109,10 @@
         <v>1.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU205" t="n">
         <v>1.95</v>
@@ -42312,10 +42312,10 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42515,10 +42515,10 @@
         <v>0.89</v>
       </c>
       <c r="AS207" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42721,7 +42721,7 @@
         <v>1.09</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -42921,10 +42921,10 @@
         <v>0.89</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -43124,10 +43124,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -43327,7 +43327,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT211" t="n">
         <v>0.6</v>
@@ -43736,7 +43736,7 @@
         <v>1.6</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU213" t="n">
         <v>1.74</v>
@@ -45412,6 +45412,2239 @@
       </c>
       <c r="BK221" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2604663</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>44911.70833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>21</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>6</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>10</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2604665</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>44912.51041666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>21</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>1</v>
+      </c>
+      <c r="R223" t="n">
+        <v>8</v>
+      </c>
+      <c r="S223" t="n">
+        <v>9</v>
+      </c>
+      <c r="T223" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2604659</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>44912.51041666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['16', '20']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>6</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1</v>
+      </c>
+      <c r="S224" t="n">
+        <v>7</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2604666</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>44912.60416666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>21</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>6</v>
+      </c>
+      <c r="R225" t="n">
+        <v>7</v>
+      </c>
+      <c r="S225" t="n">
+        <v>13</v>
+      </c>
+      <c r="T225" t="n">
+        <v>4</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2604657</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>44912.60416666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>21</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>3</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['16', '37', '68']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5</v>
+      </c>
+      <c r="S226" t="n">
+        <v>10</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V226" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2604660</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>44912.70833333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>21</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>5</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2</v>
+      </c>
+      <c r="S227" t="n">
+        <v>7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2604661</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>21</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
+        <v>4</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['11', '28', '45+2', '81']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2</v>
+      </c>
+      <c r="S228" t="n">
+        <v>7</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V228" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2604664</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44913.625</v>
+      </c>
+      <c r="F229" t="n">
+        <v>21</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>11</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4</v>
+      </c>
+      <c r="S229" t="n">
+        <v>15</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2604656</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>44913.625</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>2</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>11</v>
+      </c>
+      <c r="S230" t="n">
+        <v>16</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2604662</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>44913.70833333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>21</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>1</v>
+      </c>
+      <c r="R231" t="n">
+        <v>3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2604658</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>44914.70833333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>21</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>3</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['33', '75']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>6</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2</v>
+      </c>
+      <c r="S232" t="n">
+        <v>8</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V232" t="n">
+        <v>4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.18</v>
@@ -1918,7 +1918,7 @@
         <v>0.7</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT15" t="n">
         <v>1.18</v>
@@ -3745,7 +3745,7 @@
         <v>1.6</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.73</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT22" t="n">
         <v>0.4</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT26" t="n">
         <v>1.6</v>
@@ -7196,7 +7196,7 @@
         <v>2.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.18</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9632,7 +9632,7 @@
         <v>1.55</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -10647,7 +10647,7 @@
         <v>1.73</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT51" t="n">
         <v>1.27</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT54" t="n">
         <v>0.82</v>
@@ -12271,7 +12271,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.6</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT68" t="n">
         <v>0.4</v>
@@ -14910,7 +14910,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT72" t="n">
         <v>0.6</v>
@@ -15316,7 +15316,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -17143,7 +17143,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -18361,7 +18361,7 @@
         <v>1.09</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
         <v>0.55</v>
@@ -19173,7 +19173,7 @@
         <v>2.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>0.55</v>
@@ -22827,7 +22827,7 @@
         <v>1.73</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23436,7 +23436,7 @@
         <v>1.6</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT114" t="n">
         <v>1.82</v>
@@ -24654,7 +24654,7 @@
         <v>1.3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT122" t="n">
         <v>1.18</v>
@@ -26278,7 +26278,7 @@
         <v>1.09</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.25</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>0.6</v>
@@ -28508,7 +28508,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.27</v>
@@ -29526,7 +29526,7 @@
         <v>1.55</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT146" t="n">
         <v>0.64</v>
@@ -31150,7 +31150,7 @@
         <v>2.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT154" t="n">
         <v>1.5</v>
@@ -31962,7 +31962,7 @@
         <v>2.6</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32774,7 +32774,7 @@
         <v>2.1</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>0.82</v>
@@ -33992,7 +33992,7 @@
         <v>1.55</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU165" t="n">
         <v>1.58</v>
@@ -34598,7 +34598,7 @@
         <v>0.86</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT169" t="n">
         <v>0.9</v>
@@ -35616,7 +35616,7 @@
         <v>1.6</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -37037,7 +37037,7 @@
         <v>2.1</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>0.55</v>
@@ -38255,7 +38255,7 @@
         <v>1.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU186" t="n">
         <v>1.29</v>
@@ -39673,7 +39673,7 @@
         <v>1.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT193" t="n">
         <v>1.82</v>
@@ -40285,7 +40285,7 @@
         <v>0.7</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40891,7 +40891,7 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT199" t="n">
         <v>1.6</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT200" t="n">
         <v>0.7</v>
@@ -41909,7 +41909,7 @@
         <v>1.55</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU204" t="n">
         <v>1.85</v>
@@ -44139,10 +44139,10 @@
         <v>0.89</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44342,7 +44342,7 @@
         <v>1.56</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT216" t="n">
         <v>1.5</v>
@@ -45360,7 +45360,7 @@
         <v>2.1</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU221" t="n">
         <v>1.53</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT232" t="n">
         <v>0.82</v>
@@ -47645,6 +47645,615 @@
       </c>
       <c r="BK232" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2604673</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>44932.51041666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>22</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['57', '81']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>5</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>8</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V233" t="n">
+        <v>4</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2604675</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>44932.60416666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>22</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>3</v>
+      </c>
+      <c r="R234" t="n">
+        <v>7</v>
+      </c>
+      <c r="S234" t="n">
+        <v>10</v>
+      </c>
+      <c r="T234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V234" t="n">
+        <v>4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2604670</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>44932.70833333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>22</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>9</v>
+      </c>
+      <c r="R235" t="n">
+        <v>1</v>
+      </c>
+      <c r="S235" t="n">
+        <v>10</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2</v>
+      </c>
+      <c r="V235" t="n">
+        <v>6</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT14" t="n">
         <v>0.7</v>
@@ -3948,7 +3948,7 @@
         <v>1.55</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT23" t="n">
         <v>1.82</v>
@@ -5775,7 +5775,7 @@
         <v>1.55</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU26" t="n">
         <v>1.57</v>
@@ -6384,7 +6384,7 @@
         <v>1.73</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU29" t="n">
         <v>1.62</v>
@@ -6587,7 +6587,7 @@
         <v>0.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT36" t="n">
         <v>1.82</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT40" t="n">
         <v>0.55</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -10241,7 +10241,7 @@
         <v>1.73</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -11053,7 +11053,7 @@
         <v>1.09</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU52" t="n">
         <v>1.32</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT60" t="n">
         <v>1.18</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.5</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT64" t="n">
         <v>0.64</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT71" t="n">
         <v>0.73</v>
@@ -15113,7 +15113,7 @@
         <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.8</v>
@@ -15519,7 +15519,7 @@
         <v>1.18</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU74" t="n">
         <v>1.21</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT82" t="n">
         <v>1.64</v>
@@ -17346,7 +17346,7 @@
         <v>1.82</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT84" t="n">
         <v>0.82</v>
@@ -19985,7 +19985,7 @@
         <v>1.6</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20391,7 +20391,7 @@
         <v>1.55</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT99" t="n">
         <v>1.18</v>
@@ -21200,10 +21200,10 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT104" t="n">
         <v>1.5</v>
@@ -23230,7 +23230,7 @@
         <v>1.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT112" t="n">
         <v>1.18</v>
@@ -24045,7 +24045,7 @@
         <v>1.55</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT119" t="n">
         <v>0.73</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.18</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -26887,7 +26887,7 @@
         <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT135" t="n">
         <v>0.82</v>
@@ -28305,10 +28305,10 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT141" t="n">
         <v>1.18</v>
@@ -30338,7 +30338,7 @@
         <v>1.8</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -30947,7 +30947,7 @@
         <v>1.82</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31353,7 +31353,7 @@
         <v>1.73</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU152" t="n">
         <v>1.78</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT156" t="n">
         <v>0.82</v>
@@ -32368,7 +32368,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU157" t="n">
         <v>1.33</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT158" t="n">
         <v>1.27</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -34601,7 +34601,7 @@
         <v>1.36</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35613,7 +35613,7 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT173" t="n">
         <v>0.73</v>
@@ -36022,7 +36022,7 @@
         <v>0.7</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36831,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT179" t="n">
         <v>0.82</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT180" t="n">
         <v>0.73</v>
@@ -37646,7 +37646,7 @@
         <v>1.8</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -38864,7 +38864,7 @@
         <v>1.73</v>
       </c>
       <c r="AT189" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU189" t="n">
         <v>1.88</v>
@@ -40079,7 +40079,7 @@
         <v>1.38</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT195" t="n">
         <v>1.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.36</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU199" t="n">
         <v>1.42</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT210" t="n">
         <v>0.55</v>
@@ -43330,7 +43330,7 @@
         <v>1.82</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU211" t="n">
         <v>1.56</v>
@@ -43530,7 +43530,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT212" t="n">
         <v>0.9</v>
@@ -44548,7 +44548,7 @@
         <v>2.4</v>
       </c>
       <c r="AT217" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU217" t="n">
         <v>1.9</v>
@@ -44751,7 +44751,7 @@
         <v>2.6</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -45357,7 +45357,7 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT221" t="n">
         <v>1.64</v>
@@ -47387,7 +47387,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT231" t="n">
         <v>1.18</v>
@@ -48254,6 +48254,615 @@
       </c>
       <c r="BK235" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2604668</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>44933.51041666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>22</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['19', '45+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>3</v>
+      </c>
+      <c r="R236" t="n">
+        <v>3</v>
+      </c>
+      <c r="S236" t="n">
+        <v>6</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2604672</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>44933.60416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>22</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>5</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2604667</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>44933.70833333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>22</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>13</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>15</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V238" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT3" t="n">
         <v>0.64</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT6" t="n">
         <v>0.82</v>
@@ -2730,7 +2730,7 @@
         <v>1.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.18</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT16" t="n">
         <v>1.64</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.36</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT31" t="n">
         <v>0.82</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT34" t="n">
         <v>1.18</v>
@@ -8008,7 +8008,7 @@
         <v>1.82</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8414,7 +8414,7 @@
         <v>1.73</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8820,7 +8820,7 @@
         <v>1.27</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9023,7 +9023,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT44" t="n">
         <v>0.73</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT46" t="n">
         <v>0.9</v>
@@ -10444,7 +10444,7 @@
         <v>1.55</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU49" t="n">
         <v>1.62</v>
@@ -10850,7 +10850,7 @@
         <v>1.55</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.55</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT56" t="n">
         <v>0.55</v>
@@ -12068,7 +12068,7 @@
         <v>1.73</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12474,7 +12474,7 @@
         <v>1.55</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.19</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.55</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.9</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT78" t="n">
         <v>0.55</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -17955,7 +17955,7 @@
         <v>1.55</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT87" t="n">
         <v>0.64</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT89" t="n">
         <v>1.18</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>0.73</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT96" t="n">
         <v>0.91</v>
@@ -20188,7 +20188,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20794,10 +20794,10 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU100" t="n">
         <v>1.75</v>
@@ -21609,7 +21609,7 @@
         <v>2.18</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU104" t="n">
         <v>1.74</v>
@@ -21812,7 +21812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>2.09</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT113" t="n">
         <v>0.73</v>
@@ -23839,10 +23839,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24451,7 +24451,7 @@
         <v>1.73</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -24857,7 +24857,7 @@
         <v>1.55</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT123" t="n">
         <v>0.82</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU131" t="n">
         <v>1.84</v>
@@ -27290,10 +27290,10 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU132" t="n">
         <v>1.43</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
         <v>1.82</v>
@@ -28511,7 +28511,7 @@
         <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28714,7 +28714,7 @@
         <v>1.73</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -28917,7 +28917,7 @@
         <v>1.18</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU140" t="n">
         <v>1.22</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT145" t="n">
         <v>1.18</v>
@@ -30335,7 +30335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT147" t="n">
         <v>1.45</v>
@@ -31147,7 +31147,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT151" t="n">
         <v>0.73</v>
@@ -31759,7 +31759,7 @@
         <v>1.55</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU154" t="n">
         <v>1.48</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT155" t="n">
         <v>1.64</v>
@@ -32571,7 +32571,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32771,7 +32771,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
         <v>0.73</v>
@@ -33180,7 +33180,7 @@
         <v>1.09</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU161" t="n">
         <v>1.29</v>
@@ -33786,7 +33786,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT164" t="n">
         <v>1.18</v>
@@ -34195,7 +34195,7 @@
         <v>1.18</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU166" t="n">
         <v>1.25</v>
@@ -34395,10 +34395,10 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -35207,7 +35207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT171" t="n">
         <v>0.55</v>
@@ -35413,7 +35413,7 @@
         <v>1.82</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35816,7 +35816,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT174" t="n">
         <v>1.18</v>
@@ -36428,7 +36428,7 @@
         <v>1.73</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37240,7 +37240,7 @@
         <v>1.55</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37443,7 +37443,7 @@
         <v>1.55</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU182" t="n">
         <v>1.15</v>
@@ -37643,7 +37643,7 @@
         <v>0.63</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT183" t="n">
         <v>0.64</v>
@@ -39064,7 +39064,7 @@
         <v>1.63</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT190" t="n">
         <v>1.18</v>
@@ -39267,10 +39267,10 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -39473,7 +39473,7 @@
         <v>1.73</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU192" t="n">
         <v>1.63</v>
@@ -40082,7 +40082,7 @@
         <v>1.73</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU195" t="n">
         <v>1.85</v>
@@ -40485,7 +40485,7 @@
         <v>0.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT197" t="n">
         <v>0.64</v>
@@ -41097,7 +41097,7 @@
         <v>2</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU200" t="n">
         <v>1.43</v>
@@ -41703,7 +41703,7 @@
         <v>1.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>1.18</v>
@@ -42721,7 +42721,7 @@
         <v>1.09</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT213" t="n">
         <v>0.64</v>
@@ -44345,7 +44345,7 @@
         <v>1.55</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU216" t="n">
         <v>1.65</v>
@@ -44545,7 +44545,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT217" t="n">
         <v>0.91</v>
@@ -44748,7 +44748,7 @@
         <v>1.78</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT218" t="n">
         <v>1.45</v>
@@ -44954,7 +44954,7 @@
         <v>0.7</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU219" t="n">
         <v>1.53</v>
@@ -45154,10 +45154,10 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU220" t="n">
         <v>1.74</v>
@@ -46375,7 +46375,7 @@
         <v>1.55</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU226" t="n">
         <v>1.85</v>
@@ -46781,7 +46781,7 @@
         <v>1.55</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -48863,6 +48863,1021 @@
       </c>
       <c r="BK238" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2604674</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>44934.41666666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>22</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>9</v>
+      </c>
+      <c r="R239" t="n">
+        <v>5</v>
+      </c>
+      <c r="S239" t="n">
+        <v>14</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V239" t="n">
+        <v>5</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2604676</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>44934.51041666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3</v>
+      </c>
+      <c r="R240" t="n">
+        <v>5</v>
+      </c>
+      <c r="S240" t="n">
+        <v>8</v>
+      </c>
+      <c r="T240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V240" t="n">
+        <v>6</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2604671</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>44934.60416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>8</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>10</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2604669</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>44934.70833333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>22</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>4</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2</v>
+      </c>
+      <c r="S242" t="n">
+        <v>6</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2604677</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>44935.70833333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>22</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>5</v>
+      </c>
+      <c r="R243" t="n">
+        <v>6</v>
+      </c>
+      <c r="S243" t="n">
+        <v>11</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK247"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT2" t="n">
         <v>0.67</v>
@@ -1309,7 +1309,7 @@
         <v>1.73</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT7" t="n">
         <v>0.73</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.73</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT29" t="n">
         <v>0.64</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT30" t="n">
         <v>0.91</v>
@@ -6790,7 +6790,7 @@
         <v>2.45</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -8211,7 +8211,7 @@
         <v>1.36</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8617,7 +8617,7 @@
         <v>1.73</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT50" t="n">
         <v>0.73</v>
@@ -11865,7 +11865,7 @@
         <v>2.45</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT57" t="n">
         <v>1.36</v>
@@ -13083,7 +13083,7 @@
         <v>1.55</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT65" t="n">
         <v>1.92</v>
@@ -13895,7 +13895,7 @@
         <v>1.55</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>0.55</v>
@@ -16331,7 +16331,7 @@
         <v>1.73</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16531,10 +16531,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT80" t="n">
         <v>0.55</v>
@@ -17549,7 +17549,7 @@
         <v>2.18</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -18970,7 +18970,7 @@
         <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT97" t="n">
         <v>1.25</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21809,7 +21809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
         <v>1.36</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>2.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -24245,7 +24245,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT117" t="n">
         <v>0.9</v>
@@ -25057,10 +25057,10 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25872,7 +25872,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26478,10 +26478,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -27902,7 +27902,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -29323,7 +29323,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT148" t="n">
         <v>1.08</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33383,7 +33383,7 @@
         <v>1.67</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33586,7 +33586,7 @@
         <v>1.27</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -35004,7 +35004,7 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
         <v>0.67</v>
@@ -36019,7 +36019,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT175" t="n">
         <v>1.45</v>
@@ -36222,7 +36222,7 @@
         <v>1.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT176" t="n">
         <v>1.92</v>
@@ -36631,7 +36631,7 @@
         <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -36834,7 +36834,7 @@
         <v>1.27</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT189" t="n">
         <v>0.91</v>
@@ -40282,7 +40282,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT196" t="n">
         <v>0.73</v>
@@ -40688,7 +40688,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT198" t="n">
         <v>0.55</v>
@@ -42109,7 +42109,7 @@
         <v>1.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT205" t="n">
         <v>1.08</v>
@@ -42518,7 +42518,7 @@
         <v>1.18</v>
       </c>
       <c r="AT207" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42921,10 +42921,10 @@
         <v>0.89</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -43127,7 +43127,7 @@
         <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -44951,7 +44951,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT219" t="n">
         <v>0.73</v>
@@ -45560,7 +45560,7 @@
         <v>1.2</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT222" t="n">
         <v>1.18</v>
@@ -45766,7 +45766,7 @@
         <v>1.18</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -45969,7 +45969,7 @@
         <v>1.73</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46578,7 +46578,7 @@
         <v>1.67</v>
       </c>
       <c r="AT227" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU227" t="n">
         <v>1.16</v>
@@ -46981,7 +46981,7 @@
         <v>1.2</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT229" t="n">
         <v>1.18</v>
@@ -50268,22 +50268,22 @@
         <v>3</v>
       </c>
       <c r="BF245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK245" t="n">
         <v>5</v>
-      </c>
-      <c r="BG245" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH245" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI245" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ245" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK245" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -50471,22 +50471,22 @@
         <v>3.5</v>
       </c>
       <c r="BF246" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG246" t="n">
         <v>6</v>
       </c>
       <c r="BH246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI246" t="n">
         <v>5</v>
       </c>
-      <c r="BI246" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ246" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
@@ -50677,19 +50677,628 @@
         <v>4</v>
       </c>
       <c r="BG247" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH247" t="n">
         <v>7</v>
       </c>
       <c r="BI247" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ247" t="n">
         <v>11</v>
       </c>
       <c r="BK247" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2604681</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>44940.60416666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>23</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['12', '24']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>1</v>
+      </c>
+      <c r="R248" t="n">
+        <v>13</v>
+      </c>
+      <c r="S248" t="n">
+        <v>14</v>
+      </c>
+      <c r="T248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U248" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG248" t="n">
         <v>5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2604688</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>44940.60416666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>23</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>8</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1</v>
+      </c>
+      <c r="S249" t="n">
+        <v>9</v>
+      </c>
+      <c r="T249" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2</v>
+      </c>
+      <c r="V249" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2604686</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44940.70833333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>23</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>3</v>
+      </c>
+      <c r="L250" t="n">
+        <v>3</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>4</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['11', '17', '75']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>7</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1</v>
+      </c>
+      <c r="S250" t="n">
+        <v>8</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
         <v>0.64</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT4" t="n">
         <v>0.92</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.55</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.73</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT31" t="n">
         <v>0.83</v>
@@ -7399,7 +7399,7 @@
         <v>1.73</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU34" t="n">
         <v>1.56</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT42" t="n">
         <v>1.36</v>
@@ -9429,7 +9429,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT48" t="n">
         <v>0.91</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU53" t="n">
         <v>1.75</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.28</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT73" t="n">
         <v>1.64</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT75" t="n">
         <v>1.25</v>
@@ -15925,7 +15925,7 @@
         <v>1.55</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU76" t="n">
         <v>1.83</v>
@@ -16737,7 +16737,7 @@
         <v>0.91</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT81" t="n">
         <v>1.92</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT94" t="n">
         <v>1.08</v>
@@ -20594,7 +20594,7 @@
         <v>1.27</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU99" t="n">
         <v>1.63</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
         <v>0.73</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT110" t="n">
         <v>1.64</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT118" t="n">
         <v>0.73</v>
@@ -24654,7 +24654,7 @@
         <v>1.27</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU124" t="n">
         <v>1.81</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT126" t="n">
         <v>0.67</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT131" t="n">
         <v>1.45</v>
@@ -27496,7 +27496,7 @@
         <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.23</v>
@@ -28711,7 +28711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT139" t="n">
         <v>0.36</v>
@@ -29932,7 +29932,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU145" t="n">
         <v>1.61</v>
@@ -31147,10 +31147,10 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT152" t="n">
         <v>0.64</v>
@@ -31556,7 +31556,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.76</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT157" t="n">
         <v>0.64</v>
@@ -35210,7 +35210,7 @@
         <v>1.55</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -35616,7 +35616,7 @@
         <v>1.73</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -35816,7 +35816,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT174" t="n">
         <v>1.08</v>
@@ -36425,7 +36425,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT177" t="n">
         <v>1.36</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT192" t="n">
         <v>1.45</v>
@@ -40285,7 +40285,7 @@
         <v>0.91</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40485,7 +40485,7 @@
         <v>0.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT197" t="n">
         <v>0.67</v>
@@ -40691,7 +40691,7 @@
         <v>1.83</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU198" t="n">
         <v>1.46</v>
@@ -41706,7 +41706,7 @@
         <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU203" t="n">
         <v>1.11</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT206" t="n">
         <v>1.18</v>
@@ -43939,7 +43939,7 @@
         <v>1</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.34</v>
@@ -44142,7 +44142,7 @@
         <v>1.36</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44545,7 +44545,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT217" t="n">
         <v>0.91</v>
@@ -45563,7 +45563,7 @@
         <v>1.67</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU222" t="n">
         <v>1.95</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT224" t="n">
         <v>0.83</v>
@@ -47184,7 +47184,7 @@
         <v>0.6</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT230" t="n">
         <v>0.67</v>
@@ -48202,7 +48202,7 @@
         <v>2</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU235" t="n">
         <v>1.4</v>
@@ -49620,7 +49620,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT242" t="n">
         <v>0.36</v>
@@ -51299,6 +51299,615 @@
       </c>
       <c r="BK250" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2604679</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44941.41666666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>23</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['32', '90']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>4</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V251" t="n">
+        <v>6</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2604687</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44941.51041666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>23</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['30', '62']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>7</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2</v>
+      </c>
+      <c r="S252" t="n">
+        <v>9</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2604685</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44941.51041666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>23</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['53', '70']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>3</v>
+      </c>
+      <c r="R253" t="n">
+        <v>11</v>
+      </c>
+      <c r="S253" t="n">
+        <v>14</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.45</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU19" t="n">
         <v>1.36</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -9835,7 +9835,7 @@
         <v>1.73</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>1.08</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
         <v>0.64</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
         <v>0.91</v>
@@ -24248,7 +24248,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT143" t="n">
         <v>0.73</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.64</v>
@@ -34804,7 +34804,7 @@
         <v>1.55</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -37237,7 +37237,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT181" t="n">
         <v>1.25</v>
@@ -39879,7 +39879,7 @@
         <v>1.67</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -41500,7 +41500,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         <v>1.73</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -46778,7 +46778,7 @@
         <v>0.44</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT228" t="n">
         <v>0.36</v>
@@ -51908,6 +51908,209 @@
       </c>
       <c r="BK253" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2604683</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44942.70833333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>23</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>5</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2</v>
+      </c>
+      <c r="S254" t="n">
+        <v>7</v>
+      </c>
+      <c r="T254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -50697,7 +50697,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>2604681</v>
+        <v>2604688</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -50717,35 +50717,35 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Sporting Gijón</t>
+          <t>SD Ponferradina</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M248" t="n">
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>['12', '24']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -50754,145 +50754,145 @@
         </is>
       </c>
       <c r="Q248" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R248" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S248" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T248" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="U248" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V248" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="W248" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X248" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Y248" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Z248" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AA248" t="n">
-        <v>10</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AB248" t="n">
         <v>1.04</v>
       </c>
       <c r="AC248" t="n">
-        <v>2.6</v>
+        <v>1.61</v>
       </c>
       <c r="AD248" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="AE248" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="AF248" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AG248" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AH248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK248" t="n">
         <v>1.58</v>
       </c>
-      <c r="AI248" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ248" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AK248" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AL248" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AM248" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="AN248" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AO248" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.7</v>
+        <v>1.73</v>
       </c>
       <c r="AR248" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AS248" t="n">
-        <v>0.91</v>
+        <v>1.67</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AU248" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="AV248" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AW248" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AX248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB248" t="n">
         <v>1.51</v>
       </c>
-      <c r="AY248" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ248" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="BA248" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB248" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BC248" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD248" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE248" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BF248" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG248" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH248" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BI248" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BJ248" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BK248" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -50900,7 +50900,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>2604688</v>
+        <v>2604681</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -50920,182 +50920,182 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>SD Ponferradina</t>
+          <t>Sporting Gijón</t>
         </is>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M249" t="n">
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O249" t="inlineStr">
         <is>
+          <t>['12', '24']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P249" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q249" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R249" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S249" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T249" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X249" t="n">
         <v>2.3</v>
       </c>
-      <c r="U249" t="n">
-        <v>2</v>
-      </c>
-      <c r="V249" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W249" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X249" t="n">
-        <v>2.45</v>
-      </c>
       <c r="Y249" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z249" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA249" t="n">
-        <v>8.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="AB249" t="n">
         <v>1.04</v>
       </c>
       <c r="AC249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AM249" t="n">
         <v>1.61</v>
       </c>
-      <c r="AD249" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AE249" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AF249" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG249" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH249" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AI249" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AJ249" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AK249" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL249" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM249" t="n">
-        <v>1.62</v>
-      </c>
       <c r="AN249" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AO249" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AP249" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1.73</v>
+        <v>0.7</v>
       </c>
       <c r="AR249" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.67</v>
+        <v>0.91</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AU249" t="n">
-        <v>1.89</v>
+        <v>1.55</v>
       </c>
       <c r="AV249" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AW249" t="n">
-        <v>3.11</v>
+        <v>2.85</v>
       </c>
       <c r="AX249" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AY249" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ249" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="BA249" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BB249" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="BC249" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD249" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE249" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BF249" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG249" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH249" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI249" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="BJ249" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK249" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250">
@@ -51509,7 +51509,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>2604687</v>
+        <v>2604685</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -51529,19 +51529,19 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>CD Lugo</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252" t="n">
         <v>1</v>
@@ -51550,161 +51550,161 @@
         <v>2</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>['30', '62']</t>
+          <t>['53', '70']</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R252" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S252" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T252" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="U252" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="V252" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="W252" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="X252" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="Y252" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Z252" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AA252" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AB252" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC252" t="n">
-        <v>1.92</v>
+        <v>2.72</v>
       </c>
       <c r="AD252" t="n">
-        <v>3.32</v>
+        <v>2.73</v>
       </c>
       <c r="AE252" t="n">
-        <v>4.28</v>
+        <v>3.14</v>
       </c>
       <c r="AF252" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AG252" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH252" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AI252" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AJ252" t="n">
-        <v>2.36</v>
+        <v>2.85</v>
       </c>
       <c r="AK252" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AL252" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AM252" t="n">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AN252" t="n">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AO252" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AQ252" t="n">
         <v>1.73</v>
       </c>
       <c r="AR252" t="n">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AS252" t="n">
         <v>1.83</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AU252" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AV252" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AW252" t="n">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AX252" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA252" t="n">
         <v>1.34</v>
       </c>
-      <c r="AY252" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ252" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="BA252" t="n">
-        <v>1.3</v>
-      </c>
       <c r="BB252" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BC252" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BD252" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BE252" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="BF252" t="n">
         <v>4</v>
       </c>
       <c r="BG252" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH252" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI252" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ252" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK252" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
@@ -51712,7 +51712,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>2604685</v>
+        <v>2604687</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -51732,19 +51732,19 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>CD Lugo</t>
         </is>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K253" t="n">
         <v>1</v>
@@ -51753,161 +51753,161 @@
         <v>2</v>
       </c>
       <c r="M253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>['53', '70']</t>
+          <t>['30', '62']</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R253" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S253" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T253" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="U253" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V253" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="W253" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="X253" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="Y253" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Z253" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA253" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AB253" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC253" t="n">
-        <v>2.72</v>
+        <v>1.92</v>
       </c>
       <c r="AD253" t="n">
-        <v>2.73</v>
+        <v>3.32</v>
       </c>
       <c r="AE253" t="n">
-        <v>3.14</v>
+        <v>4.28</v>
       </c>
       <c r="AF253" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AG253" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH253" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AI253" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ253" t="n">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="AK253" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AL253" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AM253" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AN253" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AO253" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AQ253" t="n">
         <v>1.73</v>
       </c>
       <c r="AR253" t="n">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AS253" t="n">
         <v>1.83</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AU253" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AV253" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AW253" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AX253" t="n">
-        <v>2.77</v>
+        <v>1.34</v>
       </c>
       <c r="AY253" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ253" t="n">
-        <v>1.64</v>
+        <v>4.08</v>
       </c>
       <c r="BA253" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BB253" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC253" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD253" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BE253" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="BF253" t="n">
         <v>4</v>
       </c>
       <c r="BG253" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH253" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI253" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ253" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK253" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254">

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK254"/>
+  <dimension ref="A1:BK255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>2.18</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
         <v>1.08</v>
@@ -8008,7 +8008,7 @@
         <v>1.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT46" t="n">
         <v>0.82</v>
@@ -12880,7 +12880,7 @@
         <v>2.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.19</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT78" t="n">
         <v>0.5</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT93" t="n">
         <v>0.36</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU100" t="n">
         <v>1.75</v>
@@ -24451,7 +24451,7 @@
         <v>1.83</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT132" t="n">
         <v>1.36</v>
@@ -28917,7 +28917,7 @@
         <v>1.18</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.22</v>
@@ -30335,7 +30335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT147" t="n">
         <v>1.45</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU161" t="n">
         <v>1.29</v>
@@ -33786,7 +33786,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT164" t="n">
         <v>1.18</v>
@@ -37443,7 +37443,7 @@
         <v>1.67</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU182" t="n">
         <v>1.15</v>
@@ -37643,7 +37643,7 @@
         <v>0.63</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT183" t="n">
         <v>0.64</v>
@@ -41097,7 +41097,7 @@
         <v>2</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU200" t="n">
         <v>1.43</v>
@@ -44954,7 +44954,7 @@
         <v>0.91</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU219" t="n">
         <v>1.53</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT220" t="n">
         <v>1.45</v>
@@ -49217,7 +49217,7 @@
         <v>1.55</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU240" t="n">
         <v>1.69</v>
@@ -49417,7 +49417,7 @@
         <v>1.27</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT241" t="n">
         <v>1.25</v>
@@ -52111,6 +52111,209 @@
       </c>
       <c r="BK254" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2604694</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>44946.70833333334</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['63', '87']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>6</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="n">
+        <v>6</v>
+      </c>
+      <c r="T255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2</v>
+      </c>
+      <c r="V255" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK255"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT5" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3745,7 +3745,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.92</v>
@@ -5775,7 +5775,7 @@
         <v>1.55</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU26" t="n">
         <v>1.57</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT36" t="n">
         <v>1.92</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
         <v>0.92</v>
@@ -8414,7 +8414,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.45</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9632,7 +9632,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -10850,7 +10850,7 @@
         <v>1.55</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12677,7 +12677,7 @@
         <v>1.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.67</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>1.5</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -14301,7 +14301,7 @@
         <v>1.55</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT71" t="n">
         <v>0.73</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT72" t="n">
         <v>0.64</v>
@@ -15316,7 +15316,7 @@
         <v>1.83</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15722,7 +15722,7 @@
         <v>2.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -17143,7 +17143,7 @@
         <v>1.73</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT84" t="n">
         <v>0.83</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT85" t="n">
         <v>1.45</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT87" t="n">
         <v>0.67</v>
@@ -18564,7 +18564,7 @@
         <v>1.55</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>0.5</v>
@@ -19376,7 +19376,7 @@
         <v>1.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -20188,7 +20188,7 @@
         <v>1.83</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>1.08</v>
@@ -21203,7 +21203,7 @@
         <v>1.73</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT104" t="n">
         <v>1.45</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22827,7 +22827,7 @@
         <v>1.83</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT111" t="n">
         <v>0.92</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT114" t="n">
         <v>1.92</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT119" t="n">
         <v>0.67</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25263,7 +25263,7 @@
         <v>1.55</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT125" t="n">
         <v>0.92</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU127" t="n">
         <v>1.25</v>
@@ -26684,7 +26684,7 @@
         <v>1.18</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT130" t="n">
         <v>0.64</v>
@@ -28305,7 +28305,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT137" t="n">
         <v>0.91</v>
@@ -28508,10 +28508,10 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28714,7 +28714,7 @@
         <v>1.83</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>0.67</v>
@@ -30338,7 +30338,7 @@
         <v>1.83</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -31959,10 +31959,10 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32571,7 +32571,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT160" t="n">
         <v>0.83</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT163" t="n">
         <v>0.92</v>
@@ -33789,7 +33789,7 @@
         <v>1.83</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -33992,7 +33992,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU165" t="n">
         <v>1.58</v>
@@ -34395,7 +34395,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT167" t="n">
         <v>1.45</v>
@@ -34598,7 +34598,7 @@
         <v>0.86</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT168" t="n">
         <v>0.91</v>
@@ -35413,7 +35413,7 @@
         <v>1.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -36022,7 +36022,7 @@
         <v>0.91</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36831,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT179" t="n">
         <v>0.83</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT180" t="n">
         <v>0.73</v>
@@ -37240,7 +37240,7 @@
         <v>1.67</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5</v>
@@ -38255,7 +38255,7 @@
         <v>1.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU186" t="n">
         <v>1.29</v>
@@ -38458,7 +38458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -39064,7 +39064,7 @@
         <v>1.63</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT190" t="n">
         <v>1.08</v>
@@ -39270,7 +39270,7 @@
         <v>1.55</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -40891,10 +40891,10 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU199" t="n">
         <v>1.42</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT200" t="n">
         <v>0.67</v>
@@ -42315,7 +42315,7 @@
         <v>1.83</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42721,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT210" t="n">
         <v>0.5</v>
@@ -44139,7 +44139,7 @@
         <v>0.89</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT215" t="n">
         <v>0.67</v>
@@ -44748,10 +44748,10 @@
         <v>1.78</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -45357,10 +45357,10 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU221" t="n">
         <v>1.53</v>
@@ -46375,7 +46375,7 @@
         <v>1.5</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU226" t="n">
         <v>1.85</v>
@@ -46781,7 +46781,7 @@
         <v>1.67</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -46984,7 +46984,7 @@
         <v>1.83</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -47387,7 +47387,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT231" t="n">
         <v>1.08</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT232" t="n">
         <v>1</v>
@@ -47793,7 +47793,7 @@
         <v>0.8</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT233" t="n">
         <v>0.73</v>
@@ -47999,7 +47999,7 @@
         <v>1.55</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU234" t="n">
         <v>1.7</v>
@@ -48199,7 +48199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS235" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT235" t="n">
         <v>0.67</v>
@@ -48605,7 +48605,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT237" t="n">
         <v>0.64</v>
@@ -48808,10 +48808,10 @@
         <v>1.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49011,7 +49011,7 @@
         <v>1.5</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT239" t="n">
         <v>1.36</v>
@@ -49420,7 +49420,7 @@
         <v>1.83</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU241" t="n">
         <v>1.85</v>
@@ -49623,7 +49623,7 @@
         <v>2.5</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU242" t="n">
         <v>1.84</v>
@@ -52314,6 +52314,1021 @@
       </c>
       <c r="BK255" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2604698</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>44947.51041666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>24</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>3</v>
+      </c>
+      <c r="R256" t="n">
+        <v>6</v>
+      </c>
+      <c r="S256" t="n">
+        <v>9</v>
+      </c>
+      <c r="T256" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2604697</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>44947.51041666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>24</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>7</v>
+      </c>
+      <c r="R257" t="n">
+        <v>5</v>
+      </c>
+      <c r="S257" t="n">
+        <v>12</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U257" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V257" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2604691</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>44947.60416666666</v>
+      </c>
+      <c r="F258" t="n">
+        <v>24</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['20', '81']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2</v>
+      </c>
+      <c r="S258" t="n">
+        <v>4</v>
+      </c>
+      <c r="T258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V258" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2604689</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>44947.70833333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>24</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>3</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['13', '66', '79']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>4</v>
+      </c>
+      <c r="S259" t="n">
+        <v>6</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V259" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2604693</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>44948.41666666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>24</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>4</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['32', '63']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['28', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>4</v>
+      </c>
+      <c r="R260" t="n">
+        <v>5</v>
+      </c>
+      <c r="S260" t="n">
+        <v>9</v>
+      </c>
+      <c r="T260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V260" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.83</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.91</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT11" t="n">
         <v>1.45</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>0.83</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.08</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT20" t="n">
         <v>1.36</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.92</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.42</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT27" t="n">
         <v>0.82</v>
@@ -6384,7 +6384,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>1.62</v>
@@ -6587,7 +6587,7 @@
         <v>0.91</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -7196,7 +7196,7 @@
         <v>2.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT47" t="n">
         <v>1.08</v>
@@ -10241,7 +10241,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>1.45</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>1.15</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU52" t="n">
         <v>1.32</v>
@@ -11459,7 +11459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
         <v>0.33</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT69" t="n">
         <v>0.82</v>
@@ -14707,7 +14707,7 @@
         <v>1.83</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU70" t="n">
         <v>1.68</v>
@@ -14910,7 +14910,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15113,7 +15113,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU72" t="n">
         <v>1.8</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU74" t="n">
         <v>1.21</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT77" t="n">
         <v>1.08</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT95" t="n">
         <v>0.82</v>
@@ -19985,7 +19985,7 @@
         <v>1.55</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -22218,7 +22218,7 @@
         <v>0.91</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT108" t="n">
         <v>1.92</v>
@@ -23436,7 +23436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT115" t="n">
         <v>1.15</v>
@@ -24045,7 +24045,7 @@
         <v>1.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24854,7 +24854,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT120" t="n">
         <v>0.33</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -25466,7 +25466,7 @@
         <v>2.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU123" t="n">
         <v>1.39</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT129" t="n">
         <v>1.42</v>
@@ -26887,7 +26887,7 @@
         <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT136" t="n">
         <v>1.92</v>
@@ -28308,7 +28308,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28914,7 +28914,7 @@
         <v>0.2</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT140" t="n">
         <v>0.67</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5</v>
@@ -29526,7 +29526,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -30947,7 +30947,7 @@
         <v>1.67</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31353,7 +31353,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU152" t="n">
         <v>1.78</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT153" t="n">
         <v>0.5</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT154" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>2.25</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU156" t="n">
         <v>1.54</v>
@@ -32368,7 +32368,7 @@
         <v>1.83</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.33</v>
@@ -32771,10 +32771,10 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT166" t="n">
         <v>1.36</v>
@@ -34601,7 +34601,7 @@
         <v>1.25</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
         <v>0.82</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT178" t="n">
         <v>0.92</v>
@@ -37037,7 +37037,7 @@
         <v>2.25</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37646,7 +37646,7 @@
         <v>1.83</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -37849,7 +37849,7 @@
         <v>1.83</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38252,7 +38252,7 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT186" t="n">
         <v>1.58</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT187" t="n">
         <v>1.33</v>
@@ -38864,7 +38864,7 @@
         <v>1.67</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU189" t="n">
         <v>1.88</v>
@@ -39673,7 +39673,7 @@
         <v>1.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT193" t="n">
         <v>1.92</v>
@@ -41503,7 +41503,7 @@
         <v>1.67</v>
       </c>
       <c r="AT202" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU202" t="n">
         <v>1.52</v>
@@ -41703,7 +41703,7 @@
         <v>1.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT203" t="n">
         <v>1.08</v>
@@ -41906,10 +41906,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU204" t="n">
         <v>1.85</v>
@@ -42515,7 +42515,7 @@
         <v>0.89</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT207" t="n">
         <v>0.92</v>
@@ -43330,7 +43330,7 @@
         <v>1.67</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU211" t="n">
         <v>1.56</v>
@@ -44342,7 +44342,7 @@
         <v>1.56</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT216" t="n">
         <v>1.36</v>
@@ -44548,7 +44548,7 @@
         <v>2.5</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU217" t="n">
         <v>1.9</v>
@@ -45763,7 +45763,7 @@
         <v>0.6</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT223" t="n">
         <v>0.5</v>
@@ -46372,7 +46372,7 @@
         <v>1.1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT226" t="n">
         <v>1.15</v>
@@ -47593,7 +47593,7 @@
         <v>1.92</v>
       </c>
       <c r="AT232" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU232" t="n">
         <v>1.43</v>
@@ -47796,7 +47796,7 @@
         <v>1.25</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU233" t="n">
         <v>1.42</v>
@@ -47996,7 +47996,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT234" t="n">
         <v>1.58</v>
@@ -48405,7 +48405,7 @@
         <v>1.73</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU236" t="n">
         <v>1.93</v>
@@ -48608,7 +48608,7 @@
         <v>1.25</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49823,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT243" t="n">
         <v>1.45</v>
@@ -50229,7 +50229,7 @@
         <v>0.64</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT245" t="n">
         <v>0.67</v>
@@ -50638,7 +50638,7 @@
         <v>1.67</v>
       </c>
       <c r="AT247" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU247" t="n">
         <v>1.55</v>
@@ -53329,6 +53329,818 @@
       </c>
       <c r="BK260" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2604696</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>44948.51041666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>24</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>5</v>
+      </c>
+      <c r="R261" t="n">
+        <v>4</v>
+      </c>
+      <c r="S261" t="n">
+        <v>9</v>
+      </c>
+      <c r="T261" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U261" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V261" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X261" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2604690</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>44948.51041666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>24</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>6</v>
+      </c>
+      <c r="R262" t="n">
+        <v>3</v>
+      </c>
+      <c r="S262" t="n">
+        <v>9</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2604692</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>44948.60416666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>24</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>3</v>
+      </c>
+      <c r="R263" t="n">
+        <v>5</v>
+      </c>
+      <c r="S263" t="n">
+        <v>8</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U263" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2604695</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>44948.70833333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>24</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['54', '67']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>1</v>
+      </c>
+      <c r="R264" t="n">
+        <v>9</v>
+      </c>
+      <c r="S264" t="n">
+        <v>10</v>
+      </c>
+      <c r="T264" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK264"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.08</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -8820,7 +8820,7 @@
         <v>1.25</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU49" t="n">
         <v>1.62</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT60" t="n">
         <v>1.33</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT82" t="n">
         <v>1.58</v>
@@ -17752,7 +17752,7 @@
         <v>1.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT102" t="n">
         <v>1.42</v>
@@ -21609,7 +21609,7 @@
         <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU104" t="n">
         <v>1.74</v>
@@ -23230,7 +23230,7 @@
         <v>1.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT112" t="n">
         <v>1.08</v>
@@ -27090,7 +27090,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU131" t="n">
         <v>1.84</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT135" t="n">
         <v>0.83</v>
@@ -31759,7 +31759,7 @@
         <v>1.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU154" t="n">
         <v>1.48</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT158" t="n">
         <v>1.15</v>
@@ -34398,7 +34398,7 @@
         <v>2.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -35613,7 +35613,7 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT173" t="n">
         <v>0.67</v>
@@ -39473,7 +39473,7 @@
         <v>1.83</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU192" t="n">
         <v>1.63</v>
@@ -40079,7 +40079,7 @@
         <v>1.38</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT195" t="n">
         <v>1.36</v>
@@ -43530,7 +43530,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT212" t="n">
         <v>0.82</v>
@@ -45157,7 +45157,7 @@
         <v>1.83</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU220" t="n">
         <v>1.74</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT236" t="n">
         <v>0.92</v>
@@ -49826,7 +49826,7 @@
         <v>1.92</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU243" t="n">
         <v>1.11</v>
@@ -54141,6 +54141,209 @@
       </c>
       <c r="BK264" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2604699</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>44949.70833333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>24</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>6</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2</v>
+      </c>
+      <c r="S265" t="n">
+        <v>8</v>
+      </c>
+      <c r="T265" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V265" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.83</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT6" t="n">
         <v>0.92</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT18" t="n">
         <v>1.15</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU19" t="n">
         <v>1.36</v>
@@ -5369,7 +5369,7 @@
         <v>1.67</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -5978,7 +5978,7 @@
         <v>1.08</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6384,7 +6384,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU29" t="n">
         <v>1.62</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT30" t="n">
         <v>0.92</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT31" t="n">
         <v>0.83</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.56</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT45" t="n">
         <v>1.58</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU52" t="n">
         <v>1.32</v>
@@ -11256,7 +11256,7 @@
         <v>1.83</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.75</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT59" t="n">
         <v>0.33</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT61" t="n">
         <v>0.67</v>
@@ -13489,7 +13489,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT65" t="n">
         <v>1.92</v>
@@ -14504,7 +14504,7 @@
         <v>1.92</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -14910,7 +14910,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15113,7 +15113,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU72" t="n">
         <v>1.8</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT75" t="n">
         <v>1.15</v>
@@ -15925,7 +15925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.83</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT78" t="n">
         <v>0.5</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT86" t="n">
         <v>1.36</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18767,7 +18767,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT93" t="n">
         <v>0.33</v>
@@ -19782,7 +19782,7 @@
         <v>1.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.63</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT100" t="n">
         <v>0.67</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT107" t="n">
         <v>0.92</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT111" t="n">
         <v>0.92</v>
@@ -23436,7 +23436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -24248,7 +24248,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT123" t="n">
         <v>0.92</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.81</v>
@@ -26075,7 +26075,7 @@
         <v>1.83</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT128" t="n">
         <v>0.83</v>
@@ -26887,7 +26887,7 @@
         <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT131" t="n">
         <v>1.58</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT132" t="n">
         <v>1.36</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT133" t="n">
         <v>0.5</v>
@@ -29526,7 +29526,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -29932,7 +29932,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.61</v>
@@ -30135,7 +30135,7 @@
         <v>1.25</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -30335,7 +30335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT147" t="n">
         <v>1.42</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT148" t="n">
         <v>1.08</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31147,7 +31147,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT151" t="n">
         <v>0.67</v>
@@ -31353,7 +31353,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU152" t="n">
         <v>1.78</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT155" t="n">
         <v>1.58</v>
@@ -32368,7 +32368,7 @@
         <v>1.83</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU157" t="n">
         <v>1.33</v>
@@ -32774,7 +32774,7 @@
         <v>1.92</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -33380,7 +33380,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT162" t="n">
         <v>0.5</v>
@@ -33786,7 +33786,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -34395,7 +34395,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT167" t="n">
         <v>1.58</v>
@@ -34804,7 +34804,7 @@
         <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -35007,7 +35007,7 @@
         <v>1.67</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35816,7 +35816,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT174" t="n">
         <v>1.08</v>
@@ -36019,7 +36019,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT175" t="n">
         <v>1.42</v>
@@ -37037,7 +37037,7 @@
         <v>2.25</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37440,7 +37440,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT182" t="n">
         <v>0.67</v>
@@ -37643,10 +37643,10 @@
         <v>0.63</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -39064,7 +39064,7 @@
         <v>1.63</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT190" t="n">
         <v>1.08</v>
@@ -39879,7 +39879,7 @@
         <v>1.67</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40282,7 +40282,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT196" t="n">
         <v>0.67</v>
@@ -40485,10 +40485,10 @@
         <v>0.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU197" t="n">
         <v>1.9</v>
@@ -41297,7 +41297,7 @@
         <v>1.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT201" t="n">
         <v>1.92</v>
@@ -41706,7 +41706,7 @@
         <v>1.92</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU203" t="n">
         <v>1.11</v>
@@ -41909,7 +41909,7 @@
         <v>1.38</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU204" t="n">
         <v>1.85</v>
@@ -43330,7 +43330,7 @@
         <v>1.67</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU211" t="n">
         <v>1.56</v>
@@ -43533,7 +43533,7 @@
         <v>1.58</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -43736,7 +43736,7 @@
         <v>1.55</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU213" t="n">
         <v>1.74</v>
@@ -44545,7 +44545,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT217" t="n">
         <v>0.92</v>
@@ -44748,7 +44748,7 @@
         <v>1.78</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT218" t="n">
         <v>1.42</v>
@@ -44951,7 +44951,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT219" t="n">
         <v>0.67</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT220" t="n">
         <v>1.58</v>
@@ -45563,7 +45563,7 @@
         <v>1.67</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU222" t="n">
         <v>1.95</v>
@@ -46575,7 +46575,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT227" t="n">
         <v>0.92</v>
@@ -47187,7 +47187,7 @@
         <v>1.83</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU230" t="n">
         <v>1.28</v>
@@ -47796,7 +47796,7 @@
         <v>1.25</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU233" t="n">
         <v>1.42</v>
@@ -48608,7 +48608,7 @@
         <v>1.25</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49011,7 +49011,7 @@
         <v>1.5</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT239" t="n">
         <v>1.36</v>
@@ -49417,7 +49417,7 @@
         <v>1.27</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT241" t="n">
         <v>1.15</v>
@@ -49620,7 +49620,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT242" t="n">
         <v>0.33</v>
@@ -50026,7 +50026,7 @@
         <v>1.18</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT244" t="n">
         <v>1.08</v>
@@ -50232,7 +50232,7 @@
         <v>1.38</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU245" t="n">
         <v>1.82</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT249" t="n">
         <v>0.92</v>
@@ -51447,7 +51447,7 @@
         <v>0.55</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AT251" t="n">
         <v>0.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.83</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU252" t="n">
         <v>1.36</v>
@@ -52059,7 +52059,7 @@
         <v>1.67</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU254" t="n">
         <v>1.51</v>
@@ -52259,7 +52259,7 @@
         <v>0.73</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT255" t="n">
         <v>0.67</v>
@@ -52868,7 +52868,7 @@
         <v>0.36</v>
       </c>
       <c r="AS258" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT258" t="n">
         <v>0.33</v>
@@ -53683,7 +53683,7 @@
         <v>1.38</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU262" t="n">
         <v>1.79</v>
@@ -54089,7 +54089,7 @@
         <v>1.08</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU264" t="n">
         <v>1.25</v>
@@ -54344,6 +54344,1021 @@
       </c>
       <c r="BK265" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2604702</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>44953.70833333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>25</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>7</v>
+      </c>
+      <c r="R266" t="n">
+        <v>3</v>
+      </c>
+      <c r="S266" t="n">
+        <v>10</v>
+      </c>
+      <c r="T266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U266" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V266" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2604705</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>44954.51041666666</v>
+      </c>
+      <c r="F267" t="n">
+        <v>25</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>2</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['10', '13']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>3</v>
+      </c>
+      <c r="R267" t="n">
+        <v>7</v>
+      </c>
+      <c r="S267" t="n">
+        <v>10</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V267" t="n">
+        <v>5</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2604700</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>44954.60416666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>25</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>6</v>
+      </c>
+      <c r="R268" t="n">
+        <v>4</v>
+      </c>
+      <c r="S268" t="n">
+        <v>10</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2604701</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>44954.60416666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>25</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>11</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1</v>
+      </c>
+      <c r="S269" t="n">
+        <v>12</v>
+      </c>
+      <c r="T269" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U269" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2604708</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>44954.70833333334</v>
+      </c>
+      <c r="F270" t="n">
+        <v>25</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>7</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1</v>
+      </c>
+      <c r="S270" t="n">
+        <v>8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V270" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT2" t="n">
         <v>0.62</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT4" t="n">
         <v>0.92</v>
@@ -1512,7 +1512,7 @@
         <v>1.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.57</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT29" t="n">
         <v>0.85</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -10038,7 +10038,7 @@
         <v>1.08</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU47" t="n">
         <v>1.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT50" t="n">
         <v>1.08</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT57" t="n">
         <v>1.36</v>
@@ -13286,7 +13286,7 @@
         <v>1.92</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.5</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT70" t="n">
         <v>0.92</v>
@@ -16128,7 +16128,7 @@
         <v>1.38</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT81" t="n">
         <v>1.92</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -19579,7 +19579,7 @@
         <v>1.83</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU94" t="n">
         <v>1.52</v>
@@ -20185,7 +20185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT97" t="n">
         <v>1.15</v>
@@ -21203,7 +21203,7 @@
         <v>1.58</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT110" t="n">
         <v>1.58</v>
@@ -23233,7 +23233,7 @@
         <v>1.58</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU112" t="n">
         <v>1.77</v>
@@ -24245,7 +24245,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT117" t="n">
         <v>0.83</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT126" t="n">
         <v>0.62</v>
@@ -26684,7 +26684,7 @@
         <v>1.08</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT144" t="n">
         <v>0.92</v>
@@ -30338,7 +30338,7 @@
         <v>1.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -30541,7 +30541,7 @@
         <v>0.92</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU148" t="n">
         <v>1.53</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT152" t="n">
         <v>0.85</v>
@@ -35819,7 +35819,7 @@
         <v>2.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU174" t="n">
         <v>2.01</v>
@@ -36022,7 +36022,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36222,7 +36222,7 @@
         <v>1.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT176" t="n">
         <v>1.92</v>
@@ -36425,7 +36425,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT177" t="n">
         <v>1.36</v>
@@ -39067,7 +39067,7 @@
         <v>2.69</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU190" t="n">
         <v>1.67</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT192" t="n">
         <v>1.58</v>
@@ -40688,7 +40688,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT198" t="n">
         <v>0.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.25</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU199" t="n">
         <v>1.42</v>
@@ -42112,7 +42112,7 @@
         <v>1.67</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU205" t="n">
         <v>1.95</v>
@@ -42921,7 +42921,7 @@
         <v>0.89</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT209" t="n">
         <v>0.83</v>
@@ -44751,7 +44751,7 @@
         <v>2.69</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT224" t="n">
         <v>0.83</v>
@@ -46981,7 +46981,7 @@
         <v>1.2</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT229" t="n">
         <v>1.33</v>
@@ -47390,7 +47390,7 @@
         <v>1.25</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU231" t="n">
         <v>1.6</v>
@@ -48811,7 +48811,7 @@
         <v>2.25</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -50029,7 +50029,7 @@
         <v>1.54</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU244" t="n">
         <v>1.14</v>
@@ -51244,7 +51244,7 @@
         <v>0.55</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT250" t="n">
         <v>0.5</v>
@@ -51853,7 +51853,7 @@
         <v>0.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT253" t="n">
         <v>0.67</v>
@@ -52668,7 +52668,7 @@
         <v>1.25</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU257" t="n">
         <v>1.58</v>
@@ -55359,6 +55359,412 @@
       </c>
       <c r="BK270" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2604704</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>44955.41666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>25</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>4</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['41', '59', '65']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>3</v>
+      </c>
+      <c r="R271" t="n">
+        <v>7</v>
+      </c>
+      <c r="S271" t="n">
+        <v>10</v>
+      </c>
+      <c r="T271" t="n">
+        <v>4</v>
+      </c>
+      <c r="U271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2604706</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>44955.51041666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>25</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>3</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1</v>
+      </c>
+      <c r="S272" t="n">
+        <v>4</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U272" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V272" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK272"/>
+  <dimension ref="A1:BK275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.83</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT17" t="n">
         <v>1.31</v>
@@ -4557,7 +4557,7 @@
         <v>1.92</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT24" t="n">
         <v>0.62</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT26" t="n">
         <v>1.31</v>
@@ -6181,7 +6181,7 @@
         <v>1.69</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU28" t="n">
         <v>1.73</v>
@@ -9023,7 +9023,7 @@
         <v>1.83</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9429,7 +9429,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT51" t="n">
         <v>1.15</v>
@@ -11662,7 +11662,7 @@
         <v>1.92</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU55" t="n">
         <v>1.28</v>
@@ -12068,7 +12068,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT68" t="n">
         <v>0.33</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -17955,7 +17955,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT90" t="n">
         <v>1.08</v>
@@ -19173,7 +19173,7 @@
         <v>1.92</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT98" t="n">
         <v>0.85</v>
@@ -21406,7 +21406,7 @@
         <v>1.92</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -21812,7 +21812,7 @@
         <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>2.09</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT116" t="n">
         <v>0.92</v>
@@ -24654,7 +24654,7 @@
         <v>1.25</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT122" t="n">
         <v>1.33</v>
@@ -27293,7 +27293,7 @@
         <v>1.92</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.43</v>
@@ -27496,7 +27496,7 @@
         <v>1.54</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU133" t="n">
         <v>1.23</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT143" t="n">
         <v>1.08</v>
@@ -31150,7 +31150,7 @@
         <v>2.38</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31556,7 +31556,7 @@
         <v>1.38</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU153" t="n">
         <v>1.76</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT154" t="n">
         <v>1.58</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT165" t="n">
         <v>1.58</v>
@@ -34195,7 +34195,7 @@
         <v>1.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU166" t="n">
         <v>1.25</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT169" t="n">
         <v>0.83</v>
@@ -35210,7 +35210,7 @@
         <v>1.55</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -35616,7 +35616,7 @@
         <v>1.58</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36428,7 +36428,7 @@
         <v>1.69</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -37237,7 +37237,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT181" t="n">
         <v>1.15</v>
@@ -39673,7 +39673,7 @@
         <v>1.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT193" t="n">
         <v>1.92</v>
@@ -40082,7 +40082,7 @@
         <v>1.58</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU195" t="n">
         <v>1.85</v>
@@ -40285,7 +40285,7 @@
         <v>0.92</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40691,7 +40691,7 @@
         <v>1.92</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU198" t="n">
         <v>1.46</v>
@@ -41500,7 +41500,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT202" t="n">
         <v>0.92</v>
@@ -43939,7 +43939,7 @@
         <v>1</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU214" t="n">
         <v>1.34</v>
@@ -44142,7 +44142,7 @@
         <v>1.25</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44342,10 +44342,10 @@
         <v>1.56</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU216" t="n">
         <v>1.65</v>
@@ -46778,7 +46778,7 @@
         <v>0.44</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT228" t="n">
         <v>0.33</v>
@@ -47996,7 +47996,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT234" t="n">
         <v>1.58</v>
@@ -48202,7 +48202,7 @@
         <v>1.92</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU235" t="n">
         <v>1.4</v>
@@ -49014,7 +49014,7 @@
         <v>2.69</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU239" t="n">
         <v>1.66</v>
@@ -51450,7 +51450,7 @@
         <v>2.38</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU251" t="n">
         <v>1.81</v>
@@ -51856,7 +51856,7 @@
         <v>1.69</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU253" t="n">
         <v>1.65</v>
@@ -52056,7 +52056,7 @@
         <v>0.9</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT254" t="n">
         <v>0.83</v>
@@ -53477,7 +53477,7 @@
         <v>1</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT261" t="n">
         <v>0.92</v>
@@ -55765,6 +55765,615 @@
       </c>
       <c r="BK272" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2604709</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>44955.60416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>25</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>2</v>
+      </c>
+      <c r="R273" t="n">
+        <v>5</v>
+      </c>
+      <c r="S273" t="n">
+        <v>7</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V273" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2604703</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>44955.60416666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>25</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>2</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['59', '75']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>7</v>
+      </c>
+      <c r="R274" t="n">
+        <v>7</v>
+      </c>
+      <c r="S274" t="n">
+        <v>14</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2604707</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>44955.70833333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>25</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>2</v>
+      </c>
+      <c r="N275" t="n">
+        <v>4</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['35', '90+2']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['3', '26']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>12</v>
+      </c>
+      <c r="R275" t="n">
+        <v>5</v>
+      </c>
+      <c r="S275" t="n">
+        <v>17</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U275" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK275"/>
+  <dimension ref="A1:BK276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.58</v>
@@ -6790,7 +6790,7 @@
         <v>2.38</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>0.62</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13895,7 +13895,7 @@
         <v>1.77</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -17549,7 +17549,7 @@
         <v>2.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>1.33</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>0.92</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT113" t="n">
         <v>1.08</v>
@@ -26481,7 +26481,7 @@
         <v>0.92</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -32977,7 +32977,7 @@
         <v>1.92</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -35207,7 +35207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT171" t="n">
         <v>0.54</v>
@@ -36834,7 +36834,7 @@
         <v>1.25</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
         <v>0.33</v>
@@ -42924,7 +42924,7 @@
         <v>1.92</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT213" t="n">
         <v>0.62</v>
@@ -45969,7 +45969,7 @@
         <v>1.69</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -49214,7 +49214,7 @@
         <v>0.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT240" t="n">
         <v>0.67</v>
@@ -50841,7 +50841,7 @@
         <v>1.67</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU248" t="n">
         <v>1.89</v>
@@ -56374,6 +56374,209 @@
       </c>
       <c r="BK275" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2604710</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>44956.70833333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>25</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>5</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2</v>
+      </c>
+      <c r="S276" t="n">
+        <v>7</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V276" t="n">
+        <v>5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK276"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.69</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.23</v>
@@ -2730,7 +2730,7 @@
         <v>1.08</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT21" t="n">
         <v>0.62</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT23" t="n">
         <v>1.92</v>
@@ -6587,7 +6587,7 @@
         <v>0.92</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>1.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU37" t="n">
         <v>1.6</v>
@@ -8211,7 +8211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT39" t="n">
         <v>1.15</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -10241,7 +10241,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU49" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.54</v>
@@ -12880,7 +12880,7 @@
         <v>2.69</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU61" t="n">
         <v>1.19</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.31</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT67" t="n">
         <v>0.54</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.83</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT71" t="n">
         <v>1.08</v>
@@ -15519,7 +15519,7 @@
         <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU74" t="n">
         <v>1.21</v>
@@ -16531,10 +16531,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -17749,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>0.62</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>2.38</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU100" t="n">
         <v>1.75</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>0.54</v>
@@ -21609,7 +21609,7 @@
         <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU104" t="n">
         <v>1.74</v>
@@ -21809,7 +21809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT105" t="n">
         <v>1.33</v>
@@ -23030,7 +23030,7 @@
         <v>2.69</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.15</v>
@@ -24045,7 +24045,7 @@
         <v>1.77</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24451,7 +24451,7 @@
         <v>1.83</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT119" t="n">
         <v>0.62</v>
@@ -25057,7 +25057,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -25872,7 +25872,7 @@
         <v>2.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>0.85</v>
@@ -27090,7 +27090,7 @@
         <v>2.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU131" t="n">
         <v>1.84</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT134" t="n">
         <v>0.92</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
         <v>1.92</v>
@@ -28308,7 +28308,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28508,7 +28508,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT138" t="n">
         <v>1.15</v>
@@ -28917,7 +28917,7 @@
         <v>1.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU140" t="n">
         <v>1.22</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT141" t="n">
         <v>1.33</v>
@@ -29729,7 +29729,7 @@
         <v>1.92</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -30947,7 +30947,7 @@
         <v>1.67</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31759,7 +31759,7 @@
         <v>1.62</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU154" t="n">
         <v>1.48</v>
@@ -32771,7 +32771,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
         <v>1.08</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
         <v>0.85</v>
@@ -33180,7 +33180,7 @@
         <v>1</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU161" t="n">
         <v>1.29</v>
@@ -33583,10 +33583,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -34398,7 +34398,7 @@
         <v>2.69</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -34601,7 +34601,7 @@
         <v>1.25</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35004,7 +35004,7 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT170" t="n">
         <v>0.62</v>
@@ -36628,10 +36628,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -36831,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT179" t="n">
         <v>0.85</v>
@@ -37443,7 +37443,7 @@
         <v>1.54</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU182" t="n">
         <v>1.15</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5</v>
@@ -38861,10 +38861,10 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU189" t="n">
         <v>1.88</v>
@@ -39473,7 +39473,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU192" t="n">
         <v>1.63</v>
@@ -41094,10 +41094,10 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU200" t="n">
         <v>1.43</v>
@@ -41703,7 +41703,7 @@
         <v>1.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>1</v>
@@ -42109,7 +42109,7 @@
         <v>1.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT205" t="n">
         <v>1.23</v>
@@ -42518,7 +42518,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT210" t="n">
         <v>0.5</v>
@@ -44548,7 +44548,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU217" t="n">
         <v>1.9</v>
@@ -44954,7 +44954,7 @@
         <v>0.92</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU219" t="n">
         <v>1.53</v>
@@ -45157,7 +45157,7 @@
         <v>1.92</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU220" t="n">
         <v>1.74</v>
@@ -45560,7 +45560,7 @@
         <v>1.2</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT222" t="n">
         <v>1</v>
@@ -46578,7 +46578,7 @@
         <v>1.54</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU227" t="n">
         <v>1.16</v>
@@ -47387,7 +47387,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT231" t="n">
         <v>1.23</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT232" t="n">
         <v>0.92</v>
@@ -48199,7 +48199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT235" t="n">
         <v>0.62</v>
@@ -48405,7 +48405,7 @@
         <v>1.58</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU236" t="n">
         <v>1.93</v>
@@ -48605,7 +48605,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT237" t="n">
         <v>0.85</v>
@@ -49217,7 +49217,7 @@
         <v>1.5</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU240" t="n">
         <v>1.69</v>
@@ -49823,10 +49823,10 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU243" t="n">
         <v>1.11</v>
@@ -50838,7 +50838,7 @@
         <v>0.82</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT248" t="n">
         <v>0.85</v>
@@ -51044,7 +51044,7 @@
         <v>0.92</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -52262,7 +52262,7 @@
         <v>1.92</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU255" t="n">
         <v>1.85</v>
@@ -52665,7 +52665,7 @@
         <v>1.45</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT257" t="n">
         <v>1.31</v>
@@ -53274,7 +53274,7 @@
         <v>1.64</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT260" t="n">
         <v>1.58</v>
@@ -53883,10 +53883,10 @@
         <v>0.91</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU263" t="n">
         <v>1.11</v>
@@ -54292,7 +54292,7 @@
         <v>1.58</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU265" t="n">
         <v>1.9</v>
@@ -56577,6 +56577,818 @@
       </c>
       <c r="BK276" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2604717</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>44960.70833333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>26</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>6</v>
+      </c>
+      <c r="R277" t="n">
+        <v>5</v>
+      </c>
+      <c r="S277" t="n">
+        <v>11</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2604715</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>44961.51041666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>26</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>7</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>10</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V278" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2604716</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>44961.51041666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>26</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>5</v>
+      </c>
+      <c r="S279" t="n">
+        <v>8</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V279" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2604721</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>44961.60416666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>26</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>6</v>
+      </c>
+      <c r="R280" t="n">
+        <v>4</v>
+      </c>
+      <c r="S280" t="n">
+        <v>10</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V280" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>0.85</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT14" t="n">
         <v>0.62</v>
@@ -3745,7 +3745,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.69</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU25" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT36" t="n">
         <v>1.92</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT37" t="n">
         <v>0.62</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT38" t="n">
         <v>0.85</v>
@@ -8414,7 +8414,7 @@
         <v>1.77</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9632,7 +9632,7 @@
         <v>1.54</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT49" t="n">
         <v>1.46</v>
@@ -10850,7 +10850,7 @@
         <v>1.62</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11865,7 +11865,7 @@
         <v>2.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT58" t="n">
         <v>0.62</v>
@@ -12474,7 +12474,7 @@
         <v>1.54</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT64" t="n">
         <v>0.62</v>
@@ -14301,7 +14301,7 @@
         <v>1.62</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14707,7 +14707,7 @@
         <v>1.69</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU70" t="n">
         <v>1.68</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT72" t="n">
         <v>0.85</v>
@@ -15316,7 +15316,7 @@
         <v>1.83</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15722,7 +15722,7 @@
         <v>2.38</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
         <v>1.23</v>
@@ -16331,7 +16331,7 @@
         <v>1.92</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT83" t="n">
         <v>1.31</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT84" t="n">
         <v>0.85</v>
@@ -18564,7 +18564,7 @@
         <v>1.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18967,10 +18967,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19376,7 +19376,7 @@
         <v>1.92</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT95" t="n">
         <v>0.83</v>
@@ -20188,7 +20188,7 @@
         <v>1.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT101" t="n">
         <v>0.85</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT102" t="n">
         <v>1.31</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT104" t="n">
         <v>1.46</v>
@@ -22218,7 +22218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -22827,7 +22827,7 @@
         <v>1.69</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23230,7 +23230,7 @@
         <v>1.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT112" t="n">
         <v>1.23</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT114" t="n">
         <v>1.92</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24854,10 +24854,10 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25060,7 +25060,7 @@
         <v>1.77</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25263,7 +25263,7 @@
         <v>1.62</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -25466,7 +25466,7 @@
         <v>2.69</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU123" t="n">
         <v>1.39</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT125" t="n">
         <v>0.85</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU127" t="n">
         <v>1.25</v>
@@ -27699,7 +27699,7 @@
         <v>1.77</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -27899,7 +27899,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT135" t="n">
         <v>0.85</v>
@@ -28305,7 +28305,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT137" t="n">
         <v>1.08</v>
@@ -28511,7 +28511,7 @@
         <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28714,7 +28714,7 @@
         <v>1.83</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -29120,7 +29120,7 @@
         <v>1.15</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29320,10 +29320,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT146" t="n">
         <v>0.62</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT150" t="n">
         <v>1.08</v>
@@ -31553,7 +31553,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT153" t="n">
         <v>0.54</v>
@@ -31962,7 +31962,7 @@
         <v>2.69</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU156" t="n">
         <v>1.54</v>
@@ -32568,10 +32568,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -33383,7 +33383,7 @@
         <v>1.54</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33789,7 +33789,7 @@
         <v>1.92</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -33992,7 +33992,7 @@
         <v>1.77</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU165" t="n">
         <v>1.58</v>
@@ -34598,7 +34598,7 @@
         <v>0.86</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT168" t="n">
         <v>1.08</v>
@@ -35410,10 +35410,10 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35613,7 +35613,7 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT173" t="n">
         <v>0.62</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT180" t="n">
         <v>1.08</v>
@@ -37240,7 +37240,7 @@
         <v>1.77</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37849,7 +37849,7 @@
         <v>1.83</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU184" t="n">
         <v>1.32</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -38255,7 +38255,7 @@
         <v>1.08</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU186" t="n">
         <v>1.29</v>
@@ -38455,10 +38455,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -39270,7 +39270,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -39876,7 +39876,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT194" t="n">
         <v>0.83</v>
@@ -40079,7 +40079,7 @@
         <v>1.38</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT195" t="n">
         <v>1.33</v>
@@ -40891,7 +40891,7 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT199" t="n">
         <v>1.31</v>
@@ -41503,7 +41503,7 @@
         <v>1.77</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.52</v>
@@ -41906,7 +41906,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT204" t="n">
         <v>1.08</v>
@@ -42315,7 +42315,7 @@
         <v>1.83</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42721,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -43127,7 +43127,7 @@
         <v>1.15</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -43327,7 +43327,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT211" t="n">
         <v>0.85</v>
@@ -43530,7 +43530,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT212" t="n">
         <v>0.83</v>
@@ -44139,7 +44139,7 @@
         <v>0.89</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT215" t="n">
         <v>0.62</v>
@@ -45357,10 +45357,10 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU221" t="n">
         <v>1.53</v>
@@ -45766,7 +45766,7 @@
         <v>1.08</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -46169,7 +46169,7 @@
         <v>1.7</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT225" t="n">
         <v>1.92</v>
@@ -46372,10 +46372,10 @@
         <v>1.1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU226" t="n">
         <v>1.85</v>
@@ -46781,7 +46781,7 @@
         <v>1.77</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -46984,7 +46984,7 @@
         <v>1.92</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -47593,7 +47593,7 @@
         <v>2</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU232" t="n">
         <v>1.43</v>
@@ -47793,7 +47793,7 @@
         <v>0.8</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT233" t="n">
         <v>1.08</v>
@@ -47999,7 +47999,7 @@
         <v>1.62</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU234" t="n">
         <v>1.7</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT236" t="n">
         <v>1.08</v>
@@ -48808,7 +48808,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT238" t="n">
         <v>1.31</v>
@@ -49420,7 +49420,7 @@
         <v>1.92</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU241" t="n">
         <v>1.85</v>
@@ -49623,7 +49623,7 @@
         <v>2.38</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU242" t="n">
         <v>1.84</v>
@@ -50229,7 +50229,7 @@
         <v>0.64</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT245" t="n">
         <v>0.62</v>
@@ -50635,10 +50635,10 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU247" t="n">
         <v>1.55</v>
@@ -51247,7 +51247,7 @@
         <v>1.92</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU250" t="n">
         <v>1.59</v>
@@ -52462,10 +52462,10 @@
         <v>1.18</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU256" t="n">
         <v>1.46</v>
@@ -52871,7 +52871,7 @@
         <v>2.69</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU258" t="n">
         <v>1.69</v>
@@ -53071,10 +53071,10 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU259" t="n">
         <v>1.59</v>
@@ -53277,7 +53277,7 @@
         <v>2</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AU260" t="n">
         <v>1.4</v>
@@ -53480,7 +53480,7 @@
         <v>1.62</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU261" t="n">
         <v>1.65</v>
@@ -53680,7 +53680,7 @@
         <v>0.64</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT262" t="n">
         <v>0.85</v>
@@ -54289,7 +54289,7 @@
         <v>1.45</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT265" t="n">
         <v>1.46</v>
@@ -57253,10 +57253,10 @@
         <v>6</v>
       </c>
       <c r="R280" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S280" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T280" t="n">
         <v>2.7</v>
@@ -57373,22 +57373,1240 @@
         <v>3.5</v>
       </c>
       <c r="BF280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2604711</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>44961.70833333334</v>
+      </c>
+      <c r="F281" t="n">
+        <v>26</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>2</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>2</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['70', '90+2']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>7</v>
+      </c>
+      <c r="R281" t="n">
         <v>3</v>
       </c>
-      <c r="BH280" t="n">
+      <c r="S281" t="n">
+        <v>10</v>
+      </c>
+      <c r="T281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U281" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF281" t="n">
         <v>6</v>
       </c>
-      <c r="BI280" t="n">
+      <c r="BG281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2604719</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>44962.41666666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>26</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>2</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['4', '28']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>8</v>
+      </c>
+      <c r="R282" t="n">
+        <v>1</v>
+      </c>
+      <c r="S282" t="n">
+        <v>9</v>
+      </c>
+      <c r="T282" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2</v>
+      </c>
+      <c r="V282" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2604712</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>44962.51041666666</v>
+      </c>
+      <c r="F283" t="n">
+        <v>26</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>10</v>
+      </c>
+      <c r="R283" t="n">
+        <v>9</v>
+      </c>
+      <c r="S283" t="n">
+        <v>19</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V283" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2604718</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>44962.60416666666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>26</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
         <v>3</v>
       </c>
-      <c r="BJ280" t="n">
+      <c r="R284" t="n">
+        <v>5</v>
+      </c>
+      <c r="S284" t="n">
+        <v>8</v>
+      </c>
+      <c r="T284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG284" t="n">
         <v>6</v>
       </c>
-      <c r="BK280" t="n">
+      <c r="BH284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2604714</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>44962.60416666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>26</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>2</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['47', '82']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>4</v>
+      </c>
+      <c r="R285" t="n">
+        <v>1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>5</v>
+      </c>
+      <c r="T285" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U285" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V285" t="n">
+        <v>3</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2604720</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>44962.70833333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>26</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
         <v>6</v>
+      </c>
+      <c r="R286" t="n">
+        <v>6</v>
+      </c>
+      <c r="S286" t="n">
+        <v>12</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK286"/>
+  <dimension ref="A1:BK287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT9" t="n">
         <v>0.54</v>
@@ -5166,7 +5166,7 @@
         <v>1.15</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>2.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT48" t="n">
         <v>1.08</v>
@@ -13692,7 +13692,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT73" t="n">
         <v>1.69</v>
@@ -16940,7 +16940,7 @@
         <v>1.69</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT94" t="n">
         <v>1.23</v>
@@ -22421,7 +22421,7 @@
         <v>1.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -23639,7 +23639,7 @@
         <v>1.23</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT118" t="n">
         <v>0.62</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28711,7 +28711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT139" t="n">
         <v>0.38</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT157" t="n">
         <v>0.85</v>
@@ -36225,7 +36225,7 @@
         <v>1.92</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT184" t="n">
         <v>1.07</v>
@@ -39676,7 +39676,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -41300,7 +41300,7 @@
         <v>1.54</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU201" t="n">
         <v>1.16</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT206" t="n">
         <v>1.23</v>
@@ -46172,7 +46172,7 @@
         <v>1.54</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU225" t="n">
         <v>1.53</v>
@@ -47184,7 +47184,7 @@
         <v>0.6</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT230" t="n">
         <v>0.62</v>
@@ -50435,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU246" t="n">
         <v>1.3</v>
@@ -51650,7 +51650,7 @@
         <v>1.18</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -58607,6 +58607,209 @@
       </c>
       <c r="BK286" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2604713</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>44963.70833333334</v>
+      </c>
+      <c r="F287" t="n">
+        <v>26</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>2</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" t="n">
+        <v>2</v>
+      </c>
+      <c r="T287" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,18 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['7', '83']</t>
+  </si>
+  <si>
+    <t>['45', '65']</t>
+  </si>
+  <si>
+    <t>['30', '45+1', '59']</t>
+  </si>
+  <si>
+    <t>['4', '55', '62']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -959,6 +971,15 @@
   </si>
   <si>
     <t>['47', '82']</t>
+  </si>
+  <si>
+    <t>['20', '53', '67', '90']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['16', '34']</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK287"/>
+  <dimension ref="A1:BK294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.62</v>
@@ -1755,7 +1776,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1845,7 +1866,7 @@
         <v>2.38</v>
       </c>
       <c r="AT3">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2033,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT4">
         <v>0.85</v>
@@ -2137,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2227,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2415,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>1.07</v>
@@ -2519,7 +2540,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2609,7 +2630,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2710,7 +2731,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2991,7 +3012,7 @@
         <v>1.77</v>
       </c>
       <c r="AT9">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3179,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3283,7 +3304,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3474,7 +3495,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3665,7 +3686,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -4137,7 +4158,7 @@
         <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4325,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
         <v>1.69</v>
@@ -4516,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT17">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4707,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT18">
         <v>1.14</v>
@@ -4898,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT19">
         <v>0.83</v>
@@ -5002,7 +5023,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5283,7 +5304,7 @@
         <v>1.77</v>
       </c>
       <c r="AT21">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5575,7 +5596,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5766,7 +5787,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5853,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT24">
         <v>0.62</v>
@@ -6238,7 +6259,7 @@
         <v>1.62</v>
       </c>
       <c r="AT26">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU26">
         <v>1.57</v>
@@ -6530,7 +6551,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6617,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT28">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>1.73</v>
@@ -6808,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU29">
         <v>1.62</v>
@@ -7384,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.04</v>
@@ -7572,10 +7593,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT33">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.36</v>
@@ -7763,10 +7784,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU34">
         <v>1.56</v>
@@ -8440,7 +8461,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9013,7 +9034,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9586,7 +9607,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9673,10 +9694,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT44">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU44">
         <v>1.55</v>
@@ -9864,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
         <v>1.69</v>
@@ -10055,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>0.83</v>
@@ -10159,7 +10180,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10249,7 +10270,7 @@
         <v>1.08</v>
       </c>
       <c r="AT47">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU47">
         <v>1.06</v>
@@ -10819,10 +10840,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.43</v>
@@ -10923,7 +10944,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11204,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU52">
         <v>1.32</v>
@@ -11305,7 +11326,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11392,10 +11413,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU53">
         <v>1.75</v>
@@ -11496,7 +11517,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11777,7 +11798,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>1.28</v>
@@ -12156,7 +12177,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57">
         <v>1.33</v>
@@ -12350,7 +12371,7 @@
         <v>1.54</v>
       </c>
       <c r="AT58">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU58">
         <v>1.86</v>
@@ -12538,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
         <v>0.38</v>
@@ -12833,7 +12854,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12920,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT61">
         <v>0.62</v>
@@ -13111,7 +13132,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT62">
         <v>0.85</v>
@@ -13305,7 +13326,7 @@
         <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU63">
         <v>1.5</v>
@@ -13788,7 +13809,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13875,7 +13896,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
         <v>0.85</v>
@@ -14069,7 +14090,7 @@
         <v>1.77</v>
       </c>
       <c r="AT67">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>2.14</v>
@@ -14639,7 +14660,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT70">
         <v>1.07</v>
@@ -14743,7 +14764,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14833,7 +14854,7 @@
         <v>1.15</v>
       </c>
       <c r="AT71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.6</v>
@@ -14934,7 +14955,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15024,7 +15045,7 @@
         <v>1.23</v>
       </c>
       <c r="AT72">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU72">
         <v>1.8</v>
@@ -15507,7 +15528,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15785,10 +15806,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU76">
         <v>1.83</v>
@@ -15979,7 +16000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -16167,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT78">
         <v>0.6899999999999999</v>
@@ -16552,7 +16573,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU80">
         <v>1.3</v>
@@ -16653,7 +16674,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16740,7 +16761,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT81">
         <v>1.85</v>
@@ -17125,7 +17146,7 @@
         <v>1.54</v>
       </c>
       <c r="AT83">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU83">
         <v>1.79</v>
@@ -17226,7 +17247,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17417,7 +17438,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17608,7 +17629,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17695,7 +17716,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
         <v>1.33</v>
@@ -17886,7 +17907,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT87">
         <v>0.62</v>
@@ -17990,7 +18011,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18080,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU88">
         <v>1.3</v>
@@ -18268,7 +18289,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT89">
         <v>1.23</v>
@@ -18462,7 +18483,7 @@
         <v>1.62</v>
       </c>
       <c r="AT90">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -18844,7 +18865,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>1.1</v>
@@ -19032,7 +19053,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT93">
         <v>0.38</v>
@@ -19226,7 +19247,7 @@
         <v>1.77</v>
       </c>
       <c r="AT94">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU94">
         <v>1.52</v>
@@ -19327,7 +19348,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19518,7 +19539,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19605,7 +19626,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT96">
         <v>1.08</v>
@@ -19709,7 +19730,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19796,7 +19817,7 @@
         <v>0.75</v>
       </c>
       <c r="AS97">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>1.14</v>
@@ -19987,10 +20008,10 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT98">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -20181,7 +20202,7 @@
         <v>1.15</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99">
         <v>1.63</v>
@@ -20473,7 +20494,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20754,7 +20775,7 @@
         <v>1.46</v>
       </c>
       <c r="AT102">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20945,7 +20966,7 @@
         <v>2</v>
       </c>
       <c r="AT103">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -21515,7 +21536,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT106">
         <v>0.62</v>
@@ -21810,7 +21831,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22001,7 +22022,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22279,7 +22300,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT110">
         <v>1.69</v>
@@ -22470,7 +22491,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT111">
         <v>0.85</v>
@@ -22664,7 +22685,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -22852,10 +22873,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>1.55</v>
@@ -23425,7 +23446,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT116">
         <v>1.08</v>
@@ -23616,7 +23637,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>0.83</v>
@@ -23911,7 +23932,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24001,7 +24022,7 @@
         <v>1.15</v>
       </c>
       <c r="AT119">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU119">
         <v>1.49</v>
@@ -24762,7 +24783,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT123">
         <v>1.07</v>
@@ -24956,7 +24977,7 @@
         <v>1.54</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU124">
         <v>1.81</v>
@@ -25335,7 +25356,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT126">
         <v>0.62</v>
@@ -25439,7 +25460,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25630,7 +25651,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25911,7 +25932,7 @@
         <v>1.08</v>
       </c>
       <c r="AT129">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU129">
         <v>1.23</v>
@@ -26102,7 +26123,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU130">
         <v>1.36</v>
@@ -26481,7 +26502,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT132">
         <v>1.33</v>
@@ -26672,10 +26693,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT133">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU133">
         <v>1.23</v>
@@ -26776,7 +26797,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28113,7 +28134,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28582,10 +28603,10 @@
         <v>0.67</v>
       </c>
       <c r="AS143">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT143">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>1.51</v>
@@ -28773,7 +28794,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT144">
         <v>0.85</v>
@@ -28877,7 +28898,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28964,10 +28985,10 @@
         <v>0.86</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU145">
         <v>1.61</v>
@@ -29259,7 +29280,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29346,10 +29367,10 @@
         <v>1.17</v>
       </c>
       <c r="AS147">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU147">
         <v>1.64</v>
@@ -29450,7 +29471,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29540,7 +29561,7 @@
         <v>0.92</v>
       </c>
       <c r="AT148">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU148">
         <v>1.53</v>
@@ -29641,7 +29662,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30113,7 +30134,7 @@
         <v>2.38</v>
       </c>
       <c r="AT151">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU151">
         <v>1.95</v>
@@ -30301,10 +30322,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT152">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU152">
         <v>1.78</v>
@@ -30405,7 +30426,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30495,7 +30516,7 @@
         <v>1.29</v>
       </c>
       <c r="AT153">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU153">
         <v>1.76</v>
@@ -30596,7 +30617,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30874,7 +30895,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT155">
         <v>1.69</v>
@@ -31259,7 +31280,7 @@
         <v>1.77</v>
       </c>
       <c r="AT157">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU157">
         <v>1.33</v>
@@ -31360,7 +31381,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31641,7 +31662,7 @@
         <v>2</v>
       </c>
       <c r="AT159">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>1.12</v>
@@ -31933,7 +31954,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32211,7 +32232,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT162">
         <v>0.6899999999999999</v>
@@ -32315,7 +32336,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32593,7 +32614,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT164">
         <v>1.23</v>
@@ -32697,7 +32718,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32784,7 +32805,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT165">
         <v>1.69</v>
@@ -33166,7 +33187,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT167">
         <v>1.46</v>
@@ -33270,7 +33291,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33461,7 +33482,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33930,10 +33951,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT171">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU171">
         <v>1.6</v>
@@ -34315,7 +34336,7 @@
         <v>1.46</v>
       </c>
       <c r="AT173">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU173">
         <v>1.7</v>
@@ -34506,7 +34527,7 @@
         <v>2.38</v>
       </c>
       <c r="AT174">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU174">
         <v>2.01</v>
@@ -34697,7 +34718,7 @@
         <v>0.92</v>
       </c>
       <c r="AT175">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -34885,7 +34906,7 @@
         <v>1.71</v>
       </c>
       <c r="AS176">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT176">
         <v>1.85</v>
@@ -35076,7 +35097,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT177">
         <v>1.33</v>
@@ -35652,7 +35673,7 @@
         <v>2.31</v>
       </c>
       <c r="AT180">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.52</v>
@@ -35753,7 +35774,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35840,7 +35861,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT181">
         <v>1.14</v>
@@ -36031,7 +36052,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT182">
         <v>0.62</v>
@@ -36222,10 +36243,10 @@
         <v>0.63</v>
       </c>
       <c r="AS183">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT183">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36326,7 +36347,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37180,7 +37201,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37559,10 +37580,10 @@
         <v>1.63</v>
       </c>
       <c r="AS190">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT190">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU190">
         <v>1.67</v>
@@ -37750,7 +37771,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT191">
         <v>0.38</v>
@@ -37854,7 +37875,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37941,7 +37962,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT192">
         <v>1.46</v>
@@ -38618,7 +38639,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38708,7 +38729,7 @@
         <v>0.92</v>
       </c>
       <c r="AT196">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU196">
         <v>1.51</v>
@@ -39087,10 +39108,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT198">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU198">
         <v>1.46</v>
@@ -39191,7 +39212,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39281,7 +39302,7 @@
         <v>1.23</v>
       </c>
       <c r="AT199">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU199">
         <v>1.42</v>
@@ -39382,7 +39403,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -39660,7 +39681,7 @@
         <v>1.78</v>
       </c>
       <c r="AS201">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT201">
         <v>1.85</v>
@@ -39851,7 +39872,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT202">
         <v>1.07</v>
@@ -40045,7 +40066,7 @@
         <v>2</v>
       </c>
       <c r="AT203">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU203">
         <v>1.11</v>
@@ -40236,7 +40257,7 @@
         <v>1.29</v>
       </c>
       <c r="AT204">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.85</v>
@@ -40337,7 +40358,7 @@
         <v>208</v>
       </c>
       <c r="P205" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40427,7 +40448,7 @@
         <v>1.77</v>
       </c>
       <c r="AT205">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU205">
         <v>1.95</v>
@@ -40528,7 +40549,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -41188,7 +41209,7 @@
         <v>0.89</v>
       </c>
       <c r="AS209">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT209">
         <v>0.85</v>
@@ -41483,7 +41504,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41573,7 +41594,7 @@
         <v>1.54</v>
       </c>
       <c r="AT211">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU211">
         <v>1.56</v>
@@ -41952,7 +41973,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT213">
         <v>0.62</v>
@@ -42146,7 +42167,7 @@
         <v>1</v>
       </c>
       <c r="AT214">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU214">
         <v>1.34</v>
@@ -42337,7 +42358,7 @@
         <v>1.23</v>
       </c>
       <c r="AT215">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU215">
         <v>1.44</v>
@@ -42907,10 +42928,10 @@
         <v>1.78</v>
       </c>
       <c r="AS218">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT218">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU218">
         <v>1.66</v>
@@ -43011,7 +43032,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43202,7 +43223,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43289,7 +43310,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT220">
         <v>1.46</v>
@@ -43393,7 +43414,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -43674,7 +43695,7 @@
         <v>1.77</v>
       </c>
       <c r="AT222">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU222">
         <v>1.95</v>
@@ -44053,7 +44074,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT224">
         <v>0.85</v>
@@ -44348,7 +44369,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -44626,7 +44647,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT227">
         <v>0.85</v>
@@ -44817,7 +44838,7 @@
         <v>0.44</v>
       </c>
       <c r="AS228">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT228">
         <v>0.38</v>
@@ -45008,7 +45029,7 @@
         <v>1.2</v>
       </c>
       <c r="AS229">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT229">
         <v>1.23</v>
@@ -45393,7 +45414,7 @@
         <v>1.15</v>
       </c>
       <c r="AT231">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU231">
         <v>1.6</v>
@@ -45775,7 +45796,7 @@
         <v>1.23</v>
       </c>
       <c r="AT233">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU233">
         <v>1.42</v>
@@ -46157,7 +46178,7 @@
         <v>2</v>
       </c>
       <c r="AT235">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU235">
         <v>1.4</v>
@@ -46539,7 +46560,7 @@
         <v>1.15</v>
       </c>
       <c r="AT237">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU237">
         <v>1.55</v>
@@ -46730,7 +46751,7 @@
         <v>2.31</v>
       </c>
       <c r="AT238">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU238">
         <v>1.5</v>
@@ -46918,7 +46939,7 @@
         <v>1.5</v>
       </c>
       <c r="AS239">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT239">
         <v>1.33</v>
@@ -47109,7 +47130,7 @@
         <v>0.7</v>
       </c>
       <c r="AS240">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT240">
         <v>0.62</v>
@@ -47300,7 +47321,7 @@
         <v>1.27</v>
       </c>
       <c r="AS241">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT241">
         <v>1.14</v>
@@ -47873,10 +47894,10 @@
         <v>1.18</v>
       </c>
       <c r="AS244">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT244">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU244">
         <v>1.14</v>
@@ -48168,7 +48189,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48359,7 +48380,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48932,7 +48953,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49019,7 +49040,7 @@
         <v>0.55</v>
       </c>
       <c r="AS250">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT250">
         <v>0.6899999999999999</v>
@@ -49213,7 +49234,7 @@
         <v>2.38</v>
       </c>
       <c r="AT251">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU251">
         <v>1.81</v>
@@ -49404,7 +49425,7 @@
         <v>1.77</v>
       </c>
       <c r="AT252">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU252">
         <v>1.36</v>
@@ -49592,10 +49613,10 @@
         <v>0.73</v>
       </c>
       <c r="AS253">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT253">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU253">
         <v>1.65</v>
@@ -49783,7 +49804,7 @@
         <v>0.9</v>
       </c>
       <c r="AS254">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT254">
         <v>0.83</v>
@@ -49887,7 +49908,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -49974,7 +49995,7 @@
         <v>0.73</v>
       </c>
       <c r="AS255">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT255">
         <v>0.62</v>
@@ -50359,7 +50380,7 @@
         <v>1.15</v>
       </c>
       <c r="AT257">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU257">
         <v>1.58</v>
@@ -50547,7 +50568,7 @@
         <v>0.36</v>
       </c>
       <c r="AS258">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT258">
         <v>0.38</v>
@@ -50842,7 +50863,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51314,7 +51335,7 @@
         <v>1.29</v>
       </c>
       <c r="AT262">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU262">
         <v>1.79</v>
@@ -51606,7 +51627,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -51696,7 +51717,7 @@
         <v>1.08</v>
       </c>
       <c r="AT264">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU264">
         <v>1.25</v>
@@ -52078,7 +52099,7 @@
         <v>0.92</v>
       </c>
       <c r="AT266">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU266">
         <v>1.58</v>
@@ -52266,10 +52287,10 @@
         <v>1.08</v>
       </c>
       <c r="AS267">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT267">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU267">
         <v>1.66</v>
@@ -52561,7 +52582,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -52648,10 +52669,10 @@
         <v>0.92</v>
       </c>
       <c r="AS269">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT269">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU269">
         <v>1.14</v>
@@ -52839,7 +52860,7 @@
         <v>0.67</v>
       </c>
       <c r="AS270">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT270">
         <v>0.62</v>
@@ -52943,7 +52964,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53030,10 +53051,10 @@
         <v>1.08</v>
       </c>
       <c r="AS271">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT271">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU271">
         <v>1.63</v>
@@ -53221,10 +53242,10 @@
         <v>1.42</v>
       </c>
       <c r="AS272">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT272">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU272">
         <v>1.6</v>
@@ -53415,7 +53436,7 @@
         <v>1.62</v>
       </c>
       <c r="AT273">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU273">
         <v>1.63</v>
@@ -53603,10 +53624,10 @@
         <v>0.67</v>
       </c>
       <c r="AS274">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT274">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU274">
         <v>1.53</v>
@@ -53707,7 +53728,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -53985,7 +54006,7 @@
         <v>0.83</v>
       </c>
       <c r="AS276">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT276">
         <v>0.85</v>
@@ -55044,7 +55065,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55617,7 +55638,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -56141,6 +56162,1343 @@
       </c>
       <c r="BK287">
         <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>2604722</v>
+      </c>
+      <c r="C288" t="s">
+        <v>63</v>
+      </c>
+      <c r="D288" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="2">
+        <v>44967.70833333334</v>
+      </c>
+      <c r="F288">
+        <v>27</v>
+      </c>
+      <c r="G288" t="s">
+        <v>81</v>
+      </c>
+      <c r="H288" t="s">
+        <v>83</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>2</v>
+      </c>
+      <c r="O288" t="s">
+        <v>247</v>
+      </c>
+      <c r="P288" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q288">
+        <v>2</v>
+      </c>
+      <c r="R288">
+        <v>7</v>
+      </c>
+      <c r="S288">
+        <v>9</v>
+      </c>
+      <c r="T288">
+        <v>2.7</v>
+      </c>
+      <c r="U288">
+        <v>1.91</v>
+      </c>
+      <c r="V288">
+        <v>4.33</v>
+      </c>
+      <c r="W288">
+        <v>1.57</v>
+      </c>
+      <c r="X288">
+        <v>2.3</v>
+      </c>
+      <c r="Y288">
+        <v>3.75</v>
+      </c>
+      <c r="Z288">
+        <v>1.25</v>
+      </c>
+      <c r="AA288">
+        <v>9</v>
+      </c>
+      <c r="AB288">
+        <v>1.05</v>
+      </c>
+      <c r="AC288">
+        <v>2.15</v>
+      </c>
+      <c r="AD288">
+        <v>2.9</v>
+      </c>
+      <c r="AE288">
+        <v>3.65</v>
+      </c>
+      <c r="AF288">
+        <v>1.11</v>
+      </c>
+      <c r="AG288">
+        <v>6</v>
+      </c>
+      <c r="AH288">
+        <v>1.55</v>
+      </c>
+      <c r="AI288">
+        <v>2.45</v>
+      </c>
+      <c r="AJ288">
+        <v>2.45</v>
+      </c>
+      <c r="AK288">
+        <v>1.5</v>
+      </c>
+      <c r="AL288">
+        <v>2.2</v>
+      </c>
+      <c r="AM288">
+        <v>1.62</v>
+      </c>
+      <c r="AN288">
+        <v>1.25</v>
+      </c>
+      <c r="AO288">
+        <v>1.35</v>
+      </c>
+      <c r="AP288">
+        <v>1.7</v>
+      </c>
+      <c r="AQ288">
+        <v>2.69</v>
+      </c>
+      <c r="AR288">
+        <v>0.85</v>
+      </c>
+      <c r="AS288">
+        <v>2.71</v>
+      </c>
+      <c r="AT288">
+        <v>0.79</v>
+      </c>
+      <c r="AU288">
+        <v>1.63</v>
+      </c>
+      <c r="AV288">
+        <v>1.12</v>
+      </c>
+      <c r="AW288">
+        <v>2.75</v>
+      </c>
+      <c r="AX288">
+        <v>1.59</v>
+      </c>
+      <c r="AY288">
+        <v>8</v>
+      </c>
+      <c r="AZ288">
+        <v>2.9</v>
+      </c>
+      <c r="BA288">
+        <v>1.44</v>
+      </c>
+      <c r="BB288">
+        <v>1.73</v>
+      </c>
+      <c r="BC288">
+        <v>2.2</v>
+      </c>
+      <c r="BD288">
+        <v>2.93</v>
+      </c>
+      <c r="BE288">
+        <v>4.2</v>
+      </c>
+      <c r="BF288">
+        <v>5</v>
+      </c>
+      <c r="BG288">
+        <v>4</v>
+      </c>
+      <c r="BH288">
+        <v>4</v>
+      </c>
+      <c r="BI288">
+        <v>5</v>
+      </c>
+      <c r="BJ288">
+        <v>9</v>
+      </c>
+      <c r="BK288">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>2604727</v>
+      </c>
+      <c r="C289" t="s">
+        <v>63</v>
+      </c>
+      <c r="D289" t="s">
+        <v>64</v>
+      </c>
+      <c r="E289" s="2">
+        <v>44968.51041666666</v>
+      </c>
+      <c r="F289">
+        <v>27</v>
+      </c>
+      <c r="G289" t="s">
+        <v>79</v>
+      </c>
+      <c r="H289" t="s">
+        <v>77</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>4</v>
+      </c>
+      <c r="N289">
+        <v>5</v>
+      </c>
+      <c r="O289" t="s">
+        <v>142</v>
+      </c>
+      <c r="P289" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q289">
+        <v>5</v>
+      </c>
+      <c r="R289">
+        <v>5</v>
+      </c>
+      <c r="S289">
+        <v>10</v>
+      </c>
+      <c r="T289">
+        <v>3.4</v>
+      </c>
+      <c r="U289">
+        <v>1.8</v>
+      </c>
+      <c r="V289">
+        <v>3.6</v>
+      </c>
+      <c r="W289">
+        <v>1.62</v>
+      </c>
+      <c r="X289">
+        <v>2.2</v>
+      </c>
+      <c r="Y289">
+        <v>3.75</v>
+      </c>
+      <c r="Z289">
+        <v>1.25</v>
+      </c>
+      <c r="AA289">
+        <v>10</v>
+      </c>
+      <c r="AB289">
+        <v>1.04</v>
+      </c>
+      <c r="AC289">
+        <v>2.61</v>
+      </c>
+      <c r="AD289">
+        <v>2.8</v>
+      </c>
+      <c r="AE289">
+        <v>2.71</v>
+      </c>
+      <c r="AF289">
+        <v>1.12</v>
+      </c>
+      <c r="AG289">
+        <v>5.5</v>
+      </c>
+      <c r="AH289">
+        <v>1.5</v>
+      </c>
+      <c r="AI289">
+        <v>2.3</v>
+      </c>
+      <c r="AJ289">
+        <v>2.61</v>
+      </c>
+      <c r="AK289">
+        <v>1.38</v>
+      </c>
+      <c r="AL289">
+        <v>2.2</v>
+      </c>
+      <c r="AM289">
+        <v>1.62</v>
+      </c>
+      <c r="AN289">
+        <v>1.44</v>
+      </c>
+      <c r="AO289">
+        <v>1.36</v>
+      </c>
+      <c r="AP289">
+        <v>1.4</v>
+      </c>
+      <c r="AQ289">
+        <v>1.5</v>
+      </c>
+      <c r="AR289">
+        <v>1.23</v>
+      </c>
+      <c r="AS289">
+        <v>1.38</v>
+      </c>
+      <c r="AT289">
+        <v>1.36</v>
+      </c>
+      <c r="AU289">
+        <v>1.66</v>
+      </c>
+      <c r="AV289">
+        <v>1.26</v>
+      </c>
+      <c r="AW289">
+        <v>2.92</v>
+      </c>
+      <c r="AX289">
+        <v>1.95</v>
+      </c>
+      <c r="AY289">
+        <v>8</v>
+      </c>
+      <c r="AZ289">
+        <v>2.1</v>
+      </c>
+      <c r="BA289">
+        <v>1.24</v>
+      </c>
+      <c r="BB289">
+        <v>1.55</v>
+      </c>
+      <c r="BC289">
+        <v>1.9</v>
+      </c>
+      <c r="BD289">
+        <v>2.3</v>
+      </c>
+      <c r="BE289">
+        <v>3.3</v>
+      </c>
+      <c r="BF289">
+        <v>9</v>
+      </c>
+      <c r="BG289">
+        <v>7</v>
+      </c>
+      <c r="BH289">
+        <v>4</v>
+      </c>
+      <c r="BI289">
+        <v>4</v>
+      </c>
+      <c r="BJ289">
+        <v>13</v>
+      </c>
+      <c r="BK289">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>2604725</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F290">
+        <v>27</v>
+      </c>
+      <c r="G290" t="s">
+        <v>67</v>
+      </c>
+      <c r="H290" t="s">
+        <v>76</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>248</v>
+      </c>
+      <c r="P290" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q290">
+        <v>9</v>
+      </c>
+      <c r="R290">
+        <v>1</v>
+      </c>
+      <c r="S290">
+        <v>10</v>
+      </c>
+      <c r="T290">
+        <v>2.75</v>
+      </c>
+      <c r="U290">
+        <v>2</v>
+      </c>
+      <c r="V290">
+        <v>3.8</v>
+      </c>
+      <c r="W290">
+        <v>1.5</v>
+      </c>
+      <c r="X290">
+        <v>2.5</v>
+      </c>
+      <c r="Y290">
+        <v>3.25</v>
+      </c>
+      <c r="Z290">
+        <v>1.33</v>
+      </c>
+      <c r="AA290">
+        <v>8</v>
+      </c>
+      <c r="AB290">
+        <v>1.06</v>
+      </c>
+      <c r="AC290">
+        <v>2.4</v>
+      </c>
+      <c r="AD290">
+        <v>3.1</v>
+      </c>
+      <c r="AE290">
+        <v>2.9</v>
+      </c>
+      <c r="AF290">
+        <v>1.1</v>
+      </c>
+      <c r="AG290">
+        <v>6.5</v>
+      </c>
+      <c r="AH290">
+        <v>1.44</v>
+      </c>
+      <c r="AI290">
+        <v>2.62</v>
+      </c>
+      <c r="AJ290">
+        <v>2.19</v>
+      </c>
+      <c r="AK290">
+        <v>1.6</v>
+      </c>
+      <c r="AL290">
+        <v>2.05</v>
+      </c>
+      <c r="AM290">
+        <v>1.7</v>
+      </c>
+      <c r="AN290">
+        <v>1.29</v>
+      </c>
+      <c r="AO290">
+        <v>1.35</v>
+      </c>
+      <c r="AP290">
+        <v>1.65</v>
+      </c>
+      <c r="AQ290">
+        <v>1.69</v>
+      </c>
+      <c r="AR290">
+        <v>1.08</v>
+      </c>
+      <c r="AS290">
+        <v>1.79</v>
+      </c>
+      <c r="AT290">
+        <v>1</v>
+      </c>
+      <c r="AU290">
+        <v>1.59</v>
+      </c>
+      <c r="AV290">
+        <v>1.27</v>
+      </c>
+      <c r="AW290">
+        <v>2.86</v>
+      </c>
+      <c r="AX290">
+        <v>1.75</v>
+      </c>
+      <c r="AY290">
+        <v>7.5</v>
+      </c>
+      <c r="AZ290">
+        <v>2.45</v>
+      </c>
+      <c r="BA290">
+        <v>1.4</v>
+      </c>
+      <c r="BB290">
+        <v>1.67</v>
+      </c>
+      <c r="BC290">
+        <v>2.1</v>
+      </c>
+      <c r="BD290">
+        <v>2.63</v>
+      </c>
+      <c r="BE290">
+        <v>3.86</v>
+      </c>
+      <c r="BF290">
+        <v>12</v>
+      </c>
+      <c r="BG290">
+        <v>3</v>
+      </c>
+      <c r="BH290">
+        <v>11</v>
+      </c>
+      <c r="BI290">
+        <v>7</v>
+      </c>
+      <c r="BJ290">
+        <v>23</v>
+      </c>
+      <c r="BK290">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>2604728</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>44968.60416666666</v>
+      </c>
+      <c r="F291">
+        <v>27</v>
+      </c>
+      <c r="G291" t="s">
+        <v>65</v>
+      </c>
+      <c r="H291" t="s">
+        <v>86</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
+        <v>121</v>
+      </c>
+      <c r="P291" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q291">
+        <v>5</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>7</v>
+      </c>
+      <c r="T291">
+        <v>2.38</v>
+      </c>
+      <c r="U291">
+        <v>1.91</v>
+      </c>
+      <c r="V291">
+        <v>5.5</v>
+      </c>
+      <c r="W291">
+        <v>1.53</v>
+      </c>
+      <c r="X291">
+        <v>2.38</v>
+      </c>
+      <c r="Y291">
+        <v>3.4</v>
+      </c>
+      <c r="Z291">
+        <v>1.3</v>
+      </c>
+      <c r="AA291">
+        <v>9</v>
+      </c>
+      <c r="AB291">
+        <v>1.05</v>
+      </c>
+      <c r="AC291">
+        <v>1.68</v>
+      </c>
+      <c r="AD291">
+        <v>3.5</v>
+      </c>
+      <c r="AE291">
+        <v>5.1</v>
+      </c>
+      <c r="AF291">
+        <v>1.1</v>
+      </c>
+      <c r="AG291">
+        <v>6.5</v>
+      </c>
+      <c r="AH291">
+        <v>1.52</v>
+      </c>
+      <c r="AI291">
+        <v>2.35</v>
+      </c>
+      <c r="AJ291">
+        <v>2.25</v>
+      </c>
+      <c r="AK291">
+        <v>1.57</v>
+      </c>
+      <c r="AL291">
+        <v>2.2</v>
+      </c>
+      <c r="AM291">
+        <v>1.62</v>
+      </c>
+      <c r="AN291">
+        <v>1.17</v>
+      </c>
+      <c r="AO291">
+        <v>1.3</v>
+      </c>
+      <c r="AP291">
+        <v>2</v>
+      </c>
+      <c r="AQ291">
+        <v>1.92</v>
+      </c>
+      <c r="AR291">
+        <v>1</v>
+      </c>
+      <c r="AS291">
+        <v>2</v>
+      </c>
+      <c r="AT291">
+        <v>0.93</v>
+      </c>
+      <c r="AU291">
+        <v>1.61</v>
+      </c>
+      <c r="AV291">
+        <v>1.36</v>
+      </c>
+      <c r="AW291">
+        <v>2.97</v>
+      </c>
+      <c r="AX291">
+        <v>1.75</v>
+      </c>
+      <c r="AY291">
+        <v>7.5</v>
+      </c>
+      <c r="AZ291">
+        <v>2.53</v>
+      </c>
+      <c r="BA291">
+        <v>1.4</v>
+      </c>
+      <c r="BB291">
+        <v>1.67</v>
+      </c>
+      <c r="BC291">
+        <v>2.1</v>
+      </c>
+      <c r="BD291">
+        <v>2.63</v>
+      </c>
+      <c r="BE291">
+        <v>4.24</v>
+      </c>
+      <c r="BF291">
+        <v>3</v>
+      </c>
+      <c r="BG291">
+        <v>3</v>
+      </c>
+      <c r="BH291">
+        <v>8</v>
+      </c>
+      <c r="BI291">
+        <v>7</v>
+      </c>
+      <c r="BJ291">
+        <v>11</v>
+      </c>
+      <c r="BK291">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>2604724</v>
+      </c>
+      <c r="C292" t="s">
+        <v>63</v>
+      </c>
+      <c r="D292" t="s">
+        <v>64</v>
+      </c>
+      <c r="E292" s="2">
+        <v>44968.70833333334</v>
+      </c>
+      <c r="F292">
+        <v>27</v>
+      </c>
+      <c r="G292" t="s">
+        <v>69</v>
+      </c>
+      <c r="H292" t="s">
+        <v>74</v>
+      </c>
+      <c r="I292">
+        <v>2</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>249</v>
+      </c>
+      <c r="P292" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q292">
+        <v>9</v>
+      </c>
+      <c r="R292">
+        <v>2</v>
+      </c>
+      <c r="S292">
+        <v>11</v>
+      </c>
+      <c r="T292">
+        <v>1.91</v>
+      </c>
+      <c r="U292">
+        <v>2.15</v>
+      </c>
+      <c r="V292">
+        <v>7.5</v>
+      </c>
+      <c r="W292">
+        <v>1.5</v>
+      </c>
+      <c r="X292">
+        <v>2.5</v>
+      </c>
+      <c r="Y292">
+        <v>3.25</v>
+      </c>
+      <c r="Z292">
+        <v>1.33</v>
+      </c>
+      <c r="AA292">
+        <v>8</v>
+      </c>
+      <c r="AB292">
+        <v>1.06</v>
+      </c>
+      <c r="AC292">
+        <v>1.41</v>
+      </c>
+      <c r="AD292">
+        <v>4.15</v>
+      </c>
+      <c r="AE292">
+        <v>7.6</v>
+      </c>
+      <c r="AF292">
+        <v>1.08</v>
+      </c>
+      <c r="AG292">
+        <v>7</v>
+      </c>
+      <c r="AH292">
+        <v>1.4</v>
+      </c>
+      <c r="AI292">
+        <v>2.75</v>
+      </c>
+      <c r="AJ292">
+        <v>2.25</v>
+      </c>
+      <c r="AK292">
+        <v>1.65</v>
+      </c>
+      <c r="AL292">
+        <v>2.5</v>
+      </c>
+      <c r="AM292">
+        <v>1.5</v>
+      </c>
+      <c r="AN292">
+        <v>1.05</v>
+      </c>
+      <c r="AO292">
+        <v>1.22</v>
+      </c>
+      <c r="AP292">
+        <v>2.8</v>
+      </c>
+      <c r="AQ292">
+        <v>1.92</v>
+      </c>
+      <c r="AR292">
+        <v>0.62</v>
+      </c>
+      <c r="AS292">
+        <v>2</v>
+      </c>
+      <c r="AT292">
+        <v>0.57</v>
+      </c>
+      <c r="AU292">
+        <v>1.88</v>
+      </c>
+      <c r="AV292">
+        <v>1.28</v>
+      </c>
+      <c r="AW292">
+        <v>3.16</v>
+      </c>
+      <c r="AX292">
+        <v>1.05</v>
+      </c>
+      <c r="AY292">
+        <v>15</v>
+      </c>
+      <c r="AZ292">
+        <v>12</v>
+      </c>
+      <c r="BA292">
+        <v>1.25</v>
+      </c>
+      <c r="BB292">
+        <v>1.55</v>
+      </c>
+      <c r="BC292">
+        <v>1.9</v>
+      </c>
+      <c r="BD292">
+        <v>2.3</v>
+      </c>
+      <c r="BE292">
+        <v>3.4</v>
+      </c>
+      <c r="BF292">
+        <v>10</v>
+      </c>
+      <c r="BG292">
+        <v>2</v>
+      </c>
+      <c r="BH292">
+        <v>14</v>
+      </c>
+      <c r="BI292">
+        <v>6</v>
+      </c>
+      <c r="BJ292">
+        <v>24</v>
+      </c>
+      <c r="BK292">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>2604726</v>
+      </c>
+      <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D293" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="2">
+        <v>44969.41666666666</v>
+      </c>
+      <c r="F293">
+        <v>27</v>
+      </c>
+      <c r="G293" t="s">
+        <v>80</v>
+      </c>
+      <c r="H293" t="s">
+        <v>85</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>2</v>
+      </c>
+      <c r="K293">
+        <v>3</v>
+      </c>
+      <c r="L293">
+        <v>3</v>
+      </c>
+      <c r="M293">
+        <v>2</v>
+      </c>
+      <c r="N293">
+        <v>5</v>
+      </c>
+      <c r="O293" t="s">
+        <v>250</v>
+      </c>
+      <c r="P293" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q293">
+        <v>4</v>
+      </c>
+      <c r="R293">
+        <v>5</v>
+      </c>
+      <c r="S293">
+        <v>9</v>
+      </c>
+      <c r="T293">
+        <v>2.6</v>
+      </c>
+      <c r="U293">
+        <v>1.9</v>
+      </c>
+      <c r="V293">
+        <v>4.8</v>
+      </c>
+      <c r="W293">
+        <v>1.55</v>
+      </c>
+      <c r="X293">
+        <v>2.25</v>
+      </c>
+      <c r="Y293">
+        <v>3.5</v>
+      </c>
+      <c r="Z293">
+        <v>1.25</v>
+      </c>
+      <c r="AA293">
+        <v>10.5</v>
+      </c>
+      <c r="AB293">
+        <v>1.04</v>
+      </c>
+      <c r="AC293">
+        <v>1.89</v>
+      </c>
+      <c r="AD293">
+        <v>3.1</v>
+      </c>
+      <c r="AE293">
+        <v>4.48</v>
+      </c>
+      <c r="AF293">
+        <v>1.11</v>
+      </c>
+      <c r="AG293">
+        <v>6.5</v>
+      </c>
+      <c r="AH293">
+        <v>1.53</v>
+      </c>
+      <c r="AI293">
+        <v>2.5</v>
+      </c>
+      <c r="AJ293">
+        <v>2.56</v>
+      </c>
+      <c r="AK293">
+        <v>1.45</v>
+      </c>
+      <c r="AL293">
+        <v>2.3</v>
+      </c>
+      <c r="AM293">
+        <v>1.55</v>
+      </c>
+      <c r="AN293">
+        <v>1.2</v>
+      </c>
+      <c r="AO293">
+        <v>1.34</v>
+      </c>
+      <c r="AP293">
+        <v>1.83</v>
+      </c>
+      <c r="AQ293">
+        <v>1.77</v>
+      </c>
+      <c r="AR293">
+        <v>0.54</v>
+      </c>
+      <c r="AS293">
+        <v>1.86</v>
+      </c>
+      <c r="AT293">
+        <v>0.5</v>
+      </c>
+      <c r="AU293">
+        <v>1.53</v>
+      </c>
+      <c r="AV293">
+        <v>1.31</v>
+      </c>
+      <c r="AW293">
+        <v>2.84</v>
+      </c>
+      <c r="AX293">
+        <v>1.64</v>
+      </c>
+      <c r="AY293">
+        <v>8</v>
+      </c>
+      <c r="AZ293">
+        <v>2.77</v>
+      </c>
+      <c r="BA293">
+        <v>1.32</v>
+      </c>
+      <c r="BB293">
+        <v>1.6</v>
+      </c>
+      <c r="BC293">
+        <v>2.05</v>
+      </c>
+      <c r="BD293">
+        <v>2.8</v>
+      </c>
+      <c r="BE293">
+        <v>4</v>
+      </c>
+      <c r="BF293">
+        <v>7</v>
+      </c>
+      <c r="BG293">
+        <v>5</v>
+      </c>
+      <c r="BH293">
+        <v>12</v>
+      </c>
+      <c r="BI293">
+        <v>2</v>
+      </c>
+      <c r="BJ293">
+        <v>19</v>
+      </c>
+      <c r="BK293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>2604729</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+      <c r="E294" s="2">
+        <v>44969.51041666666</v>
+      </c>
+      <c r="F294">
+        <v>27</v>
+      </c>
+      <c r="G294" t="s">
+        <v>73</v>
+      </c>
+      <c r="H294" t="s">
+        <v>72</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
+        <v>87</v>
+      </c>
+      <c r="P294" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q294">
+        <v>3</v>
+      </c>
+      <c r="R294">
+        <v>4</v>
+      </c>
+      <c r="S294">
+        <v>7</v>
+      </c>
+      <c r="T294">
+        <v>2.8</v>
+      </c>
+      <c r="U294">
+        <v>1.82</v>
+      </c>
+      <c r="V294">
+        <v>4.6</v>
+      </c>
+      <c r="W294">
+        <v>1.61</v>
+      </c>
+      <c r="X294">
+        <v>2.15</v>
+      </c>
+      <c r="Y294">
+        <v>3.9</v>
+      </c>
+      <c r="Z294">
+        <v>1.22</v>
+      </c>
+      <c r="AA294">
+        <v>12</v>
+      </c>
+      <c r="AB294">
+        <v>1.03</v>
+      </c>
+      <c r="AC294">
+        <v>2.17</v>
+      </c>
+      <c r="AD294">
+        <v>2.95</v>
+      </c>
+      <c r="AE294">
+        <v>3.63</v>
+      </c>
+      <c r="AF294">
+        <v>1.14</v>
+      </c>
+      <c r="AG294">
+        <v>5</v>
+      </c>
+      <c r="AH294">
+        <v>1.7</v>
+      </c>
+      <c r="AI294">
+        <v>2.02</v>
+      </c>
+      <c r="AJ294">
+        <v>2.77</v>
+      </c>
+      <c r="AK294">
+        <v>1.39</v>
+      </c>
+      <c r="AL294">
+        <v>2.4</v>
+      </c>
+      <c r="AM294">
+        <v>1.49</v>
+      </c>
+      <c r="AN294">
+        <v>1.23</v>
+      </c>
+      <c r="AO294">
+        <v>1.38</v>
+      </c>
+      <c r="AP294">
+        <v>1.7</v>
+      </c>
+      <c r="AQ294">
+        <v>1.54</v>
+      </c>
+      <c r="AR294">
+        <v>1.31</v>
+      </c>
+      <c r="AS294">
+        <v>1.43</v>
+      </c>
+      <c r="AT294">
+        <v>1.43</v>
+      </c>
+      <c r="AU294">
+        <v>1.2</v>
+      </c>
+      <c r="AV294">
+        <v>1.15</v>
+      </c>
+      <c r="AW294">
+        <v>2.35</v>
+      </c>
+      <c r="AX294">
+        <v>1.51</v>
+      </c>
+      <c r="AY294">
+        <v>8.5</v>
+      </c>
+      <c r="AZ294">
+        <v>3.16</v>
+      </c>
+      <c r="BA294">
+        <v>1.3</v>
+      </c>
+      <c r="BB294">
+        <v>1.57</v>
+      </c>
+      <c r="BC294">
+        <v>2</v>
+      </c>
+      <c r="BD294">
+        <v>2.7</v>
+      </c>
+      <c r="BE294">
+        <v>3.9</v>
+      </c>
+      <c r="BF294">
+        <v>2</v>
+      </c>
+      <c r="BG294">
+        <v>3</v>
+      </c>
+      <c r="BH294">
+        <v>6</v>
+      </c>
+      <c r="BI294">
+        <v>8</v>
+      </c>
+      <c r="BJ294">
+        <v>8</v>
+      </c>
+      <c r="BK294">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -981,6 +981,9 @@
   <si>
     <t>['16', '34']</t>
   </si>
+  <si>
+    <t>['2', '5', '69']</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK294"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT3">
         <v>0.79</v>
@@ -3585,7 +3588,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4155,7 +4158,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT15">
         <v>0.93</v>
@@ -5113,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5877,7 +5880,7 @@
         <v>1.86</v>
       </c>
       <c r="AT24">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU24">
         <v>1.64</v>
@@ -6256,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT26">
         <v>1.43</v>
@@ -7211,10 +7214,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT31">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -9315,7 +9318,7 @@
         <v>1.77</v>
       </c>
       <c r="AT42">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -11031,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
         <v>1.14</v>
@@ -11986,7 +11989,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT56">
         <v>0.6899999999999999</v>
@@ -12180,7 +12183,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -13517,7 +13520,7 @@
         <v>2.31</v>
       </c>
       <c r="AT64">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13899,7 +13902,7 @@
         <v>1.86</v>
       </c>
       <c r="AT66">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU66">
         <v>1.69</v>
@@ -14278,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
         <v>0.38</v>
@@ -15615,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT75">
         <v>1.14</v>
@@ -17337,7 +17340,7 @@
         <v>2.31</v>
       </c>
       <c r="AT84">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU84">
         <v>1.54</v>
@@ -17719,7 +17722,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17910,7 +17913,7 @@
         <v>2.71</v>
       </c>
       <c r="AT87">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -18480,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -20390,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT100">
         <v>0.62</v>
@@ -20584,7 +20587,7 @@
         <v>1.54</v>
       </c>
       <c r="AT101">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU101">
         <v>1.65</v>
@@ -21348,7 +21351,7 @@
         <v>1.77</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU105">
         <v>2.09</v>
@@ -21539,7 +21542,7 @@
         <v>1.43</v>
       </c>
       <c r="AT106">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU106">
         <v>1.23</v>
@@ -24592,7 +24595,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT122">
         <v>1.23</v>
@@ -25359,7 +25362,7 @@
         <v>1.79</v>
       </c>
       <c r="AT126">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25741,7 +25744,7 @@
         <v>0.92</v>
       </c>
       <c r="AT128">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU128">
         <v>1.59</v>
@@ -26311,7 +26314,7 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT131">
         <v>1.46</v>
@@ -26505,7 +26508,7 @@
         <v>2</v>
       </c>
       <c r="AT132">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU132">
         <v>1.43</v>
@@ -27078,7 +27081,7 @@
         <v>1.46</v>
       </c>
       <c r="AT135">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -29179,7 +29182,7 @@
         <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU146">
         <v>1.51</v>
@@ -30131,7 +30134,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT151">
         <v>0.57</v>
@@ -30704,7 +30707,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT154">
         <v>1.46</v>
@@ -31853,7 +31856,7 @@
         <v>2</v>
       </c>
       <c r="AT160">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU160">
         <v>1.42</v>
@@ -32999,7 +33002,7 @@
         <v>1.08</v>
       </c>
       <c r="AT166">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU166">
         <v>1.25</v>
@@ -33569,7 +33572,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT169">
         <v>0.83</v>
@@ -33763,7 +33766,7 @@
         <v>1.77</v>
       </c>
       <c r="AT170">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU170">
         <v>1.85</v>
@@ -34524,7 +34527,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT174">
         <v>1.36</v>
@@ -35100,7 +35103,7 @@
         <v>1.79</v>
       </c>
       <c r="AT177">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU177">
         <v>1.68</v>
@@ -35482,7 +35485,7 @@
         <v>1.15</v>
       </c>
       <c r="AT179">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU179">
         <v>1.64</v>
@@ -38153,7 +38156,7 @@
         <v>1.63</v>
       </c>
       <c r="AS193">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT193">
         <v>1.85</v>
@@ -38538,7 +38541,7 @@
         <v>1.46</v>
       </c>
       <c r="AT195">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU195">
         <v>1.85</v>
@@ -38917,10 +38920,10 @@
         <v>0.75</v>
       </c>
       <c r="AS197">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT197">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU197">
         <v>1.9</v>
@@ -41212,7 +41215,7 @@
         <v>2</v>
       </c>
       <c r="AT209">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU209">
         <v>1.5</v>
@@ -41976,7 +41979,7 @@
         <v>1.38</v>
       </c>
       <c r="AT213">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU213">
         <v>1.74</v>
@@ -42546,10 +42549,10 @@
         <v>1.56</v>
       </c>
       <c r="AS216">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT216">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU216">
         <v>1.65</v>
@@ -42737,7 +42740,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT217">
         <v>1.08</v>
@@ -44077,7 +44080,7 @@
         <v>1.79</v>
       </c>
       <c r="AT224">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU224">
         <v>1.69</v>
@@ -45223,7 +45226,7 @@
         <v>1.77</v>
       </c>
       <c r="AT230">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU230">
         <v>1.28</v>
@@ -45984,7 +45987,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT234">
         <v>1.69</v>
@@ -46942,7 +46945,7 @@
         <v>2.71</v>
       </c>
       <c r="AT239">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU239">
         <v>1.66</v>
@@ -47512,7 +47515,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT242">
         <v>0.38</v>
@@ -48088,7 +48091,7 @@
         <v>1.29</v>
       </c>
       <c r="AT245">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48661,7 +48664,7 @@
         <v>1.77</v>
       </c>
       <c r="AT248">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU248">
         <v>1.89</v>
@@ -49231,7 +49234,7 @@
         <v>0.55</v>
       </c>
       <c r="AS251">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT251">
         <v>0.5</v>
@@ -51141,7 +51144,7 @@
         <v>1</v>
       </c>
       <c r="AS261">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT261">
         <v>1.07</v>
@@ -52478,7 +52481,7 @@
         <v>0.82</v>
       </c>
       <c r="AS268">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT268">
         <v>0.83</v>
@@ -52863,7 +52866,7 @@
         <v>2</v>
       </c>
       <c r="AT270">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU270">
         <v>1.88</v>
@@ -53433,7 +53436,7 @@
         <v>0.5</v>
       </c>
       <c r="AS273">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT273">
         <v>0.5</v>
@@ -53818,7 +53821,7 @@
         <v>1</v>
       </c>
       <c r="AT275">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU275">
         <v>1.31</v>
@@ -54009,7 +54012,7 @@
         <v>1.38</v>
       </c>
       <c r="AT276">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU276">
         <v>1.69</v>
@@ -57499,6 +57502,579 @@
       </c>
       <c r="BK294">
         <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:63">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>2604730</v>
+      </c>
+      <c r="C295" t="s">
+        <v>63</v>
+      </c>
+      <c r="D295" t="s">
+        <v>64</v>
+      </c>
+      <c r="E295" s="2">
+        <v>44969.60416666666</v>
+      </c>
+      <c r="F295">
+        <v>27</v>
+      </c>
+      <c r="G295" t="s">
+        <v>66</v>
+      </c>
+      <c r="H295" t="s">
+        <v>75</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>2</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>3</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>87</v>
+      </c>
+      <c r="P295" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q295">
+        <v>5</v>
+      </c>
+      <c r="R295">
+        <v>3</v>
+      </c>
+      <c r="S295">
+        <v>8</v>
+      </c>
+      <c r="T295">
+        <v>2.4</v>
+      </c>
+      <c r="U295">
+        <v>1.93</v>
+      </c>
+      <c r="V295">
+        <v>5.25</v>
+      </c>
+      <c r="W295">
+        <v>1.53</v>
+      </c>
+      <c r="X295">
+        <v>2.3</v>
+      </c>
+      <c r="Y295">
+        <v>3.5</v>
+      </c>
+      <c r="Z295">
+        <v>1.26</v>
+      </c>
+      <c r="AA295">
+        <v>10</v>
+      </c>
+      <c r="AB295">
+        <v>1.04</v>
+      </c>
+      <c r="AC295">
+        <v>1.83</v>
+      </c>
+      <c r="AD295">
+        <v>3.34</v>
+      </c>
+      <c r="AE295">
+        <v>4.8</v>
+      </c>
+      <c r="AF295">
+        <v>1.09</v>
+      </c>
+      <c r="AG295">
+        <v>7.5</v>
+      </c>
+      <c r="AH295">
+        <v>1.52</v>
+      </c>
+      <c r="AI295">
+        <v>2.35</v>
+      </c>
+      <c r="AJ295">
+        <v>2.35</v>
+      </c>
+      <c r="AK295">
+        <v>1.52</v>
+      </c>
+      <c r="AL295">
+        <v>2.3</v>
+      </c>
+      <c r="AM295">
+        <v>1.55</v>
+      </c>
+      <c r="AN295">
+        <v>1.16</v>
+      </c>
+      <c r="AO295">
+        <v>1.3</v>
+      </c>
+      <c r="AP295">
+        <v>2.05</v>
+      </c>
+      <c r="AQ295">
+        <v>2.38</v>
+      </c>
+      <c r="AR295">
+        <v>1.33</v>
+      </c>
+      <c r="AS295">
+        <v>2.21</v>
+      </c>
+      <c r="AT295">
+        <v>1.46</v>
+      </c>
+      <c r="AU295">
+        <v>1.84</v>
+      </c>
+      <c r="AV295">
+        <v>1.22</v>
+      </c>
+      <c r="AW295">
+        <v>3.06</v>
+      </c>
+      <c r="AX295">
+        <v>1.82</v>
+      </c>
+      <c r="AY295">
+        <v>8</v>
+      </c>
+      <c r="AZ295">
+        <v>2.33</v>
+      </c>
+      <c r="BA295">
+        <v>1.3</v>
+      </c>
+      <c r="BB295">
+        <v>1.57</v>
+      </c>
+      <c r="BC295">
+        <v>2</v>
+      </c>
+      <c r="BD295">
+        <v>2.7</v>
+      </c>
+      <c r="BE295">
+        <v>3.8</v>
+      </c>
+      <c r="BF295">
+        <v>2</v>
+      </c>
+      <c r="BG295">
+        <v>5</v>
+      </c>
+      <c r="BH295">
+        <v>14</v>
+      </c>
+      <c r="BI295">
+        <v>6</v>
+      </c>
+      <c r="BJ295">
+        <v>16</v>
+      </c>
+      <c r="BK295">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:63">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>2604731</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>64</v>
+      </c>
+      <c r="E296" s="2">
+        <v>44969.60416666666</v>
+      </c>
+      <c r="F296">
+        <v>27</v>
+      </c>
+      <c r="G296" t="s">
+        <v>78</v>
+      </c>
+      <c r="H296" t="s">
+        <v>82</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>2</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>184</v>
+      </c>
+      <c r="P296" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q296">
+        <v>9</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>9</v>
+      </c>
+      <c r="T296">
+        <v>2.65</v>
+      </c>
+      <c r="U296">
+        <v>1.87</v>
+      </c>
+      <c r="V296">
+        <v>5</v>
+      </c>
+      <c r="W296">
+        <v>1.61</v>
+      </c>
+      <c r="X296">
+        <v>2.19</v>
+      </c>
+      <c r="Y296">
+        <v>3.95</v>
+      </c>
+      <c r="Z296">
+        <v>1.21</v>
+      </c>
+      <c r="AA296">
+        <v>10.5</v>
+      </c>
+      <c r="AB296">
+        <v>1.02</v>
+      </c>
+      <c r="AC296">
+        <v>2.03</v>
+      </c>
+      <c r="AD296">
+        <v>3.1</v>
+      </c>
+      <c r="AE296">
+        <v>4.16</v>
+      </c>
+      <c r="AF296">
+        <v>1.12</v>
+      </c>
+      <c r="AG296">
+        <v>6</v>
+      </c>
+      <c r="AH296">
+        <v>1.57</v>
+      </c>
+      <c r="AI296">
+        <v>2.4</v>
+      </c>
+      <c r="AJ296">
+        <v>2.75</v>
+      </c>
+      <c r="AK296">
+        <v>1.39</v>
+      </c>
+      <c r="AL296">
+        <v>2.4</v>
+      </c>
+      <c r="AM296">
+        <v>1.55</v>
+      </c>
+      <c r="AN296">
+        <v>1.15</v>
+      </c>
+      <c r="AO296">
+        <v>1.3</v>
+      </c>
+      <c r="AP296">
+        <v>1.75</v>
+      </c>
+      <c r="AQ296">
+        <v>1.62</v>
+      </c>
+      <c r="AR296">
+        <v>0.62</v>
+      </c>
+      <c r="AS296">
+        <v>1.57</v>
+      </c>
+      <c r="AT296">
+        <v>0.64</v>
+      </c>
+      <c r="AU296">
+        <v>1.6</v>
+      </c>
+      <c r="AV296">
+        <v>1.18</v>
+      </c>
+      <c r="AW296">
+        <v>2.78</v>
+      </c>
+      <c r="AX296">
+        <v>1.51</v>
+      </c>
+      <c r="AY296">
+        <v>8.5</v>
+      </c>
+      <c r="AZ296">
+        <v>3.07</v>
+      </c>
+      <c r="BA296">
+        <v>1.24</v>
+      </c>
+      <c r="BB296">
+        <v>1.46</v>
+      </c>
+      <c r="BC296">
+        <v>1.85</v>
+      </c>
+      <c r="BD296">
+        <v>2.4</v>
+      </c>
+      <c r="BE296">
+        <v>3.3</v>
+      </c>
+      <c r="BF296">
+        <v>6</v>
+      </c>
+      <c r="BG296">
+        <v>2</v>
+      </c>
+      <c r="BH296">
+        <v>14</v>
+      </c>
+      <c r="BI296">
+        <v>0</v>
+      </c>
+      <c r="BJ296">
+        <v>20</v>
+      </c>
+      <c r="BK296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>2604723</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="2">
+        <v>44969.70833333334</v>
+      </c>
+      <c r="F297">
+        <v>27</v>
+      </c>
+      <c r="G297" t="s">
+        <v>71</v>
+      </c>
+      <c r="H297" t="s">
+        <v>84</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>176</v>
+      </c>
+      <c r="P297" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q297">
+        <v>7</v>
+      </c>
+      <c r="R297">
+        <v>6</v>
+      </c>
+      <c r="S297">
+        <v>13</v>
+      </c>
+      <c r="T297">
+        <v>2.9</v>
+      </c>
+      <c r="U297">
+        <v>1.9</v>
+      </c>
+      <c r="V297">
+        <v>4.2</v>
+      </c>
+      <c r="W297">
+        <v>1.54</v>
+      </c>
+      <c r="X297">
+        <v>2.34</v>
+      </c>
+      <c r="Y297">
+        <v>3.6</v>
+      </c>
+      <c r="Z297">
+        <v>1.25</v>
+      </c>
+      <c r="AA297">
+        <v>9.85</v>
+      </c>
+      <c r="AB297">
+        <v>1.03</v>
+      </c>
+      <c r="AC297">
+        <v>2.14</v>
+      </c>
+      <c r="AD297">
+        <v>3.24</v>
+      </c>
+      <c r="AE297">
+        <v>3.58</v>
+      </c>
+      <c r="AF297">
+        <v>1.11</v>
+      </c>
+      <c r="AG297">
+        <v>6</v>
+      </c>
+      <c r="AH297">
+        <v>1.47</v>
+      </c>
+      <c r="AI297">
+        <v>2.6</v>
+      </c>
+      <c r="AJ297">
+        <v>2.5</v>
+      </c>
+      <c r="AK297">
+        <v>1.46</v>
+      </c>
+      <c r="AL297">
+        <v>2.1</v>
+      </c>
+      <c r="AM297">
+        <v>1.7</v>
+      </c>
+      <c r="AN297">
+        <v>1.22</v>
+      </c>
+      <c r="AO297">
+        <v>1.3</v>
+      </c>
+      <c r="AP297">
+        <v>1.66</v>
+      </c>
+      <c r="AQ297">
+        <v>1</v>
+      </c>
+      <c r="AR297">
+        <v>0.85</v>
+      </c>
+      <c r="AS297">
+        <v>1</v>
+      </c>
+      <c r="AT297">
+        <v>0.86</v>
+      </c>
+      <c r="AU297">
+        <v>1.37</v>
+      </c>
+      <c r="AV297">
+        <v>1.13</v>
+      </c>
+      <c r="AW297">
+        <v>2.5</v>
+      </c>
+      <c r="AX297">
+        <v>1.45</v>
+      </c>
+      <c r="AY297">
+        <v>8.5</v>
+      </c>
+      <c r="AZ297">
+        <v>3.28</v>
+      </c>
+      <c r="BA297">
+        <v>1.24</v>
+      </c>
+      <c r="BB297">
+        <v>1.46</v>
+      </c>
+      <c r="BC297">
+        <v>1.95</v>
+      </c>
+      <c r="BD297">
+        <v>2.4</v>
+      </c>
+      <c r="BE297">
+        <v>3.3</v>
+      </c>
+      <c r="BF297">
+        <v>6</v>
+      </c>
+      <c r="BG297">
+        <v>5</v>
+      </c>
+      <c r="BH297">
+        <v>8</v>
+      </c>
+      <c r="BI297">
+        <v>9</v>
+      </c>
+      <c r="BJ297">
+        <v>14</v>
+      </c>
+      <c r="BK297">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['27', '47']</t>
   </si>
   <si>
+    <t>['9', '38']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK298"/>
+  <dimension ref="A1:BK299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1782,7 +1785,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2164,7 +2167,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2546,7 +2549,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2737,7 +2740,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3310,7 +3313,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3501,7 +3504,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3588,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT12">
         <v>0.86</v>
@@ -3692,7 +3695,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -5029,7 +5032,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5602,7 +5605,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5793,7 +5796,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6071,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT25">
         <v>1.07</v>
@@ -6557,7 +6560,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7029,7 +7032,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.33</v>
@@ -8467,7 +8470,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9040,7 +9043,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9613,7 +9616,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10186,7 +10189,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10467,7 +10470,7 @@
         <v>1.77</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.2</v>
@@ -10655,7 +10658,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
         <v>1.46</v>
@@ -10950,7 +10953,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11332,7 +11335,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11523,7 +11526,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12860,7 +12863,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13815,7 +13818,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14770,7 +14773,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14961,7 +14964,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15433,7 +15436,7 @@
         <v>1.08</v>
       </c>
       <c r="AT74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.21</v>
@@ -15534,7 +15537,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -16003,7 +16006,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT77">
         <v>1.36</v>
@@ -16680,7 +16683,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17253,7 +17256,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17444,7 +17447,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17635,7 +17638,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18017,7 +18020,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -19354,7 +19357,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19441,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT95">
         <v>0.77</v>
@@ -19545,7 +19548,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19635,7 +19638,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.59</v>
@@ -19736,7 +19739,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20500,7 +20503,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -21837,7 +21840,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22028,7 +22031,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -23455,7 +23458,7 @@
         <v>1.86</v>
       </c>
       <c r="AT116">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.54</v>
@@ -23938,7 +23941,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24216,7 +24219,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT120">
         <v>0.38</v>
@@ -25466,7 +25469,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25657,7 +25660,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26803,7 +26806,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27466,7 +27469,7 @@
         <v>2.31</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.57</v>
@@ -28140,7 +28143,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28418,7 +28421,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT142">
         <v>0.6899999999999999</v>
@@ -28904,7 +28907,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29286,7 +29289,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29477,7 +29480,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29668,7 +29671,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29949,7 +29952,7 @@
         <v>1.54</v>
       </c>
       <c r="AT150">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.66</v>
@@ -30432,7 +30435,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30519,7 +30522,7 @@
         <v>0.57</v>
       </c>
       <c r="AS153">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT153">
         <v>0.5</v>
@@ -30623,7 +30626,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31387,7 +31390,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31960,7 +31963,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32342,7 +32345,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32724,7 +32727,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33297,7 +33300,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33387,7 +33390,7 @@
         <v>1.23</v>
       </c>
       <c r="AT168">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU168">
         <v>1.44</v>
@@ -33488,7 +33491,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -35780,7 +35783,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36353,7 +36356,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37013,7 +37016,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT187">
         <v>1.23</v>
@@ -37398,7 +37401,7 @@
         <v>1.77</v>
       </c>
       <c r="AT189">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>1.88</v>
@@ -37881,7 +37884,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38645,7 +38648,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39218,7 +39221,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39409,7 +39412,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -40260,7 +40263,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40364,7 +40367,7 @@
         <v>208</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40555,7 +40558,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -41510,7 +41513,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42746,7 +42749,7 @@
         <v>2.21</v>
       </c>
       <c r="AT217">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>1.9</v>
@@ -43038,7 +43041,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43229,7 +43232,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43420,7 +43423,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -44375,7 +44378,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -44462,7 +44465,7 @@
         <v>1.1</v>
       </c>
       <c r="AS226">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT226">
         <v>1.14</v>
@@ -46375,7 +46378,7 @@
         <v>1.46</v>
       </c>
       <c r="AT236">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU236">
         <v>1.93</v>
@@ -48091,7 +48094,7 @@
         <v>0.64</v>
       </c>
       <c r="AS245">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT245">
         <v>0.64</v>
@@ -48195,7 +48198,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48386,7 +48389,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48959,7 +48962,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49914,7 +49917,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50869,7 +50872,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51338,7 +51341,7 @@
         <v>0.64</v>
       </c>
       <c r="AS262">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT262">
         <v>0.79</v>
@@ -51532,7 +51535,7 @@
         <v>2</v>
       </c>
       <c r="AT263">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU263">
         <v>1.11</v>
@@ -51633,7 +51636,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -52588,7 +52591,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -52970,7 +52973,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53734,7 +53737,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -54206,7 +54209,7 @@
         <v>1.15</v>
       </c>
       <c r="AT277">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU277">
         <v>1.54</v>
@@ -55071,7 +55074,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55644,7 +55647,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -55731,7 +55734,7 @@
         <v>1.58</v>
       </c>
       <c r="AS285">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT285">
         <v>1.69</v>
@@ -56408,7 +56411,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56599,7 +56602,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -57172,7 +57175,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57554,7 +57557,7 @@
         <v>87</v>
       </c>
       <c r="P295" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q295">
         <v>5</v>
@@ -57745,7 +57748,7 @@
         <v>184</v>
       </c>
       <c r="P296" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58268,6 +58271,197 @@
         <v>6</v>
       </c>
       <c r="BK298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>2604735</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>44974.70833333334</v>
+      </c>
+      <c r="F299">
+        <v>28</v>
+      </c>
+      <c r="G299" t="s">
+        <v>75</v>
+      </c>
+      <c r="H299" t="s">
+        <v>73</v>
+      </c>
+      <c r="I299">
+        <v>2</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>252</v>
+      </c>
+      <c r="P299" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q299">
+        <v>3</v>
+      </c>
+      <c r="R299">
+        <v>3</v>
+      </c>
+      <c r="S299">
+        <v>6</v>
+      </c>
+      <c r="T299">
+        <v>3.1</v>
+      </c>
+      <c r="U299">
+        <v>1.82</v>
+      </c>
+      <c r="V299">
+        <v>4</v>
+      </c>
+      <c r="W299">
+        <v>1.68</v>
+      </c>
+      <c r="X299">
+        <v>2.12</v>
+      </c>
+      <c r="Y299">
+        <v>4.14</v>
+      </c>
+      <c r="Z299">
+        <v>1.21</v>
+      </c>
+      <c r="AA299">
+        <v>12</v>
+      </c>
+      <c r="AB299">
+        <v>1.02</v>
+      </c>
+      <c r="AC299">
+        <v>2.38</v>
+      </c>
+      <c r="AD299">
+        <v>3.02</v>
+      </c>
+      <c r="AE299">
+        <v>3.3</v>
+      </c>
+      <c r="AF299">
+        <v>1.12</v>
+      </c>
+      <c r="AG299">
+        <v>6</v>
+      </c>
+      <c r="AH299">
+        <v>1.57</v>
+      </c>
+      <c r="AI299">
+        <v>2.25</v>
+      </c>
+      <c r="AJ299">
+        <v>2.62</v>
+      </c>
+      <c r="AK299">
+        <v>1.37</v>
+      </c>
+      <c r="AL299">
+        <v>2.25</v>
+      </c>
+      <c r="AM299">
+        <v>1.55</v>
+      </c>
+      <c r="AN299">
+        <v>1.31</v>
+      </c>
+      <c r="AO299">
+        <v>1.39</v>
+      </c>
+      <c r="AP299">
+        <v>1.55</v>
+      </c>
+      <c r="AQ299">
+        <v>1.29</v>
+      </c>
+      <c r="AR299">
+        <v>1.08</v>
+      </c>
+      <c r="AS299">
+        <v>1.4</v>
+      </c>
+      <c r="AT299">
+        <v>1</v>
+      </c>
+      <c r="AU299">
+        <v>1.72</v>
+      </c>
+      <c r="AV299">
+        <v>1.21</v>
+      </c>
+      <c r="AW299">
+        <v>2.93</v>
+      </c>
+      <c r="AX299">
+        <v>1.59</v>
+      </c>
+      <c r="AY299">
+        <v>8</v>
+      </c>
+      <c r="AZ299">
+        <v>2.9</v>
+      </c>
+      <c r="BA299">
+        <v>1.32</v>
+      </c>
+      <c r="BB299">
+        <v>1.6</v>
+      </c>
+      <c r="BC299">
+        <v>2.05</v>
+      </c>
+      <c r="BD299">
+        <v>2.8</v>
+      </c>
+      <c r="BE299">
+        <v>4</v>
+      </c>
+      <c r="BF299">
+        <v>8</v>
+      </c>
+      <c r="BG299">
+        <v>3</v>
+      </c>
+      <c r="BH299">
+        <v>6</v>
+      </c>
+      <c r="BI299">
+        <v>3</v>
+      </c>
+      <c r="BJ299">
+        <v>14</v>
+      </c>
+      <c r="BK299">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,10 +745,10 @@
     <t>['35', '90+2']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['4']</t>
   </si>
   <si>
-    <t>['4']</t>
+    <t>['73']</t>
   </si>
   <si>
     <t>['70', '90+2']</t>
@@ -773,6 +773,18 @@
   </si>
   <si>
     <t>['9', '38']</t>
+  </si>
+  <si>
+    <t>['11', '23', '36', '90+5']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['66', '87']</t>
+  </si>
+  <si>
+    <t>['56', '75', '82']</t>
   </si>
   <si>
     <t>['50']</t>
@@ -931,9 +943,6 @@
     <t>['37', '56']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -989,6 +998,12 @@
   </si>
   <si>
     <t>['2', '5', '69']</t>
+  </si>
+  <si>
+    <t>['40', '90+2']</t>
+  </si>
+  <si>
+    <t>['41', '51']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK299"/>
+  <dimension ref="A1:BK309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,7 +1800,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2066,7 +2081,7 @@
         <v>1.79</v>
       </c>
       <c r="AT4">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2167,7 +2182,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2254,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT5">
         <v>1.36</v>
@@ -2448,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2549,7 +2564,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2740,7 +2755,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2830,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3018,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -3313,7 +3328,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3400,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3504,7 +3519,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3695,7 +3710,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3782,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3973,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT14">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4358,7 +4373,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4740,7 +4755,7 @@
         <v>2.71</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5032,7 +5047,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5119,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT20">
         <v>1.46</v>
@@ -5310,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT21">
         <v>0.57</v>
@@ -5501,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT22">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5605,7 +5620,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5692,10 +5707,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT23">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5796,7 +5811,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6077,7 +6092,7 @@
         <v>1.4</v>
       </c>
       <c r="AT25">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.92</v>
@@ -6456,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT27">
         <v>0.77</v>
@@ -6560,7 +6575,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7984,10 +7999,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT35">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>1.64</v>
@@ -8175,10 +8190,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT36">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU36">
         <v>1.85</v>
@@ -8366,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU37">
         <v>1.6</v>
@@ -8470,7 +8485,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8557,10 +8572,10 @@
         <v>1</v>
       </c>
       <c r="AS38">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT38">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU38">
         <v>2.23</v>
@@ -8748,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT39">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU39">
         <v>2.55</v>
@@ -8939,10 +8954,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9043,7 +9058,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9130,10 +9145,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT41">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>1.21</v>
@@ -9321,7 +9336,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT42">
         <v>1.46</v>
@@ -9512,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT43">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU43">
         <v>1.22</v>
@@ -9616,7 +9631,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9897,7 +9912,7 @@
         <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -10189,7 +10204,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10276,7 +10291,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT47">
         <v>1.36</v>
@@ -10467,7 +10482,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10661,7 +10676,7 @@
         <v>1.4</v>
       </c>
       <c r="AT49">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU49">
         <v>1.62</v>
@@ -10953,7 +10968,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11043,7 +11058,7 @@
         <v>1.57</v>
       </c>
       <c r="AT51">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU51">
         <v>1.69</v>
@@ -11335,7 +11350,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11526,7 +11541,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11613,10 +11628,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT54">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11804,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT55">
         <v>0.5</v>
@@ -11998,7 +12013,7 @@
         <v>2.21</v>
       </c>
       <c r="AT56">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.69</v>
@@ -12377,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
         <v>0.57</v>
@@ -12571,7 +12586,7 @@
         <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU59">
         <v>1.2</v>
@@ -12759,10 +12774,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.16</v>
@@ -12863,7 +12878,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12953,7 +12968,7 @@
         <v>2.71</v>
       </c>
       <c r="AT61">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU61">
         <v>1.19</v>
@@ -13144,7 +13159,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU62">
         <v>1.59</v>
@@ -13332,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT63">
         <v>1.43</v>
@@ -13523,7 +13538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT64">
         <v>0.64</v>
@@ -13717,7 +13732,7 @@
         <v>1.08</v>
       </c>
       <c r="AT65">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU65">
         <v>1.3</v>
@@ -13818,7 +13833,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14096,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT67">
         <v>0.5</v>
@@ -14290,7 +14305,7 @@
         <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU68">
         <v>1.66</v>
@@ -14478,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT69">
         <v>0.77</v>
@@ -14672,7 +14687,7 @@
         <v>1.79</v>
       </c>
       <c r="AT70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.68</v>
@@ -14773,7 +14788,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14860,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14964,7 +14979,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15051,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT72">
         <v>0.79</v>
@@ -15242,10 +15257,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15433,7 +15448,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -15537,7 +15552,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15627,7 +15642,7 @@
         <v>2.21</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU75">
         <v>1.82</v>
@@ -16200,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="AT78">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU78">
         <v>1.33</v>
@@ -16388,10 +16403,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT79">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU79">
         <v>2.1</v>
@@ -16683,7 +16698,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16773,7 +16788,7 @@
         <v>1.79</v>
       </c>
       <c r="AT81">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU81">
         <v>1.66</v>
@@ -16961,10 +16976,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -17152,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT83">
         <v>1.43</v>
@@ -17256,7 +17271,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17343,7 +17358,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT84">
         <v>0.86</v>
@@ -17447,7 +17462,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17534,10 +17549,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT85">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17638,7 +17653,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18020,7 +18035,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18301,7 +18316,7 @@
         <v>1.38</v>
       </c>
       <c r="AT89">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU89">
         <v>1.57</v>
@@ -18680,10 +18695,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT91">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU91">
         <v>1.77</v>
@@ -18871,7 +18886,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT92">
         <v>0.57</v>
@@ -19065,7 +19080,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU93">
         <v>1.21</v>
@@ -19253,7 +19268,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT94">
         <v>1.36</v>
@@ -19357,7 +19372,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19548,7 +19563,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19739,7 +19754,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19829,7 +19844,7 @@
         <v>2</v>
       </c>
       <c r="AT97">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU97">
         <v>1.54</v>
@@ -20208,7 +20223,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT99">
         <v>0.93</v>
@@ -20402,7 +20417,7 @@
         <v>2.21</v>
       </c>
       <c r="AT100">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU100">
         <v>1.75</v>
@@ -20503,7 +20518,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20590,7 +20605,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
         <v>0.86</v>
@@ -20781,7 +20796,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT102">
         <v>1.43</v>
@@ -20972,7 +20987,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT103">
         <v>0.5</v>
@@ -21163,10 +21178,10 @@
         <v>2.25</v>
       </c>
       <c r="AS104">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT104">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU104">
         <v>1.74</v>
@@ -21354,7 +21369,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT105">
         <v>1.46</v>
@@ -21739,7 +21754,7 @@
         <v>1.08</v>
       </c>
       <c r="AT107">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21840,7 +21855,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21927,10 +21942,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU108">
         <v>1.29</v>
@@ -22031,7 +22046,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22121,7 +22136,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU109">
         <v>1.37</v>
@@ -22312,7 +22327,7 @@
         <v>1.79</v>
       </c>
       <c r="AT110">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22503,7 +22518,7 @@
         <v>2.71</v>
       </c>
       <c r="AT111">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU111">
         <v>1.3</v>
@@ -22691,7 +22706,7 @@
         <v>1.6</v>
       </c>
       <c r="AS112">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT112">
         <v>1.36</v>
@@ -23073,10 +23088,10 @@
         <v>1.8</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT114">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU114">
         <v>1.62</v>
@@ -23264,10 +23279,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT115">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU115">
         <v>1.19</v>
@@ -23837,10 +23852,10 @@
         <v>0.25</v>
       </c>
       <c r="AS118">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT118">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU118">
         <v>1.45</v>
@@ -23941,7 +23956,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24028,7 +24043,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT119">
         <v>0.57</v>
@@ -24222,7 +24237,7 @@
         <v>1.4</v>
       </c>
       <c r="AT120">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU120">
         <v>1.79</v>
@@ -24410,10 +24425,10 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT121">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU121">
         <v>2.01</v>
@@ -24604,7 +24619,7 @@
         <v>1.57</v>
       </c>
       <c r="AT122">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU122">
         <v>1.51</v>
@@ -24795,7 +24810,7 @@
         <v>2.71</v>
       </c>
       <c r="AT123">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.39</v>
@@ -24983,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT124">
         <v>0.93</v>
@@ -25174,10 +25189,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT125">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU125">
         <v>1.62</v>
@@ -25469,7 +25484,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25559,7 +25574,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU127">
         <v>1.25</v>
@@ -25660,7 +25675,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25938,7 +25953,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT129">
         <v>1.43</v>
@@ -26129,7 +26144,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT130">
         <v>0.79</v>
@@ -26323,7 +26338,7 @@
         <v>2.21</v>
       </c>
       <c r="AT131">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU131">
         <v>1.84</v>
@@ -26806,7 +26821,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26893,10 +26908,10 @@
         <v>0.67</v>
       </c>
       <c r="AS134">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT134">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU134">
         <v>1.92</v>
@@ -27084,7 +27099,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT135">
         <v>0.86</v>
@@ -27275,10 +27290,10 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT136">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU136">
         <v>1.19</v>
@@ -27466,7 +27481,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27657,10 +27672,10 @@
         <v>1.17</v>
       </c>
       <c r="AS138">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT138">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU138">
         <v>1.37</v>
@@ -27848,10 +27863,10 @@
         <v>0.67</v>
       </c>
       <c r="AS139">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT139">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU139">
         <v>1.36</v>
@@ -28039,10 +28054,10 @@
         <v>0.2</v>
       </c>
       <c r="AS140">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT140">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU140">
         <v>1.22</v>
@@ -28143,7 +28158,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28230,10 +28245,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT141">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU141">
         <v>1.54</v>
@@ -28424,7 +28439,7 @@
         <v>1.4</v>
       </c>
       <c r="AT142">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU142">
         <v>1.85</v>
@@ -28806,7 +28821,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU144">
         <v>1.52</v>
@@ -28907,7 +28922,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29185,7 +29200,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT146">
         <v>0.64</v>
@@ -29289,7 +29304,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29480,7 +29495,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29671,7 +29686,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29949,7 +29964,7 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30435,7 +30450,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30626,7 +30641,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30716,7 +30731,7 @@
         <v>1.57</v>
       </c>
       <c r="AT154">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU154">
         <v>1.48</v>
@@ -30907,7 +30922,7 @@
         <v>2.71</v>
       </c>
       <c r="AT155">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31095,10 +31110,10 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT156">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.54</v>
@@ -31286,7 +31301,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT157">
         <v>0.79</v>
@@ -31390,7 +31405,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31477,10 +31492,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT158">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU158">
         <v>1.69</v>
@@ -31668,7 +31683,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -31859,7 +31874,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT160">
         <v>0.86</v>
@@ -31963,7 +31978,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32053,7 +32068,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU161">
         <v>1.29</v>
@@ -32244,7 +32259,7 @@
         <v>1.43</v>
       </c>
       <c r="AT162">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU162">
         <v>1.2</v>
@@ -32345,7 +32360,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32432,10 +32447,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT163">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32626,7 +32641,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU164">
         <v>1.73</v>
@@ -32727,7 +32742,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32817,7 +32832,7 @@
         <v>1.86</v>
       </c>
       <c r="AT165">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU165">
         <v>1.58</v>
@@ -33005,7 +33020,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT166">
         <v>1.46</v>
@@ -33199,7 +33214,7 @@
         <v>2.71</v>
       </c>
       <c r="AT167">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU167">
         <v>1.5</v>
@@ -33300,7 +33315,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33387,7 +33402,7 @@
         <v>0.86</v>
       </c>
       <c r="AS168">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT168">
         <v>1</v>
@@ -33491,7 +33506,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33769,7 +33784,7 @@
         <v>0.86</v>
       </c>
       <c r="AS170">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT170">
         <v>0.64</v>
@@ -34151,10 +34166,10 @@
         <v>0.57</v>
       </c>
       <c r="AS172">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT172">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU172">
         <v>1.62</v>
@@ -34342,7 +34357,7 @@
         <v>0.71</v>
       </c>
       <c r="AS173">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT173">
         <v>0.57</v>
@@ -34918,7 +34933,7 @@
         <v>2</v>
       </c>
       <c r="AT176">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU176">
         <v>1.48</v>
@@ -35297,10 +35312,10 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT178">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU178">
         <v>1.11</v>
@@ -35488,7 +35503,7 @@
         <v>1</v>
       </c>
       <c r="AS179">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT179">
         <v>0.86</v>
@@ -35679,7 +35694,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -35783,7 +35798,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35873,7 +35888,7 @@
         <v>1.86</v>
       </c>
       <c r="AT181">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU181">
         <v>1.57</v>
@@ -36064,7 +36079,7 @@
         <v>1.43</v>
       </c>
       <c r="AT182">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU182">
         <v>1.15</v>
@@ -36356,7 +36371,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36443,10 +36458,10 @@
         <v>0.88</v>
       </c>
       <c r="AS184">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT184">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU184">
         <v>1.32</v>
@@ -36634,10 +36649,10 @@
         <v>0.63</v>
       </c>
       <c r="AS185">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT185">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU185">
         <v>1.43</v>
@@ -36825,10 +36840,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT186">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU186">
         <v>1.29</v>
@@ -37019,7 +37034,7 @@
         <v>1.4</v>
       </c>
       <c r="AT187">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37398,7 +37413,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT189">
         <v>1</v>
@@ -37783,7 +37798,7 @@
         <v>1.38</v>
       </c>
       <c r="AT191">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU191">
         <v>1.74</v>
@@ -37884,7 +37899,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37974,7 +37989,7 @@
         <v>1.79</v>
       </c>
       <c r="AT192">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU192">
         <v>1.63</v>
@@ -38165,7 +38180,7 @@
         <v>1.57</v>
       </c>
       <c r="AT193">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU193">
         <v>1.67</v>
@@ -38353,7 +38368,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT194">
         <v>0.77</v>
@@ -38544,7 +38559,7 @@
         <v>1.38</v>
       </c>
       <c r="AS195">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT195">
         <v>1.46</v>
@@ -38648,7 +38663,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39221,7 +39236,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39308,7 +39323,7 @@
         <v>1.63</v>
       </c>
       <c r="AS199">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT199">
         <v>1.43</v>
@@ -39412,7 +39427,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -39499,10 +39514,10 @@
         <v>0.38</v>
       </c>
       <c r="AS200">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT200">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU200">
         <v>1.43</v>
@@ -39693,7 +39708,7 @@
         <v>1.43</v>
       </c>
       <c r="AT201">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU201">
         <v>1.16</v>
@@ -39884,7 +39899,7 @@
         <v>1.86</v>
       </c>
       <c r="AT202">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU202">
         <v>1.52</v>
@@ -40072,7 +40087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS203">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT203">
         <v>0.93</v>
@@ -40367,7 +40382,7 @@
         <v>208</v>
       </c>
       <c r="P205" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -40454,7 +40469,7 @@
         <v>1.44</v>
       </c>
       <c r="AS205">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT205">
         <v>1.36</v>
@@ -40558,7 +40573,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -40645,10 +40660,10 @@
         <v>1</v>
       </c>
       <c r="AS206">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT206">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU206">
         <v>1.32</v>
@@ -40836,10 +40851,10 @@
         <v>0.89</v>
       </c>
       <c r="AS207">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT207">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU207">
         <v>1.28</v>
@@ -41030,7 +41045,7 @@
         <v>1</v>
       </c>
       <c r="AT208">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU208">
         <v>1.31</v>
@@ -41409,10 +41424,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT210">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU210">
         <v>1.61</v>
@@ -41513,7 +41528,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41600,7 +41615,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT211">
         <v>0.79</v>
@@ -41791,7 +41806,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT212">
         <v>0.77</v>
@@ -42364,7 +42379,7 @@
         <v>0.89</v>
       </c>
       <c r="AS215">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT215">
         <v>0.57</v>
@@ -43041,7 +43056,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43131,7 +43146,7 @@
         <v>1.08</v>
       </c>
       <c r="AT219">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU219">
         <v>1.53</v>
@@ -43232,7 +43247,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43322,7 +43337,7 @@
         <v>2</v>
       </c>
       <c r="AT220">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU220">
         <v>1.74</v>
@@ -43423,7 +43438,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -43510,10 +43525,10 @@
         <v>1.56</v>
       </c>
       <c r="AS221">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT221">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU221">
         <v>1.53</v>
@@ -43701,7 +43716,7 @@
         <v>1.2</v>
       </c>
       <c r="AS222">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT222">
         <v>0.93</v>
@@ -43892,10 +43907,10 @@
         <v>0.6</v>
       </c>
       <c r="AS223">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT223">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU223">
         <v>1.28</v>
@@ -44274,10 +44289,10 @@
         <v>1.7</v>
       </c>
       <c r="AS225">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT225">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU225">
         <v>1.53</v>
@@ -44378,7 +44393,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -44468,7 +44483,7 @@
         <v>1.4</v>
       </c>
       <c r="AT226">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU226">
         <v>1.85</v>
@@ -44659,7 +44674,7 @@
         <v>1.43</v>
       </c>
       <c r="AT227">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU227">
         <v>1.16</v>
@@ -44850,7 +44865,7 @@
         <v>1.86</v>
       </c>
       <c r="AT228">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU228">
         <v>1.52</v>
@@ -45041,7 +45056,7 @@
         <v>2</v>
       </c>
       <c r="AT229">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU229">
         <v>1.57</v>
@@ -45229,7 +45244,7 @@
         <v>0.6</v>
       </c>
       <c r="AS230">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT230">
         <v>0.64</v>
@@ -45420,7 +45435,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
         <v>1.36</v>
@@ -45611,10 +45626,10 @@
         <v>0.9</v>
       </c>
       <c r="AS232">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT232">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU232">
         <v>1.43</v>
@@ -45802,7 +45817,7 @@
         <v>0.8</v>
       </c>
       <c r="AS233">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
         <v>1</v>
@@ -45996,7 +46011,7 @@
         <v>1.57</v>
       </c>
       <c r="AT234">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU234">
         <v>1.7</v>
@@ -46184,7 +46199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS235">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT235">
         <v>0.57</v>
@@ -46375,7 +46390,7 @@
         <v>1</v>
       </c>
       <c r="AS236">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -46566,7 +46581,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT237">
         <v>0.79</v>
@@ -46757,7 +46772,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT238">
         <v>1.43</v>
@@ -47142,7 +47157,7 @@
         <v>1.38</v>
       </c>
       <c r="AT240">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU240">
         <v>1.69</v>
@@ -47333,7 +47348,7 @@
         <v>2</v>
       </c>
       <c r="AT241">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU241">
         <v>1.85</v>
@@ -47524,7 +47539,7 @@
         <v>2.21</v>
       </c>
       <c r="AT242">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU242">
         <v>1.84</v>
@@ -47712,10 +47727,10 @@
         <v>1.5</v>
       </c>
       <c r="AS243">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT243">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU243">
         <v>1.11</v>
@@ -48198,7 +48213,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48288,7 +48303,7 @@
         <v>1</v>
       </c>
       <c r="AT246">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU246">
         <v>1.3</v>
@@ -48389,7 +48404,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48476,10 +48491,10 @@
         <v>0.82</v>
       </c>
       <c r="AS247">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT247">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU247">
         <v>1.55</v>
@@ -48667,7 +48682,7 @@
         <v>0.82</v>
       </c>
       <c r="AS248">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT248">
         <v>0.86</v>
@@ -48861,7 +48876,7 @@
         <v>1.08</v>
       </c>
       <c r="AT249">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU249">
         <v>1.55</v>
@@ -48962,7 +48977,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49052,7 +49067,7 @@
         <v>2</v>
       </c>
       <c r="AT250">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU250">
         <v>1.59</v>
@@ -49431,7 +49446,7 @@
         <v>1.18</v>
       </c>
       <c r="AS252">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT252">
         <v>0.93</v>
@@ -49917,7 +49932,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50007,7 +50022,7 @@
         <v>2</v>
       </c>
       <c r="AT255">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU255">
         <v>1.85</v>
@@ -50066,7 +50081,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2604698</v>
+        <v>2604697</v>
       </c>
       <c r="C256" t="s">
         <v>63</v>
@@ -50081,142 +50096,142 @@
         <v>24</v>
       </c>
       <c r="G256" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H256" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256">
         <v>0</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256">
         <v>1</v>
       </c>
       <c r="N256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O256" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P256" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q256">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R256">
+        <v>5</v>
+      </c>
+      <c r="S256">
+        <v>12</v>
+      </c>
+      <c r="T256">
+        <v>3.2</v>
+      </c>
+      <c r="U256">
+        <v>1.93</v>
+      </c>
+      <c r="V256">
+        <v>4.5</v>
+      </c>
+      <c r="W256">
+        <v>1.62</v>
+      </c>
+      <c r="X256">
+        <v>2.25</v>
+      </c>
+      <c r="Y256">
+        <v>3.98</v>
+      </c>
+      <c r="Z256">
+        <v>1.23</v>
+      </c>
+      <c r="AA256">
+        <v>11.5</v>
+      </c>
+      <c r="AB256">
+        <v>1.03</v>
+      </c>
+      <c r="AC256">
+        <v>2.11</v>
+      </c>
+      <c r="AD256">
+        <v>2.97</v>
+      </c>
+      <c r="AE256">
+        <v>3.31</v>
+      </c>
+      <c r="AF256">
+        <v>1.13</v>
+      </c>
+      <c r="AG256">
         <v>6</v>
       </c>
-      <c r="S256">
-        <v>9</v>
-      </c>
-      <c r="T256">
-        <v>4.2</v>
-      </c>
-      <c r="U256">
-        <v>1.91</v>
-      </c>
-      <c r="V256">
-        <v>2.75</v>
-      </c>
-      <c r="W256">
-        <v>1.51</v>
-      </c>
-      <c r="X256">
-        <v>2.49</v>
-      </c>
-      <c r="Y256">
-        <v>3.4</v>
-      </c>
-      <c r="Z256">
-        <v>1.3</v>
-      </c>
-      <c r="AA256">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AB256">
-        <v>1.05</v>
-      </c>
-      <c r="AC256">
-        <v>3.31</v>
-      </c>
-      <c r="AD256">
-        <v>3.11</v>
-      </c>
-      <c r="AE256">
-        <v>2.05</v>
-      </c>
-      <c r="AF256">
-        <v>1.1</v>
-      </c>
-      <c r="AG256">
-        <v>6.5</v>
-      </c>
       <c r="AH256">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AI256">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AJ256">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="AK256">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AL256">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AM256">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AN256">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="AO256">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AP256">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AQ256">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AR256">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT256">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AU256">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AV256">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="AW256">
-        <v>2.84</v>
+        <v>2.71</v>
       </c>
       <c r="AX256">
-        <v>2.39</v>
+        <v>1.55</v>
       </c>
       <c r="AY256">
         <v>8</v>
       </c>
       <c r="AZ256">
-        <v>1.82</v>
+        <v>2.92</v>
       </c>
       <c r="BA256">
         <v>1.29</v>
@@ -50234,22 +50249,22 @@
         <v>3.75</v>
       </c>
       <c r="BF256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH256">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI256">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ256">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK256">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:63">
@@ -50257,7 +50272,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>2604697</v>
+        <v>2604698</v>
       </c>
       <c r="C257" t="s">
         <v>63</v>
@@ -50272,142 +50287,142 @@
         <v>24</v>
       </c>
       <c r="G257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H257" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
         <v>0</v>
       </c>
       <c r="K257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M257">
         <v>1</v>
       </c>
       <c r="N257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O257" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P257" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q257">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R257">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S257">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T257">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="U257">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V257">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="W257">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="X257">
-        <v>2.25</v>
+        <v>2.49</v>
       </c>
       <c r="Y257">
-        <v>3.98</v>
+        <v>3.4</v>
       </c>
       <c r="Z257">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AA257">
-        <v>11.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB257">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC257">
-        <v>2.11</v>
+        <v>3.31</v>
       </c>
       <c r="AD257">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="AE257">
-        <v>3.31</v>
+        <v>2.05</v>
       </c>
       <c r="AF257">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AG257">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH257">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AI257">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AJ257">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="AK257">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AL257">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AM257">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AN257">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="AO257">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AP257">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AQ257">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR257">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AS257">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AT257">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AU257">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AV257">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="AW257">
-        <v>2.71</v>
+        <v>2.84</v>
       </c>
       <c r="AX257">
-        <v>1.55</v>
+        <v>2.39</v>
       </c>
       <c r="AY257">
         <v>8</v>
       </c>
       <c r="AZ257">
-        <v>2.92</v>
+        <v>1.82</v>
       </c>
       <c r="BA257">
         <v>1.29</v>
@@ -50425,22 +50440,22 @@
         <v>3.75</v>
       </c>
       <c r="BF257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH257">
+        <v>9</v>
+      </c>
+      <c r="BI257">
+        <v>4</v>
+      </c>
+      <c r="BJ257">
+        <v>14</v>
+      </c>
+      <c r="BK257">
         <v>8</v>
-      </c>
-      <c r="BI257">
-        <v>8</v>
-      </c>
-      <c r="BJ257">
-        <v>10</v>
-      </c>
-      <c r="BK257">
-        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:63">
@@ -50580,7 +50595,7 @@
         <v>2.71</v>
       </c>
       <c r="AT258">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU258">
         <v>1.69</v>
@@ -50768,10 +50783,10 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT259">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU259">
         <v>1.59</v>
@@ -50872,7 +50887,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -50959,10 +50974,10 @@
         <v>1.64</v>
       </c>
       <c r="AS260">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT260">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU260">
         <v>1.4</v>
@@ -51021,7 +51036,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>2604696</v>
+        <v>2604690</v>
       </c>
       <c r="C261" t="s">
         <v>63</v>
@@ -51036,175 +51051,175 @@
         <v>24</v>
       </c>
       <c r="G261" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H261" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K261">
         <v>1</v>
       </c>
       <c r="L261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261">
         <v>1</v>
       </c>
       <c r="O261" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="P261" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="Q261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S261">
         <v>9</v>
       </c>
       <c r="T261">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="U261">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="W261">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="X261">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="Y261">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Z261">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AA261">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB261">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AC261">
-        <v>2.09</v>
+        <v>2.59</v>
       </c>
       <c r="AD261">
         <v>2.93</v>
       </c>
       <c r="AE261">
-        <v>4.12</v>
+        <v>3.01</v>
       </c>
       <c r="AF261">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AG261">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AH261">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AI261">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AJ261">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="AK261">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AL261">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AM261">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AN261">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="AO261">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP261">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AQ261">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR261">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AS261">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AT261">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="AU261">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AV261">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="AW261">
         <v>2.84</v>
       </c>
       <c r="AX261">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AY261">
+        <v>7.5</v>
+      </c>
+      <c r="AZ261">
+        <v>2.42</v>
+      </c>
+      <c r="BA261">
+        <v>1.37</v>
+      </c>
+      <c r="BB261">
+        <v>1.7</v>
+      </c>
+      <c r="BC261">
+        <v>2.2</v>
+      </c>
+      <c r="BD261">
+        <v>3.1</v>
+      </c>
+      <c r="BE261">
+        <v>4</v>
+      </c>
+      <c r="BF261">
+        <v>0</v>
+      </c>
+      <c r="BG261">
+        <v>6</v>
+      </c>
+      <c r="BH261">
         <v>8</v>
       </c>
-      <c r="AZ261">
-        <v>2.1</v>
-      </c>
-      <c r="BA261">
-        <v>1.24</v>
-      </c>
-      <c r="BB261">
-        <v>1.46</v>
-      </c>
-      <c r="BC261">
-        <v>1.95</v>
-      </c>
-      <c r="BD261">
-        <v>2.4</v>
-      </c>
-      <c r="BE261">
-        <v>3.3</v>
-      </c>
-      <c r="BF261">
-        <v>3</v>
-      </c>
-      <c r="BG261">
-        <v>3</v>
-      </c>
-      <c r="BH261">
-        <v>10</v>
-      </c>
       <c r="BI261">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ261">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK261">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:63">
@@ -51212,7 +51227,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>2604690</v>
+        <v>2604696</v>
       </c>
       <c r="C262" t="s">
         <v>63</v>
@@ -51227,175 +51242,175 @@
         <v>24</v>
       </c>
       <c r="G262" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H262" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K262">
         <v>1</v>
       </c>
       <c r="L262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N262">
         <v>1</v>
       </c>
       <c r="O262" t="s">
+        <v>151</v>
+      </c>
+      <c r="P262" t="s">
         <v>87</v>
       </c>
-      <c r="P262" t="s">
-        <v>244</v>
-      </c>
       <c r="Q262">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S262">
         <v>9</v>
       </c>
       <c r="T262">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V262">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="W262">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="X262">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="Y262">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Z262">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AA262">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB262">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AC262">
-        <v>2.59</v>
+        <v>2.09</v>
       </c>
       <c r="AD262">
         <v>2.93</v>
       </c>
       <c r="AE262">
-        <v>3.01</v>
+        <v>4.12</v>
       </c>
       <c r="AF262">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG262">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AH262">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AI262">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AJ262">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="AK262">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL262">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="AM262">
+        <v>1.57</v>
+      </c>
+      <c r="AN262">
+        <v>1.22</v>
+      </c>
+      <c r="AO262">
+        <v>1.33</v>
+      </c>
+      <c r="AP262">
         <v>1.63</v>
       </c>
-      <c r="AN262">
-        <v>1.39</v>
-      </c>
-      <c r="AO262">
-        <v>1.38</v>
-      </c>
-      <c r="AP262">
-        <v>1.47</v>
-      </c>
       <c r="AQ262">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR262">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AS262">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AT262">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AU262">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="AV262">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="AW262">
         <v>2.84</v>
       </c>
       <c r="AX262">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AY262">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ262">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="BA262">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="BB262">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="BC262">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BD262">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="BE262">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BF262">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH262">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI262">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ262">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK262">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:63">
@@ -51532,7 +51547,7 @@
         <v>0.91</v>
       </c>
       <c r="AS263">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT263">
         <v>1</v>
@@ -51636,7 +51651,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -51723,7 +51738,7 @@
         <v>0.73</v>
       </c>
       <c r="AS264">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT264">
         <v>1</v>
@@ -51914,10 +51929,10 @@
         <v>1.45</v>
       </c>
       <c r="AS265">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT265">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU265">
         <v>1.9</v>
@@ -52591,7 +52606,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -52973,7 +52988,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53313,7 +53328,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2604709</v>
+        <v>2604703</v>
       </c>
       <c r="C273" t="s">
         <v>63</v>
@@ -53328,10 +53343,10 @@
         <v>25</v>
       </c>
       <c r="G273" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H273" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I273">
         <v>0</v>
@@ -53343,82 +53358,82 @@
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M273">
         <v>0</v>
       </c>
       <c r="N273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O273" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="P273" t="s">
         <v>87</v>
       </c>
       <c r="Q273">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R273">
+        <v>7</v>
+      </c>
+      <c r="S273">
+        <v>14</v>
+      </c>
+      <c r="T273">
+        <v>2.45</v>
+      </c>
+      <c r="U273">
+        <v>2</v>
+      </c>
+      <c r="V273">
         <v>5</v>
       </c>
-      <c r="S273">
-        <v>7</v>
-      </c>
-      <c r="T273">
-        <v>2.65</v>
-      </c>
-      <c r="U273">
-        <v>1.9</v>
-      </c>
-      <c r="V273">
-        <v>4.7</v>
-      </c>
       <c r="W273">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X273">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y273">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z273">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AA273">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AB273">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AC273">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="AD273">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AE273">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AF273">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG273">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH273">
+        <v>1.4</v>
+      </c>
+      <c r="AI273">
+        <v>2.75</v>
+      </c>
+      <c r="AJ273">
+        <v>2.4</v>
+      </c>
+      <c r="AK273">
         <v>1.5</v>
-      </c>
-      <c r="AI273">
-        <v>2.45</v>
-      </c>
-      <c r="AJ273">
-        <v>2.5</v>
-      </c>
-      <c r="AK273">
-        <v>1.46</v>
       </c>
       <c r="AL273">
         <v>2.2</v>
@@ -53427,76 +53442,76 @@
         <v>1.62</v>
       </c>
       <c r="AN273">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="AO273">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP273">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AQ273">
         <v>1.67</v>
       </c>
       <c r="AR273">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AS273">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AT273">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU273">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AV273">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AW273">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="AX273">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AY273">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="AZ273">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="BA273">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="BB273">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="BC273">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="BD273">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BE273">
-        <v>3.96</v>
+        <v>3.74</v>
       </c>
       <c r="BF273">
+        <v>3</v>
+      </c>
+      <c r="BG273">
         <v>4</v>
       </c>
-      <c r="BG273">
-        <v>3</v>
-      </c>
       <c r="BH273">
+        <v>10</v>
+      </c>
+      <c r="BI273">
         <v>7</v>
       </c>
-      <c r="BI273">
-        <v>10</v>
-      </c>
       <c r="BJ273">
+        <v>13</v>
+      </c>
+      <c r="BK273">
         <v>11</v>
-      </c>
-      <c r="BK273">
-        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:63">
@@ -53504,7 +53519,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2604703</v>
+        <v>2604709</v>
       </c>
       <c r="C274" t="s">
         <v>63</v>
@@ -53519,10 +53534,10 @@
         <v>25</v>
       </c>
       <c r="G274" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H274" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -53534,82 +53549,82 @@
         <v>0</v>
       </c>
       <c r="L274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M274">
         <v>0</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O274" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="P274" t="s">
         <v>87</v>
       </c>
       <c r="Q274">
+        <v>2</v>
+      </c>
+      <c r="R274">
+        <v>5</v>
+      </c>
+      <c r="S274">
         <v>7</v>
       </c>
-      <c r="R274">
-        <v>7</v>
-      </c>
-      <c r="S274">
-        <v>14</v>
-      </c>
       <c r="T274">
+        <v>2.65</v>
+      </c>
+      <c r="U274">
+        <v>1.9</v>
+      </c>
+      <c r="V274">
+        <v>4.7</v>
+      </c>
+      <c r="W274">
+        <v>1.55</v>
+      </c>
+      <c r="X274">
+        <v>2.3</v>
+      </c>
+      <c r="Y274">
+        <v>3.5</v>
+      </c>
+      <c r="Z274">
+        <v>1.27</v>
+      </c>
+      <c r="AA274">
+        <v>11.5</v>
+      </c>
+      <c r="AB274">
+        <v>1.04</v>
+      </c>
+      <c r="AC274">
+        <v>1.94</v>
+      </c>
+      <c r="AD274">
+        <v>3.2</v>
+      </c>
+      <c r="AE274">
+        <v>4</v>
+      </c>
+      <c r="AF274">
+        <v>1.09</v>
+      </c>
+      <c r="AG274">
+        <v>7.5</v>
+      </c>
+      <c r="AH274">
+        <v>1.5</v>
+      </c>
+      <c r="AI274">
         <v>2.45</v>
       </c>
-      <c r="U274">
-        <v>2</v>
-      </c>
-      <c r="V274">
-        <v>5</v>
-      </c>
-      <c r="W274">
-        <v>1.5</v>
-      </c>
-      <c r="X274">
+      <c r="AJ274">
         <v>2.5</v>
       </c>
-      <c r="Y274">
-        <v>3.4</v>
-      </c>
-      <c r="Z274">
-        <v>1.3</v>
-      </c>
-      <c r="AA274">
-        <v>10</v>
-      </c>
-      <c r="AB274">
-        <v>1.06</v>
-      </c>
-      <c r="AC274">
-        <v>1.81</v>
-      </c>
-      <c r="AD274">
-        <v>3.45</v>
-      </c>
-      <c r="AE274">
-        <v>4.2</v>
-      </c>
-      <c r="AF274">
-        <v>1.07</v>
-      </c>
-      <c r="AG274">
-        <v>9</v>
-      </c>
-      <c r="AH274">
-        <v>1.4</v>
-      </c>
-      <c r="AI274">
-        <v>2.75</v>
-      </c>
-      <c r="AJ274">
-        <v>2.4</v>
-      </c>
       <c r="AK274">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AL274">
         <v>2.2</v>
@@ -53618,76 +53633,76 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AO274">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP274">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="AQ274">
         <v>1.67</v>
       </c>
       <c r="AR274">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AS274">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AT274">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU274">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AV274">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AW274">
+        <v>2.94</v>
+      </c>
+      <c r="AX274">
+        <v>1.4</v>
+      </c>
+      <c r="AY274">
+        <v>6.25</v>
+      </c>
+      <c r="AZ274">
+        <v>3.35</v>
+      </c>
+      <c r="BA274">
+        <v>1.33</v>
+      </c>
+      <c r="BB274">
+        <v>1.63</v>
+      </c>
+      <c r="BC274">
+        <v>2.12</v>
+      </c>
+      <c r="BD274">
         <v>2.8</v>
       </c>
-      <c r="AX274">
-        <v>1.32</v>
-      </c>
-      <c r="AY274">
-        <v>6.5</v>
-      </c>
-      <c r="AZ274">
+      <c r="BE274">
+        <v>3.96</v>
+      </c>
+      <c r="BF274">
         <v>4</v>
       </c>
-      <c r="BA274">
-        <v>1.32</v>
-      </c>
-      <c r="BB274">
-        <v>1.6</v>
-      </c>
-      <c r="BC274">
-        <v>2.06</v>
-      </c>
-      <c r="BD274">
-        <v>2.72</v>
-      </c>
-      <c r="BE274">
-        <v>3.74</v>
-      </c>
-      <c r="BF274">
+      <c r="BG274">
         <v>3</v>
       </c>
-      <c r="BG274">
-        <v>4</v>
-      </c>
       <c r="BH274">
+        <v>7</v>
+      </c>
+      <c r="BI274">
         <v>10</v>
       </c>
-      <c r="BI274">
-        <v>7</v>
-      </c>
       <c r="BJ274">
+        <v>11</v>
+      </c>
+      <c r="BK274">
         <v>13</v>
-      </c>
-      <c r="BK274">
-        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:63">
@@ -53737,7 +53752,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -54206,7 +54221,7 @@
         <v>0.92</v>
       </c>
       <c r="AS277">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT277">
         <v>1</v>
@@ -54268,7 +54283,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>2604715</v>
+        <v>2604716</v>
       </c>
       <c r="C278" t="s">
         <v>63</v>
@@ -54283,19 +54298,19 @@
         <v>26</v>
       </c>
       <c r="G278" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H278" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278">
         <v>0</v>
       </c>
       <c r="K278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L278">
         <v>1</v>
@@ -54313,19 +54328,19 @@
         <v>87</v>
       </c>
       <c r="Q278">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R278">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S278">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T278">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="U278">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V278">
         <v>4.2</v>
@@ -54337,22 +54352,22 @@
         <v>2.38</v>
       </c>
       <c r="Y278">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z278">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA278">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB278">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC278">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AD278">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AE278">
         <v>3.65</v>
@@ -54364,94 +54379,94 @@
         <v>5.5</v>
       </c>
       <c r="AH278">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AI278">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AJ278">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AK278">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AL278">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AM278">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AN278">
         <v>1.25</v>
       </c>
       <c r="AO278">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AP278">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ278">
         <v>1.92</v>
       </c>
       <c r="AR278">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AS278">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT278">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU278">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AV278">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AW278">
-        <v>2.37</v>
+        <v>2.78</v>
       </c>
       <c r="AX278">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="AY278">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ278">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="BA278">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BB278">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="BC278">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BD278">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="BE278">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF278">
+        <v>5</v>
+      </c>
+      <c r="BG278">
+        <v>4</v>
+      </c>
+      <c r="BH278">
         <v>3</v>
       </c>
-      <c r="BG278">
-        <v>5</v>
-      </c>
-      <c r="BH278">
-        <v>5</v>
-      </c>
       <c r="BI278">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ278">
         <v>8</v>
       </c>
       <c r="BK278">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:63">
@@ -54459,7 +54474,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>2604716</v>
+        <v>2604715</v>
       </c>
       <c r="C279" t="s">
         <v>63</v>
@@ -54474,19 +54489,19 @@
         <v>26</v>
       </c>
       <c r="G279" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H279" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279">
         <v>0</v>
       </c>
       <c r="K279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L279">
         <v>1</v>
@@ -54504,19 +54519,19 @@
         <v>87</v>
       </c>
       <c r="Q279">
+        <v>7</v>
+      </c>
+      <c r="R279">
         <v>3</v>
       </c>
-      <c r="R279">
-        <v>5</v>
-      </c>
       <c r="S279">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T279">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="U279">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V279">
         <v>4.2</v>
@@ -54528,22 +54543,22 @@
         <v>2.38</v>
       </c>
       <c r="Y279">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Z279">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA279">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB279">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC279">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="AD279">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE279">
         <v>3.65</v>
@@ -54555,94 +54570,94 @@
         <v>5.5</v>
       </c>
       <c r="AH279">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AI279">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AJ279">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AK279">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AL279">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AM279">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AN279">
         <v>1.25</v>
       </c>
       <c r="AO279">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AP279">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AQ279">
         <v>1.92</v>
       </c>
       <c r="AR279">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AS279">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT279">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AU279">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AV279">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AW279">
-        <v>2.78</v>
+        <v>2.37</v>
       </c>
       <c r="AX279">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AY279">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ279">
-        <v>2.77</v>
+        <v>2.1</v>
       </c>
       <c r="BA279">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="BB279">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="BC279">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BD279">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="BE279">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BF279">
+        <v>3</v>
+      </c>
+      <c r="BG279">
         <v>5</v>
       </c>
-      <c r="BG279">
-        <v>4</v>
-      </c>
       <c r="BH279">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI279">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BJ279">
         <v>8</v>
       </c>
       <c r="BK279">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:63">
@@ -54779,10 +54794,10 @@
         <v>1.58</v>
       </c>
       <c r="AS280">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT280">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU280">
         <v>1.89</v>
@@ -54970,10 +54985,10 @@
         <v>1.33</v>
       </c>
       <c r="AS281">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT281">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU281">
         <v>1.64</v>
@@ -55074,7 +55089,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55161,10 +55176,10 @@
         <v>0.5</v>
       </c>
       <c r="AS282">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT282">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU282">
         <v>1.51</v>
@@ -55352,10 +55367,10 @@
         <v>0.92</v>
       </c>
       <c r="AS283">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT283">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU283">
         <v>1.81</v>
@@ -55543,10 +55558,10 @@
         <v>1.15</v>
       </c>
       <c r="AS284">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT284">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU284">
         <v>1.47</v>
@@ -55647,7 +55662,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -55737,7 +55752,7 @@
         <v>1.4</v>
       </c>
       <c r="AT285">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AU285">
         <v>1.72</v>
@@ -55925,10 +55940,10 @@
         <v>0.33</v>
       </c>
       <c r="AS286">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT286">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU286">
         <v>1.25</v>
@@ -56116,10 +56131,10 @@
         <v>1.92</v>
       </c>
       <c r="AS287">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT287">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU287">
         <v>1.35</v>
@@ -56411,7 +56426,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56602,7 +56617,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -57175,7 +57190,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57515,7 +57530,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>2604730</v>
+        <v>2604731</v>
       </c>
       <c r="C295" t="s">
         <v>63</v>
@@ -57530,175 +57545,175 @@
         <v>27</v>
       </c>
       <c r="G295" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H295" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K295">
         <v>2</v>
       </c>
       <c r="L295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O295" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="P295" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="Q295">
+        <v>9</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>9</v>
+      </c>
+      <c r="T295">
+        <v>2.65</v>
+      </c>
+      <c r="U295">
+        <v>1.87</v>
+      </c>
+      <c r="V295">
         <v>5</v>
       </c>
-      <c r="R295">
-        <v>3</v>
-      </c>
-      <c r="S295">
-        <v>8</v>
-      </c>
-      <c r="T295">
+      <c r="W295">
+        <v>1.61</v>
+      </c>
+      <c r="X295">
+        <v>2.19</v>
+      </c>
+      <c r="Y295">
+        <v>3.95</v>
+      </c>
+      <c r="Z295">
+        <v>1.21</v>
+      </c>
+      <c r="AA295">
+        <v>10.5</v>
+      </c>
+      <c r="AB295">
+        <v>1.02</v>
+      </c>
+      <c r="AC295">
+        <v>2.03</v>
+      </c>
+      <c r="AD295">
+        <v>3.1</v>
+      </c>
+      <c r="AE295">
+        <v>4.16</v>
+      </c>
+      <c r="AF295">
+        <v>1.12</v>
+      </c>
+      <c r="AG295">
+        <v>6</v>
+      </c>
+      <c r="AH295">
+        <v>1.57</v>
+      </c>
+      <c r="AI295">
         <v>2.4</v>
       </c>
-      <c r="U295">
-        <v>1.93</v>
-      </c>
-      <c r="V295">
-        <v>5.25</v>
-      </c>
-      <c r="W295">
-        <v>1.53</v>
-      </c>
-      <c r="X295">
-        <v>2.3</v>
-      </c>
-      <c r="Y295">
-        <v>3.5</v>
-      </c>
-      <c r="Z295">
-        <v>1.26</v>
-      </c>
-      <c r="AA295">
-        <v>10</v>
-      </c>
-      <c r="AB295">
-        <v>1.04</v>
-      </c>
-      <c r="AC295">
-        <v>1.83</v>
-      </c>
-      <c r="AD295">
-        <v>3.34</v>
-      </c>
-      <c r="AE295">
-        <v>4.8</v>
-      </c>
-      <c r="AF295">
-        <v>1.09</v>
-      </c>
-      <c r="AG295">
-        <v>7.5</v>
-      </c>
-      <c r="AH295">
-        <v>1.52</v>
-      </c>
-      <c r="AI295">
-        <v>2.35</v>
-      </c>
       <c r="AJ295">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="AK295">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AL295">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AM295">
         <v>1.55</v>
       </c>
       <c r="AN295">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AO295">
         <v>1.3</v>
       </c>
       <c r="AP295">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AQ295">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="AR295">
-        <v>1.33</v>
+        <v>0.62</v>
       </c>
       <c r="AS295">
-        <v>2.21</v>
+        <v>1.57</v>
       </c>
       <c r="AT295">
+        <v>0.64</v>
+      </c>
+      <c r="AU295">
+        <v>1.6</v>
+      </c>
+      <c r="AV295">
+        <v>1.18</v>
+      </c>
+      <c r="AW295">
+        <v>2.78</v>
+      </c>
+      <c r="AX295">
+        <v>1.51</v>
+      </c>
+      <c r="AY295">
+        <v>8.5</v>
+      </c>
+      <c r="AZ295">
+        <v>3.07</v>
+      </c>
+      <c r="BA295">
+        <v>1.24</v>
+      </c>
+      <c r="BB295">
         <v>1.46</v>
       </c>
-      <c r="AU295">
-        <v>1.84</v>
-      </c>
-      <c r="AV295">
-        <v>1.22</v>
-      </c>
-      <c r="AW295">
-        <v>3.06</v>
-      </c>
-      <c r="AX295">
-        <v>1.82</v>
-      </c>
-      <c r="AY295">
-        <v>8</v>
-      </c>
-      <c r="AZ295">
-        <v>2.33</v>
-      </c>
-      <c r="BA295">
-        <v>1.3</v>
-      </c>
-      <c r="BB295">
-        <v>1.57</v>
-      </c>
       <c r="BC295">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BD295">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BE295">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BF295">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG295">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH295">
         <v>14</v>
       </c>
       <c r="BI295">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BJ295">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BK295">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:63">
@@ -57706,7 +57721,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>2604731</v>
+        <v>2604730</v>
       </c>
       <c r="C296" t="s">
         <v>63</v>
@@ -57721,175 +57736,175 @@
         <v>27</v>
       </c>
       <c r="G296" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H296" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K296">
         <v>2</v>
       </c>
       <c r="L296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O296" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="Q296">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R296">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S296">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T296">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="U296">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V296">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="W296">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="X296">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="Y296">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z296">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AA296">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB296">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC296">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="AD296">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="AE296">
-        <v>4.16</v>
+        <v>4.8</v>
       </c>
       <c r="AF296">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AG296">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AH296">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AI296">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AJ296">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="AK296">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AL296">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AM296">
         <v>1.55</v>
       </c>
       <c r="AN296">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AO296">
         <v>1.3</v>
       </c>
       <c r="AP296">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AQ296">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="AR296">
-        <v>0.62</v>
+        <v>1.33</v>
       </c>
       <c r="AS296">
+        <v>2.21</v>
+      </c>
+      <c r="AT296">
+        <v>1.46</v>
+      </c>
+      <c r="AU296">
+        <v>1.84</v>
+      </c>
+      <c r="AV296">
+        <v>1.22</v>
+      </c>
+      <c r="AW296">
+        <v>3.06</v>
+      </c>
+      <c r="AX296">
+        <v>1.82</v>
+      </c>
+      <c r="AY296">
+        <v>8</v>
+      </c>
+      <c r="AZ296">
+        <v>2.33</v>
+      </c>
+      <c r="BA296">
+        <v>1.3</v>
+      </c>
+      <c r="BB296">
         <v>1.57</v>
       </c>
-      <c r="AT296">
-        <v>0.64</v>
-      </c>
-      <c r="AU296">
-        <v>1.6</v>
-      </c>
-      <c r="AV296">
-        <v>1.18</v>
-      </c>
-      <c r="AW296">
-        <v>2.78</v>
-      </c>
-      <c r="AX296">
-        <v>1.51</v>
-      </c>
-      <c r="AY296">
-        <v>8.5</v>
-      </c>
-      <c r="AZ296">
-        <v>3.07</v>
-      </c>
-      <c r="BA296">
-        <v>1.24</v>
-      </c>
-      <c r="BB296">
-        <v>1.46</v>
-      </c>
       <c r="BC296">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BD296">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BE296">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BF296">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG296">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH296">
         <v>14</v>
       </c>
       <c r="BI296">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ296">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BK296">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:63">
@@ -58463,6 +58478,1916 @@
       </c>
       <c r="BK299">
         <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>2604738</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>44975.51041666666</v>
+      </c>
+      <c r="F300">
+        <v>28</v>
+      </c>
+      <c r="G300" t="s">
+        <v>74</v>
+      </c>
+      <c r="H300" t="s">
+        <v>66</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+      <c r="N300">
+        <v>2</v>
+      </c>
+      <c r="O300" t="s">
+        <v>87</v>
+      </c>
+      <c r="P300" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q300">
+        <v>9</v>
+      </c>
+      <c r="R300">
+        <v>6</v>
+      </c>
+      <c r="S300">
+        <v>15</v>
+      </c>
+      <c r="T300">
+        <v>5.06</v>
+      </c>
+      <c r="U300">
+        <v>1.93</v>
+      </c>
+      <c r="V300">
+        <v>2.97</v>
+      </c>
+      <c r="W300">
+        <v>1.53</v>
+      </c>
+      <c r="X300">
+        <v>2.38</v>
+      </c>
+      <c r="Y300">
+        <v>3.5</v>
+      </c>
+      <c r="Z300">
+        <v>1.29</v>
+      </c>
+      <c r="AA300">
+        <v>9</v>
+      </c>
+      <c r="AB300">
+        <v>1.05</v>
+      </c>
+      <c r="AC300">
+        <v>4</v>
+      </c>
+      <c r="AD300">
+        <v>2.9</v>
+      </c>
+      <c r="AE300">
+        <v>2.02</v>
+      </c>
+      <c r="AF300">
+        <v>1.12</v>
+      </c>
+      <c r="AG300">
+        <v>5.5</v>
+      </c>
+      <c r="AH300">
+        <v>1.57</v>
+      </c>
+      <c r="AI300">
+        <v>2.33</v>
+      </c>
+      <c r="AJ300">
+        <v>2.73</v>
+      </c>
+      <c r="AK300">
+        <v>1.4</v>
+      </c>
+      <c r="AL300">
+        <v>2.2</v>
+      </c>
+      <c r="AM300">
+        <v>1.62</v>
+      </c>
+      <c r="AN300">
+        <v>1.77</v>
+      </c>
+      <c r="AO300">
+        <v>1.39</v>
+      </c>
+      <c r="AP300">
+        <v>1.24</v>
+      </c>
+      <c r="AQ300">
+        <v>1.08</v>
+      </c>
+      <c r="AR300">
+        <v>1.23</v>
+      </c>
+      <c r="AS300">
+        <v>1</v>
+      </c>
+      <c r="AT300">
+        <v>1.36</v>
+      </c>
+      <c r="AU300">
+        <v>1.29</v>
+      </c>
+      <c r="AV300">
+        <v>1.34</v>
+      </c>
+      <c r="AW300">
+        <v>2.63</v>
+      </c>
+      <c r="AX300">
+        <v>3.16</v>
+      </c>
+      <c r="AY300">
+        <v>8.5</v>
+      </c>
+      <c r="AZ300">
+        <v>1.51</v>
+      </c>
+      <c r="BA300">
+        <v>1.24</v>
+      </c>
+      <c r="BB300">
+        <v>1.46</v>
+      </c>
+      <c r="BC300">
+        <v>1.95</v>
+      </c>
+      <c r="BD300">
+        <v>2.4</v>
+      </c>
+      <c r="BE300">
+        <v>3.3</v>
+      </c>
+      <c r="BF300">
+        <v>2</v>
+      </c>
+      <c r="BG300">
+        <v>6</v>
+      </c>
+      <c r="BH300">
+        <v>5</v>
+      </c>
+      <c r="BI300">
+        <v>4</v>
+      </c>
+      <c r="BJ300">
+        <v>7</v>
+      </c>
+      <c r="BK300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>2604740</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="2">
+        <v>44975.60416666666</v>
+      </c>
+      <c r="F301">
+        <v>28</v>
+      </c>
+      <c r="G301" t="s">
+        <v>84</v>
+      </c>
+      <c r="H301" t="s">
+        <v>65</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301" t="s">
+        <v>87</v>
+      </c>
+      <c r="P301" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q301">
+        <v>3</v>
+      </c>
+      <c r="R301">
+        <v>5</v>
+      </c>
+      <c r="S301">
+        <v>8</v>
+      </c>
+      <c r="T301">
+        <v>4.86</v>
+      </c>
+      <c r="U301">
+        <v>1.98</v>
+      </c>
+      <c r="V301">
+        <v>2.67</v>
+      </c>
+      <c r="W301">
+        <v>1.5</v>
+      </c>
+      <c r="X301">
+        <v>2.37</v>
+      </c>
+      <c r="Y301">
+        <v>3.3</v>
+      </c>
+      <c r="Z301">
+        <v>1.28</v>
+      </c>
+      <c r="AA301">
+        <v>9.25</v>
+      </c>
+      <c r="AB301">
+        <v>1.05</v>
+      </c>
+      <c r="AC301">
+        <v>4.2</v>
+      </c>
+      <c r="AD301">
+        <v>3.3</v>
+      </c>
+      <c r="AE301">
+        <v>1.95</v>
+      </c>
+      <c r="AF301">
+        <v>1.09</v>
+      </c>
+      <c r="AG301">
+        <v>6.75</v>
+      </c>
+      <c r="AH301">
+        <v>1.46</v>
+      </c>
+      <c r="AI301">
+        <v>2.5</v>
+      </c>
+      <c r="AJ301">
+        <v>2.32</v>
+      </c>
+      <c r="AK301">
+        <v>1.57</v>
+      </c>
+      <c r="AL301">
+        <v>2.09</v>
+      </c>
+      <c r="AM301">
+        <v>1.7</v>
+      </c>
+      <c r="AN301">
+        <v>1.77</v>
+      </c>
+      <c r="AO301">
+        <v>1.33</v>
+      </c>
+      <c r="AP301">
+        <v>1.24</v>
+      </c>
+      <c r="AQ301">
+        <v>1.23</v>
+      </c>
+      <c r="AR301">
+        <v>1.69</v>
+      </c>
+      <c r="AS301">
+        <v>1.21</v>
+      </c>
+      <c r="AT301">
+        <v>1.64</v>
+      </c>
+      <c r="AU301">
+        <v>1.46</v>
+      </c>
+      <c r="AV301">
+        <v>1.39</v>
+      </c>
+      <c r="AW301">
+        <v>2.85</v>
+      </c>
+      <c r="AX301">
+        <v>2.8</v>
+      </c>
+      <c r="AY301">
+        <v>8</v>
+      </c>
+      <c r="AZ301">
+        <v>1.59</v>
+      </c>
+      <c r="BA301">
+        <v>1.32</v>
+      </c>
+      <c r="BB301">
+        <v>1.6</v>
+      </c>
+      <c r="BC301">
+        <v>2.05</v>
+      </c>
+      <c r="BD301">
+        <v>2.8</v>
+      </c>
+      <c r="BE301">
+        <v>4</v>
+      </c>
+      <c r="BF301">
+        <v>3</v>
+      </c>
+      <c r="BG301">
+        <v>3</v>
+      </c>
+      <c r="BH301">
+        <v>4</v>
+      </c>
+      <c r="BI301">
+        <v>5</v>
+      </c>
+      <c r="BJ301">
+        <v>7</v>
+      </c>
+      <c r="BK301">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>2604736</v>
+      </c>
+      <c r="C302" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="2">
+        <v>44975.60416666666</v>
+      </c>
+      <c r="F302">
+        <v>28</v>
+      </c>
+      <c r="G302" t="s">
+        <v>68</v>
+      </c>
+      <c r="H302" t="s">
+        <v>69</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302" t="s">
+        <v>87</v>
+      </c>
+      <c r="P302" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q302">
+        <v>2</v>
+      </c>
+      <c r="R302">
+        <v>4</v>
+      </c>
+      <c r="S302">
+        <v>6</v>
+      </c>
+      <c r="T302">
+        <v>3.4</v>
+      </c>
+      <c r="U302">
+        <v>1.88</v>
+      </c>
+      <c r="V302">
+        <v>3.86</v>
+      </c>
+      <c r="W302">
+        <v>1.58</v>
+      </c>
+      <c r="X302">
+        <v>2.2</v>
+      </c>
+      <c r="Y302">
+        <v>3.75</v>
+      </c>
+      <c r="Z302">
+        <v>1.23</v>
+      </c>
+      <c r="AA302">
+        <v>11</v>
+      </c>
+      <c r="AB302">
+        <v>1.04</v>
+      </c>
+      <c r="AC302">
+        <v>2.8</v>
+      </c>
+      <c r="AD302">
+        <v>2.85</v>
+      </c>
+      <c r="AE302">
+        <v>2.9</v>
+      </c>
+      <c r="AF302">
+        <v>1.12</v>
+      </c>
+      <c r="AG302">
+        <v>5.75</v>
+      </c>
+      <c r="AH302">
+        <v>1.53</v>
+      </c>
+      <c r="AI302">
+        <v>2.43</v>
+      </c>
+      <c r="AJ302">
+        <v>2.67</v>
+      </c>
+      <c r="AK302">
+        <v>1.36</v>
+      </c>
+      <c r="AL302">
+        <v>2.15</v>
+      </c>
+      <c r="AM302">
+        <v>1.6</v>
+      </c>
+      <c r="AN302">
+        <v>1.41</v>
+      </c>
+      <c r="AO302">
+        <v>1.38</v>
+      </c>
+      <c r="AP302">
+        <v>1.44</v>
+      </c>
+      <c r="AQ302">
+        <v>2</v>
+      </c>
+      <c r="AR302">
+        <v>1.85</v>
+      </c>
+      <c r="AS302">
+        <v>1.93</v>
+      </c>
+      <c r="AT302">
+        <v>1.79</v>
+      </c>
+      <c r="AU302">
+        <v>1.36</v>
+      </c>
+      <c r="AV302">
+        <v>1.57</v>
+      </c>
+      <c r="AW302">
+        <v>2.93</v>
+      </c>
+      <c r="AX302">
+        <v>2.34</v>
+      </c>
+      <c r="AY302">
+        <v>7.5</v>
+      </c>
+      <c r="AZ302">
+        <v>1.82</v>
+      </c>
+      <c r="BA302">
+        <v>1.34</v>
+      </c>
+      <c r="BB302">
+        <v>1.63</v>
+      </c>
+      <c r="BC302">
+        <v>2.1</v>
+      </c>
+      <c r="BD302">
+        <v>2.87</v>
+      </c>
+      <c r="BE302">
+        <v>4.3</v>
+      </c>
+      <c r="BF302">
+        <v>4</v>
+      </c>
+      <c r="BG302">
+        <v>3</v>
+      </c>
+      <c r="BH302">
+        <v>2</v>
+      </c>
+      <c r="BI302">
+        <v>5</v>
+      </c>
+      <c r="BJ302">
+        <v>6</v>
+      </c>
+      <c r="BK302">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>2604741</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="2">
+        <v>44975.70833333334</v>
+      </c>
+      <c r="F303">
+        <v>28</v>
+      </c>
+      <c r="G303" t="s">
+        <v>83</v>
+      </c>
+      <c r="H303" t="s">
+        <v>67</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>142</v>
+      </c>
+      <c r="P303" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q303">
+        <v>6</v>
+      </c>
+      <c r="R303">
+        <v>4</v>
+      </c>
+      <c r="S303">
+        <v>10</v>
+      </c>
+      <c r="T303">
+        <v>2.4</v>
+      </c>
+      <c r="U303">
+        <v>2</v>
+      </c>
+      <c r="V303">
+        <v>5</v>
+      </c>
+      <c r="W303">
+        <v>1.52</v>
+      </c>
+      <c r="X303">
+        <v>2.39</v>
+      </c>
+      <c r="Y303">
+        <v>3.45</v>
+      </c>
+      <c r="Z303">
+        <v>1.27</v>
+      </c>
+      <c r="AA303">
+        <v>9.4</v>
+      </c>
+      <c r="AB303">
+        <v>1.03</v>
+      </c>
+      <c r="AC303">
+        <v>1.8</v>
+      </c>
+      <c r="AD303">
+        <v>3.4</v>
+      </c>
+      <c r="AE303">
+        <v>4.86</v>
+      </c>
+      <c r="AF303">
+        <v>1.09</v>
+      </c>
+      <c r="AG303">
+        <v>7.75</v>
+      </c>
+      <c r="AH303">
+        <v>1.45</v>
+      </c>
+      <c r="AI303">
+        <v>2.6</v>
+      </c>
+      <c r="AJ303">
+        <v>2.6</v>
+      </c>
+      <c r="AK303">
+        <v>1.47</v>
+      </c>
+      <c r="AL303">
+        <v>2.25</v>
+      </c>
+      <c r="AM303">
+        <v>1.6</v>
+      </c>
+      <c r="AN303">
+        <v>1.12</v>
+      </c>
+      <c r="AO303">
+        <v>1.25</v>
+      </c>
+      <c r="AP303">
+        <v>2.05</v>
+      </c>
+      <c r="AQ303">
+        <v>1.77</v>
+      </c>
+      <c r="AR303">
+        <v>0.62</v>
+      </c>
+      <c r="AS303">
+        <v>1.86</v>
+      </c>
+      <c r="AT303">
+        <v>0.57</v>
+      </c>
+      <c r="AU303">
+        <v>1.83</v>
+      </c>
+      <c r="AV303">
+        <v>1.21</v>
+      </c>
+      <c r="AW303">
+        <v>3.04</v>
+      </c>
+      <c r="AX303">
+        <v>1.55</v>
+      </c>
+      <c r="AY303">
+        <v>8</v>
+      </c>
+      <c r="AZ303">
+        <v>2.92</v>
+      </c>
+      <c r="BA303">
+        <v>1.32</v>
+      </c>
+      <c r="BB303">
+        <v>1.6</v>
+      </c>
+      <c r="BC303">
+        <v>2.05</v>
+      </c>
+      <c r="BD303">
+        <v>2.8</v>
+      </c>
+      <c r="BE303">
+        <v>4</v>
+      </c>
+      <c r="BF303">
+        <v>3</v>
+      </c>
+      <c r="BG303">
+        <v>4</v>
+      </c>
+      <c r="BH303">
+        <v>10</v>
+      </c>
+      <c r="BI303">
+        <v>2</v>
+      </c>
+      <c r="BJ303">
+        <v>13</v>
+      </c>
+      <c r="BK303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>2604739</v>
+      </c>
+      <c r="C304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="2">
+        <v>44976.41666666666</v>
+      </c>
+      <c r="F304">
+        <v>28</v>
+      </c>
+      <c r="G304" t="s">
+        <v>82</v>
+      </c>
+      <c r="H304" t="s">
+        <v>81</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304">
+        <v>2</v>
+      </c>
+      <c r="O304" t="s">
+        <v>95</v>
+      </c>
+      <c r="P304" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q304">
+        <v>4</v>
+      </c>
+      <c r="R304">
+        <v>4</v>
+      </c>
+      <c r="S304">
+        <v>8</v>
+      </c>
+      <c r="T304">
+        <v>4.33</v>
+      </c>
+      <c r="U304">
+        <v>1.83</v>
+      </c>
+      <c r="V304">
+        <v>3.1</v>
+      </c>
+      <c r="W304">
+        <v>1.62</v>
+      </c>
+      <c r="X304">
+        <v>2.2</v>
+      </c>
+      <c r="Y304">
+        <v>3.8</v>
+      </c>
+      <c r="Z304">
+        <v>1.22</v>
+      </c>
+      <c r="AA304">
+        <v>13</v>
+      </c>
+      <c r="AB304">
+        <v>1.04</v>
+      </c>
+      <c r="AC304">
+        <v>3.3</v>
+      </c>
+      <c r="AD304">
+        <v>2.9</v>
+      </c>
+      <c r="AE304">
+        <v>2.35</v>
+      </c>
+      <c r="AF304">
+        <v>1.11</v>
+      </c>
+      <c r="AG304">
+        <v>6.75</v>
+      </c>
+      <c r="AH304">
+        <v>1.5</v>
+      </c>
+      <c r="AI304">
+        <v>2.3</v>
+      </c>
+      <c r="AJ304">
+        <v>2.68</v>
+      </c>
+      <c r="AK304">
+        <v>1.41</v>
+      </c>
+      <c r="AL304">
+        <v>2.15</v>
+      </c>
+      <c r="AM304">
+        <v>1.62</v>
+      </c>
+      <c r="AN304">
+        <v>1.57</v>
+      </c>
+      <c r="AO304">
+        <v>1.44</v>
+      </c>
+      <c r="AP304">
+        <v>1.3</v>
+      </c>
+      <c r="AQ304">
+        <v>2</v>
+      </c>
+      <c r="AR304">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS304">
+        <v>1.93</v>
+      </c>
+      <c r="AT304">
+        <v>0.71</v>
+      </c>
+      <c r="AU304">
+        <v>1.17</v>
+      </c>
+      <c r="AV304">
+        <v>1.51</v>
+      </c>
+      <c r="AW304">
+        <v>2.68</v>
+      </c>
+      <c r="AX304">
+        <v>2.33</v>
+      </c>
+      <c r="AY304">
+        <v>8</v>
+      </c>
+      <c r="AZ304">
+        <v>1.82</v>
+      </c>
+      <c r="BA304">
+        <v>1.25</v>
+      </c>
+      <c r="BB304">
+        <v>1.47</v>
+      </c>
+      <c r="BC304">
+        <v>1.88</v>
+      </c>
+      <c r="BD304">
+        <v>2.45</v>
+      </c>
+      <c r="BE304">
+        <v>3.4</v>
+      </c>
+      <c r="BF304">
+        <v>5</v>
+      </c>
+      <c r="BG304">
+        <v>4</v>
+      </c>
+      <c r="BH304">
+        <v>2</v>
+      </c>
+      <c r="BI304">
+        <v>0</v>
+      </c>
+      <c r="BJ304">
+        <v>7</v>
+      </c>
+      <c r="BK304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:63">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>2604733</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E305" s="2">
+        <v>44976.51041666666</v>
+      </c>
+      <c r="F305">
+        <v>28</v>
+      </c>
+      <c r="G305" t="s">
+        <v>77</v>
+      </c>
+      <c r="H305" t="s">
+        <v>71</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>4</v>
+      </c>
+      <c r="L305">
+        <v>4</v>
+      </c>
+      <c r="M305">
+        <v>2</v>
+      </c>
+      <c r="N305">
+        <v>6</v>
+      </c>
+      <c r="O305" t="s">
+        <v>253</v>
+      </c>
+      <c r="P305" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q305">
+        <v>3</v>
+      </c>
+      <c r="R305">
+        <v>2</v>
+      </c>
+      <c r="S305">
+        <v>5</v>
+      </c>
+      <c r="T305">
+        <v>2.1</v>
+      </c>
+      <c r="U305">
+        <v>2.05</v>
+      </c>
+      <c r="V305">
+        <v>7.25</v>
+      </c>
+      <c r="W305">
+        <v>1.5</v>
+      </c>
+      <c r="X305">
+        <v>2.4</v>
+      </c>
+      <c r="Y305">
+        <v>3.3</v>
+      </c>
+      <c r="Z305">
+        <v>1.28</v>
+      </c>
+      <c r="AA305">
+        <v>10.5</v>
+      </c>
+      <c r="AB305">
+        <v>1.05</v>
+      </c>
+      <c r="AC305">
+        <v>1.49</v>
+      </c>
+      <c r="AD305">
+        <v>3.9</v>
+      </c>
+      <c r="AE305">
+        <v>6.8</v>
+      </c>
+      <c r="AF305">
+        <v>1.08</v>
+      </c>
+      <c r="AG305">
+        <v>8.25</v>
+      </c>
+      <c r="AH305">
+        <v>1.45</v>
+      </c>
+      <c r="AI305">
+        <v>2.6</v>
+      </c>
+      <c r="AJ305">
+        <v>2.25</v>
+      </c>
+      <c r="AK305">
+        <v>1.53</v>
+      </c>
+      <c r="AL305">
+        <v>2.5</v>
+      </c>
+      <c r="AM305">
+        <v>1.48</v>
+      </c>
+      <c r="AN305">
+        <v>1.08</v>
+      </c>
+      <c r="AO305">
+        <v>1.24</v>
+      </c>
+      <c r="AP305">
+        <v>2.66</v>
+      </c>
+      <c r="AQ305">
+        <v>2.31</v>
+      </c>
+      <c r="AR305">
+        <v>0.38</v>
+      </c>
+      <c r="AS305">
+        <v>2.36</v>
+      </c>
+      <c r="AT305">
+        <v>0.36</v>
+      </c>
+      <c r="AU305">
+        <v>1.67</v>
+      </c>
+      <c r="AV305">
+        <v>1.27</v>
+      </c>
+      <c r="AW305">
+        <v>2.94</v>
+      </c>
+      <c r="AX305">
+        <v>1.31</v>
+      </c>
+      <c r="AY305">
+        <v>9.5</v>
+      </c>
+      <c r="AZ305">
+        <v>4.12</v>
+      </c>
+      <c r="BA305">
+        <v>1.25</v>
+      </c>
+      <c r="BB305">
+        <v>1.47</v>
+      </c>
+      <c r="BC305">
+        <v>1.95</v>
+      </c>
+      <c r="BD305">
+        <v>2.4</v>
+      </c>
+      <c r="BE305">
+        <v>3.4</v>
+      </c>
+      <c r="BF305">
+        <v>8</v>
+      </c>
+      <c r="BG305">
+        <v>4</v>
+      </c>
+      <c r="BH305">
+        <v>3</v>
+      </c>
+      <c r="BI305">
+        <v>2</v>
+      </c>
+      <c r="BJ305">
+        <v>11</v>
+      </c>
+      <c r="BK305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:63">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>2604734</v>
+      </c>
+      <c r="C306" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" t="s">
+        <v>64</v>
+      </c>
+      <c r="E306" s="2">
+        <v>44976.51041666666</v>
+      </c>
+      <c r="F306">
+        <v>28</v>
+      </c>
+      <c r="G306" t="s">
+        <v>86</v>
+      </c>
+      <c r="H306" t="s">
+        <v>78</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>254</v>
+      </c>
+      <c r="P306" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q306">
+        <v>7</v>
+      </c>
+      <c r="R306">
+        <v>3</v>
+      </c>
+      <c r="S306">
+        <v>10</v>
+      </c>
+      <c r="T306">
+        <v>2.9</v>
+      </c>
+      <c r="U306">
+        <v>1.87</v>
+      </c>
+      <c r="V306">
+        <v>4.33</v>
+      </c>
+      <c r="W306">
+        <v>1.62</v>
+      </c>
+      <c r="X306">
+        <v>2.33</v>
+      </c>
+      <c r="Y306">
+        <v>3.8</v>
+      </c>
+      <c r="Z306">
+        <v>1.22</v>
+      </c>
+      <c r="AA306">
+        <v>13</v>
+      </c>
+      <c r="AB306">
+        <v>1.04</v>
+      </c>
+      <c r="AC306">
+        <v>2.2</v>
+      </c>
+      <c r="AD306">
+        <v>2.9</v>
+      </c>
+      <c r="AE306">
+        <v>3.5</v>
+      </c>
+      <c r="AF306">
+        <v>1.11</v>
+      </c>
+      <c r="AG306">
+        <v>5.5</v>
+      </c>
+      <c r="AH306">
+        <v>1.5</v>
+      </c>
+      <c r="AI306">
+        <v>2.25</v>
+      </c>
+      <c r="AJ306">
+        <v>2.6</v>
+      </c>
+      <c r="AK306">
+        <v>1.43</v>
+      </c>
+      <c r="AL306">
+        <v>2.28</v>
+      </c>
+      <c r="AM306">
+        <v>1.61</v>
+      </c>
+      <c r="AN306">
+        <v>1.2</v>
+      </c>
+      <c r="AO306">
+        <v>1.3</v>
+      </c>
+      <c r="AP306">
+        <v>1.7</v>
+      </c>
+      <c r="AQ306">
+        <v>1.46</v>
+      </c>
+      <c r="AR306">
+        <v>0.85</v>
+      </c>
+      <c r="AS306">
+        <v>1.57</v>
+      </c>
+      <c r="AT306">
+        <v>0.79</v>
+      </c>
+      <c r="AU306">
+        <v>1.8</v>
+      </c>
+      <c r="AV306">
+        <v>1.39</v>
+      </c>
+      <c r="AW306">
+        <v>3.19</v>
+      </c>
+      <c r="AX306">
+        <v>1.45</v>
+      </c>
+      <c r="AY306">
+        <v>8.5</v>
+      </c>
+      <c r="AZ306">
+        <v>3.46</v>
+      </c>
+      <c r="BA306">
+        <v>1.35</v>
+      </c>
+      <c r="BB306">
+        <v>1.72</v>
+      </c>
+      <c r="BC306">
+        <v>2.13</v>
+      </c>
+      <c r="BD306">
+        <v>2.8</v>
+      </c>
+      <c r="BE306">
+        <v>3.74</v>
+      </c>
+      <c r="BF306">
+        <v>4</v>
+      </c>
+      <c r="BG306">
+        <v>3</v>
+      </c>
+      <c r="BH306">
+        <v>8</v>
+      </c>
+      <c r="BI306">
+        <v>7</v>
+      </c>
+      <c r="BJ306">
+        <v>12</v>
+      </c>
+      <c r="BK306">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>2604743</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>44976.60416666666</v>
+      </c>
+      <c r="F307">
+        <v>28</v>
+      </c>
+      <c r="G307" t="s">
+        <v>72</v>
+      </c>
+      <c r="H307" t="s">
+        <v>80</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" t="s">
+        <v>169</v>
+      </c>
+      <c r="P307" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q307">
+        <v>4</v>
+      </c>
+      <c r="R307">
+        <v>1</v>
+      </c>
+      <c r="S307">
+        <v>5</v>
+      </c>
+      <c r="T307">
+        <v>3.6</v>
+      </c>
+      <c r="U307">
+        <v>1.83</v>
+      </c>
+      <c r="V307">
+        <v>3.75</v>
+      </c>
+      <c r="W307">
+        <v>1.62</v>
+      </c>
+      <c r="X307">
+        <v>2.2</v>
+      </c>
+      <c r="Y307">
+        <v>4</v>
+      </c>
+      <c r="Z307">
+        <v>1.22</v>
+      </c>
+      <c r="AA307">
+        <v>13</v>
+      </c>
+      <c r="AB307">
+        <v>1.04</v>
+      </c>
+      <c r="AC307">
+        <v>2.54</v>
+      </c>
+      <c r="AD307">
+        <v>2.85</v>
+      </c>
+      <c r="AE307">
+        <v>2.82</v>
+      </c>
+      <c r="AF307">
+        <v>1.09</v>
+      </c>
+      <c r="AG307">
+        <v>5.6</v>
+      </c>
+      <c r="AH307">
+        <v>1.62</v>
+      </c>
+      <c r="AI307">
+        <v>2.23</v>
+      </c>
+      <c r="AJ307">
+        <v>2.59</v>
+      </c>
+      <c r="AK307">
+        <v>1.38</v>
+      </c>
+      <c r="AL307">
+        <v>2.25</v>
+      </c>
+      <c r="AM307">
+        <v>1.57</v>
+      </c>
+      <c r="AN307">
+        <v>1.42</v>
+      </c>
+      <c r="AO307">
+        <v>1.4</v>
+      </c>
+      <c r="AP307">
+        <v>1.46</v>
+      </c>
+      <c r="AQ307">
+        <v>1.77</v>
+      </c>
+      <c r="AR307">
+        <v>1.46</v>
+      </c>
+      <c r="AS307">
+        <v>1.71</v>
+      </c>
+      <c r="AT307">
+        <v>1.43</v>
+      </c>
+      <c r="AU307">
+        <v>1.32</v>
+      </c>
+      <c r="AV307">
+        <v>1.3</v>
+      </c>
+      <c r="AW307">
+        <v>2.62</v>
+      </c>
+      <c r="AX307">
+        <v>2.2</v>
+      </c>
+      <c r="AY307">
+        <v>7.5</v>
+      </c>
+      <c r="AZ307">
+        <v>1.91</v>
+      </c>
+      <c r="BA307">
+        <v>1.27</v>
+      </c>
+      <c r="BB307">
+        <v>1.5</v>
+      </c>
+      <c r="BC307">
+        <v>2</v>
+      </c>
+      <c r="BD307">
+        <v>2.5</v>
+      </c>
+      <c r="BE307">
+        <v>3.5</v>
+      </c>
+      <c r="BF307">
+        <v>3</v>
+      </c>
+      <c r="BG307">
+        <v>5</v>
+      </c>
+      <c r="BH307">
+        <v>6</v>
+      </c>
+      <c r="BI307">
+        <v>5</v>
+      </c>
+      <c r="BJ307">
+        <v>9</v>
+      </c>
+      <c r="BK307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:63">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>2604742</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" t="s">
+        <v>64</v>
+      </c>
+      <c r="E308" s="2">
+        <v>44976.70833333334</v>
+      </c>
+      <c r="F308">
+        <v>28</v>
+      </c>
+      <c r="G308" t="s">
+        <v>76</v>
+      </c>
+      <c r="H308" t="s">
+        <v>70</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>2</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>3</v>
+      </c>
+      <c r="O308" t="s">
+        <v>255</v>
+      </c>
+      <c r="P308" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q308">
+        <v>2</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <v>2</v>
+      </c>
+      <c r="T308">
+        <v>3.25</v>
+      </c>
+      <c r="U308">
+        <v>1.95</v>
+      </c>
+      <c r="V308">
+        <v>3.75</v>
+      </c>
+      <c r="W308">
+        <v>1.53</v>
+      </c>
+      <c r="X308">
+        <v>2.38</v>
+      </c>
+      <c r="Y308">
+        <v>3.75</v>
+      </c>
+      <c r="Z308">
+        <v>1.25</v>
+      </c>
+      <c r="AA308">
+        <v>11</v>
+      </c>
+      <c r="AB308">
+        <v>1.05</v>
+      </c>
+      <c r="AC308">
+        <v>2.14</v>
+      </c>
+      <c r="AD308">
+        <v>3</v>
+      </c>
+      <c r="AE308">
+        <v>3.3</v>
+      </c>
+      <c r="AF308">
+        <v>1.05</v>
+      </c>
+      <c r="AG308">
+        <v>6.95</v>
+      </c>
+      <c r="AH308">
+        <v>1.47</v>
+      </c>
+      <c r="AI308">
+        <v>2.6</v>
+      </c>
+      <c r="AJ308">
+        <v>2.35</v>
+      </c>
+      <c r="AK308">
+        <v>1.5</v>
+      </c>
+      <c r="AL308">
+        <v>2</v>
+      </c>
+      <c r="AM308">
+        <v>1.73</v>
+      </c>
+      <c r="AN308">
+        <v>1.35</v>
+      </c>
+      <c r="AO308">
+        <v>1.35</v>
+      </c>
+      <c r="AP308">
+        <v>1.59</v>
+      </c>
+      <c r="AQ308">
+        <v>1.54</v>
+      </c>
+      <c r="AR308">
+        <v>1.14</v>
+      </c>
+      <c r="AS308">
+        <v>1.64</v>
+      </c>
+      <c r="AT308">
+        <v>1.07</v>
+      </c>
+      <c r="AU308">
+        <v>1.58</v>
+      </c>
+      <c r="AV308">
+        <v>1.26</v>
+      </c>
+      <c r="AW308">
+        <v>2.84</v>
+      </c>
+      <c r="AX308">
+        <v>2.1</v>
+      </c>
+      <c r="AY308">
+        <v>7.5</v>
+      </c>
+      <c r="AZ308">
+        <v>2</v>
+      </c>
+      <c r="BA308">
+        <v>1.38</v>
+      </c>
+      <c r="BB308">
+        <v>1.71</v>
+      </c>
+      <c r="BC308">
+        <v>2.25</v>
+      </c>
+      <c r="BD308">
+        <v>3.1</v>
+      </c>
+      <c r="BE308">
+        <v>3.74</v>
+      </c>
+      <c r="BF308">
+        <v>4</v>
+      </c>
+      <c r="BG308">
+        <v>2</v>
+      </c>
+      <c r="BH308">
+        <v>7</v>
+      </c>
+      <c r="BI308">
+        <v>2</v>
+      </c>
+      <c r="BJ308">
+        <v>11</v>
+      </c>
+      <c r="BK308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:63">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>2604737</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="D309" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="2">
+        <v>44977.70833333334</v>
+      </c>
+      <c r="F309">
+        <v>28</v>
+      </c>
+      <c r="G309" t="s">
+        <v>85</v>
+      </c>
+      <c r="H309" t="s">
+        <v>79</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>3</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>3</v>
+      </c>
+      <c r="O309" t="s">
+        <v>256</v>
+      </c>
+      <c r="P309" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q309">
+        <v>5</v>
+      </c>
+      <c r="R309">
+        <v>1</v>
+      </c>
+      <c r="S309">
+        <v>6</v>
+      </c>
+      <c r="T309">
+        <v>3.4</v>
+      </c>
+      <c r="U309">
+        <v>1.91</v>
+      </c>
+      <c r="V309">
+        <v>4</v>
+      </c>
+      <c r="W309">
+        <v>1.62</v>
+      </c>
+      <c r="X309">
+        <v>2.2</v>
+      </c>
+      <c r="Y309">
+        <v>4</v>
+      </c>
+      <c r="Z309">
+        <v>1.22</v>
+      </c>
+      <c r="AA309">
+        <v>13</v>
+      </c>
+      <c r="AB309">
+        <v>1.04</v>
+      </c>
+      <c r="AC309">
+        <v>2.75</v>
+      </c>
+      <c r="AD309">
+        <v>2.88</v>
+      </c>
+      <c r="AE309">
+        <v>2.85</v>
+      </c>
+      <c r="AF309">
+        <v>1.12</v>
+      </c>
+      <c r="AG309">
+        <v>6</v>
+      </c>
+      <c r="AH309">
+        <v>1.53</v>
+      </c>
+      <c r="AI309">
+        <v>2.43</v>
+      </c>
+      <c r="AJ309">
+        <v>2.65</v>
+      </c>
+      <c r="AK309">
+        <v>1.36</v>
+      </c>
+      <c r="AL309">
+        <v>2.2</v>
+      </c>
+      <c r="AM309">
+        <v>1.62</v>
+      </c>
+      <c r="AN309">
+        <v>1.38</v>
+      </c>
+      <c r="AO309">
+        <v>1.39</v>
+      </c>
+      <c r="AP309">
+        <v>1.47</v>
+      </c>
+      <c r="AQ309">
+        <v>1.15</v>
+      </c>
+      <c r="AR309">
+        <v>1.07</v>
+      </c>
+      <c r="AS309">
+        <v>1.29</v>
+      </c>
+      <c r="AT309">
+        <v>1</v>
+      </c>
+      <c r="AU309">
+        <v>1.51</v>
+      </c>
+      <c r="AV309">
+        <v>1.18</v>
+      </c>
+      <c r="AW309">
+        <v>2.69</v>
+      </c>
+      <c r="AX309">
+        <v>1.95</v>
+      </c>
+      <c r="AY309">
+        <v>8</v>
+      </c>
+      <c r="AZ309">
+        <v>2.1</v>
+      </c>
+      <c r="BA309">
+        <v>1.29</v>
+      </c>
+      <c r="BB309">
+        <v>1.55</v>
+      </c>
+      <c r="BC309">
+        <v>1.97</v>
+      </c>
+      <c r="BD309">
+        <v>2.58</v>
+      </c>
+      <c r="BE309">
+        <v>3.48</v>
+      </c>
+      <c r="BF309">
+        <v>6</v>
+      </c>
+      <c r="BG309">
+        <v>5</v>
+      </c>
+      <c r="BH309">
+        <v>2</v>
+      </c>
+      <c r="BI309">
+        <v>5</v>
+      </c>
+      <c r="BJ309">
+        <v>8</v>
+      </c>
+      <c r="BK309">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -787,6 +787,9 @@
     <t>['56', '75', '82']</t>
   </si>
   <si>
+    <t>['31', '84']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK309"/>
+  <dimension ref="A1:BK310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1800,7 +1803,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1887,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT3">
         <v>0.79</v>
@@ -2182,7 +2185,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2564,7 +2567,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2654,7 +2657,7 @@
         <v>1.08</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2755,7 +2758,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3328,7 +3331,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3519,7 +3522,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3710,7 +3713,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -5047,7 +5050,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5620,7 +5623,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5811,7 +5814,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6575,7 +6578,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7235,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT31">
         <v>0.86</v>
@@ -7620,7 +7623,7 @@
         <v>2.71</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU33">
         <v>1.36</v>
@@ -8485,7 +8488,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9058,7 +9061,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9631,7 +9634,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10204,7 +10207,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10867,7 +10870,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU50">
         <v>1.43</v>
@@ -10968,7 +10971,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11350,7 +11353,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11541,7 +11544,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12010,7 +12013,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT56">
         <v>0.71</v>
@@ -12878,7 +12881,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13833,7 +13836,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14788,7 +14791,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14878,7 +14881,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU71">
         <v>1.6</v>
@@ -14979,7 +14982,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15552,7 +15555,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15639,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT75">
         <v>1.07</v>
@@ -16698,7 +16701,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17271,7 +17274,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17462,7 +17465,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17653,7 +17656,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18035,7 +18038,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18507,7 +18510,7 @@
         <v>1.57</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU90">
         <v>1.53</v>
@@ -19372,7 +19375,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19563,7 +19566,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19754,7 +19757,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20414,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT100">
         <v>0.57</v>
@@ -20518,7 +20521,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -21855,7 +21858,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22046,7 +22049,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22900,7 +22903,7 @@
         <v>1.38</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU113">
         <v>1.55</v>
@@ -23956,7 +23959,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -25484,7 +25487,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25675,7 +25678,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26335,7 +26338,7 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT131">
         <v>1.43</v>
@@ -26821,7 +26824,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28158,7 +28161,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28630,7 +28633,7 @@
         <v>1.86</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU143">
         <v>1.51</v>
@@ -28922,7 +28925,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29304,7 +29307,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29495,7 +29498,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29686,7 +29689,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30155,7 +30158,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT151">
         <v>0.57</v>
@@ -30450,7 +30453,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30641,7 +30644,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31405,7 +31408,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31686,7 +31689,7 @@
         <v>1.93</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU159">
         <v>1.12</v>
@@ -31978,7 +31981,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32360,7 +32363,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32742,7 +32745,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33315,7 +33318,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33506,7 +33509,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34548,7 +34551,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT174">
         <v>1.36</v>
@@ -35697,7 +35700,7 @@
         <v>2.36</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU180">
         <v>1.52</v>
@@ -35798,7 +35801,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36371,7 +36374,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37899,7 +37902,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38663,7 +38666,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38941,7 +38944,7 @@
         <v>0.75</v>
       </c>
       <c r="AS197">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT197">
         <v>0.64</v>
@@ -39236,7 +39239,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39427,7 +39430,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -40281,7 +40284,7 @@
         <v>1.4</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU204">
         <v>1.85</v>
@@ -40573,7 +40576,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -41528,7 +41531,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42761,7 +42764,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT217">
         <v>1</v>
@@ -43056,7 +43059,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43247,7 +43250,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43438,7 +43441,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -44393,7 +44396,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -45820,7 +45823,7 @@
         <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU233">
         <v>1.42</v>
@@ -47536,7 +47539,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT242">
         <v>0.36</v>
@@ -48213,7 +48216,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48404,7 +48407,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48977,7 +48980,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49255,7 +49258,7 @@
         <v>0.55</v>
       </c>
       <c r="AS251">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT251">
         <v>0.5</v>
@@ -49932,7 +49935,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50887,7 +50890,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51651,7 +51654,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -51741,7 +51744,7 @@
         <v>1</v>
       </c>
       <c r="AT264">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU264">
         <v>1.25</v>
@@ -52502,7 +52505,7 @@
         <v>0.82</v>
       </c>
       <c r="AS268">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT268">
         <v>0.77</v>
@@ -52606,7 +52609,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -52696,7 +52699,7 @@
         <v>1.43</v>
       </c>
       <c r="AT269">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU269">
         <v>1.14</v>
@@ -52988,7 +52991,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53752,7 +53755,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -55089,7 +55092,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55662,7 +55665,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -56426,7 +56429,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56617,7 +56620,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -56707,7 +56710,7 @@
         <v>1.79</v>
       </c>
       <c r="AT290">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU290">
         <v>1.59</v>
@@ -57190,7 +57193,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57572,7 +57575,7 @@
         <v>184</v>
       </c>
       <c r="P295" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q295">
         <v>9</v>
@@ -57763,7 +57766,7 @@
         <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -57850,7 +57853,7 @@
         <v>1.33</v>
       </c>
       <c r="AS296">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT296">
         <v>1.46</v>
@@ -58527,7 +58530,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q300">
         <v>9</v>
@@ -59482,7 +59485,7 @@
         <v>253</v>
       </c>
       <c r="P305" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -60387,6 +60390,197 @@
         <v>8</v>
       </c>
       <c r="BK309">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:63">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>2604745</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310" t="s">
+        <v>64</v>
+      </c>
+      <c r="E310" s="2">
+        <v>44981.70833333334</v>
+      </c>
+      <c r="F310">
+        <v>29</v>
+      </c>
+      <c r="G310" t="s">
+        <v>66</v>
+      </c>
+      <c r="H310" t="s">
+        <v>76</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>2</v>
+      </c>
+      <c r="O310" t="s">
+        <v>257</v>
+      </c>
+      <c r="P310" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q310">
+        <v>4</v>
+      </c>
+      <c r="R310">
+        <v>5</v>
+      </c>
+      <c r="S310">
+        <v>9</v>
+      </c>
+      <c r="T310">
+        <v>2.37</v>
+      </c>
+      <c r="U310">
+        <v>1.98</v>
+      </c>
+      <c r="V310">
+        <v>5</v>
+      </c>
+      <c r="W310">
+        <v>1.49</v>
+      </c>
+      <c r="X310">
+        <v>2.4</v>
+      </c>
+      <c r="Y310">
+        <v>3.3</v>
+      </c>
+      <c r="Z310">
+        <v>1.28</v>
+      </c>
+      <c r="AA310">
+        <v>9.25</v>
+      </c>
+      <c r="AB310">
+        <v>1.05</v>
+      </c>
+      <c r="AC310">
+        <v>1.85</v>
+      </c>
+      <c r="AD310">
+        <v>3.35</v>
+      </c>
+      <c r="AE310">
+        <v>4.15</v>
+      </c>
+      <c r="AF310">
+        <v>1.08</v>
+      </c>
+      <c r="AG310">
+        <v>7</v>
+      </c>
+      <c r="AH310">
+        <v>1.44</v>
+      </c>
+      <c r="AI310">
+        <v>2.62</v>
+      </c>
+      <c r="AJ310">
+        <v>2.38</v>
+      </c>
+      <c r="AK310">
+        <v>1.6</v>
+      </c>
+      <c r="AL310">
+        <v>2.15</v>
+      </c>
+      <c r="AM310">
+        <v>1.61</v>
+      </c>
+      <c r="AN310">
+        <v>1.18</v>
+      </c>
+      <c r="AO310">
+        <v>1.28</v>
+      </c>
+      <c r="AP310">
+        <v>2.05</v>
+      </c>
+      <c r="AQ310">
+        <v>2.21</v>
+      </c>
+      <c r="AR310">
+        <v>1</v>
+      </c>
+      <c r="AS310">
+        <v>2.27</v>
+      </c>
+      <c r="AT310">
+        <v>0.93</v>
+      </c>
+      <c r="AU310">
+        <v>1.84</v>
+      </c>
+      <c r="AV310">
+        <v>1.25</v>
+      </c>
+      <c r="AW310">
+        <v>3.09</v>
+      </c>
+      <c r="AX310">
+        <v>1.45</v>
+      </c>
+      <c r="AY310">
+        <v>8.5</v>
+      </c>
+      <c r="AZ310">
+        <v>3.32</v>
+      </c>
+      <c r="BA310">
+        <v>1.32</v>
+      </c>
+      <c r="BB310">
+        <v>1.6</v>
+      </c>
+      <c r="BC310">
+        <v>2.05</v>
+      </c>
+      <c r="BD310">
+        <v>2.8</v>
+      </c>
+      <c r="BE310">
+        <v>4</v>
+      </c>
+      <c r="BF310">
+        <v>8</v>
+      </c>
+      <c r="BG310">
+        <v>6</v>
+      </c>
+      <c r="BH310">
+        <v>7</v>
+      </c>
+      <c r="BI310">
+        <v>4</v>
+      </c>
+      <c r="BJ310">
+        <v>15</v>
+      </c>
+      <c r="BK310">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['31', '84']</t>
   </si>
   <si>
+    <t>['14', '35']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1368,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1806,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1893,7 +1896,7 @@
         <v>2.27</v>
       </c>
       <c r="AT3">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT4">
         <v>0.79</v>
@@ -2185,7 +2188,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2567,7 +2570,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT7">
         <v>0.93</v>
@@ -2758,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3230,7 +3233,7 @@
         <v>1.43</v>
       </c>
       <c r="AT10">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3331,7 +3334,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3522,7 +3525,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3713,7 +3716,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3991,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
         <v>0.57</v>
@@ -4182,10 +4185,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4949,7 +4952,7 @@
         <v>1.43</v>
       </c>
       <c r="AT19">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU19">
         <v>1.36</v>
@@ -5050,7 +5053,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5140,7 +5143,7 @@
         <v>1.93</v>
       </c>
       <c r="AT20">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5623,7 +5626,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5814,7 +5817,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6283,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>1.43</v>
@@ -6477,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6578,7 +6581,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6665,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
         <v>0.5</v>
@@ -6859,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU29">
         <v>1.62</v>
@@ -7047,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7814,7 +7817,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU34">
         <v>1.56</v>
@@ -8193,7 +8196,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT36">
         <v>1.79</v>
@@ -8488,7 +8491,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9061,7 +9064,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9342,7 +9345,7 @@
         <v>1.71</v>
       </c>
       <c r="AT42">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9634,7 +9637,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10106,7 +10109,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU46">
         <v>1.44</v>
@@ -10207,7 +10210,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10971,7 +10974,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11058,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT51">
         <v>1.07</v>
@@ -11252,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU52">
         <v>1.32</v>
@@ -11353,7 +11356,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11440,10 +11443,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT53">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU53">
         <v>1.75</v>
@@ -11544,7 +11547,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12207,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -12881,7 +12884,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13541,7 +13544,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT64">
         <v>0.64</v>
@@ -13732,7 +13735,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
         <v>1.79</v>
@@ -13836,7 +13839,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14305,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT68">
         <v>0.36</v>
@@ -14499,7 +14502,7 @@
         <v>1.93</v>
       </c>
       <c r="AT69">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14687,7 +14690,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14791,7 +14794,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14982,7 +14985,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15072,7 +15075,7 @@
         <v>1.21</v>
       </c>
       <c r="AT72">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU72">
         <v>1.8</v>
@@ -15555,7 +15558,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15836,7 +15839,7 @@
         <v>1.86</v>
       </c>
       <c r="AT76">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU76">
         <v>1.83</v>
@@ -16597,7 +16600,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT80">
         <v>0.5</v>
@@ -16701,7 +16704,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16788,7 +16791,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
         <v>1.79</v>
@@ -17274,7 +17277,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17361,7 +17364,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT84">
         <v>0.86</v>
@@ -17465,7 +17468,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17656,7 +17659,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17746,7 +17749,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -18038,7 +18041,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18507,7 +18510,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>0.93</v>
@@ -19375,7 +19378,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19465,7 +19468,7 @@
         <v>1.4</v>
       </c>
       <c r="AT95">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19566,7 +19569,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19757,7 +19760,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20038,7 +20041,7 @@
         <v>1.86</v>
       </c>
       <c r="AT98">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -20229,7 +20232,7 @@
         <v>1.29</v>
       </c>
       <c r="AT99">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU99">
         <v>1.63</v>
@@ -20521,7 +20524,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -21181,7 +21184,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT104">
         <v>1.43</v>
@@ -21375,7 +21378,7 @@
         <v>1.86</v>
       </c>
       <c r="AT105">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU105">
         <v>2.09</v>
@@ -21754,7 +21757,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21858,7 +21861,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22049,7 +22052,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22327,7 +22330,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT110">
         <v>1.64</v>
@@ -23667,7 +23670,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU117">
         <v>1.52</v>
@@ -23959,7 +23962,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24619,7 +24622,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
         <v>1.36</v>
@@ -25004,7 +25007,7 @@
         <v>1.64</v>
       </c>
       <c r="AT124">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU124">
         <v>1.81</v>
@@ -25192,7 +25195,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT125">
         <v>0.79</v>
@@ -25383,7 +25386,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT126">
         <v>0.64</v>
@@ -25487,7 +25490,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25678,7 +25681,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25765,7 +25768,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT128">
         <v>0.86</v>
@@ -26150,7 +26153,7 @@
         <v>1.93</v>
       </c>
       <c r="AT130">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU130">
         <v>1.36</v>
@@ -26532,7 +26535,7 @@
         <v>2</v>
       </c>
       <c r="AT132">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU132">
         <v>1.43</v>
@@ -26824,7 +26827,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27484,7 +27487,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -28161,7 +28164,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28925,7 +28928,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29015,7 +29018,7 @@
         <v>1.38</v>
       </c>
       <c r="AT145">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU145">
         <v>1.61</v>
@@ -29307,7 +29310,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29498,7 +29501,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29585,7 +29588,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT148">
         <v>1.36</v>
@@ -29689,7 +29692,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29779,7 +29782,7 @@
         <v>1</v>
       </c>
       <c r="AT149">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -30349,10 +30352,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT152">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.78</v>
@@ -30453,7 +30456,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30644,7 +30647,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30731,7 +30734,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT154">
         <v>1.43</v>
@@ -31113,7 +31116,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT156">
         <v>1</v>
@@ -31307,7 +31310,7 @@
         <v>1.71</v>
       </c>
       <c r="AT157">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU157">
         <v>1.33</v>
@@ -31408,7 +31411,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31981,7 +31984,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32363,7 +32366,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32745,7 +32748,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33026,7 +33029,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU166">
         <v>1.25</v>
@@ -33318,7 +33321,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33509,7 +33512,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33596,10 +33599,10 @@
         <v>0.86</v>
       </c>
       <c r="AS169">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT169">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU169">
         <v>1.58</v>
@@ -34742,7 +34745,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT175">
         <v>1.43</v>
@@ -35124,10 +35127,10 @@
         <v>1.57</v>
       </c>
       <c r="AS177">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT177">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU177">
         <v>1.68</v>
@@ -35697,7 +35700,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT180">
         <v>0.93</v>
@@ -35801,7 +35804,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36273,7 +36276,7 @@
         <v>2</v>
       </c>
       <c r="AT183">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36374,7 +36377,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37228,7 +37231,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU188">
         <v>1.27</v>
@@ -37902,7 +37905,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37989,7 +37992,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT192">
         <v>1.43</v>
@@ -38180,7 +38183,7 @@
         <v>1.63</v>
       </c>
       <c r="AS193">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT193">
         <v>1.79</v>
@@ -38374,7 +38377,7 @@
         <v>1.64</v>
       </c>
       <c r="AT194">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU194">
         <v>1.65</v>
@@ -38565,7 +38568,7 @@
         <v>1.57</v>
       </c>
       <c r="AT195">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU195">
         <v>1.85</v>
@@ -38666,7 +38669,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38753,7 +38756,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT196">
         <v>0.57</v>
@@ -39239,7 +39242,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39430,7 +39433,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -40093,7 +40096,7 @@
         <v>1.93</v>
       </c>
       <c r="AT203">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU203">
         <v>1.11</v>
@@ -40576,7 +40579,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -41531,7 +41534,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41621,7 +41624,7 @@
         <v>1.64</v>
       </c>
       <c r="AT211">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU211">
         <v>1.56</v>
@@ -41812,7 +41815,7 @@
         <v>1.57</v>
       </c>
       <c r="AT212">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU212">
         <v>1.94</v>
@@ -42573,10 +42576,10 @@
         <v>1.56</v>
       </c>
       <c r="AS216">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT216">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU216">
         <v>1.65</v>
@@ -43059,7 +43062,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43146,7 +43149,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT219">
         <v>0.57</v>
@@ -43250,7 +43253,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43441,7 +43444,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -43528,7 +43531,7 @@
         <v>1.56</v>
       </c>
       <c r="AS221">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT221">
         <v>1.64</v>
@@ -43722,7 +43725,7 @@
         <v>1.86</v>
       </c>
       <c r="AT222">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU222">
         <v>1.95</v>
@@ -44101,7 +44104,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT224">
         <v>0.86</v>
@@ -44396,7 +44399,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -46011,7 +46014,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT234">
         <v>1.64</v>
@@ -46587,7 +46590,7 @@
         <v>1.29</v>
       </c>
       <c r="AT237">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU237">
         <v>1.55</v>
@@ -46775,7 +46778,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT238">
         <v>1.43</v>
@@ -46969,7 +46972,7 @@
         <v>2.71</v>
       </c>
       <c r="AT239">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU239">
         <v>1.66</v>
@@ -48216,7 +48219,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48407,7 +48410,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48876,7 +48879,7 @@
         <v>1</v>
       </c>
       <c r="AS249">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT249">
         <v>0.79</v>
@@ -48980,7 +48983,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49452,7 +49455,7 @@
         <v>1.71</v>
       </c>
       <c r="AT252">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU252">
         <v>1.36</v>
@@ -49640,7 +49643,7 @@
         <v>0.73</v>
       </c>
       <c r="AS253">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT253">
         <v>0.57</v>
@@ -49834,7 +49837,7 @@
         <v>1.86</v>
       </c>
       <c r="AT254">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU254">
         <v>1.51</v>
@@ -49935,7 +49938,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50786,7 +50789,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT259">
         <v>1.07</v>
@@ -50890,7 +50893,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51171,7 +51174,7 @@
         <v>1.4</v>
       </c>
       <c r="AT261">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU261">
         <v>1.79</v>
@@ -51359,7 +51362,7 @@
         <v>1</v>
       </c>
       <c r="AS262">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT262">
         <v>1</v>
@@ -51654,7 +51657,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -52123,10 +52126,10 @@
         <v>0.83</v>
       </c>
       <c r="AS266">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT266">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU266">
         <v>1.58</v>
@@ -52317,7 +52320,7 @@
         <v>2.71</v>
       </c>
       <c r="AT267">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU267">
         <v>1.66</v>
@@ -52508,7 +52511,7 @@
         <v>2.27</v>
       </c>
       <c r="AT268">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU268">
         <v>1.83</v>
@@ -52609,7 +52612,7 @@
         <v>87</v>
       </c>
       <c r="P269" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q269">
         <v>11</v>
@@ -52991,7 +52994,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53078,7 +53081,7 @@
         <v>1.08</v>
       </c>
       <c r="AS271">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT271">
         <v>1.36</v>
@@ -53651,7 +53654,7 @@
         <v>0.5</v>
       </c>
       <c r="AS274">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT274">
         <v>0.5</v>
@@ -53755,7 +53758,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -53845,7 +53848,7 @@
         <v>1</v>
       </c>
       <c r="AT275">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU275">
         <v>1.31</v>
@@ -54988,7 +54991,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT281">
         <v>1.36</v>
@@ -55092,7 +55095,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55665,7 +55668,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -56328,7 +56331,7 @@
         <v>2.71</v>
       </c>
       <c r="AT288">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU288">
         <v>1.63</v>
@@ -56429,7 +56432,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56620,7 +56623,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -56707,7 +56710,7 @@
         <v>1.08</v>
       </c>
       <c r="AS290">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT290">
         <v>0.93</v>
@@ -56901,7 +56904,7 @@
         <v>2</v>
       </c>
       <c r="AT291">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AU291">
         <v>1.61</v>
@@ -57193,7 +57196,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57575,7 +57578,7 @@
         <v>184</v>
       </c>
       <c r="P295" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q295">
         <v>9</v>
@@ -57662,7 +57665,7 @@
         <v>0.62</v>
       </c>
       <c r="AS295">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT295">
         <v>0.64</v>
@@ -57766,7 +57769,7 @@
         <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -57856,7 +57859,7 @@
         <v>2.27</v>
       </c>
       <c r="AT296">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU296">
         <v>1.84</v>
@@ -58235,10 +58238,10 @@
         <v>0.83</v>
       </c>
       <c r="AS298">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT298">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU298">
         <v>1.57</v>
@@ -58530,7 +58533,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q300">
         <v>9</v>
@@ -59485,7 +59488,7 @@
         <v>253</v>
       </c>
       <c r="P305" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -59572,7 +59575,7 @@
         <v>0.38</v>
       </c>
       <c r="AS305">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="AT305">
         <v>0.36</v>
@@ -60582,6 +60585,770 @@
       </c>
       <c r="BK310">
         <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:63">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>2604744</v>
+      </c>
+      <c r="C311" t="s">
+        <v>63</v>
+      </c>
+      <c r="D311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" s="2">
+        <v>44982.51041666666</v>
+      </c>
+      <c r="F311">
+        <v>29</v>
+      </c>
+      <c r="G311" t="s">
+        <v>77</v>
+      </c>
+      <c r="H311" t="s">
+        <v>75</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311" t="s">
+        <v>87</v>
+      </c>
+      <c r="P311" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q311">
+        <v>7</v>
+      </c>
+      <c r="R311">
+        <v>2</v>
+      </c>
+      <c r="S311">
+        <v>9</v>
+      </c>
+      <c r="T311">
+        <v>2.45</v>
+      </c>
+      <c r="U311">
+        <v>1.9</v>
+      </c>
+      <c r="V311">
+        <v>5.25</v>
+      </c>
+      <c r="W311">
+        <v>1.55</v>
+      </c>
+      <c r="X311">
+        <v>2.25</v>
+      </c>
+      <c r="Y311">
+        <v>3.6</v>
+      </c>
+      <c r="Z311">
+        <v>1.25</v>
+      </c>
+      <c r="AA311">
+        <v>10.5</v>
+      </c>
+      <c r="AB311">
+        <v>1.04</v>
+      </c>
+      <c r="AC311">
+        <v>1.7</v>
+      </c>
+      <c r="AD311">
+        <v>3.25</v>
+      </c>
+      <c r="AE311">
+        <v>4.53</v>
+      </c>
+      <c r="AF311">
+        <v>1.11</v>
+      </c>
+      <c r="AG311">
+        <v>6.5</v>
+      </c>
+      <c r="AH311">
+        <v>1.5</v>
+      </c>
+      <c r="AI311">
+        <v>2.37</v>
+      </c>
+      <c r="AJ311">
+        <v>2.44</v>
+      </c>
+      <c r="AK311">
+        <v>1.49</v>
+      </c>
+      <c r="AL311">
+        <v>2.3</v>
+      </c>
+      <c r="AM311">
+        <v>1.53</v>
+      </c>
+      <c r="AN311">
+        <v>1.17</v>
+      </c>
+      <c r="AO311">
+        <v>1.31</v>
+      </c>
+      <c r="AP311">
+        <v>1.95</v>
+      </c>
+      <c r="AQ311">
+        <v>2.36</v>
+      </c>
+      <c r="AR311">
+        <v>1.46</v>
+      </c>
+      <c r="AS311">
+        <v>2.27</v>
+      </c>
+      <c r="AT311">
+        <v>1.43</v>
+      </c>
+      <c r="AU311">
+        <v>1.66</v>
+      </c>
+      <c r="AV311">
+        <v>1.22</v>
+      </c>
+      <c r="AW311">
+        <v>2.88</v>
+      </c>
+      <c r="AX311">
+        <v>1.41</v>
+      </c>
+      <c r="AY311">
+        <v>8.5</v>
+      </c>
+      <c r="AZ311">
+        <v>3.58</v>
+      </c>
+      <c r="BA311">
+        <v>1.32</v>
+      </c>
+      <c r="BB311">
+        <v>1.6</v>
+      </c>
+      <c r="BC311">
+        <v>2.05</v>
+      </c>
+      <c r="BD311">
+        <v>2.8</v>
+      </c>
+      <c r="BE311">
+        <v>4</v>
+      </c>
+      <c r="BF311">
+        <v>5</v>
+      </c>
+      <c r="BG311">
+        <v>2</v>
+      </c>
+      <c r="BH311">
+        <v>12</v>
+      </c>
+      <c r="BI311">
+        <v>5</v>
+      </c>
+      <c r="BJ311">
+        <v>17</v>
+      </c>
+      <c r="BK311">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:63">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>2604750</v>
+      </c>
+      <c r="C312" t="s">
+        <v>63</v>
+      </c>
+      <c r="D312" t="s">
+        <v>64</v>
+      </c>
+      <c r="E312" s="2">
+        <v>44982.51041666666</v>
+      </c>
+      <c r="F312">
+        <v>29</v>
+      </c>
+      <c r="G312" t="s">
+        <v>70</v>
+      </c>
+      <c r="H312" t="s">
+        <v>86</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>2</v>
+      </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>3</v>
+      </c>
+      <c r="O312" t="s">
+        <v>258</v>
+      </c>
+      <c r="P312" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q312">
+        <v>3</v>
+      </c>
+      <c r="R312">
+        <v>7</v>
+      </c>
+      <c r="S312">
+        <v>10</v>
+      </c>
+      <c r="T312">
+        <v>3.4</v>
+      </c>
+      <c r="U312">
+        <v>1.83</v>
+      </c>
+      <c r="V312">
+        <v>3.6</v>
+      </c>
+      <c r="W312">
+        <v>1.58</v>
+      </c>
+      <c r="X312">
+        <v>2.2</v>
+      </c>
+      <c r="Y312">
+        <v>3.8</v>
+      </c>
+      <c r="Z312">
+        <v>1.23</v>
+      </c>
+      <c r="AA312">
+        <v>11.5</v>
+      </c>
+      <c r="AB312">
+        <v>1.04</v>
+      </c>
+      <c r="AC312">
+        <v>2.57</v>
+      </c>
+      <c r="AD312">
+        <v>2.83</v>
+      </c>
+      <c r="AE312">
+        <v>2.64</v>
+      </c>
+      <c r="AF312">
+        <v>1.12</v>
+      </c>
+      <c r="AG312">
+        <v>6</v>
+      </c>
+      <c r="AH312">
+        <v>1.52</v>
+      </c>
+      <c r="AI312">
+        <v>2.45</v>
+      </c>
+      <c r="AJ312">
+        <v>2.65</v>
+      </c>
+      <c r="AK312">
+        <v>1.36</v>
+      </c>
+      <c r="AL312">
+        <v>2.2</v>
+      </c>
+      <c r="AM312">
+        <v>1.58</v>
+      </c>
+      <c r="AN312">
+        <v>1.4</v>
+      </c>
+      <c r="AO312">
+        <v>1.37</v>
+      </c>
+      <c r="AP312">
+        <v>1.46</v>
+      </c>
+      <c r="AQ312">
+        <v>1.08</v>
+      </c>
+      <c r="AR312">
+        <v>0.93</v>
+      </c>
+      <c r="AS312">
+        <v>1.21</v>
+      </c>
+      <c r="AT312">
+        <v>0.87</v>
+      </c>
+      <c r="AU312">
+        <v>1.5</v>
+      </c>
+      <c r="AV312">
+        <v>1.35</v>
+      </c>
+      <c r="AW312">
+        <v>2.85</v>
+      </c>
+      <c r="AX312">
+        <v>2.05</v>
+      </c>
+      <c r="AY312">
+        <v>7.5</v>
+      </c>
+      <c r="AZ312">
+        <v>2.05</v>
+      </c>
+      <c r="BA312">
+        <v>1.34</v>
+      </c>
+      <c r="BB312">
+        <v>1.63</v>
+      </c>
+      <c r="BC312">
+        <v>2.1</v>
+      </c>
+      <c r="BD312">
+        <v>2.87</v>
+      </c>
+      <c r="BE312">
+        <v>4</v>
+      </c>
+      <c r="BF312">
+        <v>8</v>
+      </c>
+      <c r="BG312">
+        <v>8</v>
+      </c>
+      <c r="BH312">
+        <v>2</v>
+      </c>
+      <c r="BI312">
+        <v>17</v>
+      </c>
+      <c r="BJ312">
+        <v>10</v>
+      </c>
+      <c r="BK312">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>2604749</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>44982.70833333334</v>
+      </c>
+      <c r="F313">
+        <v>29</v>
+      </c>
+      <c r="G313" t="s">
+        <v>78</v>
+      </c>
+      <c r="H313" t="s">
+        <v>83</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
+        <v>225</v>
+      </c>
+      <c r="P313" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q313">
+        <v>7</v>
+      </c>
+      <c r="R313">
+        <v>4</v>
+      </c>
+      <c r="S313">
+        <v>11</v>
+      </c>
+      <c r="T313">
+        <v>3.1</v>
+      </c>
+      <c r="U313">
+        <v>1.8</v>
+      </c>
+      <c r="V313">
+        <v>4.1</v>
+      </c>
+      <c r="W313">
+        <v>1.63</v>
+      </c>
+      <c r="X313">
+        <v>2.1</v>
+      </c>
+      <c r="Y313">
+        <v>4</v>
+      </c>
+      <c r="Z313">
+        <v>1.21</v>
+      </c>
+      <c r="AA313">
+        <v>12.5</v>
+      </c>
+      <c r="AB313">
+        <v>1.03</v>
+      </c>
+      <c r="AC313">
+        <v>2.5</v>
+      </c>
+      <c r="AD313">
+        <v>2.8</v>
+      </c>
+      <c r="AE313">
+        <v>3.05</v>
+      </c>
+      <c r="AF313">
+        <v>1.14</v>
+      </c>
+      <c r="AG313">
+        <v>5</v>
+      </c>
+      <c r="AH313">
+        <v>1.57</v>
+      </c>
+      <c r="AI313">
+        <v>2.15</v>
+      </c>
+      <c r="AJ313">
+        <v>2.6</v>
+      </c>
+      <c r="AK313">
+        <v>1.38</v>
+      </c>
+      <c r="AL313">
+        <v>2.3</v>
+      </c>
+      <c r="AM313">
+        <v>1.53</v>
+      </c>
+      <c r="AN313">
+        <v>1.3</v>
+      </c>
+      <c r="AO313">
+        <v>1.38</v>
+      </c>
+      <c r="AP313">
+        <v>1.58</v>
+      </c>
+      <c r="AQ313">
+        <v>1.57</v>
+      </c>
+      <c r="AR313">
+        <v>0.79</v>
+      </c>
+      <c r="AS313">
+        <v>1.67</v>
+      </c>
+      <c r="AT313">
+        <v>0.73</v>
+      </c>
+      <c r="AU313">
+        <v>1.64</v>
+      </c>
+      <c r="AV313">
+        <v>1.12</v>
+      </c>
+      <c r="AW313">
+        <v>2.76</v>
+      </c>
+      <c r="AX313">
+        <v>1.82</v>
+      </c>
+      <c r="AY313">
+        <v>7.5</v>
+      </c>
+      <c r="AZ313">
+        <v>2.4</v>
+      </c>
+      <c r="BA313">
+        <v>1.44</v>
+      </c>
+      <c r="BB313">
+        <v>1.85</v>
+      </c>
+      <c r="BC313">
+        <v>2.45</v>
+      </c>
+      <c r="BD313">
+        <v>3.4</v>
+      </c>
+      <c r="BE313">
+        <v>5</v>
+      </c>
+      <c r="BF313">
+        <v>3</v>
+      </c>
+      <c r="BG313">
+        <v>2</v>
+      </c>
+      <c r="BH313">
+        <v>8</v>
+      </c>
+      <c r="BI313">
+        <v>11</v>
+      </c>
+      <c r="BJ313">
+        <v>11</v>
+      </c>
+      <c r="BK313">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:63">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>2604753</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" s="2">
+        <v>44982.70833333334</v>
+      </c>
+      <c r="F314">
+        <v>29</v>
+      </c>
+      <c r="G314" t="s">
+        <v>67</v>
+      </c>
+      <c r="H314" t="s">
+        <v>68</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314" t="s">
+        <v>87</v>
+      </c>
+      <c r="P314" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q314">
+        <v>3</v>
+      </c>
+      <c r="R314">
+        <v>6</v>
+      </c>
+      <c r="S314">
+        <v>9</v>
+      </c>
+      <c r="T314">
+        <v>3.5</v>
+      </c>
+      <c r="U314">
+        <v>1.85</v>
+      </c>
+      <c r="V314">
+        <v>3.4</v>
+      </c>
+      <c r="W314">
+        <v>1.57</v>
+      </c>
+      <c r="X314">
+        <v>2.25</v>
+      </c>
+      <c r="Y314">
+        <v>3.7</v>
+      </c>
+      <c r="Z314">
+        <v>1.24</v>
+      </c>
+      <c r="AA314">
+        <v>11</v>
+      </c>
+      <c r="AB314">
+        <v>1.04</v>
+      </c>
+      <c r="AC314">
+        <v>2.9</v>
+      </c>
+      <c r="AD314">
+        <v>2.85</v>
+      </c>
+      <c r="AE314">
+        <v>2.55</v>
+      </c>
+      <c r="AF314">
+        <v>1.11</v>
+      </c>
+      <c r="AG314">
+        <v>6</v>
+      </c>
+      <c r="AH314">
+        <v>1.44</v>
+      </c>
+      <c r="AI314">
+        <v>2.4</v>
+      </c>
+      <c r="AJ314">
+        <v>2.4</v>
+      </c>
+      <c r="AK314">
+        <v>1.44</v>
+      </c>
+      <c r="AL314">
+        <v>2.1</v>
+      </c>
+      <c r="AM314">
+        <v>1.63</v>
+      </c>
+      <c r="AN314">
+        <v>1.46</v>
+      </c>
+      <c r="AO314">
+        <v>1.37</v>
+      </c>
+      <c r="AP314">
+        <v>1.41</v>
+      </c>
+      <c r="AQ314">
+        <v>1.79</v>
+      </c>
+      <c r="AR314">
+        <v>0.77</v>
+      </c>
+      <c r="AS314">
+        <v>1.73</v>
+      </c>
+      <c r="AT314">
+        <v>0.79</v>
+      </c>
+      <c r="AU314">
+        <v>1.67</v>
+      </c>
+      <c r="AV314">
+        <v>1.27</v>
+      </c>
+      <c r="AW314">
+        <v>2.94</v>
+      </c>
+      <c r="AX314">
+        <v>1.91</v>
+      </c>
+      <c r="AY314">
+        <v>7.5</v>
+      </c>
+      <c r="AZ314">
+        <v>2.2</v>
+      </c>
+      <c r="BA314">
+        <v>1.34</v>
+      </c>
+      <c r="BB314">
+        <v>1.63</v>
+      </c>
+      <c r="BC314">
+        <v>2.1</v>
+      </c>
+      <c r="BD314">
+        <v>2.87</v>
+      </c>
+      <c r="BE314">
+        <v>4.2</v>
+      </c>
+      <c r="BF314">
+        <v>3</v>
+      </c>
+      <c r="BG314">
+        <v>5</v>
+      </c>
+      <c r="BH314">
+        <v>2</v>
+      </c>
+      <c r="BI314">
+        <v>6</v>
+      </c>
+      <c r="BJ314">
+        <v>5</v>
+      </c>
+      <c r="BK314">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1389,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK320"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5734,7 +5734,7 @@
         <v>1.29</v>
       </c>
       <c r="AT23">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>2.27</v>
       </c>
       <c r="AT36">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU36">
         <v>1.85</v>
@@ -8978,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT40">
         <v>0.71</v>
@@ -12798,7 +12798,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT60">
         <v>1.36</v>
@@ -13756,7 +13756,7 @@
         <v>1.21</v>
       </c>
       <c r="AT65">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU65">
         <v>1.3</v>
@@ -16812,7 +16812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU81">
         <v>1.66</v>
@@ -17000,7 +17000,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT82">
         <v>1.64</v>
@@ -20820,7 +20820,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -21969,7 +21969,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU108">
         <v>1.29</v>
@@ -22730,7 +22730,7 @@
         <v>1.6</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT112">
         <v>1.36</v>
@@ -23115,7 +23115,7 @@
         <v>1.21</v>
       </c>
       <c r="AT114">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU114">
         <v>1.62</v>
@@ -27123,7 +27123,7 @@
         <v>1.33</v>
       </c>
       <c r="AS135">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT135">
         <v>0.8</v>
@@ -27317,7 +27317,7 @@
         <v>1.93</v>
       </c>
       <c r="AT136">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU136">
         <v>1.19</v>
@@ -31516,7 +31516,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT158">
         <v>1.07</v>
@@ -34381,7 +34381,7 @@
         <v>0.71</v>
       </c>
       <c r="AS173">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT173">
         <v>0.53</v>
@@ -34957,7 +34957,7 @@
         <v>2.07</v>
       </c>
       <c r="AT176">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU176">
         <v>1.48</v>
@@ -38204,7 +38204,7 @@
         <v>1.67</v>
       </c>
       <c r="AT193">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU193">
         <v>1.67</v>
@@ -38583,7 +38583,7 @@
         <v>1.38</v>
       </c>
       <c r="AS195">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT195">
         <v>1.43</v>
@@ -39732,7 +39732,7 @@
         <v>1.4</v>
       </c>
       <c r="AT201">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU201">
         <v>1.16</v>
@@ -41830,7 +41830,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT212">
         <v>0.79</v>
@@ -44316,7 +44316,7 @@
         <v>1.64</v>
       </c>
       <c r="AT225">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU225">
         <v>1.53</v>
@@ -46414,7 +46414,7 @@
         <v>1</v>
       </c>
       <c r="AS236">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -48327,7 +48327,7 @@
         <v>1</v>
       </c>
       <c r="AT246">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU246">
         <v>1.3</v>
@@ -51953,7 +51953,7 @@
         <v>1.45</v>
       </c>
       <c r="AS265">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT265">
         <v>1.4</v>
@@ -55391,7 +55391,7 @@
         <v>0.92</v>
       </c>
       <c r="AS283">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT283">
         <v>1</v>
@@ -56158,7 +56158,7 @@
         <v>1.71</v>
       </c>
       <c r="AT287">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU287">
         <v>1.35</v>
@@ -59023,7 +59023,7 @@
         <v>1.93</v>
       </c>
       <c r="AT302">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU302">
         <v>1.36</v>
@@ -59784,7 +59784,7 @@
         <v>0.85</v>
       </c>
       <c r="AS306">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT306">
         <v>0.79</v>
@@ -62513,6 +62513,197 @@
       </c>
       <c r="BK320">
         <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:63">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>2604755</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
+      </c>
+      <c r="D321" t="s">
+        <v>64</v>
+      </c>
+      <c r="E321" s="2">
+        <v>44988.70833333334</v>
+      </c>
+      <c r="F321">
+        <v>30</v>
+      </c>
+      <c r="G321" t="s">
+        <v>86</v>
+      </c>
+      <c r="H321" t="s">
+        <v>69</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321" t="s">
+        <v>87</v>
+      </c>
+      <c r="P321" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q321">
+        <v>2</v>
+      </c>
+      <c r="R321">
+        <v>9</v>
+      </c>
+      <c r="S321">
+        <v>11</v>
+      </c>
+      <c r="T321">
+        <v>3.6</v>
+      </c>
+      <c r="U321">
+        <v>1.85</v>
+      </c>
+      <c r="V321">
+        <v>3.25</v>
+      </c>
+      <c r="W321">
+        <v>1.57</v>
+      </c>
+      <c r="X321">
+        <v>2.3</v>
+      </c>
+      <c r="Y321">
+        <v>3.5</v>
+      </c>
+      <c r="Z321">
+        <v>1.29</v>
+      </c>
+      <c r="AA321">
+        <v>10</v>
+      </c>
+      <c r="AB321">
+        <v>1.04</v>
+      </c>
+      <c r="AC321">
+        <v>2.83</v>
+      </c>
+      <c r="AD321">
+        <v>2.75</v>
+      </c>
+      <c r="AE321">
+        <v>2.52</v>
+      </c>
+      <c r="AF321">
+        <v>1.12</v>
+      </c>
+      <c r="AG321">
+        <v>5.5</v>
+      </c>
+      <c r="AH321">
+        <v>1.5</v>
+      </c>
+      <c r="AI321">
+        <v>2.5</v>
+      </c>
+      <c r="AJ321">
+        <v>2.6</v>
+      </c>
+      <c r="AK321">
+        <v>1.47</v>
+      </c>
+      <c r="AL321">
+        <v>2.2</v>
+      </c>
+      <c r="AM321">
+        <v>1.62</v>
+      </c>
+      <c r="AN321">
+        <v>1.5</v>
+      </c>
+      <c r="AO321">
+        <v>1.36</v>
+      </c>
+      <c r="AP321">
+        <v>1.4</v>
+      </c>
+      <c r="AQ321">
+        <v>1.57</v>
+      </c>
+      <c r="AR321">
+        <v>1.79</v>
+      </c>
+      <c r="AS321">
+        <v>1.53</v>
+      </c>
+      <c r="AT321">
+        <v>1.73</v>
+      </c>
+      <c r="AU321">
+        <v>1.77</v>
+      </c>
+      <c r="AV321">
+        <v>1.55</v>
+      </c>
+      <c r="AW321">
+        <v>3.32</v>
+      </c>
+      <c r="AX321">
+        <v>2.05</v>
+      </c>
+      <c r="AY321">
+        <v>7.5</v>
+      </c>
+      <c r="AZ321">
+        <v>2</v>
+      </c>
+      <c r="BA321">
+        <v>1.4</v>
+      </c>
+      <c r="BB321">
+        <v>1.67</v>
+      </c>
+      <c r="BC321">
+        <v>2.1</v>
+      </c>
+      <c r="BD321">
+        <v>2.63</v>
+      </c>
+      <c r="BE321">
+        <v>3.94</v>
+      </c>
+      <c r="BF321">
+        <v>2</v>
+      </c>
+      <c r="BG321">
+        <v>4</v>
+      </c>
+      <c r="BH321">
+        <v>2</v>
+      </c>
+      <c r="BI321">
+        <v>10</v>
+      </c>
+      <c r="BJ321">
+        <v>4</v>
+      </c>
+      <c r="BK321">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,9 @@
     <t>['12', '35']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1407,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK330"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1842,7 +1845,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2224,7 +2227,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2314,7 +2317,7 @@
         <v>1.81</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2606,7 +2609,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2797,7 +2800,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3370,7 +3373,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3561,7 +3564,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3752,7 +3755,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3839,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT13">
         <v>1.47</v>
@@ -5089,7 +5092,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5662,7 +5665,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5853,7 +5856,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6617,7 +6620,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7471,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU32">
         <v>1.04</v>
@@ -8423,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT37">
         <v>0.57</v>
@@ -8527,7 +8530,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -9100,7 +9103,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9673,7 +9676,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10246,7 +10249,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10336,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>1.06</v>
@@ -11010,7 +11013,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11392,7 +11395,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11583,7 +11586,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12434,7 +12437,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT58">
         <v>0.53</v>
@@ -12920,7 +12923,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13875,7 +13878,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14830,7 +14833,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15021,7 +15024,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15594,7 +15597,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -16066,7 +16069,7 @@
         <v>1.4</v>
       </c>
       <c r="AT77">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -16740,7 +16743,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17209,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT83">
         <v>1.4</v>
@@ -17313,7 +17316,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17504,7 +17507,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17695,7 +17698,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18077,7 +18080,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -19313,7 +19316,7 @@
         <v>1.6</v>
       </c>
       <c r="AT94">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>1.52</v>
@@ -19414,7 +19417,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19605,7 +19608,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19796,7 +19799,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20560,7 +20563,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20647,7 +20650,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT101">
         <v>0.8</v>
@@ -21897,7 +21900,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22088,7 +22091,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22751,7 +22754,7 @@
         <v>1.53</v>
       </c>
       <c r="AT112">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -23998,7 +24001,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -25040,7 +25043,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT124">
         <v>0.87</v>
@@ -25526,7 +25529,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25717,7 +25720,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -26863,7 +26866,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28200,7 +28203,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28964,7 +28967,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29346,7 +29349,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29537,7 +29540,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29627,7 +29630,7 @@
         <v>1.21</v>
       </c>
       <c r="AT148">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU148">
         <v>1.53</v>
@@ -29728,7 +29731,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30006,7 +30009,7 @@
         <v>1</v>
       </c>
       <c r="AS150">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT150">
         <v>0.93</v>
@@ -30492,7 +30495,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30683,7 +30686,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31447,7 +31450,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -32020,7 +32023,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32402,7 +32405,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32784,7 +32787,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33357,7 +33360,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33548,7 +33551,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34208,7 +34211,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT172">
         <v>0.53</v>
@@ -34593,7 +34596,7 @@
         <v>2.27</v>
       </c>
       <c r="AT174">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU174">
         <v>2.01</v>
@@ -35840,7 +35843,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36413,7 +36416,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -37649,7 +37652,7 @@
         <v>2.73</v>
       </c>
       <c r="AT190">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU190">
         <v>1.67</v>
@@ -37941,7 +37944,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38410,7 +38413,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT194">
         <v>0.79</v>
@@ -38705,7 +38708,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39278,7 +39281,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39469,7 +39472,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -40514,7 +40517,7 @@
         <v>1.73</v>
       </c>
       <c r="AT205">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU205">
         <v>1.95</v>
@@ -40615,7 +40618,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -41570,7 +41573,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41657,7 +41660,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT211">
         <v>0.73</v>
@@ -43098,7 +43101,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43289,7 +43292,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43480,7 +43483,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -44331,7 +44334,7 @@
         <v>1.7</v>
       </c>
       <c r="AS225">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT225">
         <v>1.73</v>
@@ -44435,7 +44438,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -45480,7 +45483,7 @@
         <v>1.2</v>
       </c>
       <c r="AT231">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU231">
         <v>1.6</v>
@@ -47963,7 +47966,7 @@
         <v>1.4</v>
       </c>
       <c r="AT244">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU244">
         <v>1.14</v>
@@ -48255,7 +48258,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48446,7 +48449,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48533,7 +48536,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT247">
         <v>1</v>
@@ -49019,7 +49022,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49974,7 +49977,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50929,7 +50932,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51693,7 +51696,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -53030,7 +53033,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53120,7 +53123,7 @@
         <v>1.81</v>
       </c>
       <c r="AT271">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU271">
         <v>1.63</v>
@@ -53794,7 +53797,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -55131,7 +55134,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55218,7 +55221,7 @@
         <v>0.5</v>
       </c>
       <c r="AS282">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT282">
         <v>0.87</v>
@@ -55704,7 +55707,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -56468,7 +56471,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56558,7 +56561,7 @@
         <v>1.36</v>
       </c>
       <c r="AT289">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU289">
         <v>1.66</v>
@@ -56659,7 +56662,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57614,7 +57617,7 @@
         <v>184</v>
       </c>
       <c r="P295" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q295">
         <v>9</v>
@@ -57805,7 +57808,7 @@
         <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58569,7 +58572,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q300">
         <v>9</v>
@@ -59524,7 +59527,7 @@
         <v>253</v>
       </c>
       <c r="P305" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -60184,7 +60187,7 @@
         <v>1.14</v>
       </c>
       <c r="AS308">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT308">
         <v>1.19</v>
@@ -61434,7 +61437,7 @@
         <v>259</v>
       </c>
       <c r="P315" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q315">
         <v>7</v>
@@ -62771,7 +62774,7 @@
         <v>264</v>
       </c>
       <c r="P322" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q322">
         <v>8</v>
@@ -63535,7 +63538,7 @@
         <v>87</v>
       </c>
       <c r="P326" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q326">
         <v>4</v>
@@ -63726,7 +63729,7 @@
         <v>267</v>
       </c>
       <c r="P327" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q327">
         <v>6</v>
@@ -64299,7 +64302,7 @@
         <v>87</v>
       </c>
       <c r="P330" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q330">
         <v>6</v>
@@ -64441,6 +64444,197 @@
       </c>
       <c r="BK330">
         <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:63">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>2604762</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="s">
+        <v>64</v>
+      </c>
+      <c r="E331" s="2">
+        <v>44991.70833333334</v>
+      </c>
+      <c r="F331">
+        <v>30</v>
+      </c>
+      <c r="G331" t="s">
+        <v>76</v>
+      </c>
+      <c r="H331" t="s">
+        <v>77</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>268</v>
+      </c>
+      <c r="P331" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q331">
+        <v>3</v>
+      </c>
+      <c r="R331">
+        <v>8</v>
+      </c>
+      <c r="S331">
+        <v>11</v>
+      </c>
+      <c r="T331">
+        <v>4.5</v>
+      </c>
+      <c r="U331">
+        <v>2</v>
+      </c>
+      <c r="V331">
+        <v>2.75</v>
+      </c>
+      <c r="W331">
+        <v>1.5</v>
+      </c>
+      <c r="X331">
+        <v>2.5</v>
+      </c>
+      <c r="Y331">
+        <v>3.4</v>
+      </c>
+      <c r="Z331">
+        <v>1.3</v>
+      </c>
+      <c r="AA331">
+        <v>10</v>
+      </c>
+      <c r="AB331">
+        <v>1.06</v>
+      </c>
+      <c r="AC331">
+        <v>3.35</v>
+      </c>
+      <c r="AD331">
+        <v>3.25</v>
+      </c>
+      <c r="AE331">
+        <v>2.12</v>
+      </c>
+      <c r="AF331">
+        <v>1.06</v>
+      </c>
+      <c r="AG331">
+        <v>7</v>
+      </c>
+      <c r="AH331">
+        <v>1.4</v>
+      </c>
+      <c r="AI331">
+        <v>2.7</v>
+      </c>
+      <c r="AJ331">
+        <v>2.27</v>
+      </c>
+      <c r="AK331">
+        <v>1.57</v>
+      </c>
+      <c r="AL331">
+        <v>2</v>
+      </c>
+      <c r="AM331">
+        <v>1.73</v>
+      </c>
+      <c r="AN331">
+        <v>1.76</v>
+      </c>
+      <c r="AO331">
+        <v>1.32</v>
+      </c>
+      <c r="AP331">
+        <v>1.22</v>
+      </c>
+      <c r="AQ331">
+        <v>1.64</v>
+      </c>
+      <c r="AR331">
+        <v>1.36</v>
+      </c>
+      <c r="AS331">
+        <v>1.73</v>
+      </c>
+      <c r="AT331">
+        <v>1.27</v>
+      </c>
+      <c r="AU331">
+        <v>1.57</v>
+      </c>
+      <c r="AV331">
+        <v>1.27</v>
+      </c>
+      <c r="AW331">
+        <v>2.84</v>
+      </c>
+      <c r="AX331">
+        <v>2.55</v>
+      </c>
+      <c r="AY331">
+        <v>7.4</v>
+      </c>
+      <c r="AZ331">
+        <v>1.79</v>
+      </c>
+      <c r="BA331">
+        <v>1.39</v>
+      </c>
+      <c r="BB331">
+        <v>1.72</v>
+      </c>
+      <c r="BC331">
+        <v>2.27</v>
+      </c>
+      <c r="BD331">
+        <v>3.04</v>
+      </c>
+      <c r="BE331">
+        <v>4.4</v>
+      </c>
+      <c r="BF331">
+        <v>5</v>
+      </c>
+      <c r="BG331">
+        <v>3</v>
+      </c>
+      <c r="BH331">
+        <v>6</v>
+      </c>
+      <c r="BI331">
+        <v>9</v>
+      </c>
+      <c r="BJ331">
+        <v>11</v>
+      </c>
+      <c r="BK331">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1410,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1935,7 @@
         <v>2.27</v>
       </c>
       <c r="AT3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
         <v>0.87</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
         <v>0.79</v>
@@ -6901,7 +6901,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1.62</v>
@@ -9954,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT45">
         <v>1.53</v>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.32</v>
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT59">
         <v>0.53</v>
@@ -15114,7 +15114,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU72">
         <v>1.8</v>
@@ -17785,7 +17785,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT86">
         <v>1.53</v>
@@ -20080,7 +20080,7 @@
         <v>1.93</v>
       </c>
       <c r="AT98">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -21605,7 +21605,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -26192,7 +26192,7 @@
         <v>1.81</v>
       </c>
       <c r="AT130">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU130">
         <v>1.36</v>
@@ -26762,7 +26762,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT133">
         <v>0.47</v>
@@ -30394,7 +30394,7 @@
         <v>1.81</v>
       </c>
       <c r="AT152">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU152">
         <v>1.78</v>
@@ -31349,7 +31349,7 @@
         <v>1.6</v>
       </c>
       <c r="AT157">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU157">
         <v>1.33</v>
@@ -32301,7 +32301,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT162">
         <v>0.87</v>
@@ -36121,7 +36121,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT182">
         <v>0.57</v>
@@ -36315,7 +36315,7 @@
         <v>2.07</v>
       </c>
       <c r="AT183">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -39750,7 +39750,7 @@
         <v>1.78</v>
       </c>
       <c r="AS201">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT201">
         <v>1.73</v>
@@ -41663,7 +41663,7 @@
         <v>1.73</v>
       </c>
       <c r="AT211">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU211">
         <v>1.56</v>
@@ -44716,7 +44716,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT227">
         <v>0.73</v>
@@ -46629,7 +46629,7 @@
         <v>1.2</v>
       </c>
       <c r="AT237">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU237">
         <v>1.55</v>
@@ -47963,7 +47963,7 @@
         <v>1.18</v>
       </c>
       <c r="AS244">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT244">
         <v>1.27</v>
@@ -51213,7 +51213,7 @@
         <v>1.4</v>
       </c>
       <c r="AT261">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU261">
         <v>1.79</v>
@@ -52168,7 +52168,7 @@
         <v>1.21</v>
       </c>
       <c r="AT266">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU266">
         <v>1.58</v>
@@ -52738,7 +52738,7 @@
         <v>0.92</v>
       </c>
       <c r="AS269">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT269">
         <v>0.93</v>
@@ -56370,7 +56370,7 @@
         <v>2.73</v>
       </c>
       <c r="AT288">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU288">
         <v>1.63</v>
@@ -57513,7 +57513,7 @@
         <v>1.31</v>
       </c>
       <c r="AS294">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT294">
         <v>1.4</v>
@@ -61145,7 +61145,7 @@
         <v>1.67</v>
       </c>
       <c r="AT313">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU313">
         <v>1.64</v>
@@ -62288,7 +62288,7 @@
         <v>1.43</v>
       </c>
       <c r="AS319">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT319">
         <v>1.4</v>
@@ -64635,6 +64635,197 @@
       </c>
       <c r="BK331">
         <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:63">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>2604770</v>
+      </c>
+      <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E332" s="2">
+        <v>44995.70833333334</v>
+      </c>
+      <c r="F332">
+        <v>31</v>
+      </c>
+      <c r="G332" t="s">
+        <v>73</v>
+      </c>
+      <c r="H332" t="s">
+        <v>83</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332" t="s">
+        <v>87</v>
+      </c>
+      <c r="P332" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q332">
+        <v>8</v>
+      </c>
+      <c r="R332">
+        <v>3</v>
+      </c>
+      <c r="S332">
+        <v>11</v>
+      </c>
+      <c r="T332">
+        <v>3.5</v>
+      </c>
+      <c r="U332">
+        <v>1.7</v>
+      </c>
+      <c r="V332">
+        <v>4.1</v>
+      </c>
+      <c r="W332">
+        <v>1.72</v>
+      </c>
+      <c r="X332">
+        <v>2.02</v>
+      </c>
+      <c r="Y332">
+        <v>4.45</v>
+      </c>
+      <c r="Z332">
+        <v>1.17</v>
+      </c>
+      <c r="AA332">
+        <v>14.5</v>
+      </c>
+      <c r="AB332">
+        <v>1.01</v>
+      </c>
+      <c r="AC332">
+        <v>2.9</v>
+      </c>
+      <c r="AD332">
+        <v>2.5</v>
+      </c>
+      <c r="AE332">
+        <v>3</v>
+      </c>
+      <c r="AF332">
+        <v>1.16</v>
+      </c>
+      <c r="AG332">
+        <v>5</v>
+      </c>
+      <c r="AH332">
+        <v>2</v>
+      </c>
+      <c r="AI332">
+        <v>1.83</v>
+      </c>
+      <c r="AJ332">
+        <v>2.9</v>
+      </c>
+      <c r="AK332">
+        <v>1.36</v>
+      </c>
+      <c r="AL332">
+        <v>2.6</v>
+      </c>
+      <c r="AM332">
+        <v>1.45</v>
+      </c>
+      <c r="AN332">
+        <v>1.35</v>
+      </c>
+      <c r="AO332">
+        <v>1.35</v>
+      </c>
+      <c r="AP332">
+        <v>1.48</v>
+      </c>
+      <c r="AQ332">
+        <v>1.4</v>
+      </c>
+      <c r="AR332">
+        <v>0.73</v>
+      </c>
+      <c r="AS332">
+        <v>1.38</v>
+      </c>
+      <c r="AT332">
+        <v>0.75</v>
+      </c>
+      <c r="AU332">
+        <v>1.19</v>
+      </c>
+      <c r="AV332">
+        <v>1.13</v>
+      </c>
+      <c r="AW332">
+        <v>2.32</v>
+      </c>
+      <c r="AX332">
+        <v>1.85</v>
+      </c>
+      <c r="AY332">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332">
+        <v>2.29</v>
+      </c>
+      <c r="BA332">
+        <v>1.44</v>
+      </c>
+      <c r="BB332">
+        <v>1.73</v>
+      </c>
+      <c r="BC332">
+        <v>2.2</v>
+      </c>
+      <c r="BD332">
+        <v>2.98</v>
+      </c>
+      <c r="BE332">
+        <v>4.32</v>
+      </c>
+      <c r="BF332">
+        <v>4</v>
+      </c>
+      <c r="BG332">
+        <v>2</v>
+      </c>
+      <c r="BH332">
+        <v>7</v>
+      </c>
+      <c r="BI332">
+        <v>7</v>
+      </c>
+      <c r="BJ332">
+        <v>11</v>
+      </c>
+      <c r="BK332">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1434,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT7">
         <v>0.9399999999999999</v>
@@ -5970,7 +5970,7 @@
         <v>1.93</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU24">
         <v>1.64</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
         <v>0.93</v>
@@ -13610,7 +13610,7 @@
         <v>2.19</v>
       </c>
       <c r="AT64">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13798,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT65">
         <v>1.73</v>
@@ -16663,7 +16663,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT80">
         <v>0.5</v>
@@ -18003,7 +18003,7 @@
         <v>2.63</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU87">
         <v>1.29</v>
@@ -21632,7 +21632,7 @@
         <v>1.38</v>
       </c>
       <c r="AT106">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU106">
         <v>1.23</v>
@@ -21820,7 +21820,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>1.81</v>
       </c>
       <c r="AT126">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU126">
         <v>1.75</v>
@@ -25831,7 +25831,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT128">
         <v>0.8100000000000001</v>
@@ -29272,7 +29272,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU146">
         <v>1.51</v>
@@ -29651,7 +29651,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT148">
         <v>1.27</v>
@@ -33856,7 +33856,7 @@
         <v>1.73</v>
       </c>
       <c r="AT170">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU170">
         <v>1.85</v>
@@ -34808,7 +34808,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT175">
         <v>1.31</v>
@@ -38819,7 +38819,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT196">
         <v>0.5600000000000001</v>
@@ -39013,7 +39013,7 @@
         <v>2.31</v>
       </c>
       <c r="AT197">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU197">
         <v>1.9</v>
@@ -42069,7 +42069,7 @@
         <v>1.47</v>
       </c>
       <c r="AT213">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU213">
         <v>1.74</v>
@@ -43212,7 +43212,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT219">
         <v>0.73</v>
@@ -45316,7 +45316,7 @@
         <v>1.6</v>
       </c>
       <c r="AT230">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU230">
         <v>1.28</v>
@@ -48181,7 +48181,7 @@
         <v>1.31</v>
       </c>
       <c r="AT245">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48942,7 +48942,7 @@
         <v>1</v>
       </c>
       <c r="AS249">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT249">
         <v>0.73</v>
@@ -52189,7 +52189,7 @@
         <v>0.83</v>
       </c>
       <c r="AS266">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT266">
         <v>0.75</v>
@@ -52956,7 +52956,7 @@
         <v>2</v>
       </c>
       <c r="AT270">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU270">
         <v>1.88</v>
@@ -57731,7 +57731,7 @@
         <v>1.56</v>
       </c>
       <c r="AT295">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU295">
         <v>1.6</v>
@@ -58301,7 +58301,7 @@
         <v>0.83</v>
       </c>
       <c r="AS298">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT298">
         <v>0.73</v>
@@ -60975,7 +60975,7 @@
         <v>0.93</v>
       </c>
       <c r="AS312">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT312">
         <v>1</v>
@@ -61551,7 +61551,7 @@
         <v>1</v>
       </c>
       <c r="AT315">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU315">
         <v>1.38</v>
@@ -65860,10 +65860,10 @@
         <v>5</v>
       </c>
       <c r="R338">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S338">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T338">
         <v>2.5</v>
@@ -66569,6 +66569,197 @@
       </c>
       <c r="BK341">
         <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>2604773</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>44998.70833333334</v>
+      </c>
+      <c r="F342">
+        <v>31</v>
+      </c>
+      <c r="G342" t="s">
+        <v>70</v>
+      </c>
+      <c r="H342" t="s">
+        <v>82</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>2</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>89</v>
+      </c>
+      <c r="P342" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q342">
+        <v>1</v>
+      </c>
+      <c r="R342">
+        <v>1</v>
+      </c>
+      <c r="S342">
+        <v>2</v>
+      </c>
+      <c r="T342">
+        <v>3.4</v>
+      </c>
+      <c r="U342">
+        <v>1.91</v>
+      </c>
+      <c r="V342">
+        <v>4</v>
+      </c>
+      <c r="W342">
+        <v>1.62</v>
+      </c>
+      <c r="X342">
+        <v>2.2</v>
+      </c>
+      <c r="Y342">
+        <v>4</v>
+      </c>
+      <c r="Z342">
+        <v>1.22</v>
+      </c>
+      <c r="AA342">
+        <v>13</v>
+      </c>
+      <c r="AB342">
+        <v>1.04</v>
+      </c>
+      <c r="AC342">
+        <v>2.25</v>
+      </c>
+      <c r="AD342">
+        <v>2.95</v>
+      </c>
+      <c r="AE342">
+        <v>3.5</v>
+      </c>
+      <c r="AF342">
+        <v>1.12</v>
+      </c>
+      <c r="AG342">
+        <v>5.5</v>
+      </c>
+      <c r="AH342">
+        <v>1.5</v>
+      </c>
+      <c r="AI342">
+        <v>2.3</v>
+      </c>
+      <c r="AJ342">
+        <v>2.68</v>
+      </c>
+      <c r="AK342">
+        <v>1.41</v>
+      </c>
+      <c r="AL342">
+        <v>2.2</v>
+      </c>
+      <c r="AM342">
+        <v>1.62</v>
+      </c>
+      <c r="AN342">
+        <v>1.33</v>
+      </c>
+      <c r="AO342">
+        <v>1.39</v>
+      </c>
+      <c r="AP342">
+        <v>1.53</v>
+      </c>
+      <c r="AQ342">
+        <v>1.21</v>
+      </c>
+      <c r="AR342">
+        <v>0.67</v>
+      </c>
+      <c r="AS342">
+        <v>1.2</v>
+      </c>
+      <c r="AT342">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU342">
+        <v>1.49</v>
+      </c>
+      <c r="AV342">
+        <v>1.13</v>
+      </c>
+      <c r="AW342">
+        <v>2.62</v>
+      </c>
+      <c r="AX342">
+        <v>1.62</v>
+      </c>
+      <c r="AY342">
+        <v>8.5</v>
+      </c>
+      <c r="AZ342">
+        <v>2.85</v>
+      </c>
+      <c r="BA342">
+        <v>1.24</v>
+      </c>
+      <c r="BB342">
+        <v>1.47</v>
+      </c>
+      <c r="BC342">
+        <v>1.83</v>
+      </c>
+      <c r="BD342">
+        <v>2.34</v>
+      </c>
+      <c r="BE342">
+        <v>3.08</v>
+      </c>
+      <c r="BF342">
+        <v>3</v>
+      </c>
+      <c r="BG342">
+        <v>4</v>
+      </c>
+      <c r="BH342">
+        <v>4</v>
+      </c>
+      <c r="BI342">
+        <v>4</v>
+      </c>
+      <c r="BJ342">
+        <v>7</v>
+      </c>
+      <c r="BK342">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -859,6 +859,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['66', '90+8']</t>
+  </si>
+  <si>
     <t>['50']</t>
   </si>
   <si>
@@ -1001,9 +1007,6 @@
   </si>
   <si>
     <t>['5', '86']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['31', '69']</t>
@@ -1470,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK362"/>
+  <dimension ref="A1:BK364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1905,7 +1908,7 @@
         <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2186,7 +2189,7 @@
         <v>1.71</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2287,7 +2290,7 @@
         <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2565,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2669,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2860,7 +2863,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3433,7 +3436,7 @@
         <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3624,7 +3627,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3815,7 +3818,7 @@
         <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -5051,7 +5054,7 @@
         <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19">
         <v>1.36</v>
@@ -5152,7 +5155,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5725,7 +5728,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT23">
         <v>1.63</v>
@@ -5916,7 +5919,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6579,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6680,7 +6683,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7913,7 +7916,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8590,7 +8593,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q38">
         <v>5</v>
@@ -8680,7 +8683,7 @@
         <v>1.24</v>
       </c>
       <c r="AT38">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU38">
         <v>2.23</v>
@@ -9163,7 +9166,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9250,7 +9253,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT41">
         <v>1.35</v>
@@ -9736,7 +9739,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10205,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT46">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46">
         <v>1.44</v>
@@ -10309,7 +10312,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11073,7 +11076,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11455,7 +11458,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11646,7 +11649,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -12983,7 +12986,7 @@
         <v>131</v>
       </c>
       <c r="P61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13264,7 +13267,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU62">
         <v>1.59</v>
@@ -13938,7 +13941,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14601,7 +14604,7 @@
         <v>1.94</v>
       </c>
       <c r="AT69">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14893,7 +14896,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14980,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT71">
         <v>0.9399999999999999</v>
@@ -15084,7 +15087,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -15657,7 +15660,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -16317,7 +16320,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16511,7 +16514,7 @@
         <v>1.81</v>
       </c>
       <c r="AT79">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU79">
         <v>2.1</v>
@@ -16803,7 +16806,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17376,7 +17379,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17567,7 +17570,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17758,7 +17761,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -18140,7 +18143,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -19182,7 +19185,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT93">
         <v>0.5600000000000001</v>
@@ -19477,7 +19480,7 @@
         <v>115</v>
       </c>
       <c r="P95" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19567,7 +19570,7 @@
         <v>1.41</v>
       </c>
       <c r="AT95">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19668,7 +19671,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q96">
         <v>13</v>
@@ -19859,7 +19862,7 @@
         <v>87</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20328,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20623,7 +20626,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -21960,7 +21963,7 @@
         <v>87</v>
       </c>
       <c r="P108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22151,7 +22154,7 @@
         <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -22623,7 +22626,7 @@
         <v>2.65</v>
       </c>
       <c r="AT111">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU111">
         <v>1.3</v>
@@ -23769,7 +23772,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU117">
         <v>1.52</v>
@@ -24061,7 +24064,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24148,7 +24151,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT119">
         <v>0.53</v>
@@ -25297,7 +25300,7 @@
         <v>2.24</v>
       </c>
       <c r="AT125">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU125">
         <v>1.62</v>
@@ -25589,7 +25592,7 @@
         <v>120</v>
       </c>
       <c r="P127" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26631,7 +26634,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT132">
         <v>1.44</v>
@@ -26926,7 +26929,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28263,7 +28266,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28350,7 +28353,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT141">
         <v>1.56</v>
@@ -28926,7 +28929,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU144">
         <v>1.52</v>
@@ -29027,7 +29030,7 @@
         <v>87</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29409,7 +29412,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>11</v>
@@ -29496,7 +29499,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT147">
         <v>1.24</v>
@@ -29600,7 +29603,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q148">
         <v>7</v>
@@ -29791,7 +29794,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29881,7 +29884,7 @@
         <v>1.12</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149">
         <v>1.3</v>
@@ -30555,7 +30558,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>7</v>
@@ -30746,7 +30749,7 @@
         <v>181</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31510,7 +31513,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -32083,7 +32086,7 @@
         <v>184</v>
       </c>
       <c r="P161" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32465,7 +32468,7 @@
         <v>185</v>
       </c>
       <c r="P163" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32552,10 +32555,10 @@
         <v>0.86</v>
       </c>
       <c r="AS163">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT163">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32743,7 +32746,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT164">
         <v>1.56</v>
@@ -32847,7 +32850,7 @@
         <v>186</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33420,7 +33423,7 @@
         <v>179</v>
       </c>
       <c r="P168" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>4</v>
@@ -33611,7 +33614,7 @@
         <v>189</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33701,7 +33704,7 @@
         <v>1.56</v>
       </c>
       <c r="AT169">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU169">
         <v>1.58</v>
@@ -35420,7 +35423,7 @@
         <v>1.94</v>
       </c>
       <c r="AT178">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU178">
         <v>1.11</v>
@@ -35608,7 +35611,7 @@
         <v>1</v>
       </c>
       <c r="AS179">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT179">
         <v>0.8100000000000001</v>
@@ -35903,7 +35906,7 @@
         <v>197</v>
       </c>
       <c r="P181" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36372,7 +36375,7 @@
         <v>0.63</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT183">
         <v>0.71</v>
@@ -36476,7 +36479,7 @@
         <v>199</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -38004,7 +38007,7 @@
         <v>204</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -38476,7 +38479,7 @@
         <v>1.76</v>
       </c>
       <c r="AT194">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU194">
         <v>1.65</v>
@@ -38768,7 +38771,7 @@
         <v>87</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -39341,7 +39344,7 @@
         <v>206</v>
       </c>
       <c r="P199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39532,7 +39535,7 @@
         <v>207</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q200">
         <v>2</v>
@@ -40678,7 +40681,7 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>2</v>
@@ -40959,7 +40962,7 @@
         <v>1</v>
       </c>
       <c r="AT207">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU207">
         <v>1.28</v>
@@ -41529,7 +41532,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT210">
         <v>1</v>
@@ -41633,7 +41636,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41914,7 +41917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU212">
         <v>1.94</v>
@@ -43161,7 +43164,7 @@
         <v>182</v>
       </c>
       <c r="P219" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>8</v>
@@ -43352,7 +43355,7 @@
         <v>193</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43439,7 +43442,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT220">
         <v>1.35</v>
@@ -43543,7 +43546,7 @@
         <v>87</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>6</v>
@@ -44498,7 +44501,7 @@
         <v>87</v>
       </c>
       <c r="P226" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q226">
         <v>5</v>
@@ -44779,7 +44782,7 @@
         <v>1.38</v>
       </c>
       <c r="AT227">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU227">
         <v>1.16</v>
@@ -45540,7 +45543,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT231">
         <v>1.19</v>
@@ -46686,7 +46689,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT237">
         <v>0.71</v>
@@ -47450,7 +47453,7 @@
         <v>1.27</v>
       </c>
       <c r="AS241">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT241">
         <v>1.18</v>
@@ -48318,7 +48321,7 @@
         <v>182</v>
       </c>
       <c r="P246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q246">
         <v>5</v>
@@ -48509,7 +48512,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48981,7 +48984,7 @@
         <v>1.13</v>
       </c>
       <c r="AT249">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU249">
         <v>1.55</v>
@@ -49082,7 +49085,7 @@
         <v>228</v>
       </c>
       <c r="P250" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q250">
         <v>7</v>
@@ -49936,7 +49939,7 @@
         <v>1.81</v>
       </c>
       <c r="AT254">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU254">
         <v>1.51</v>
@@ -50037,7 +50040,7 @@
         <v>233</v>
       </c>
       <c r="P255" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50124,7 +50127,7 @@
         <v>0.73</v>
       </c>
       <c r="AS255">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT255">
         <v>0.75</v>
@@ -50315,7 +50318,7 @@
         <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT256">
         <v>1.24</v>
@@ -50992,7 +50995,7 @@
         <v>236</v>
       </c>
       <c r="P260" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q260">
         <v>4</v>
@@ -51756,7 +51759,7 @@
         <v>238</v>
       </c>
       <c r="P264" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q264">
         <v>1</v>
@@ -52610,7 +52613,7 @@
         <v>2.24</v>
       </c>
       <c r="AT268">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU268">
         <v>1.83</v>
@@ -52989,7 +52992,7 @@
         <v>0.67</v>
       </c>
       <c r="AS270">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT270">
         <v>0.71</v>
@@ -53093,7 +53096,7 @@
         <v>240</v>
       </c>
       <c r="P271" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53857,7 +53860,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q275">
         <v>12</v>
@@ -54326,7 +54329,7 @@
         <v>0.92</v>
       </c>
       <c r="AS277">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT277">
         <v>1</v>
@@ -54520,7 +54523,7 @@
         <v>1.71</v>
       </c>
       <c r="AT278">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU278">
         <v>1.39</v>
@@ -55194,7 +55197,7 @@
         <v>87</v>
       </c>
       <c r="P282" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q282">
         <v>8</v>
@@ -55767,7 +55770,7 @@
         <v>209</v>
       </c>
       <c r="P285" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -56531,7 +56534,7 @@
         <v>142</v>
       </c>
       <c r="P289" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56722,7 +56725,7 @@
         <v>248</v>
       </c>
       <c r="P290" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -57191,7 +57194,7 @@
         <v>0.62</v>
       </c>
       <c r="AS292">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT292">
         <v>0.53</v>
@@ -57295,7 +57298,7 @@
         <v>250</v>
       </c>
       <c r="P293" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q293">
         <v>4</v>
@@ -57677,7 +57680,7 @@
         <v>184</v>
       </c>
       <c r="P295" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q295">
         <v>9</v>
@@ -57868,7 +57871,7 @@
         <v>87</v>
       </c>
       <c r="P296" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -58340,7 +58343,7 @@
         <v>1.13</v>
       </c>
       <c r="AT298">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU298">
         <v>1.57</v>
@@ -58632,7 +58635,7 @@
         <v>87</v>
       </c>
       <c r="P300" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q300">
         <v>9</v>
@@ -59587,7 +59590,7 @@
         <v>253</v>
       </c>
       <c r="P305" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q305">
         <v>3</v>
@@ -59868,7 +59871,7 @@
         <v>1.5</v>
       </c>
       <c r="AT306">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU306">
         <v>1.8</v>
@@ -60438,7 +60441,7 @@
         <v>1.07</v>
       </c>
       <c r="AS309">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT309">
         <v>1</v>
@@ -61396,7 +61399,7 @@
         <v>1.71</v>
       </c>
       <c r="AT314">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU314">
         <v>1.67</v>
@@ -61497,7 +61500,7 @@
         <v>259</v>
       </c>
       <c r="P315" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q315">
         <v>7</v>
@@ -62157,7 +62160,7 @@
         <v>0.86</v>
       </c>
       <c r="AS318">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT318">
         <v>0.8100000000000001</v>
@@ -62834,7 +62837,7 @@
         <v>264</v>
       </c>
       <c r="P322" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q322">
         <v>8</v>
@@ -63789,7 +63792,7 @@
         <v>267</v>
       </c>
       <c r="P327" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q327">
         <v>6</v>
@@ -63879,7 +63882,7 @@
         <v>1.81</v>
       </c>
       <c r="AT327">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU327">
         <v>1.58</v>
@@ -64258,7 +64261,7 @@
         <v>1.07</v>
       </c>
       <c r="AS329">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT329">
         <v>1.18</v>
@@ -64362,7 +64365,7 @@
         <v>87</v>
       </c>
       <c r="P330" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q330">
         <v>6</v>
@@ -65508,7 +65511,7 @@
         <v>269</v>
       </c>
       <c r="P336" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q336">
         <v>4</v>
@@ -65595,7 +65598,7 @@
         <v>0.47</v>
       </c>
       <c r="AS336">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT336">
         <v>0.5</v>
@@ -65789,7 +65792,7 @@
         <v>1.44</v>
       </c>
       <c r="AT337">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU337">
         <v>1.68</v>
@@ -65890,7 +65893,7 @@
         <v>271</v>
       </c>
       <c r="P338" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q338">
         <v>5</v>
@@ -66272,7 +66275,7 @@
         <v>87</v>
       </c>
       <c r="P340" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q340">
         <v>6</v>
@@ -66463,7 +66466,7 @@
         <v>272</v>
       </c>
       <c r="P341" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q341">
         <v>9</v>
@@ -66932,7 +66935,7 @@
         <v>1.53</v>
       </c>
       <c r="AS343">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AT343">
         <v>1.59</v>
@@ -67036,7 +67039,7 @@
         <v>273</v>
       </c>
       <c r="P344" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q344">
         <v>10</v>
@@ -67227,7 +67230,7 @@
         <v>87</v>
       </c>
       <c r="P345" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q345">
         <v>4</v>
@@ -67418,7 +67421,7 @@
         <v>274</v>
       </c>
       <c r="P346" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q346">
         <v>5</v>
@@ -68081,7 +68084,7 @@
         <v>1.56</v>
       </c>
       <c r="AT349">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU349">
         <v>1.3</v>
@@ -68182,7 +68185,7 @@
         <v>119</v>
       </c>
       <c r="P350" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q350">
         <v>7</v>
@@ -68373,7 +68376,7 @@
         <v>276</v>
       </c>
       <c r="P351" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q351">
         <v>8</v>
@@ -68564,7 +68567,7 @@
         <v>121</v>
       </c>
       <c r="P352" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -68755,7 +68758,7 @@
         <v>277</v>
       </c>
       <c r="P353" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q353">
         <v>2</v>
@@ -70286,13 +70289,13 @@
         <v>87</v>
       </c>
       <c r="Q361">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R361">
         <v>0</v>
       </c>
       <c r="S361">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T361">
         <v>2.45</v>
@@ -70409,19 +70412,19 @@
         <v>3.92</v>
       </c>
       <c r="BF361">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG361">
         <v>2</v>
       </c>
       <c r="BH361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI361">
         <v>2</v>
       </c>
       <c r="BJ361">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BK361">
         <v>4</v>
@@ -70480,10 +70483,10 @@
         <v>2</v>
       </c>
       <c r="R362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T362">
         <v>2.92</v>
@@ -70600,22 +70603,404 @@
         <v>3.3</v>
       </c>
       <c r="BF362">
+        <v>7</v>
+      </c>
+      <c r="BG362">
+        <v>0</v>
+      </c>
+      <c r="BH362">
+        <v>6</v>
+      </c>
+      <c r="BI362">
+        <v>5</v>
+      </c>
+      <c r="BJ362">
+        <v>13</v>
+      </c>
+      <c r="BK362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:63">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>2604791</v>
+      </c>
+      <c r="C363" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" t="s">
+        <v>64</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45011.66666666666</v>
+      </c>
+      <c r="F363">
+        <v>33</v>
+      </c>
+      <c r="G363" t="s">
+        <v>69</v>
+      </c>
+      <c r="H363" t="s">
+        <v>78</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>2</v>
+      </c>
+      <c r="O363" t="s">
+        <v>281</v>
+      </c>
+      <c r="P363" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q363">
+        <v>3</v>
+      </c>
+      <c r="R363">
+        <v>1</v>
+      </c>
+      <c r="S363">
         <v>4</v>
       </c>
-      <c r="BG362">
-        <v>0</v>
-      </c>
-      <c r="BH362">
+      <c r="T363">
+        <v>2.34</v>
+      </c>
+      <c r="U363">
+        <v>1.94</v>
+      </c>
+      <c r="V363">
+        <v>4.84</v>
+      </c>
+      <c r="W363">
+        <v>1.55</v>
+      </c>
+      <c r="X363">
+        <v>2.49</v>
+      </c>
+      <c r="Y363">
+        <v>3.56</v>
+      </c>
+      <c r="Z363">
+        <v>1.27</v>
+      </c>
+      <c r="AA363">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB363">
+        <v>1.04</v>
+      </c>
+      <c r="AC363">
+        <v>1.64</v>
+      </c>
+      <c r="AD363">
+        <v>3.1</v>
+      </c>
+      <c r="AE363">
+        <v>5.1</v>
+      </c>
+      <c r="AF363">
+        <v>1.06</v>
+      </c>
+      <c r="AG363">
+        <v>6.6</v>
+      </c>
+      <c r="AH363">
+        <v>1.44</v>
+      </c>
+      <c r="AI363">
+        <v>2.4</v>
+      </c>
+      <c r="AJ363">
+        <v>2.45</v>
+      </c>
+      <c r="AK363">
+        <v>1.48</v>
+      </c>
+      <c r="AL363">
+        <v>2.53</v>
+      </c>
+      <c r="AM363">
+        <v>1.5</v>
+      </c>
+      <c r="AN363">
+        <v>1.09</v>
+      </c>
+      <c r="AO363">
+        <v>1.25</v>
+      </c>
+      <c r="AP363">
+        <v>1.97</v>
+      </c>
+      <c r="AQ363">
+        <v>2</v>
+      </c>
+      <c r="AR363">
+        <v>0.75</v>
+      </c>
+      <c r="AS363">
+        <v>1.94</v>
+      </c>
+      <c r="AT363">
+        <v>0.76</v>
+      </c>
+      <c r="AU363">
+        <v>1.99</v>
+      </c>
+      <c r="AV363">
+        <v>1.35</v>
+      </c>
+      <c r="AW363">
+        <v>3.34</v>
+      </c>
+      <c r="AX363">
+        <v>1.13</v>
+      </c>
+      <c r="AY363">
+        <v>12</v>
+      </c>
+      <c r="AZ363">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA363">
+        <v>1.36</v>
+      </c>
+      <c r="BB363">
+        <v>1.68</v>
+      </c>
+      <c r="BC363">
+        <v>2.16</v>
+      </c>
+      <c r="BD363">
+        <v>2.88</v>
+      </c>
+      <c r="BE363">
+        <v>4.14</v>
+      </c>
+      <c r="BF363">
+        <v>8</v>
+      </c>
+      <c r="BG363">
+        <v>3</v>
+      </c>
+      <c r="BH363">
+        <v>8</v>
+      </c>
+      <c r="BI363">
+        <v>2</v>
+      </c>
+      <c r="BJ363">
+        <v>16</v>
+      </c>
+      <c r="BK363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:63">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>2604795</v>
+      </c>
+      <c r="C364" t="s">
+        <v>63</v>
+      </c>
+      <c r="D364" t="s">
+        <v>64</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45012.66666666666</v>
+      </c>
+      <c r="F364">
+        <v>33</v>
+      </c>
+      <c r="G364" t="s">
+        <v>85</v>
+      </c>
+      <c r="H364" t="s">
+        <v>68</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364" t="s">
+        <v>282</v>
+      </c>
+      <c r="P364" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q364">
+        <v>6</v>
+      </c>
+      <c r="R364">
+        <v>5</v>
+      </c>
+      <c r="S364">
+        <v>11</v>
+      </c>
+      <c r="T364">
         <v>4</v>
       </c>
-      <c r="BI362">
-        <v>3</v>
-      </c>
-      <c r="BJ362">
-        <v>8</v>
-      </c>
-      <c r="BK362">
-        <v>3</v>
+      <c r="U364">
+        <v>1.91</v>
+      </c>
+      <c r="V364">
+        <v>3.4</v>
+      </c>
+      <c r="W364">
+        <v>1.62</v>
+      </c>
+      <c r="X364">
+        <v>2.2</v>
+      </c>
+      <c r="Y364">
+        <v>4</v>
+      </c>
+      <c r="Z364">
+        <v>1.22</v>
+      </c>
+      <c r="AA364">
+        <v>13</v>
+      </c>
+      <c r="AB364">
+        <v>1.04</v>
+      </c>
+      <c r="AC364">
+        <v>2.27</v>
+      </c>
+      <c r="AD364">
+        <v>2.86</v>
+      </c>
+      <c r="AE364">
+        <v>3.14</v>
+      </c>
+      <c r="AF364">
+        <v>1.08</v>
+      </c>
+      <c r="AG364">
+        <v>6.05</v>
+      </c>
+      <c r="AH364">
+        <v>1.6</v>
+      </c>
+      <c r="AI364">
+        <v>2.38</v>
+      </c>
+      <c r="AJ364">
+        <v>2.6</v>
+      </c>
+      <c r="AK364">
+        <v>1.44</v>
+      </c>
+      <c r="AL364">
+        <v>2.2</v>
+      </c>
+      <c r="AM364">
+        <v>1.62</v>
+      </c>
+      <c r="AN364">
+        <v>1.54</v>
+      </c>
+      <c r="AO364">
+        <v>1.38</v>
+      </c>
+      <c r="AP364">
+        <v>1.36</v>
+      </c>
+      <c r="AQ364">
+        <v>1.19</v>
+      </c>
+      <c r="AR364">
+        <v>0.73</v>
+      </c>
+      <c r="AS364">
+        <v>1.29</v>
+      </c>
+      <c r="AT364">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU364">
+        <v>1.49</v>
+      </c>
+      <c r="AV364">
+        <v>1.26</v>
+      </c>
+      <c r="AW364">
+        <v>2.75</v>
+      </c>
+      <c r="AX364">
+        <v>2.01</v>
+      </c>
+      <c r="AY364">
+        <v>7.2</v>
+      </c>
+      <c r="AZ364">
+        <v>2.19</v>
+      </c>
+      <c r="BA364">
+        <v>1.48</v>
+      </c>
+      <c r="BB364">
+        <v>1.87</v>
+      </c>
+      <c r="BC364">
+        <v>2.46</v>
+      </c>
+      <c r="BD364">
+        <v>3.42</v>
+      </c>
+      <c r="BE364">
+        <v>5</v>
+      </c>
+      <c r="BF364">
+        <v>5</v>
+      </c>
+      <c r="BG364">
+        <v>0</v>
+      </c>
+      <c r="BH364">
+        <v>2</v>
+      </c>
+      <c r="BI364">
+        <v>4</v>
+      </c>
+      <c r="BJ364">
+        <v>7</v>
+      </c>
+      <c r="BK364">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK375"/>
+  <dimension ref="A1:BK379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.24</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.65</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
         <v>1.53</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT16" t="n">
         <v>1.59</v>
@@ -6181,7 +6181,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU28" t="n">
         <v>1.73</v>
@@ -6384,7 +6384,7 @@
         <v>1.94</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU29" t="n">
         <v>1.62</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT32" t="n">
         <v>1.29</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT37" t="n">
         <v>0.75</v>
@@ -8211,7 +8211,7 @@
         <v>1.24</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8617,7 +8617,7 @@
         <v>1.59</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT44" t="n">
         <v>0.53</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU52" t="n">
         <v>1.32</v>
@@ -11662,7 +11662,7 @@
         <v>1.82</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU55" t="n">
         <v>1.28</v>
@@ -11865,7 +11865,7 @@
         <v>2.24</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT58" t="n">
         <v>0.53</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -14098,7 +14098,7 @@
         <v>1.76</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -15113,7 +15113,7 @@
         <v>1.24</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU72" t="n">
         <v>1.8</v>
@@ -16331,7 +16331,7 @@
         <v>1.94</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16534,7 +16534,7 @@
         <v>1.76</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.13</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
         <v>1.24</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT88" t="n">
         <v>0.53</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT89" t="n">
         <v>1.53</v>
@@ -18970,7 +18970,7 @@
         <v>1.24</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20391,7 +20391,7 @@
         <v>1.71</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
         <v>0.82</v>
@@ -21406,7 +21406,7 @@
         <v>1.61</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -22621,7 +22621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT109" t="n">
         <v>1.53</v>
@@ -23030,7 +23030,7 @@
         <v>2.65</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9399999999999999</v>
@@ -25060,7 +25060,7 @@
         <v>1.76</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>2.24</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26275,7 +26275,7 @@
         <v>1.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT127" t="n">
         <v>1.59</v>
@@ -26887,7 +26887,7 @@
         <v>1.61</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -27496,7 +27496,7 @@
         <v>1.35</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU133" t="n">
         <v>1.23</v>
@@ -29323,7 +29323,7 @@
         <v>1.41</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -29729,7 +29729,7 @@
         <v>1.94</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT149" t="n">
         <v>0.6899999999999999</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31353,7 +31353,7 @@
         <v>1.67</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU152" t="n">
         <v>1.78</v>
@@ -31556,7 +31556,7 @@
         <v>1.41</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU153" t="n">
         <v>1.76</v>
@@ -32368,7 +32368,7 @@
         <v>1.65</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU157" t="n">
         <v>1.33</v>
@@ -33177,7 +33177,7 @@
         <v>0.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT161" t="n">
         <v>0.75</v>
@@ -33383,7 +33383,7 @@
         <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33586,7 +33586,7 @@
         <v>1.29</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -35207,10 +35207,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT172" t="n">
         <v>0.59</v>
@@ -36631,7 +36631,7 @@
         <v>1.82</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -37646,7 +37646,7 @@
         <v>1.94</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -38052,7 +38052,7 @@
         <v>1.61</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -38658,7 +38658,7 @@
         <v>1.13</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT188" t="n">
         <v>1</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT191" t="n">
         <v>0.59</v>
@@ -39876,7 +39876,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT194" t="n">
         <v>0.6899999999999999</v>
@@ -40691,7 +40691,7 @@
         <v>1.94</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU198" t="n">
         <v>1.46</v>
@@ -42518,7 +42518,7 @@
         <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42718,7 +42718,7 @@
         <v>1.22</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT208" t="n">
         <v>1.11</v>
@@ -43127,7 +43127,7 @@
         <v>1.29</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -43327,10 +43327,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU211" t="n">
         <v>1.56</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT213" t="n">
         <v>0.71</v>
@@ -43936,10 +43936,10 @@
         <v>0.5</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU214" t="n">
         <v>1.34</v>
@@ -45766,7 +45766,7 @@
         <v>1</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -46169,7 +46169,7 @@
         <v>1.7</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT225" t="n">
         <v>1.71</v>
@@ -46578,7 +46578,7 @@
         <v>1.35</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU227" t="n">
         <v>1.16</v>
@@ -48608,7 +48608,7 @@
         <v>1.29</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49214,7 +49214,7 @@
         <v>0.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT240" t="n">
         <v>0.75</v>
@@ -50432,7 +50432,7 @@
         <v>1.82</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT246" t="n">
         <v>1.71</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -51044,7 +51044,7 @@
         <v>1.13</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51247,7 +51247,7 @@
         <v>1.94</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU250" t="n">
         <v>1.59</v>
@@ -51450,7 +51450,7 @@
         <v>2.24</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU251" t="n">
         <v>1.81</v>
@@ -53480,7 +53480,7 @@
         <v>1.41</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU261" t="n">
         <v>1.79</v>
@@ -54495,7 +54495,7 @@
         <v>1.13</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU266" t="n">
         <v>1.58</v>
@@ -56119,7 +56119,7 @@
         <v>1.65</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU274" t="n">
         <v>1.63</v>
@@ -56319,7 +56319,7 @@
         <v>1.36</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT275" t="n">
         <v>1.53</v>
@@ -56522,7 +56522,7 @@
         <v>0.83</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT276" t="n">
         <v>0.82</v>
@@ -56931,7 +56931,7 @@
         <v>1.61</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU278" t="n">
         <v>1.39</v>
@@ -57740,10 +57740,10 @@
         <v>0.5</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU282" t="n">
         <v>1.51</v>
@@ -58961,7 +58961,7 @@
         <v>2.65</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU288" t="n">
         <v>1.63</v>
@@ -59161,7 +59161,7 @@
         <v>1.23</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT289" t="n">
         <v>1.29</v>
@@ -59976,7 +59976,7 @@
         <v>1.71</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU293" t="n">
         <v>1.53</v>
@@ -60785,7 +60785,7 @@
         <v>0.85</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT297" t="n">
         <v>0.82</v>
@@ -62209,7 +62209,7 @@
         <v>1.82</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU304" t="n">
         <v>1.17</v>
@@ -62615,7 +62615,7 @@
         <v>1.59</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU306" t="n">
         <v>1.8</v>
@@ -63018,7 +63018,7 @@
         <v>1.14</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT308" t="n">
         <v>1.11</v>
@@ -64036,7 +64036,7 @@
         <v>1.65</v>
       </c>
       <c r="AT313" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU313" t="n">
         <v>1.64</v>
@@ -64439,7 +64439,7 @@
         <v>0.64</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT315" t="n">
         <v>0.71</v>
@@ -64642,7 +64642,7 @@
         <v>1.43</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT316" t="n">
         <v>1.24</v>
@@ -65457,7 +65457,7 @@
         <v>2.65</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU320" t="n">
         <v>1.61</v>
@@ -65863,7 +65863,7 @@
         <v>1.65</v>
       </c>
       <c r="AT322" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU322" t="n">
         <v>1.3</v>
@@ -66878,7 +66878,7 @@
         <v>1.71</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU327" t="n">
         <v>1.58</v>
@@ -67687,7 +67687,7 @@
         <v>1.36</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT331" t="n">
         <v>1.29</v>
@@ -67893,7 +67893,7 @@
         <v>1.35</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU332" t="n">
         <v>1.19</v>
@@ -68499,7 +68499,7 @@
         <v>0.93</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT335" t="n">
         <v>0.9399999999999999</v>
@@ -68705,7 +68705,7 @@
         <v>1.94</v>
       </c>
       <c r="AT336" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU336" t="n">
         <v>1.99</v>
@@ -68905,7 +68905,7 @@
         <v>0.79</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT337" t="n">
         <v>0.6899999999999999</v>
@@ -70735,7 +70735,7 @@
         <v>1.71</v>
       </c>
       <c r="AT346" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU346" t="n">
         <v>1.59</v>
@@ -71344,7 +71344,7 @@
         <v>1.65</v>
       </c>
       <c r="AT349" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU349" t="n">
         <v>1.3</v>
@@ -71747,7 +71747,7 @@
         <v>1.53</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT351" t="n">
         <v>1.53</v>
@@ -72559,7 +72559,7 @@
         <v>1.31</v>
       </c>
       <c r="AS355" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AT355" t="n">
         <v>1.24</v>
@@ -72968,7 +72968,7 @@
         <v>2.24</v>
       </c>
       <c r="AT357" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU357" t="n">
         <v>1.7</v>
@@ -73574,7 +73574,7 @@
         <v>1.38</v>
       </c>
       <c r="AS360" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT360" t="n">
         <v>1.35</v>
@@ -73980,7 +73980,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS362" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT362" t="n">
         <v>0.71</v>
@@ -74186,7 +74186,7 @@
         <v>1.94</v>
       </c>
       <c r="AT363" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AU363" t="n">
         <v>1.99</v>
@@ -76013,7 +76013,7 @@
         <v>1.59</v>
       </c>
       <c r="AT372" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AU372" t="n">
         <v>1.74</v>
@@ -76216,7 +76216,7 @@
         <v>1.65</v>
       </c>
       <c r="AT373" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU373" t="n">
         <v>1.6</v>
@@ -76674,6 +76674,818 @@
       </c>
       <c r="BK375" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2604815</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>45023.5625</v>
+      </c>
+      <c r="F376" t="n">
+        <v>35</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q376" t="n">
+        <v>6</v>
+      </c>
+      <c r="R376" t="n">
+        <v>3</v>
+      </c>
+      <c r="S376" t="n">
+        <v>9</v>
+      </c>
+      <c r="T376" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U376" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V376" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W376" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X376" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ376" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA376" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB376" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC376" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD376" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE376" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF376" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG376" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH376" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ376" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK376" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2604819</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>45023.66666666666</v>
+      </c>
+      <c r="F377" t="n">
+        <v>35</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>0</v>
+      </c>
+      <c r="J377" t="n">
+        <v>2</v>
+      </c>
+      <c r="K377" t="n">
+        <v>2</v>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="n">
+        <v>2</v>
+      </c>
+      <c r="N377" t="n">
+        <v>3</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>['14', '28']</t>
+        </is>
+      </c>
+      <c r="Q377" t="n">
+        <v>2</v>
+      </c>
+      <c r="R377" t="n">
+        <v>6</v>
+      </c>
+      <c r="S377" t="n">
+        <v>8</v>
+      </c>
+      <c r="T377" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U377" t="n">
+        <v>2</v>
+      </c>
+      <c r="V377" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W377" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X377" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD377" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE377" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF377" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG377" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH377" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ377" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK377" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL377" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR377" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS377" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW377" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX377" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY377" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ377" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA377" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB377" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC377" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD377" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE377" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF377" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG377" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH377" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI377" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ377" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK377" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2604817</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>45024.46875</v>
+      </c>
+      <c r="F378" t="n">
+        <v>35</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>1</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>1</v>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>1</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q378" t="n">
+        <v>4</v>
+      </c>
+      <c r="R378" t="n">
+        <v>4</v>
+      </c>
+      <c r="S378" t="n">
+        <v>8</v>
+      </c>
+      <c r="T378" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U378" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V378" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W378" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X378" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU378" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA378" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB378" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC378" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD378" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE378" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF378" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG378" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH378" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ378" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK378" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2604813</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="n">
+        <v>45024.5625</v>
+      </c>
+      <c r="F379" t="n">
+        <v>35</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>0</v>
+      </c>
+      <c r="J379" t="n">
+        <v>2</v>
+      </c>
+      <c r="K379" t="n">
+        <v>2</v>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="n">
+        <v>3</v>
+      </c>
+      <c r="N379" t="n">
+        <v>4</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>['6', '27', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q379" t="n">
+        <v>9</v>
+      </c>
+      <c r="R379" t="n">
+        <v>3</v>
+      </c>
+      <c r="S379" t="n">
+        <v>12</v>
+      </c>
+      <c r="T379" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U379" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V379" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W379" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X379" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG379" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH379" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI379" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ379" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AK379" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL379" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN379" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO379" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP379" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ379" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR379" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS379" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT379" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU379" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW379" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX379" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY379" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ379" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA379" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB379" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC379" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD379" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE379" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF379" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG379" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH379" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI379" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ379" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK379" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK385"/>
+  <dimension ref="A1:BK386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT36" t="n">
         <v>1.71</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT64" t="n">
         <v>0.71</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
         <v>0.82</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT104" t="n">
         <v>1.28</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT125" t="n">
         <v>0.89</v>
@@ -28305,7 +28305,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT137" t="n">
         <v>1.11</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT180" t="n">
         <v>0.9399999999999999</v>
@@ -45357,7 +45357,7 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT221" t="n">
         <v>1.56</v>
@@ -48808,7 +48808,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT238" t="n">
         <v>1.17</v>
@@ -53071,7 +53071,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT259" t="n">
         <v>1.11</v>
@@ -57537,7 +57537,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT281" t="n">
         <v>1.53</v>
@@ -62409,7 +62409,7 @@
         <v>0.38</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT305" t="n">
         <v>0.59</v>
@@ -63627,7 +63627,7 @@
         <v>1.46</v>
       </c>
       <c r="AS311" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT311" t="n">
         <v>1.53</v>
@@ -68296,7 +68296,7 @@
         <v>0.53</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT334" t="n">
         <v>0.53</v>
@@ -72965,7 +72965,7 @@
         <v>0.75</v>
       </c>
       <c r="AS357" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
       <c r="AT357" t="n">
         <v>0.72</v>
@@ -78703,6 +78703,209 @@
         <v>20</v>
       </c>
       <c r="BK385" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2604810</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E386" s="2" t="n">
+        <v>45026.66666666666</v>
+      </c>
+      <c r="F386" t="n">
+        <v>35</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0</v>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q386" t="n">
+        <v>6</v>
+      </c>
+      <c r="R386" t="n">
+        <v>2</v>
+      </c>
+      <c r="S386" t="n">
+        <v>8</v>
+      </c>
+      <c r="T386" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U386" t="n">
+        <v>2</v>
+      </c>
+      <c r="V386" t="n">
+        <v>6</v>
+      </c>
+      <c r="W386" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X386" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD386" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE386" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF386" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG386" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH386" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI386" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ386" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK386" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL386" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM386" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN386" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO386" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP386" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ386" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AR386" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS386" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT386" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU386" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV386" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW386" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX386" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY386" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ386" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA386" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB386" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC386" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD386" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE386" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BF386" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG386" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH386" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI386" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ386" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK386" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK386"/>
+  <dimension ref="A1:BK387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT24" t="n">
         <v>0.71</v>
@@ -7602,7 +7602,7 @@
         <v>1.61</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -12677,7 +12677,7 @@
         <v>1.59</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>1.53</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -20388,7 +20388,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT98" t="n">
         <v>0.72</v>
@@ -22624,7 +22624,7 @@
         <v>1.06</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT116" t="n">
         <v>1.11</v>
@@ -25263,7 +25263,7 @@
         <v>1.65</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -29120,7 +29120,7 @@
         <v>1.29</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT143" t="n">
         <v>0.9399999999999999</v>
@@ -33789,7 +33789,7 @@
         <v>1.83</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT165" t="n">
         <v>1.56</v>
@@ -37237,7 +37237,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT181" t="n">
         <v>1.11</v>
@@ -38458,7 +38458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -41500,7 +41500,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT202" t="n">
         <v>1</v>
@@ -42315,7 +42315,7 @@
         <v>1.65</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -46778,7 +46778,7 @@
         <v>0.44</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT228" t="n">
         <v>0.59</v>
@@ -46984,7 +46984,7 @@
         <v>1.94</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -52056,7 +52056,7 @@
         <v>0.9</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT254" t="n">
         <v>0.82</v>
@@ -52668,7 +52668,7 @@
         <v>1.17</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU257" t="n">
         <v>1.46</v>
@@ -55913,7 +55913,7 @@
         <v>0.67</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT273" t="n">
         <v>0.53</v>
@@ -57540,7 +57540,7 @@
         <v>2.17</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU281" t="n">
         <v>1.64</v>
@@ -59973,7 +59973,7 @@
         <v>0.54</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT293" t="n">
         <v>0.61</v>
@@ -61397,7 +61397,7 @@
         <v>1</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU300" t="n">
         <v>1.29</v>
@@ -66269,7 +66269,7 @@
         <v>1.76</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU324" t="n">
         <v>1.8</v>
@@ -66875,7 +66875,7 @@
         <v>0.79</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT327" t="n">
         <v>0.89</v>
@@ -70732,7 +70732,7 @@
         <v>0.87</v>
       </c>
       <c r="AS346" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT346" t="n">
         <v>0.89</v>
@@ -72156,7 +72156,7 @@
         <v>1.67</v>
       </c>
       <c r="AT353" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU353" t="n">
         <v>1.59</v>
@@ -75404,7 +75404,7 @@
         <v>1.35</v>
       </c>
       <c r="AT369" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU369" t="n">
         <v>1.2</v>
@@ -76619,7 +76619,7 @@
         <v>1.63</v>
       </c>
       <c r="AS375" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT375" t="n">
         <v>1.71</v>
@@ -78907,6 +78907,209 @@
       </c>
       <c r="BK386" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2604826</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="n">
+        <v>45030.66666666666</v>
+      </c>
+      <c r="F387" t="n">
+        <v>36</v>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I387" t="n">
+        <v>2</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>2</v>
+      </c>
+      <c r="L387" t="n">
+        <v>3</v>
+      </c>
+      <c r="M387" t="n">
+        <v>1</v>
+      </c>
+      <c r="N387" t="n">
+        <v>4</v>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>['19', '38', '56']</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q387" t="n">
+        <v>4</v>
+      </c>
+      <c r="R387" t="n">
+        <v>3</v>
+      </c>
+      <c r="S387" t="n">
+        <v>7</v>
+      </c>
+      <c r="T387" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U387" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V387" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W387" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X387" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD387" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE387" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF387" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG387" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH387" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI387" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ387" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK387" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL387" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM387" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN387" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO387" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP387" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ387" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR387" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS387" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT387" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU387" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV387" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW387" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX387" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY387" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ387" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA387" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB387" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC387" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD387" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE387" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF387" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG387" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH387" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI387" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ387" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK387" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK387"/>
+  <dimension ref="A1:BK396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.94</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.24</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT9" t="n">
         <v>0.61</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT16" t="n">
         <v>1.56</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -4557,7 +4557,7 @@
         <v>1.89</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.78</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>2.17</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6993,7 +6993,7 @@
         <v>1.06</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT35" t="n">
         <v>1.44</v>
@@ -7805,7 +7805,7 @@
         <v>2.17</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.89</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT41" t="n">
         <v>1.28</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9226,7 +9226,7 @@
         <v>1.89</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT45" t="n">
         <v>1.56</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU47" t="n">
         <v>1.06</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT48" t="n">
         <v>1.11</v>
@@ -10647,7 +10647,7 @@
         <v>1.94</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -12068,7 +12068,7 @@
         <v>1.94</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1.44</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.71</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT62" t="n">
         <v>0.89</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -13489,7 +13489,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.24</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -13895,7 +13895,7 @@
         <v>1.78</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
         <v>0.61</v>
@@ -14298,10 +14298,10 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT73" t="n">
         <v>1.56</v>
@@ -15722,7 +15722,7 @@
         <v>2.17</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -16128,7 +16128,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16531,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT79" t="n">
         <v>0.89</v>
@@ -16940,7 +16940,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.56</v>
@@ -17549,7 +17549,7 @@
         <v>2.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT85" t="n">
         <v>1.28</v>
@@ -17952,10 +17952,10 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>1.06</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18561,7 +18561,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT89" t="n">
         <v>1.44</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19173,7 +19173,7 @@
         <v>1.89</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -19376,7 +19376,7 @@
         <v>1.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -19576,10 +19576,10 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU94" t="n">
         <v>1.52</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20188,7 +20188,7 @@
         <v>1.94</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT102" t="n">
         <v>1.17</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT103" t="n">
         <v>0.61</v>
@@ -21809,10 +21809,10 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>2.09</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -23230,10 +23230,10 @@
         <v>1.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU112" t="n">
         <v>1.77</v>
@@ -23433,10 +23433,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23639,7 +23639,7 @@
         <v>1.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -23842,7 +23842,7 @@
         <v>1.89</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT118" t="n">
         <v>0.71</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -25057,7 +25057,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
         <v>0.89</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT122" t="n">
         <v>1.44</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26481,7 +26481,7 @@
         <v>1.24</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT130" t="n">
         <v>0.72</v>
@@ -27293,7 +27293,7 @@
         <v>1.83</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU132" t="n">
         <v>1.43</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT133" t="n">
         <v>0.61</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -27899,10 +27899,10 @@
         <v>1.33</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28105,7 +28105,7 @@
         <v>1.89</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28508,10 +28508,10 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -28711,10 +28711,10 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT141" t="n">
         <v>1.44</v>
@@ -29526,7 +29526,7 @@
         <v>1.78</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30135,7 +30135,7 @@
         <v>1.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -30541,7 +30541,7 @@
         <v>1.24</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU148" t="n">
         <v>1.53</v>
@@ -31150,7 +31150,7 @@
         <v>2.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT154" t="n">
         <v>1.28</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT155" t="n">
         <v>1.56</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT157" t="n">
         <v>0.72</v>
@@ -32568,10 +32568,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32774,7 +32774,7 @@
         <v>1.89</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -32974,10 +32974,10 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33380,7 +33380,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT162" t="n">
         <v>0.89</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT163" t="n">
         <v>0.89</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU166" t="n">
         <v>1.25</v>
@@ -34395,7 +34395,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT167" t="n">
         <v>1.28</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT169" t="n">
         <v>0.82</v>
@@ -35004,10 +35004,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35207,7 +35207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT171" t="n">
         <v>0.61</v>
@@ -35413,7 +35413,7 @@
         <v>1.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35613,10 +35613,10 @@
         <v>0.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -35819,7 +35819,7 @@
         <v>2.17</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU174" t="n">
         <v>2.01</v>
@@ -36225,7 +36225,7 @@
         <v>1.94</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -36428,7 +36428,7 @@
         <v>1.67</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -36831,10 +36831,10 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37037,7 +37037,7 @@
         <v>2.17</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37240,7 +37240,7 @@
         <v>1.78</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37440,7 +37440,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT182" t="n">
         <v>0.71</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT185" t="n">
         <v>0.89</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT189" t="n">
         <v>1.11</v>
@@ -39064,10 +39064,10 @@
         <v>1.63</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU190" t="n">
         <v>1.67</v>
@@ -39267,10 +39267,10 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -39673,10 +39673,10 @@
         <v>1.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40079,10 +40079,10 @@
         <v>1.38</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU195" t="n">
         <v>1.85</v>
@@ -40285,7 +40285,7 @@
         <v>1.24</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40488,7 +40488,7 @@
         <v>2.17</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU197" t="n">
         <v>1.9</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT200" t="n">
         <v>0.71</v>
@@ -41297,10 +41297,10 @@
         <v>1.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU201" t="n">
         <v>1.16</v>
@@ -41909,7 +41909,7 @@
         <v>1.5</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU204" t="n">
         <v>1.85</v>
@@ -42109,10 +42109,10 @@
         <v>1.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU205" t="n">
         <v>1.95</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT206" t="n">
         <v>1.44</v>
@@ -42721,7 +42721,7 @@
         <v>1.06</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -42924,7 +42924,7 @@
         <v>1.94</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT210" t="n">
         <v>0.89</v>
@@ -43530,7 +43530,7 @@
         <v>0.89</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT212" t="n">
         <v>0.82</v>
@@ -43733,10 +43733,10 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU213" t="n">
         <v>1.74</v>
@@ -44142,7 +44142,7 @@
         <v>1.17</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44342,10 +44342,10 @@
         <v>1.56</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU216" t="n">
         <v>1.65</v>
@@ -44748,7 +44748,7 @@
         <v>1.78</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT218" t="n">
         <v>1.17</v>
@@ -45560,7 +45560,7 @@
         <v>1.2</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT222" t="n">
         <v>1</v>
@@ -45969,7 +45969,7 @@
         <v>1.67</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46172,7 +46172,7 @@
         <v>1.67</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU225" t="n">
         <v>1.53</v>
@@ -46375,7 +46375,7 @@
         <v>1.5</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU226" t="n">
         <v>1.85</v>
@@ -46575,7 +46575,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT227" t="n">
         <v>0.89</v>
@@ -46781,7 +46781,7 @@
         <v>1.78</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -47184,10 +47184,10 @@
         <v>0.6</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU230" t="n">
         <v>1.28</v>
@@ -47387,10 +47387,10 @@
         <v>1.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU231" t="n">
         <v>1.6</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT232" t="n">
         <v>1</v>
@@ -47796,7 +47796,7 @@
         <v>1.17</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU233" t="n">
         <v>1.42</v>
@@ -47996,7 +47996,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT234" t="n">
         <v>1.56</v>
@@ -48199,10 +48199,10 @@
         <v>0.8</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU235" t="n">
         <v>1.4</v>
@@ -48402,7 +48402,7 @@
         <v>1</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT236" t="n">
         <v>1.11</v>
@@ -48605,7 +48605,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT237" t="n">
         <v>0.72</v>
@@ -49011,10 +49011,10 @@
         <v>1.5</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU239" t="n">
         <v>1.66</v>
@@ -49214,7 +49214,7 @@
         <v>0.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT240" t="n">
         <v>0.71</v>
@@ -49420,7 +49420,7 @@
         <v>1.83</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU241" t="n">
         <v>1.85</v>
@@ -49623,7 +49623,7 @@
         <v>2.17</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU242" t="n">
         <v>1.84</v>
@@ -50026,10 +50026,10 @@
         <v>1.18</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU244" t="n">
         <v>1.14</v>
@@ -50232,7 +50232,7 @@
         <v>1.5</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU245" t="n">
         <v>1.82</v>
@@ -50435,7 +50435,7 @@
         <v>1.06</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU246" t="n">
         <v>1.3</v>
@@ -50838,10 +50838,10 @@
         <v>0.82</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU248" t="n">
         <v>1.89</v>
@@ -51650,7 +51650,7 @@
         <v>1.18</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -51856,7 +51856,7 @@
         <v>1.67</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU253" t="n">
         <v>1.65</v>
@@ -52462,7 +52462,7 @@
         <v>1.45</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT256" t="n">
         <v>1.17</v>
@@ -52868,10 +52868,10 @@
         <v>0.36</v>
       </c>
       <c r="AS258" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU258" t="n">
         <v>1.69</v>
@@ -53074,7 +53074,7 @@
         <v>2.17</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU259" t="n">
         <v>1.59</v>
@@ -53274,7 +53274,7 @@
         <v>1.64</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT260" t="n">
         <v>1.56</v>
@@ -53680,7 +53680,7 @@
         <v>1</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT262" t="n">
         <v>1</v>
@@ -54089,7 +54089,7 @@
         <v>1</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU264" t="n">
         <v>1.25</v>
@@ -54289,7 +54289,7 @@
         <v>1.45</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT265" t="n">
         <v>1.28</v>
@@ -54695,7 +54695,7 @@
         <v>1.08</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT267" t="n">
         <v>1</v>
@@ -55101,10 +55101,10 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU269" t="n">
         <v>1.14</v>
@@ -55307,7 +55307,7 @@
         <v>1.83</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU270" t="n">
         <v>1.88</v>
@@ -55510,7 +55510,7 @@
         <v>1.67</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU271" t="n">
         <v>1.63</v>
@@ -55916,7 +55916,7 @@
         <v>1.78</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU273" t="n">
         <v>1.53</v>
@@ -56116,7 +56116,7 @@
         <v>0.5</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT274" t="n">
         <v>0.61</v>
@@ -56322,7 +56322,7 @@
         <v>1.06</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU275" t="n">
         <v>1.31</v>
@@ -56522,10 +56522,10 @@
         <v>0.83</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU276" t="n">
         <v>1.69</v>
@@ -56725,7 +56725,7 @@
         <v>0.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT277" t="n">
         <v>1.11</v>
@@ -56928,7 +56928,7 @@
         <v>0.92</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT278" t="n">
         <v>0.89</v>
@@ -57334,7 +57334,7 @@
         <v>1.58</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT280" t="n">
         <v>1.28</v>
@@ -57943,7 +57943,7 @@
         <v>0.92</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT283" t="n">
         <v>1</v>
@@ -58149,7 +58149,7 @@
         <v>1.17</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU284" t="n">
         <v>1.47</v>
@@ -58555,7 +58555,7 @@
         <v>1</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU286" t="n">
         <v>1.25</v>
@@ -58755,10 +58755,10 @@
         <v>1.92</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU287" t="n">
         <v>1.35</v>
@@ -58958,7 +58958,7 @@
         <v>0.85</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT288" t="n">
         <v>0.72</v>
@@ -59161,10 +59161,10 @@
         <v>1.23</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU289" t="n">
         <v>1.66</v>
@@ -59367,7 +59367,7 @@
         <v>1.67</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU290" t="n">
         <v>1.59</v>
@@ -59773,7 +59773,7 @@
         <v>1.83</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU292" t="n">
         <v>1.88</v>
@@ -60176,7 +60176,7 @@
         <v>1.31</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT294" t="n">
         <v>1.17</v>
@@ -60379,10 +60379,10 @@
         <v>0.62</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU295" t="n">
         <v>1.6</v>
@@ -60585,7 +60585,7 @@
         <v>2.17</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU296" t="n">
         <v>1.84</v>
@@ -60788,7 +60788,7 @@
         <v>1.06</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU297" t="n">
         <v>1.37</v>
@@ -61800,10 +61800,10 @@
         <v>1.85</v>
       </c>
       <c r="AS302" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT302" t="n">
         <v>1.61</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.71</v>
       </c>
       <c r="AU302" t="n">
         <v>1.36</v>
@@ -62003,7 +62003,7 @@
         <v>0.62</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT303" t="n">
         <v>0.71</v>
@@ -62412,7 +62412,7 @@
         <v>2.17</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU305" t="n">
         <v>1.67</v>
@@ -62612,7 +62612,7 @@
         <v>0.85</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT306" t="n">
         <v>0.89</v>
@@ -62815,7 +62815,7 @@
         <v>1.46</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT307" t="n">
         <v>1.28</v>
@@ -63021,7 +63021,7 @@
         <v>1.67</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU308" t="n">
         <v>1.58</v>
@@ -63221,7 +63221,7 @@
         <v>1.07</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT309" t="n">
         <v>1</v>
@@ -63427,7 +63427,7 @@
         <v>2.17</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU310" t="n">
         <v>1.84</v>
@@ -63630,7 +63630,7 @@
         <v>2.17</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU311" t="n">
         <v>1.66</v>
@@ -64033,7 +64033,7 @@
         <v>0.79</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT313" t="n">
         <v>0.72</v>
@@ -64442,7 +64442,7 @@
         <v>1.06</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU315" t="n">
         <v>1.38</v>
@@ -64642,7 +64642,7 @@
         <v>1.43</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT316" t="n">
         <v>1.17</v>
@@ -64848,7 +64848,7 @@
         <v>1.94</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU317" t="n">
         <v>1.59</v>
@@ -65051,7 +65051,7 @@
         <v>1.83</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU318" t="n">
         <v>1.94</v>
@@ -65251,7 +65251,7 @@
         <v>1.43</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT319" t="n">
         <v>1.28</v>
@@ -65454,7 +65454,7 @@
         <v>0.5</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT320" t="n">
         <v>0.61</v>
@@ -65657,10 +65657,10 @@
         <v>1.79</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU321" t="n">
         <v>1.77</v>
@@ -65860,7 +65860,7 @@
         <v>0.71</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT322" t="n">
         <v>0.89</v>
@@ -66266,7 +66266,7 @@
         <v>1.36</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT324" t="n">
         <v>1.44</v>
@@ -66672,10 +66672,10 @@
         <v>0.36</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU326" t="n">
         <v>1.33</v>
@@ -67281,10 +67281,10 @@
         <v>1.07</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU329" t="n">
         <v>1.49</v>
@@ -67487,7 +67487,7 @@
         <v>1.17</v>
       </c>
       <c r="AT330" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU330" t="n">
         <v>1.42</v>
@@ -67690,7 +67690,7 @@
         <v>1.67</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU331" t="n">
         <v>1.57</v>
@@ -67890,7 +67890,7 @@
         <v>0.73</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT332" t="n">
         <v>0.72</v>
@@ -68299,7 +68299,7 @@
         <v>2.17</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU334" t="n">
         <v>1.67</v>
@@ -68502,7 +68502,7 @@
         <v>1.06</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU335" t="n">
         <v>1.43</v>
@@ -68905,7 +68905,7 @@
         <v>0.79</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT337" t="n">
         <v>0.82</v>
@@ -69108,7 +69108,7 @@
         <v>0.57</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT338" t="n">
         <v>0.71</v>
@@ -69717,10 +69717,10 @@
         <v>0.8</v>
       </c>
       <c r="AS341" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT341" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU341" t="n">
         <v>1.59</v>
@@ -69923,7 +69923,7 @@
         <v>1.24</v>
       </c>
       <c r="AT342" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU342" t="n">
         <v>1.49</v>
@@ -70123,7 +70123,7 @@
         <v>1.53</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT343" t="n">
         <v>1.56</v>
@@ -70326,10 +70326,10 @@
         <v>0.53</v>
       </c>
       <c r="AS344" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT344" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU344" t="n">
         <v>1.69</v>
@@ -70529,7 +70529,7 @@
         <v>0.93</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT345" t="n">
         <v>1.11</v>
@@ -70935,10 +70935,10 @@
         <v>1.73</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT347" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU347" t="n">
         <v>1.78</v>
@@ -71141,7 +71141,7 @@
         <v>1.17</v>
       </c>
       <c r="AT348" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU348" t="n">
         <v>1.44</v>
@@ -71341,7 +71341,7 @@
         <v>0.73</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT349" t="n">
         <v>0.89</v>
@@ -71750,7 +71750,7 @@
         <v>1.67</v>
       </c>
       <c r="AT351" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU351" t="n">
         <v>1.55</v>
@@ -71953,7 +71953,7 @@
         <v>1</v>
       </c>
       <c r="AT352" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU352" t="n">
         <v>1.25</v>
@@ -72359,7 +72359,7 @@
         <v>1.5</v>
       </c>
       <c r="AT354" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU354" t="n">
         <v>1.74</v>
@@ -73574,7 +73574,7 @@
         <v>1.38</v>
       </c>
       <c r="AS360" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT360" t="n">
         <v>1.28</v>
@@ -73777,7 +73777,7 @@
         <v>1.06</v>
       </c>
       <c r="AS361" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AT361" t="n">
         <v>1.11</v>
@@ -73983,7 +73983,7 @@
         <v>1.67</v>
       </c>
       <c r="AT362" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU362" t="n">
         <v>1.59</v>
@@ -74386,7 +74386,7 @@
         <v>0.73</v>
       </c>
       <c r="AS364" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT364" t="n">
         <v>0.82</v>
@@ -74792,10 +74792,10 @@
         <v>1.18</v>
       </c>
       <c r="AS366" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT366" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU366" t="n">
         <v>1.29</v>
@@ -74995,10 +74995,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS367" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT367" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU367" t="n">
         <v>1.76</v>
@@ -75198,10 +75198,10 @@
         <v>1.44</v>
       </c>
       <c r="AS368" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT368" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU368" t="n">
         <v>1.36</v>
@@ -75401,7 +75401,7 @@
         <v>1.56</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT369" t="n">
         <v>1.44</v>
@@ -75607,7 +75607,7 @@
         <v>1.89</v>
       </c>
       <c r="AT370" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU370" t="n">
         <v>1.2</v>
@@ -75810,7 +75810,7 @@
         <v>1</v>
       </c>
       <c r="AT371" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU371" t="n">
         <v>1.25</v>
@@ -76010,7 +76010,7 @@
         <v>0.5</v>
       </c>
       <c r="AS372" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT372" t="n">
         <v>0.61</v>
@@ -76213,7 +76213,7 @@
         <v>1</v>
       </c>
       <c r="AS373" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT373" t="n">
         <v>0.89</v>
@@ -76419,7 +76419,7 @@
         <v>1.67</v>
       </c>
       <c r="AT374" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU374" t="n">
         <v>1.58</v>
@@ -76622,7 +76622,7 @@
         <v>1.78</v>
       </c>
       <c r="AT375" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AU375" t="n">
         <v>1.57</v>
@@ -77228,7 +77228,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS378" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT378" t="n">
         <v>0.89</v>
@@ -78974,10 +78974,10 @@
         <v>4</v>
       </c>
       <c r="R387" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S387" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T387" t="n">
         <v>3.3</v>
@@ -79094,22 +79094,1849 @@
         <v>4</v>
       </c>
       <c r="BF387" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG387" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH387" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI387" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ387" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK387" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2604823</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E388" s="2" t="n">
+        <v>45031.46875</v>
+      </c>
+      <c r="F388" t="n">
+        <v>36</v>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>2</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>2</v>
+      </c>
+      <c r="L388" t="n">
+        <v>2</v>
+      </c>
+      <c r="M388" t="n">
+        <v>1</v>
+      </c>
+      <c r="N388" t="n">
+        <v>3</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>['15', '41']</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q388" t="n">
+        <v>3</v>
+      </c>
+      <c r="R388" t="n">
+        <v>7</v>
+      </c>
+      <c r="S388" t="n">
+        <v>10</v>
+      </c>
+      <c r="T388" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U388" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V388" t="n">
+        <v>4</v>
+      </c>
+      <c r="W388" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X388" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD388" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE388" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AF388" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG388" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH388" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI388" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ388" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK388" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL388" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM388" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN388" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO388" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP388" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ388" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AR388" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS388" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT388" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AU388" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV388" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW388" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX388" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY388" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ388" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA388" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB388" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC388" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD388" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE388" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF388" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG388" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH388" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI388" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ388" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK388" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2604830</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E389" s="2" t="n">
+        <v>45031.5625</v>
+      </c>
+      <c r="F389" t="n">
+        <v>36</v>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>1</v>
+      </c>
+      <c r="J389" t="n">
+        <v>1</v>
+      </c>
+      <c r="K389" t="n">
+        <v>2</v>
+      </c>
+      <c r="L389" t="n">
+        <v>2</v>
+      </c>
+      <c r="M389" t="n">
+        <v>1</v>
+      </c>
+      <c r="N389" t="n">
+        <v>3</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>['6', '63']</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q389" t="n">
         <v>5</v>
       </c>
-      <c r="BG387" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH387" t="n">
+      <c r="R389" t="n">
+        <v>7</v>
+      </c>
+      <c r="S389" t="n">
+        <v>12</v>
+      </c>
+      <c r="T389" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U389" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V389" t="n">
+        <v>6</v>
+      </c>
+      <c r="W389" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X389" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB389" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC389" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD389" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE389" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="AF389" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG389" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH389" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI389" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ389" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK389" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL389" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM389" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN389" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP389" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ389" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR389" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS389" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT389" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU389" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV389" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW389" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX389" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY389" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ389" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BA389" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB389" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC389" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD389" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE389" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF389" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG389" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH389" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI389" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ389" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK389" t="n">
         <v>4</v>
       </c>
-      <c r="BI387" t="n">
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2604831</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="n">
+        <v>45031.5625</v>
+      </c>
+      <c r="F390" t="n">
+        <v>36</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>3</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>3</v>
+      </c>
+      <c r="L390" t="n">
+        <v>4</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1</v>
+      </c>
+      <c r="N390" t="n">
         <v>5</v>
       </c>
-      <c r="BJ387" t="n">
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>['20', '26', '45+2', '61']</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q390" t="n">
+        <v>7</v>
+      </c>
+      <c r="R390" t="n">
+        <v>1</v>
+      </c>
+      <c r="S390" t="n">
+        <v>8</v>
+      </c>
+      <c r="T390" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U390" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V390" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W390" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X390" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB390" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC390" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD390" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE390" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF390" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG390" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH390" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI390" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ390" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK390" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL390" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM390" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN390" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO390" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP390" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ390" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR390" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS390" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT390" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU390" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV390" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW390" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC390" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD390" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE390" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF390" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG390" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH390" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI390" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ390" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK390" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2604822</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E391" s="2" t="n">
+        <v>45031.66666666666</v>
+      </c>
+      <c r="F391" t="n">
+        <v>36</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>1</v>
+      </c>
+      <c r="K391" t="n">
+        <v>1</v>
+      </c>
+      <c r="L391" t="n">
+        <v>2</v>
+      </c>
+      <c r="M391" t="n">
+        <v>2</v>
+      </c>
+      <c r="N391" t="n">
+        <v>4</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>['50', '69']</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>['41', '90']</t>
+        </is>
+      </c>
+      <c r="Q391" t="n">
+        <v>5</v>
+      </c>
+      <c r="R391" t="n">
+        <v>4</v>
+      </c>
+      <c r="S391" t="n">
         <v>9</v>
       </c>
-      <c r="BK387" t="n">
+      <c r="T391" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U391" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V391" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W391" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X391" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG391" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH391" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI391" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ391" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AK391" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL391" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM391" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN391" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO391" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP391" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ391" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR391" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS391" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT391" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU391" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV391" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW391" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX391" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY391" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ391" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA391" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB391" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC391" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD391" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE391" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF391" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG391" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH391" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI391" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ391" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK391" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2604821</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="n">
+        <v>45032.375</v>
+      </c>
+      <c r="F392" t="n">
+        <v>36</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>1</v>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>1</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q392" t="n">
+        <v>3</v>
+      </c>
+      <c r="R392" t="n">
+        <v>3</v>
+      </c>
+      <c r="S392" t="n">
+        <v>6</v>
+      </c>
+      <c r="T392" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U392" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V392" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="W392" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X392" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG392" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH392" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI392" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ392" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK392" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL392" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AM392" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN392" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO392" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP392" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ392" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR392" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS392" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT392" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU392" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV392" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW392" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX392" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY392" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ392" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BA392" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB392" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC392" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD392" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE392" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF392" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG392" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH392" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI392" t="n">
         <v>5</v>
+      </c>
+      <c r="BJ392" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK392" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2604827</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="n">
+        <v>45032.46875</v>
+      </c>
+      <c r="F393" t="n">
+        <v>36</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q393" t="n">
+        <v>4</v>
+      </c>
+      <c r="R393" t="n">
+        <v>5</v>
+      </c>
+      <c r="S393" t="n">
+        <v>9</v>
+      </c>
+      <c r="T393" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U393" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V393" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W393" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X393" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG393" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH393" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI393" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ393" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK393" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL393" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM393" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN393" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO393" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP393" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ393" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR393" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS393" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT393" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU393" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV393" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW393" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX393" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY393" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ393" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA393" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB393" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC393" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD393" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE393" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF393" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG393" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH393" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI393" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ393" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK393" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2604828</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E394" s="2" t="n">
+        <v>45032.5625</v>
+      </c>
+      <c r="F394" t="n">
+        <v>36</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="n">
+        <v>1</v>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>1</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q394" t="n">
+        <v>3</v>
+      </c>
+      <c r="R394" t="n">
+        <v>4</v>
+      </c>
+      <c r="S394" t="n">
+        <v>7</v>
+      </c>
+      <c r="T394" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U394" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V394" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W394" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X394" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG394" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH394" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ394" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK394" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL394" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM394" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN394" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO394" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP394" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ394" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR394" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS394" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT394" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU394" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV394" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW394" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX394" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY394" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ394" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA394" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB394" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC394" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD394" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE394" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF394" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG394" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH394" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI394" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ394" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK394" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2604829</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E395" s="2" t="n">
+        <v>45032.5625</v>
+      </c>
+      <c r="F395" t="n">
+        <v>36</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>2</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="n">
+        <v>2</v>
+      </c>
+      <c r="L395" t="n">
+        <v>4</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>4</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>['13', '25', '70', '84']</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q395" t="n">
+        <v>4</v>
+      </c>
+      <c r="R395" t="n">
+        <v>2</v>
+      </c>
+      <c r="S395" t="n">
+        <v>6</v>
+      </c>
+      <c r="T395" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U395" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V395" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W395" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X395" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB395" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC395" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD395" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE395" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF395" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG395" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH395" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI395" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ395" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK395" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL395" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM395" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN395" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO395" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP395" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ395" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR395" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS395" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT395" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU395" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV395" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW395" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX395" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY395" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ395" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA395" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB395" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC395" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD395" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE395" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF395" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG395" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH395" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI395" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ395" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK395" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2604824</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E396" s="2" t="n">
+        <v>45032.66666666666</v>
+      </c>
+      <c r="F396" t="n">
+        <v>36</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>1</v>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>1</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q396" t="n">
+        <v>4</v>
+      </c>
+      <c r="R396" t="n">
+        <v>4</v>
+      </c>
+      <c r="S396" t="n">
+        <v>8</v>
+      </c>
+      <c r="T396" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U396" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V396" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W396" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X396" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB396" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC396" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD396" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE396" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF396" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG396" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH396" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI396" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ396" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK396" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL396" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM396" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN396" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO396" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP396" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ396" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR396" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS396" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT396" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU396" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV396" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW396" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX396" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ396" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA396" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB396" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC396" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD396" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE396" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF396" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG396" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH396" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI396" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ396" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK396" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
